--- a/017 面试题/自测题.xlsx
+++ b/017 面试题/自测题.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gregory.shen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\personal\00-Python\017 面试题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDD30A4-034E-4AA6-9C47-86F3AB6E5A71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B222CE59-BDB9-49D6-994A-3D14D776AAE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EBA19162-432E-4120-84FF-4A199861EA29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EBA19162-432E-4120-84FF-4A199861EA29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="重复" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$277</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$246</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="560">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -1887,6 +1887,10 @@
   </si>
   <si>
     <t>异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2264,11 +2268,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFA4EB6-21EC-4D5A-9A74-93F0368D238F}">
-  <dimension ref="A1:E277"/>
+  <dimension ref="A1:E246"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28:XFD152"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D240" sqref="D240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4046,7 +4050,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145" s="5" t="s">
         <v>378</v>
       </c>
@@ -4060,7 +4064,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146" s="5" t="s">
         <v>378</v>
       </c>
@@ -4074,7 +4078,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147" s="5" t="s">
         <v>378</v>
       </c>
@@ -4088,7 +4092,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B148" s="3" t="s">
         <v>344</v>
       </c>
@@ -4099,7 +4103,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B149" s="3" t="s">
         <v>344</v>
       </c>
@@ -4110,7 +4114,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B150" s="3" t="s">
         <v>344</v>
       </c>
@@ -4121,7 +4125,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B151" s="3" t="s">
         <v>345</v>
       </c>
@@ -4132,7 +4136,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B152" s="3" t="s">
         <v>345</v>
       </c>
@@ -4143,97 +4147,486 @@
         <v>376</v>
       </c>
     </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A155" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D155" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A156" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D156" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A157" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A158" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" t="s">
+        <v>494</v>
+      </c>
+      <c r="E158" s="3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A159" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A160" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A161" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161" t="s">
+        <v>475</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A162" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D162" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A163" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D163" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A164" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D164" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A165" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A166" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D166" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A167" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D167" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A168" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D168" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A169" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D169" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A170" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D170" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A171" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D171" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A172" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D172" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A173" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D173" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A174" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D174" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A175" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D175" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A176" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D176" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A177" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D177" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A178" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D178" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A179" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D179" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A180" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D180" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A181" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D181" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A182" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D182" t="s">
+        <v>410</v>
+      </c>
+    </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A183" s="5" t="s">
-        <v>487</v>
+        <v>1</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>493</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>379</v>
+        <v>97</v>
       </c>
       <c r="D183" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A184" s="5" t="s">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>493</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="D184" t="s">
-        <v>384</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A185" s="5" t="s">
-        <v>472</v>
+        <v>0</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>513</v>
+        <v>213</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="D185" t="s">
-        <v>385</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A186" s="5" t="s">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D186" t="s">
-        <v>496</v>
+        <v>414</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A187" s="5" t="s">
-        <v>504</v>
+        <v>1</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="D187" t="s">
-        <v>386</v>
+        <v>501</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A188" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="D188" t="s">
-        <v>494</v>
-      </c>
-      <c r="E188" s="3">
-        <v>121</v>
+        <v>415</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.15">
@@ -4241,100 +4634,97 @@
         <v>504</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="D189" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A190" s="5" t="s">
-        <v>472</v>
+        <v>0</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="D190" t="s">
-        <v>389</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>541</v>
+        <v>417</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A191" s="5" t="s">
-        <v>504</v>
+        <v>1</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D191" t="s">
-        <v>390</v>
+        <v>497</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A192" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="B192" s="3" t="s">
+        <v>213</v>
+      </c>
       <c r="C192" s="2" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="D192" t="s">
-        <v>475</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>476</v>
+        <v>418</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" s="5" t="s">
-        <v>1</v>
+        <v>504</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D193" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" s="5" t="s">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="D194" t="s">
-        <v>535</v>
+        <v>421</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>482</v>
+        <v>1</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="D195" t="s">
-        <v>534</v>
+        <v>422</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
@@ -4342,13 +4732,13 @@
         <v>0</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>213</v>
+        <v>479</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="D196" t="s">
-        <v>392</v>
+        <v>423</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
@@ -4356,55 +4746,52 @@
         <v>0</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="D197" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="D198" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="D199" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>482</v>
+        <v>1</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="D200" t="s">
-        <v>486</v>
+        <v>427</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
@@ -4412,41 +4799,41 @@
         <v>0</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>506</v>
+        <v>559</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="D201" t="s">
-        <v>397</v>
+        <v>428</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" s="5" t="s">
-        <v>487</v>
+        <v>0</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D202" t="s">
-        <v>489</v>
+        <v>429</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" s="5" t="s">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>493</v>
+        <v>344</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="D203" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
@@ -4454,13 +4841,13 @@
         <v>504</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>213</v>
+        <v>493</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c r="D204" t="s">
-        <v>399</v>
+        <v>431</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
@@ -4468,13 +4855,13 @@
         <v>0</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>484</v>
+        <v>558</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="D205" t="s">
-        <v>490</v>
+        <v>432</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
@@ -4482,271 +4869,262 @@
         <v>0</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>213</v>
+        <v>509</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>380</v>
+        <v>157</v>
       </c>
       <c r="D206" t="s">
-        <v>401</v>
+        <v>433</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="D207" t="s">
-        <v>402</v>
+        <v>434</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B208" s="3" t="s">
-        <v>513</v>
-      </c>
       <c r="C208" s="2" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="D208" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D209" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A210" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D210" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A211" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="B209" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D209" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A210" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D210" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A211" s="5" t="s">
-        <v>0</v>
-      </c>
       <c r="B211" s="3" t="s">
-        <v>213</v>
+        <v>485</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="D211" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.15">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" s="5" t="s">
         <v>487</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>381</v>
+        <v>163</v>
       </c>
       <c r="D212" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.15">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" s="5" t="s">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>382</v>
+        <v>164</v>
       </c>
       <c r="D213" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.15">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" s="5" t="s">
-        <v>1</v>
+        <v>504</v>
       </c>
       <c r="B214" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D214" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A215" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D215" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A216" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D216" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A217" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D217" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A218" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D218" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A219" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D219" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A220" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D220" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A221" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D221" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A222" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D222" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A223" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B223" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D214" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A215" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D215" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A216" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D216" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A217" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B217" s="3" t="s">
+      <c r="C223" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D223" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A224" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B224" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D217" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A218" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D218" t="s">
-        <v>501</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A219" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D219" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A220" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D220" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A221" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D221" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A222" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D222" t="s">
-        <v>497</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A223" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D223" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A224" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>485</v>
-      </c>
       <c r="C224" s="2" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="D224" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.15">
@@ -4757,35 +5135,38 @@
         <v>482</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="D225" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A226" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>482</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="D226" t="s">
-        <v>422</v>
+        <v>451</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A227" s="5" t="s">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="D227" t="s">
-        <v>423</v>
+        <v>546</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
@@ -4793,13 +5174,13 @@
         <v>0</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>484</v>
+        <v>213</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>127</v>
+        <v>185</v>
       </c>
       <c r="D228" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.15">
@@ -4807,144 +5188,153 @@
         <v>1</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="D229" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A230" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="D230" t="s">
-        <v>426</v>
+        <v>471</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A231" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="D231" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A232" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="B232" s="3" t="s">
+        <v>213</v>
+      </c>
       <c r="C232" s="2" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="D232" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A233" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>479</v>
+        <v>512</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="D233" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A234" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>344</v>
+        <v>511</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="D234" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A235" s="5" t="s">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>493</v>
+        <v>213</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="D235" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A236" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>558</v>
+        <v>478</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="D236" t="s">
-        <v>432</v>
+        <v>459</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A237" s="5" t="s">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="D237" t="s">
-        <v>433</v>
+        <v>460</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A238" s="5" t="s">
-        <v>1</v>
+        <v>504</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="D238" t="s">
-        <v>434</v>
+        <v>461</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A239" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>506</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="D239" t="s">
-        <v>116</v>
+        <v>462</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.15">
@@ -4952,530 +5342,96 @@
         <v>0</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="D240" t="s">
-        <v>435</v>
+        <v>463</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241" s="5" t="s">
-        <v>516</v>
+        <v>0</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>161</v>
+        <v>219</v>
       </c>
       <c r="D241" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242" s="5" t="s">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="D242" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243" s="5" t="s">
-        <v>487</v>
+        <v>0</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>506</v>
+        <v>479</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="D243" t="s">
-        <v>507</v>
+        <v>466</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244" s="5" t="s">
-        <v>504</v>
+        <v>1</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>484</v>
+        <v>512</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="D244" t="s">
-        <v>438</v>
+        <v>467</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245" s="5" t="s">
-        <v>504</v>
+        <v>1</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>484</v>
+        <v>344</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="D245" t="s">
-        <v>439</v>
+        <v>468</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246" s="5" t="s">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>484</v>
+        <v>213</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="D246" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A247" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D247" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A248" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="B248" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D248" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A249" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D249" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A250" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="B250" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D250" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A251" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D251" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A252" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D252" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A253" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B253" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D253" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A254" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D254" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A255" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D255" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A256" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B256" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D256" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A257" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B257" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D257" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A258" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="B258" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D258" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A259" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B259" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D259" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A260" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D260" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A261" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D261" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A262" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D262" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A263" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D263" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A264" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B264" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D264" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A265" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D265" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A266" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D266" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A267" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B267" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D267" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A268" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="B268" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D268" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A269" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="B269" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D269" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A270" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D270" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A271" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B271" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D271" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A272" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B272" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D272" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A273" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D273" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A274" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B274" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D274" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A275" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B275" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D275" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A276" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B276" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D276" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A277" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D277" t="s">
         <v>469</v>
       </c>
     </row>
@@ -5488,11 +5444,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A58614C-555F-4C88-988E-593537472B56}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5959,6 +5915,40 @@
       </c>
       <c r="E30" s="3"/>
     </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>384</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>385</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
         <v>472</v>
@@ -5978,20 +5968,18 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>472</v>
+        <v>378</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>493</v>
+        <v>527</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>406</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>551</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
@@ -6001,13 +5989,13 @@
         <v>493</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
@@ -6093,49 +6081,51 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
-        <v>378</v>
+        <v>472</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>528</v>
+        <v>493</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D59" t="s">
-        <v>408</v>
-      </c>
-      <c r="E59" s="3"/>
+        <v>406</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>472</v>
+        <v>378</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="D60" t="s">
-        <v>420</v>
-      </c>
-      <c r="E60" s="3">
-        <v>134</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="B61" s="3"/>
+      <c r="B61" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="C61" s="2" t="s">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="D61" t="s">
-        <v>524</v>
-      </c>
-      <c r="E61" s="3">
-        <v>120</v>
+        <v>411</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
@@ -6143,62 +6133,79 @@
         <v>472</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="D62" t="s">
-        <v>543</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>544</v>
+        <v>420</v>
+      </c>
+      <c r="E62" s="3">
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>478</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="B63" s="3"/>
       <c r="C63" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="D63" t="s">
-        <v>548</v>
-      </c>
-      <c r="E63" s="3"/>
+        <v>524</v>
+      </c>
+      <c r="E63" s="3">
+        <v>120</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
-        <v>378</v>
+        <v>472</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D64" t="s">
-        <v>547</v>
-      </c>
-      <c r="E64" s="3"/>
+        <v>543</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
         <v>378</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>527</v>
+        <v>478</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>186</v>
       </c>
       <c r="D65" t="s">
-        <v>387</v>
+        <v>548</v>
       </c>
       <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D66" t="s">
+        <v>547</v>
+      </c>
+      <c r="E66" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/017 面试题/自测题.xlsx
+++ b/017 面试题/自测题.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\personal\00-Python\017 面试题\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D23F50-2704-4EB8-8B80-E9F192346862}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="18380"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="539">
   <si>
     <t>类型</t>
   </si>
@@ -949,731 +955,726 @@
     <t>git 如何查看某次提交修改的内容</t>
   </si>
   <si>
+    <t>重点在 sum 可以接受一个可迭代对象并迭代求和</t>
+  </si>
+  <si>
+    <t xml:space="preserve">** </t>
+  </si>
+  <si>
+    <t>字典如何删除键和合并两个字典</t>
+  </si>
+  <si>
+    <t>Python 实现列表去重的方法</t>
+  </si>
+  <si>
+    <t>一句话解释什么样的语言能够用装饰器?</t>
+  </si>
+  <si>
+    <t>简述面向对象中__new__和__init__区别</t>
+  </si>
+  <si>
+    <t>给了一个区别，但是跟我之前想的不一样</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>列表[1,2,3,4,5],请使用map()函数输出[1,4,9,16,25]，并使用列表推导式提取出大于10的数，最终输出[16,25]</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>Python 中生成随机整数、随机小数、0-1之间小数方法</t>
+  </si>
+  <si>
+    <t>生成随机小数的方法不会，应该记住</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>&lt;div class="nam"&gt;中国&lt;/div&gt;，用正则匹配出标签里面的内容（"中国"），其中class 的类名是不确定的</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>数据表student有id,name,score,city字段，其中name中的名字可有重复，需要消除重复行,请写sql语句</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>10个Linux常用命令</t>
+  </si>
+  <si>
+    <t>s = "ajldjlajfdljfddd"，去重并从小到大排序输出"adfjl"</t>
+  </si>
+  <si>
+    <t>用lambda函数实现两个数相乘</t>
+  </si>
+  <si>
+    <t>字典根据键从小到大排序 dic={"name":"zs","age":18,"city":"深圳","tel":"1362626627"}</t>
+  </si>
+  <si>
+    <t>利用collections库的Counter方法统计字符串每个单词出现的次数"kjalfj;ldsjafl;hdsllfdhg;lahfbl;hl;ahlf;h"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">字符串a = "not 404 found 张三 99 深圳"，每个词中间是空格，用正则过滤掉英文和数字，最终输出"张三 深圳"  </t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>列表推导式求列表所有奇数并构造新列表，a = [1, 2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>正则re.complie作用</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>a=（1，）b=(1)，c=("1") 分别是什么类型的数据？</t>
+  </si>
+  <si>
+    <t>用python删除文件和用linux命令删除文件方法</t>
+  </si>
+  <si>
+    <t>log日志中，我们需要用时间戳记录error,warning等的发生时间，请用datetime模块打印当前时间戳 “2018-04-01 11:38:54”</t>
+  </si>
+  <si>
+    <t>数据库优化查询方法</t>
+  </si>
+  <si>
+    <t>正则表达式匹配中，（.*）和（.*?）匹配区别？</t>
+  </si>
+  <si>
+    <t>x="abc",y="def",z=["d","e","f"],分别求出x.join(y)和x.join(z)返回的结果</t>
+  </si>
+  <si>
+    <t>python中交换两个数值</t>
+  </si>
+  <si>
+    <t>举例说明zip（）函数用法</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>a="张明 98分"，用re.sub，将98替换为100</t>
+  </si>
+  <si>
+    <t>写5条常用sql语句</t>
+  </si>
+  <si>
+    <t>a="hello"和b="你好"编码成bytes类型</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>[1,2,3]+[4,5,6]的结果是多少？</t>
+  </si>
+  <si>
+    <t>提高python运行效率的方法</t>
+  </si>
+  <si>
+    <t>简述mysql和redis区别</t>
+  </si>
+  <si>
+    <t>正则匹配，匹配日期2018-03-20</t>
+  </si>
+  <si>
+    <t>list=[2,3,5,4,9,6]，从小到大排序，不许用sort，输出[2,3,4,5,6,9]</t>
+  </si>
+  <si>
+    <t>a="%.03f"%1.3335,让计算a的结果保留两位小数</t>
+  </si>
+  <si>
+    <t>求三个方法打印结果</t>
+  </si>
+  <si>
+    <t>列出常见的状态码和意义</t>
+  </si>
+  <si>
+    <t>分别从前端、后端、数据库阐述web项目的性能优化</t>
+  </si>
+  <si>
+    <t>使用pop和del删除字典中的"name"字段，dic={"name":"zs","age":18}</t>
+  </si>
+  <si>
+    <t>列出常见MYSQL数据存储引擎</t>
+  </si>
+  <si>
+    <t>计算代码运行结果，得出[("a",1),("b",2)，("c",3),("d",4),("e",5)]</t>
+  </si>
+  <si>
+    <t>简述同源策略</t>
+  </si>
+  <si>
+    <t>简述cookie和session的区别</t>
+  </si>
+  <si>
+    <t>简述多线程、多进程</t>
+  </si>
+  <si>
+    <t>IOError、AttributeError、ImportError、IndentationError、IndexError、KeyError、SyntaxError、NameError分别代表什么异常</t>
+  </si>
+  <si>
+    <t>068</t>
+  </si>
+  <si>
+    <t>C:\Users\ry-wu.junya\Desktop&gt;python 1.py 22 33命令行启动程序并传参，print(sys.argv)</t>
+  </si>
+  <si>
+    <t>a = " hehheh ",去除头尾空格</t>
+  </si>
+  <si>
+    <t>071</t>
+  </si>
+  <si>
+    <t>举例sort和sorted对列表排序，list=[0,-1,3,-10,5,9]</t>
+  </si>
+  <si>
+    <t>072</t>
+  </si>
+  <si>
+    <t>对list排序foo = [-5,8,0,4,9,-4,-20,-2,8,2,-4],使用lambda函数从小到大排序</t>
+  </si>
+  <si>
+    <t>073</t>
+  </si>
+  <si>
+    <t>使用lambda函数对list排序 foo = [-5,8,0,4,9,-4,-20,-2,8,2,-4]，输出结果为 [0,2,4,8,8,9,-2,-4,-4,-5,-20]，正数从小到大，负数从大到小</t>
+  </si>
+  <si>
+    <t>列表嵌套字典的排序，分别根据年龄和姓名排序 foo = [{"name":"zs","age":19},{"name":"ll","age":54}, {"name":"wa","age":17},{"name":"df","age":23}]</t>
+  </si>
+  <si>
+    <t>075</t>
+  </si>
+  <si>
+    <t>列表嵌套元组，分别按字母和数字排序</t>
+  </si>
+  <si>
+    <t>列表嵌套列表排序，年龄数字相同怎么办？</t>
+  </si>
+  <si>
+    <t>077</t>
+  </si>
+  <si>
+    <t>根据键对字典排序（方法一，zip函数）</t>
+  </si>
+  <si>
+    <t>078</t>
+  </si>
+  <si>
+    <t>根据键对字典排序（方法二,不用zip)</t>
+  </si>
+  <si>
+    <t>079</t>
+  </si>
+  <si>
+    <t>列表推导式、字典推导式、生成器</t>
+  </si>
+  <si>
+    <t>最后出一道检验题目，根据字符串长度排序，看排序是否灵活运用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* </t>
+  </si>
+  <si>
+    <t>081</t>
+  </si>
+  <si>
+    <t>举例说明 SQL 注入和解决办法</t>
+  </si>
+  <si>
+    <t>正则匹配以http://163.com结尾的邮箱</t>
+  </si>
+  <si>
+    <t>递归完成1+2+3+...+10求和</t>
+  </si>
+  <si>
+    <t>MyISAM 与 InnoDB 区别</t>
+  </si>
+  <si>
+    <t>087</t>
+  </si>
+  <si>
+    <t>统计字符串中某字符出现次数</t>
+  </si>
+  <si>
+    <t>字符串转化大小写</t>
+  </si>
+  <si>
+    <t>用两种方法去空格</t>
+  </si>
+  <si>
+    <t>090</t>
+  </si>
+  <si>
+    <t>正则匹配不是以4和7结尾的手机号</t>
+  </si>
+  <si>
+    <t>092</t>
+  </si>
+  <si>
+    <t>int("1.4"),int(1.4)输出结果？</t>
+  </si>
+  <si>
+    <t>列举3条以上PEP8编码规范</t>
+  </si>
+  <si>
+    <t>正则表达式匹配第一个URL</t>
+  </si>
+  <si>
+    <t>095</t>
+  </si>
+  <si>
+    <t>正则匹配中文</t>
+  </si>
+  <si>
+    <t>097</t>
+  </si>
+  <si>
+    <t>r、r+、rb、rb+文件打开模式区别</t>
+  </si>
+  <si>
+    <t>Linux命令重定向 &gt; 和 &gt;&gt;</t>
+  </si>
+  <si>
+    <t>正则表达式匹配出&lt;html&gt;&lt;h1&gt;http://www.itcast.cn&lt;/h1&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>求两个列表的交集、差集、并集</t>
+  </si>
+  <si>
+    <t>生成0-100的随机数</t>
+  </si>
+  <si>
+    <t>常见的网络传输协议</t>
+  </si>
+  <si>
+    <t>单引号、双引号、三引号用法</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>HTTP请求中get和post区别</t>
+  </si>
+  <si>
+    <t>python中读取Excel文件的方法</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>python正则中search和match</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Python 的解释器种类以及相关特点？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N  </t>
+  </si>
+  <si>
+    <t>说说你知道的Python3 和 Python2 之间的区别？</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>Python3 和 Python2 中 int 和 long 区别？</t>
+  </si>
+  <si>
+    <t>xrange 和 range 的区别？</t>
+  </si>
+  <si>
+    <t>了解 Python 之禅么？</t>
+  </si>
+  <si>
+    <t>例举几个规范 Python 代码风格的工具</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>列举 Python 中的基本数据类型？</t>
+  </si>
+  <si>
+    <t>如何区别可变数据类型和不可变数据类型</t>
+  </si>
+  <si>
+    <t>合并列表[1,5,7,9]和[2,2,6,8]</t>
+  </si>
+  <si>
+    <t>a="hello"和 b="你好"编码成 bytes 类型</t>
+  </si>
+  <si>
+    <t>with 语句的作用，写一段代码？</t>
+  </si>
+  <si>
+    <t>请写一段 Python连接 Mongo 数据库，然后的查询代码。</t>
+  </si>
+  <si>
+    <t>说一说 Redis 的基本类型。</t>
+  </si>
+  <si>
+    <t>请写一段 Python连接 Redis 数据库的代码。</t>
+  </si>
+  <si>
+    <t>了解 Redis 的事务么？</t>
+  </si>
+  <si>
+    <t>了解分布式锁么？</t>
+  </si>
+  <si>
+    <t>用 Python 实现一个 Reids 的分布式锁的功能。</t>
+  </si>
+  <si>
+    <t>写一段 Python 使用 Mongo 数据库创建索引的代码。</t>
+  </si>
+  <si>
+    <t>Python 垃圾回收机制？</t>
+  </si>
+  <si>
+    <t>metaclass 作用？以及应用场景？</t>
+  </si>
+  <si>
+    <t>如何知道一个 Python 对象的类型？</t>
+  </si>
+  <si>
+    <t>直接使用 type 判断, 太简单了, 觉得不会考</t>
+  </si>
+  <si>
+    <t>Python 中的元类(metaclass)使用举例</t>
+  </si>
+  <si>
+    <t>什么是猴子补丁？</t>
+  </si>
+  <si>
+    <t>096</t>
+  </si>
+  <si>
+    <t>在 Python 中是如何管理内存的？</t>
+  </si>
+  <si>
+    <t>当退出 Python 时是否释放所有内存分配？</t>
+  </si>
+  <si>
+    <t>列举 5 个 Python 中的标准模块</t>
+  </si>
+  <si>
+    <t>pathlib 的用法举例</t>
+  </si>
+  <si>
+    <t>感觉不会问</t>
+  </si>
+  <si>
+    <t>Python 中的异常处理，写一个简单的应用场景</t>
+  </si>
+  <si>
+    <t>与009重复</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>Python 中递归的最大次数，那如何突破呢？</t>
+  </si>
+  <si>
+    <t>注意审题, 这题并不是说的尾递归优化</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>什么是面向对象的 mro</t>
+  </si>
+  <si>
+    <t>觉得不会考，太深入了</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>新式类和旧式类的区别</t>
+  </si>
+  <si>
+    <t>觉得不会考, 虽然里面有我不知道的点, 但是现在基本都是Python3了, 除非公司里有遗留的2的代码, 否则不需要去了解和2的区别</t>
+  </si>
+  <si>
+    <t>其他内容</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>一个包里有三个模块，demo1.py, demo2.py, demo3.py，但使用 from tools import *导入模块时，如何保证只有 demo1、demo3 被导入了。</t>
+  </si>
+  <si>
+    <t>虽然是一个不知道的知识点, 但觉得不会考, 因为根据PEP8的标准, 我们应当尽量避免 from tools import * 这种写法, 具体可参考026的答案</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>解释一下 Python 中的赋值运算符</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>解释一下 Python 中的逻辑运算符</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>讲讲 Python 中的位运算符</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>在 Python 中如何使用多进制数字？</t>
+  </si>
+  <si>
+    <t>从来没见过用到这个的, 赌一把不会考</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>写一个拓扑排序</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>单链表反转</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>交叉链表求交点</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>用队列实现栈</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>二叉搜索树中第 K 小的元素</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>简要写一下 lxml 模块的使用方法框架</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>说一说 scrapy 的工作流程</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>scrapy 的去重原理</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>scrapy 中间件有几种类，你用过哪些中间件</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>你写爬虫的时候都遇到过什么？反爬虫措施，你是怎么解决的？</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>为什么会用到代理？</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>代理失效了怎么处理？</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>scrapy 和 scrapy-redis 有什么区别？为什么选择 redis 数据库？</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>分布式爬虫主要解决什么问题</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>写爬虫是用多进程好？还是多线程好？ 为什么？</t>
+  </si>
+  <si>
+    <t>网络编程</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>什么是粘包？ socket 中造成粘包的原因是什么？ 哪些情况会发生粘包现象？</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>举例说明 conccurent.future 的中线程池的用法</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>IO 多路复用的作用？</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>select、poll、epoll 模型的区别？</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>什么是并发和并行？</t>
+  </si>
+  <si>
+    <t>如何在一个函数内部修改全局变量</t>
+  </si>
+  <si>
+    <t>列出5个 Python 标准库</t>
+  </si>
+  <si>
+    <t>谈下 Python 的 GIL</t>
+  </si>
+  <si>
+    <t>fun(*args,**kwargs)中的*args,**kwargs什么意思?</t>
+  </si>
+  <si>
+    <t>版本</t>
+  </si>
+  <si>
+    <t>python2和python3的range（100）的区别</t>
+  </si>
+  <si>
+    <t>python内建数据类型有哪些</t>
+  </si>
+  <si>
+    <t>简述with方法打开处理文件帮我我们做了什么？</t>
+  </si>
+  <si>
+    <t>避免转义给字符串加哪个字母表示原始字符串</t>
+  </si>
+  <si>
+    <t>感觉太简单了，不会考</t>
+  </si>
+  <si>
+    <t>python中断言方法举例</t>
+  </si>
+  <si>
+    <t>python2和python3区别？列举5个</t>
+  </si>
+  <si>
+    <t>列出python中可变数据类型和不可变数据类型，并简述原理</t>
+  </si>
+  <si>
+    <t>高阶</t>
+  </si>
+  <si>
+    <t>filter方法求出列表所有奇数并构造新列表，a = [1, 2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
+  </si>
+  <si>
+    <t>两个列表[1,5,7,9]和[2,2,6,8]合并为[1,2,2,3,6,7,8,9]</t>
+  </si>
+  <si>
+    <t>请列出你会的任意一种统计图（条形图、折线图等）绘制的开源库，第三方也行</t>
+  </si>
+  <si>
+    <t>框架</t>
+  </si>
+  <si>
+    <t>简述Django的orm</t>
+  </si>
+  <si>
+    <t>举例说明异常模块中try except else finally的相关意义</t>
+  </si>
+  <si>
+    <t>写一个单列模式</t>
+  </si>
+  <si>
+    <t>简述any()和all()方法</t>
+  </si>
+  <si>
+    <t>列出几种魔法方法并简要介绍用途</t>
+  </si>
+  <si>
+    <t>python中copy和deepcopy区别</t>
+  </si>
+  <si>
+    <t>s="info:xiaoZhang 33 shandong",用正则切分字符串输出['info', 'xiaoZhang', '33', 'shandong']</t>
+  </si>
+  <si>
+    <t>简述python引用计数机制</t>
+  </si>
+  <si>
+    <t>简述乐观锁和悲观锁</t>
+  </si>
+  <si>
+    <t>python传参数是传值还是传址？</t>
+  </si>
+  <si>
+    <t>lambda匿名函数好处</t>
+  </si>
+  <si>
+    <t>python垃圾回收机制</t>
+  </si>
+  <si>
     <t>一行代码实现1--100之和</t>
-  </si>
-  <si>
-    <t>重点在 sum 可以接受一个可迭代对象并迭代求和</t>
-  </si>
-  <si>
-    <t xml:space="preserve">** </t>
-  </si>
-  <si>
-    <t>字典如何删除键和合并两个字典</t>
-  </si>
-  <si>
-    <t>Python 实现列表去重的方法</t>
-  </si>
-  <si>
-    <t>一句话解释什么样的语言能够用装饰器?</t>
-  </si>
-  <si>
-    <t>简述面向对象中__new__和__init__区别</t>
-  </si>
-  <si>
-    <t>给了一个区别，但是跟我之前想的不一样</t>
-  </si>
-  <si>
-    <t>013</t>
-  </si>
-  <si>
-    <t>列表[1,2,3,4,5],请使用map()函数输出[1,4,9,16,25]，并使用列表推导式提取出大于10的数，最终输出[16,25]</t>
-  </si>
-  <si>
-    <t>014</t>
-  </si>
-  <si>
-    <t>Python 中生成随机整数、随机小数、0-1之间小数方法</t>
-  </si>
-  <si>
-    <t>生成随机小数的方法不会，应该记住</t>
-  </si>
-  <si>
-    <t>016</t>
-  </si>
-  <si>
-    <t>&lt;div class="nam"&gt;中国&lt;/div&gt;，用正则匹配出标签里面的内容（"中国"），其中class 的类名是不确定的</t>
-  </si>
-  <si>
-    <t>018</t>
-  </si>
-  <si>
-    <t>数据表student有id,name,score,city字段，其中name中的名字可有重复，需要消除重复行,请写sql语句</t>
-  </si>
-  <si>
-    <t>Linux</t>
-  </si>
-  <si>
-    <t>10个Linux常用命令</t>
-  </si>
-  <si>
-    <t>s = "ajldjlajfdljfddd"，去重并从小到大排序输出"adfjl"</t>
-  </si>
-  <si>
-    <t>用lambda函数实现两个数相乘</t>
-  </si>
-  <si>
-    <t>字典根据键从小到大排序 dic={"name":"zs","age":18,"city":"深圳","tel":"1362626627"}</t>
-  </si>
-  <si>
-    <t>利用collections库的Counter方法统计字符串每个单词出现的次数"kjalfj;ldsjafl;hdsllfdhg;lahfbl;hl;ahlf;h"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">字符串a = "not 404 found 张三 99 深圳"，每个词中间是空格，用正则过滤掉英文和数字，最终输出"张三 深圳"  </t>
-  </si>
-  <si>
-    <t>028</t>
-  </si>
-  <si>
-    <t>列表推导式求列表所有奇数并构造新列表，a = [1, 2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
-  </si>
-  <si>
-    <t>029</t>
-  </si>
-  <si>
-    <t>正则re.complie作用</t>
-  </si>
-  <si>
-    <t>030</t>
-  </si>
-  <si>
-    <t>a=（1，）b=(1)，c=("1") 分别是什么类型的数据？</t>
-  </si>
-  <si>
-    <t>用python删除文件和用linux命令删除文件方法</t>
-  </si>
-  <si>
-    <t>log日志中，我们需要用时间戳记录error,warning等的发生时间，请用datetime模块打印当前时间戳 “2018-04-01 11:38:54”</t>
-  </si>
-  <si>
-    <t>数据库优化查询方法</t>
-  </si>
-  <si>
-    <t>正则表达式匹配中，（.*）和（.*?）匹配区别？</t>
-  </si>
-  <si>
-    <t>x="abc",y="def",z=["d","e","f"],分别求出x.join(y)和x.join(z)返回的结果</t>
-  </si>
-  <si>
-    <t>python中交换两个数值</t>
-  </si>
-  <si>
-    <t>举例说明zip（）函数用法</t>
-  </si>
-  <si>
-    <t>044</t>
-  </si>
-  <si>
-    <t>a="张明 98分"，用re.sub，将98替换为100</t>
-  </si>
-  <si>
-    <t>写5条常用sql语句</t>
-  </si>
-  <si>
-    <t>a="hello"和b="你好"编码成bytes类型</t>
-  </si>
-  <si>
-    <t>056</t>
-  </si>
-  <si>
-    <t>[1,2,3]+[4,5,6]的结果是多少？</t>
-  </si>
-  <si>
-    <t>提高python运行效率的方法</t>
-  </si>
-  <si>
-    <t>简述mysql和redis区别</t>
-  </si>
-  <si>
-    <t>正则匹配，匹配日期2018-03-20</t>
-  </si>
-  <si>
-    <t>list=[2,3,5,4,9,6]，从小到大排序，不许用sort，输出[2,3,4,5,6,9]</t>
-  </si>
-  <si>
-    <t>a="%.03f"%1.3335,让计算a的结果保留两位小数</t>
-  </si>
-  <si>
-    <t>求三个方法打印结果</t>
-  </si>
-  <si>
-    <t>列出常见的状态码和意义</t>
-  </si>
-  <si>
-    <t>分别从前端、后端、数据库阐述web项目的性能优化</t>
-  </si>
-  <si>
-    <t>使用pop和del删除字典中的"name"字段，dic={"name":"zs","age":18}</t>
-  </si>
-  <si>
-    <t>列出常见MYSQL数据存储引擎</t>
-  </si>
-  <si>
-    <t>计算代码运行结果，得出[("a",1),("b",2)，("c",3),("d",4),("e",5)]</t>
-  </si>
-  <si>
-    <t>简述同源策略</t>
-  </si>
-  <si>
-    <t>简述cookie和session的区别</t>
-  </si>
-  <si>
-    <t>简述多线程、多进程</t>
-  </si>
-  <si>
-    <t>IOError、AttributeError、ImportError、IndentationError、IndexError、KeyError、SyntaxError、NameError分别代表什么异常</t>
-  </si>
-  <si>
-    <t>068</t>
-  </si>
-  <si>
-    <t>C:\Users\ry-wu.junya\Desktop&gt;python 1.py 22 33命令行启动程序并传参，print(sys.argv)</t>
-  </si>
-  <si>
-    <t>a = " hehheh ",去除头尾空格</t>
-  </si>
-  <si>
-    <t>071</t>
-  </si>
-  <si>
-    <t>举例sort和sorted对列表排序，list=[0,-1,3,-10,5,9]</t>
-  </si>
-  <si>
-    <t>072</t>
-  </si>
-  <si>
-    <t>对list排序foo = [-5,8,0,4,9,-4,-20,-2,8,2,-4],使用lambda函数从小到大排序</t>
-  </si>
-  <si>
-    <t>073</t>
-  </si>
-  <si>
-    <t>使用lambda函数对list排序 foo = [-5,8,0,4,9,-4,-20,-2,8,2,-4]，输出结果为 [0,2,4,8,8,9,-2,-4,-4,-5,-20]，正数从小到大，负数从大到小</t>
-  </si>
-  <si>
-    <t>列表嵌套字典的排序，分别根据年龄和姓名排序 foo = [{"name":"zs","age":19},{"name":"ll","age":54}, {"name":"wa","age":17},{"name":"df","age":23}]</t>
-  </si>
-  <si>
-    <t>075</t>
-  </si>
-  <si>
-    <t>列表嵌套元组，分别按字母和数字排序</t>
-  </si>
-  <si>
-    <t>列表嵌套列表排序，年龄数字相同怎么办？</t>
-  </si>
-  <si>
-    <t>077</t>
-  </si>
-  <si>
-    <t>根据键对字典排序（方法一，zip函数）</t>
-  </si>
-  <si>
-    <t>078</t>
-  </si>
-  <si>
-    <t>根据键对字典排序（方法二,不用zip)</t>
-  </si>
-  <si>
-    <t>079</t>
-  </si>
-  <si>
-    <t>列表推导式、字典推导式、生成器</t>
-  </si>
-  <si>
-    <t>最后出一道检验题目，根据字符串长度排序，看排序是否灵活运用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* </t>
-  </si>
-  <si>
-    <t>081</t>
-  </si>
-  <si>
-    <t>举例说明 SQL 注入和解决办法</t>
-  </si>
-  <si>
-    <t>正则匹配以http://163.com结尾的邮箱</t>
-  </si>
-  <si>
-    <t>递归完成1+2+3+...+10求和</t>
-  </si>
-  <si>
-    <t>MyISAM 与 InnoDB 区别</t>
-  </si>
-  <si>
-    <t>087</t>
-  </si>
-  <si>
-    <t>统计字符串中某字符出现次数</t>
-  </si>
-  <si>
-    <t>字符串转化大小写</t>
-  </si>
-  <si>
-    <t>用两种方法去空格</t>
-  </si>
-  <si>
-    <t>090</t>
-  </si>
-  <si>
-    <t>正则匹配不是以4和7结尾的手机号</t>
-  </si>
-  <si>
-    <t>092</t>
-  </si>
-  <si>
-    <t>int("1.4"),int(1.4)输出结果？</t>
-  </si>
-  <si>
-    <t>列举3条以上PEP8编码规范</t>
-  </si>
-  <si>
-    <t>正则表达式匹配第一个URL</t>
-  </si>
-  <si>
-    <t>095</t>
-  </si>
-  <si>
-    <t>正则匹配中文</t>
-  </si>
-  <si>
-    <t>097</t>
-  </si>
-  <si>
-    <t>r、r+、rb、rb+文件打开模式区别</t>
-  </si>
-  <si>
-    <t>Linux命令重定向 &gt; 和 &gt;&gt;</t>
-  </si>
-  <si>
-    <t>正则表达式匹配出&lt;html&gt;&lt;h1&gt;http://www.itcast.cn&lt;/h1&gt;&lt;/html&gt;</t>
-  </si>
-  <si>
-    <t>求两个列表的交集、差集、并集</t>
-  </si>
-  <si>
-    <t>生成0-100的随机数</t>
-  </si>
-  <si>
-    <t>常见的网络传输协议</t>
-  </si>
-  <si>
-    <t>单引号、双引号、三引号用法</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>HTTP请求中get和post区别</t>
-  </si>
-  <si>
-    <t>python中读取Excel文件的方法</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>python正则中search和match</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Python 的解释器种类以及相关特点？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N  </t>
-  </si>
-  <si>
-    <t>说说你知道的Python3 和 Python2 之间的区别？</t>
-  </si>
-  <si>
-    <t>015</t>
-  </si>
-  <si>
-    <t>Python3 和 Python2 中 int 和 long 区别？</t>
-  </si>
-  <si>
-    <t>xrange 和 range 的区别？</t>
-  </si>
-  <si>
-    <t>了解 Python 之禅么？</t>
-  </si>
-  <si>
-    <t>例举几个规范 Python 代码风格的工具</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>列举 Python 中的基本数据类型？</t>
-  </si>
-  <si>
-    <t>如何区别可变数据类型和不可变数据类型</t>
-  </si>
-  <si>
-    <t>合并列表[1,5,7,9]和[2,2,6,8]</t>
-  </si>
-  <si>
-    <t>a="hello"和 b="你好"编码成 bytes 类型</t>
-  </si>
-  <si>
-    <t>with 语句的作用，写一段代码？</t>
-  </si>
-  <si>
-    <t>请写一段 Python连接 Mongo 数据库，然后的查询代码。</t>
-  </si>
-  <si>
-    <t>说一说 Redis 的基本类型。</t>
-  </si>
-  <si>
-    <t>请写一段 Python连接 Redis 数据库的代码。</t>
-  </si>
-  <si>
-    <t>了解 Redis 的事务么？</t>
-  </si>
-  <si>
-    <t>了解分布式锁么？</t>
-  </si>
-  <si>
-    <t>用 Python 实现一个 Reids 的分布式锁的功能。</t>
-  </si>
-  <si>
-    <t>写一段 Python 使用 Mongo 数据库创建索引的代码。</t>
-  </si>
-  <si>
-    <t>Python 垃圾回收机制？</t>
-  </si>
-  <si>
-    <t>metaclass 作用？以及应用场景？</t>
-  </si>
-  <si>
-    <t>如何知道一个 Python 对象的类型？</t>
-  </si>
-  <si>
-    <t>直接使用 type 判断, 太简单了, 觉得不会考</t>
-  </si>
-  <si>
-    <t>Python 中的元类(metaclass)使用举例</t>
-  </si>
-  <si>
-    <t>什么是猴子补丁？</t>
-  </si>
-  <si>
-    <t>096</t>
-  </si>
-  <si>
-    <t>在 Python 中是如何管理内存的？</t>
-  </si>
-  <si>
-    <t>当退出 Python 时是否释放所有内存分配？</t>
-  </si>
-  <si>
-    <t>列举 5 个 Python 中的标准模块</t>
-  </si>
-  <si>
-    <t>pathlib 的用法举例</t>
-  </si>
-  <si>
-    <t>感觉不会问</t>
-  </si>
-  <si>
-    <t>Python 中的异常处理，写一个简单的应用场景</t>
-  </si>
-  <si>
-    <t>与009重复</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>Python 中递归的最大次数，那如何突破呢？</t>
-  </si>
-  <si>
-    <t>注意审题, 这题并不是说的尾递归优化</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>什么是面向对象的 mro</t>
-  </si>
-  <si>
-    <t>觉得不会考，太深入了</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>新式类和旧式类的区别</t>
-  </si>
-  <si>
-    <t>觉得不会考, 虽然里面有我不知道的点, 但是现在基本都是Python3了, 除非公司里有遗留的2的代码, 否则不需要去了解和2的区别</t>
-  </si>
-  <si>
-    <t>其他内容</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>一个包里有三个模块，demo1.py, demo2.py, demo3.py，但使用 from tools import *导入模块时，如何保证只有 demo1、demo3 被导入了。</t>
-  </si>
-  <si>
-    <t>虽然是一个不知道的知识点, 但觉得不会考, 因为根据PEP8的标准, 我们应当尽量避免 from tools import * 这种写法, 具体可参考026的答案</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>解释一下 Python 中的赋值运算符</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>解释一下 Python 中的逻辑运算符</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>讲讲 Python 中的位运算符</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>在 Python 中如何使用多进制数字？</t>
-  </si>
-  <si>
-    <t>从来没见过用到这个的, 赌一把不会考</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>写一个拓扑排序</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>单链表反转</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>交叉链表求交点</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>用队列实现栈</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>二叉搜索树中第 K 小的元素</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>简要写一下 lxml 模块的使用方法框架</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>说一说 scrapy 的工作流程</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>scrapy 的去重原理</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>scrapy 中间件有几种类，你用过哪些中间件</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>你写爬虫的时候都遇到过什么？反爬虫措施，你是怎么解决的？</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>为什么会用到代理？</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>代理失效了怎么处理？</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>scrapy 和 scrapy-redis 有什么区别？为什么选择 redis 数据库？</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>分布式爬虫主要解决什么问题</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>写爬虫是用多进程好？还是多线程好？ 为什么？</t>
-  </si>
-  <si>
-    <t>网络编程</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>什么是粘包？ socket 中造成粘包的原因是什么？ 哪些情况会发生粘包现象？</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>举例说明 conccurent.future 的中线程池的用法</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>IO 多路复用的作用？</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>select、poll、epoll 模型的区别？</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>什么是并发和并行？</t>
-  </si>
-  <si>
-    <t>如何在一个函数内部修改全局变量</t>
-  </si>
-  <si>
-    <t>列出5个 Python 标准库</t>
-  </si>
-  <si>
-    <t>谈下 Python 的 GIL</t>
-  </si>
-  <si>
-    <t>fun(*args,**kwargs)中的*args,**kwargs什么意思?</t>
-  </si>
-  <si>
-    <t>版本</t>
-  </si>
-  <si>
-    <t>python2和python3的range（100）的区别</t>
-  </si>
-  <si>
-    <t>python内建数据类型有哪些</t>
-  </si>
-  <si>
-    <t>简述with方法打开处理文件帮我我们做了什么？</t>
-  </si>
-  <si>
-    <t>避免转义给字符串加哪个字母表示原始字符串</t>
-  </si>
-  <si>
-    <t>感觉太简单了，不会考</t>
-  </si>
-  <si>
-    <t>python中断言方法举例</t>
-  </si>
-  <si>
-    <t>python2和python3区别？列举5个</t>
-  </si>
-  <si>
-    <t>列出python中可变数据类型和不可变数据类型，并简述原理</t>
-  </si>
-  <si>
-    <t>高阶</t>
-  </si>
-  <si>
-    <t>filter方法求出列表所有奇数并构造新列表，a = [1, 2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
-  </si>
-  <si>
-    <t>两个列表[1,5,7,9]和[2,2,6,8]合并为[1,2,2,3,6,7,8,9]</t>
-  </si>
-  <si>
-    <t>请列出你会的任意一种统计图（条形图、折线图等）绘制的开源库，第三方也行</t>
-  </si>
-  <si>
-    <t>框架</t>
-  </si>
-  <si>
-    <t>简述Django的orm</t>
-  </si>
-  <si>
-    <t>举例说明异常模块中try except else finally的相关意义</t>
-  </si>
-  <si>
-    <t>写一个单列模式</t>
-  </si>
-  <si>
-    <t>简述any()和all()方法</t>
-  </si>
-  <si>
-    <t>列出几种魔法方法并简要介绍用途</t>
-  </si>
-  <si>
-    <t>python中copy和deepcopy区别</t>
-  </si>
-  <si>
-    <t>s="info:xiaoZhang 33 shandong",用正则切分字符串输出['info', 'xiaoZhang', '33', 'shandong']</t>
-  </si>
-  <si>
-    <t>简述python引用计数机制</t>
-  </si>
-  <si>
-    <t>简述乐观锁和悲观锁</t>
-  </si>
-  <si>
-    <t>python传参数是传值还是传址？</t>
-  </si>
-  <si>
-    <t>lambda匿名函数好处</t>
-  </si>
-  <si>
-    <t>python垃圾回收机制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1687,158 +1688,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1857,194 +1712,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2067,255 +1736,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2385,86 +1812,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2722,21 +2102,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G274"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="G131" sqref="G131"/>
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" style="17" customWidth="1"/>
     <col min="2" max="2" width="4.875" style="17" customWidth="1"/>
@@ -2747,7 +2126,7 @@
     <col min="7" max="7" width="98.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2770,24 +2149,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2795,18 +2174,18 @@
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2814,18 +2193,18 @@
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -2833,7 +2212,7 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -2842,7 +2221,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2850,7 +2229,7 @@
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -2859,7 +2238,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -2867,7 +2246,7 @@
       <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -2876,7 +2255,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -2884,7 +2263,7 @@
       <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -2893,7 +2272,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
@@ -2901,18 +2280,18 @@
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
@@ -2920,18 +2299,18 @@
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2939,18 +2318,18 @@
       <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="25" t="s">
         <v>38</v>
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -2958,7 +2337,7 @@
       <c r="C12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="25" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -2967,7 +2346,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2975,7 +2354,7 @@
       <c r="C13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -2984,7 +2363,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -2992,7 +2371,7 @@
       <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="25" t="s">
         <v>46</v>
       </c>
       <c r="E14" s="13" t="s">
@@ -3001,7 +2380,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -3009,7 +2388,7 @@
       <c r="C15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="25" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -3018,7 +2397,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -3026,7 +2405,7 @@
       <c r="C16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="25" t="s">
         <v>50</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -3035,7 +2414,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -3043,7 +2422,7 @@
       <c r="C17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="25" t="s">
         <v>52</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -3052,7 +2431,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -3060,7 +2439,7 @@
       <c r="C18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="25" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -3069,7 +2448,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -3077,7 +2456,7 @@
       <c r="C19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="25" t="s">
         <v>56</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -3086,7 +2465,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -3094,7 +2473,7 @@
       <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="25" t="s">
         <v>58</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -3103,7 +2482,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -3111,7 +2490,7 @@
       <c r="C21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="25" t="s">
         <v>60</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -3120,7 +2499,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -3128,7 +2507,7 @@
       <c r="C22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="25" t="s">
         <v>62</v>
       </c>
       <c r="E22" s="13" t="s">
@@ -3137,7 +2516,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -3145,7 +2524,7 @@
       <c r="C23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="25" t="s">
         <v>64</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -3154,13 +2533,13 @@
       <c r="F23" s="2"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="25" t="s">
         <v>66</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -3169,7 +2548,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -3177,7 +2556,7 @@
       <c r="C25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="25" t="s">
         <v>68</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -3188,7 +2567,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
@@ -3196,7 +2575,7 @@
       <c r="C26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="25" t="s">
         <v>71</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -3205,7 +2584,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
@@ -3213,7 +2592,7 @@
       <c r="C27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="25" t="s">
         <v>73</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -3222,13 +2601,13 @@
       <c r="F27" s="2"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="19"/>
       <c r="C28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="25" t="s">
         <v>75</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -3237,13 +2616,13 @@
       <c r="F28" s="2"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="19"/>
       <c r="C29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="25" t="s">
         <v>33</v>
       </c>
       <c r="E29" s="4" t="s">
@@ -3252,13 +2631,13 @@
       <c r="F29" s="2"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="19"/>
       <c r="C30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="25" t="s">
         <v>78</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -3267,13 +2646,13 @@
       <c r="F30" s="2"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" ht="51" spans="1:7">
+    <row r="31" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="26" t="s">
         <v>80</v>
       </c>
       <c r="E31" s="9" t="s">
@@ -3282,13 +2661,13 @@
       <c r="F31" s="2"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" ht="34" spans="1:7">
+    <row r="32" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="25" t="s">
         <v>82</v>
       </c>
       <c r="E32" s="9" t="s">
@@ -3297,7 +2676,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
@@ -3305,7 +2684,7 @@
       <c r="C33" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="25" t="s">
         <v>85</v>
       </c>
       <c r="E33" s="4" t="s">
@@ -3314,7 +2693,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
@@ -3322,7 +2701,7 @@
       <c r="C34" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -3331,7 +2710,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
@@ -3339,7 +2718,7 @@
       <c r="C35" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="25" t="s">
         <v>88</v>
       </c>
       <c r="E35" s="4" t="s">
@@ -3348,7 +2727,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>23</v>
       </c>
@@ -3356,7 +2735,7 @@
       <c r="C36" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="25" t="s">
         <v>90</v>
       </c>
       <c r="E36" s="4" t="s">
@@ -3365,7 +2744,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
@@ -3373,7 +2752,7 @@
       <c r="C37" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="25" t="s">
         <v>92</v>
       </c>
       <c r="E37" s="4" t="s">
@@ -3382,13 +2761,13 @@
       <c r="F37" s="2"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="25" t="s">
         <v>95</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -3397,13 +2776,13 @@
       <c r="F38" s="2"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="25" t="s">
         <v>97</v>
       </c>
       <c r="E39" s="4" t="s">
@@ -3412,13 +2791,13 @@
       <c r="F39" s="2"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="25" t="s">
         <v>99</v>
       </c>
       <c r="E40" s="4" t="s">
@@ -3427,13 +2806,13 @@
       <c r="F40" s="2"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="25" t="s">
         <v>101</v>
       </c>
       <c r="E41" s="4" t="s">
@@ -3442,13 +2821,13 @@
       <c r="F41" s="2"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D42" s="25" t="s">
         <v>38</v>
       </c>
       <c r="E42" s="4" t="s">
@@ -3457,13 +2836,13 @@
       <c r="F42" s="2"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D43" s="25" t="s">
         <v>105</v>
       </c>
       <c r="E43" s="4" t="s">
@@ -3472,13 +2851,13 @@
       <c r="F43" s="2"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="25" t="s">
         <v>107</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -3487,13 +2866,13 @@
       <c r="F44" s="2"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="D45" s="25" t="s">
         <v>109</v>
       </c>
       <c r="E45" s="4" t="s">
@@ -3502,13 +2881,13 @@
       <c r="F45" s="2"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="25" t="s">
         <v>111</v>
       </c>
       <c r="E46" s="4" t="s">
@@ -3517,13 +2896,13 @@
       <c r="F46" s="2"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="D47" s="25" t="s">
         <v>113</v>
       </c>
       <c r="E47" s="4" t="s">
@@ -3532,13 +2911,13 @@
       <c r="F47" s="2"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D48" s="25" t="s">
         <v>115</v>
       </c>
       <c r="E48" s="4" t="s">
@@ -3547,13 +2926,13 @@
       <c r="F48" s="2"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D49" s="25" t="s">
         <v>117</v>
       </c>
       <c r="E49" s="4" t="s">
@@ -3562,13 +2941,13 @@
       <c r="F49" s="2"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="D50" s="25" t="s">
         <v>119</v>
       </c>
       <c r="E50" s="4" t="s">
@@ -3577,13 +2956,13 @@
       <c r="F50" s="2"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="D51" s="25" t="s">
         <v>121</v>
       </c>
       <c r="E51" s="4" t="s">
@@ -3592,7 +2971,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>18</v>
       </c>
@@ -3600,7 +2979,7 @@
       <c r="C52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D52" s="25" t="s">
         <v>123</v>
       </c>
       <c r="E52" s="4" t="s">
@@ -3609,13 +2988,13 @@
       <c r="F52" s="2"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="D53" s="25" t="s">
         <v>125</v>
       </c>
       <c r="E53" s="4" t="s">
@@ -3624,13 +3003,13 @@
       <c r="F53" s="2"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="26" t="s">
+      <c r="D54" s="25" t="s">
         <v>127</v>
       </c>
       <c r="E54" s="4" t="s">
@@ -3639,13 +3018,13 @@
       <c r="F54" s="2"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D55" s="25" t="s">
         <v>129</v>
       </c>
       <c r="E55" s="4" t="s">
@@ -3654,13 +3033,13 @@
       <c r="F55" s="2"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D56" s="26" t="s">
+      <c r="D56" s="25" t="s">
         <v>132</v>
       </c>
       <c r="E56" s="4" t="s">
@@ -3669,13 +3048,13 @@
       <c r="F56" s="2"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" ht="101" spans="1:7">
+    <row r="57" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D57" s="26" t="s">
+      <c r="D57" s="25" t="s">
         <v>134</v>
       </c>
       <c r="E57" s="9" t="s">
@@ -3684,7 +3063,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>18</v>
       </c>
@@ -3692,7 +3071,7 @@
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="26" t="s">
+      <c r="D58" s="25" t="s">
         <v>136</v>
       </c>
       <c r="E58" s="4" t="s">
@@ -3701,7 +3080,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>18</v>
       </c>
@@ -3709,24 +3088,24 @@
       <c r="C59" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D59" s="26" t="s">
+      <c r="D59" s="25" t="s">
         <v>138</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F59" s="26" t="s">
+      <c r="F59" s="25" t="s">
         <v>140</v>
       </c>
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D60" s="26" t="s">
+      <c r="D60" s="25" t="s">
         <v>141</v>
       </c>
       <c r="E60" s="4" t="s">
@@ -3735,13 +3114,13 @@
       <c r="F60" s="2"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D61" s="26" t="s">
+      <c r="D61" s="25" t="s">
         <v>144</v>
       </c>
       <c r="E61" s="4" t="s">
@@ -3750,13 +3129,13 @@
       <c r="F61" s="2"/>
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D62" s="26" t="s">
+      <c r="D62" s="25" t="s">
         <v>146</v>
       </c>
       <c r="E62" s="4" t="s">
@@ -3765,7 +3144,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="2" t="s">
@@ -3780,7 +3159,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>18</v>
       </c>
@@ -3797,7 +3176,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="2" t="s">
@@ -3812,7 +3191,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>30</v>
       </c>
@@ -3823,13 +3202,13 @@
       <c r="D66" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E66" s="28" t="s">
+      <c r="E66" s="27" t="s">
         <v>157</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="2" t="s">
@@ -3844,7 +3223,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="2" t="s">
@@ -3859,7 +3238,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>30</v>
       </c>
@@ -3878,7 +3257,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>18</v>
       </c>
@@ -3892,14 +3271,14 @@
       <c r="E70" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F70" s="26" t="s">
+      <c r="F70" s="25" t="s">
         <v>136</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>30</v>
       </c>
@@ -3920,7 +3299,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="20" t="s">
         <v>30</v>
       </c>
@@ -3934,14 +3313,14 @@
       <c r="E72" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="F72" s="29" t="s">
+      <c r="F72" s="28" t="s">
         <v>129</v>
       </c>
       <c r="G72" s="22" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="73" s="15" customFormat="1" spans="1:7">
+    <row r="73" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>18</v>
       </c>
@@ -3955,14 +3334,14 @@
       <c r="E73" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F73" s="26" t="s">
+      <c r="F73" s="25" t="s">
         <v>64</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="2" t="s">
@@ -3977,7 +3356,7 @@
       <c r="F74" s="2"/>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="2" t="s">
@@ -3992,7 +3371,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="2" t="s">
@@ -4007,7 +3386,7 @@
       <c r="F76" s="2"/>
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="1"/>
       <c r="B77" s="19"/>
       <c r="C77" s="2" t="s">
@@ -4022,7 +3401,7 @@
       <c r="F77" s="2"/>
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="1"/>
       <c r="B78" s="19"/>
       <c r="C78" s="2" t="s">
@@ -4037,7 +3416,7 @@
       <c r="F78" s="2"/>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
       <c r="B79" s="19"/>
       <c r="C79" s="2" t="s">
@@ -4052,7 +3431,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>18</v>
       </c>
@@ -4071,7 +3450,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="1"/>
       <c r="B81" s="19"/>
       <c r="C81" s="2" t="s">
@@ -4086,7 +3465,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>18</v>
       </c>
@@ -4105,7 +3484,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>18</v>
       </c>
@@ -4119,12 +3498,12 @@
       <c r="E83" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F83" s="26" t="s">
+      <c r="F83" s="25" t="s">
         <v>13</v>
       </c>
       <c r="G83" s="4"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="2" t="s">
@@ -4139,7 +3518,7 @@
       <c r="F84" s="2"/>
       <c r="G84" s="4"/>
     </row>
-    <row r="85" ht="17" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="1"/>
       <c r="B85" s="19"/>
       <c r="C85" s="2" t="s">
@@ -4151,14 +3530,14 @@
       <c r="E85" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="F85" s="26" t="s">
+      <c r="F85" s="25" t="s">
         <v>46</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="1"/>
       <c r="B86" s="19"/>
       <c r="C86" s="2" t="s">
@@ -4175,7 +3554,7 @@
       </c>
       <c r="G86" s="4"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>18</v>
       </c>
@@ -4194,7 +3573,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>18</v>
       </c>
@@ -4213,7 +3592,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>23</v>
       </c>
@@ -4227,14 +3606,14 @@
       <c r="E89" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="F89" s="26" t="s">
+      <c r="F89" s="25" t="s">
         <v>134</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" s="1"/>
       <c r="B90" s="19"/>
       <c r="C90" s="2" t="s">
@@ -4246,14 +3625,14 @@
       <c r="E90" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="F90" s="26" t="s">
+      <c r="F90" s="25" t="s">
         <v>28</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>18</v>
       </c>
@@ -4272,7 +3651,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="2" t="s">
@@ -4287,7 +3666,7 @@
       <c r="F92" s="2"/>
       <c r="G92" s="4"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>30</v>
       </c>
@@ -4304,7 +3683,7 @@
       <c r="F93" s="2"/>
       <c r="G93" s="4"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" s="1"/>
       <c r="B94" s="19"/>
       <c r="C94" s="2" t="s">
@@ -4319,7 +3698,7 @@
       <c r="F94" s="2"/>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="1"/>
       <c r="B95" s="19"/>
       <c r="C95" s="2" t="s">
@@ -4334,7 +3713,7 @@
       <c r="F95" s="2"/>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2" t="s">
@@ -4349,7 +3728,7 @@
       <c r="F96" s="2"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" ht="51" spans="1:7">
+    <row r="97" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="2" t="s">
@@ -4364,7 +3743,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2" t="s">
@@ -4379,7 +3758,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>30</v>
       </c>
@@ -4393,14 +3772,14 @@
       <c r="E99" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F99" s="26" t="s">
+      <c r="F99" s="25" t="s">
         <v>109</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
         <v>23</v>
       </c>
@@ -4417,7 +3796,7 @@
       <c r="F100" s="2"/>
       <c r="G100" s="4"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2" t="s">
@@ -4432,7 +3811,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="4"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2" t="s">
@@ -4447,7 +3826,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="4"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
         <v>23</v>
       </c>
@@ -4464,7 +3843,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="4"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
         <v>23</v>
       </c>
@@ -4481,7 +3860,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="4"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="2" t="s">
@@ -4496,7 +3875,7 @@
       <c r="F105" s="2"/>
       <c r="G105" s="4"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
         <v>23</v>
       </c>
@@ -4513,7 +3892,7 @@
       <c r="F106" s="2"/>
       <c r="G106" s="4"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="2" t="s">
@@ -4528,7 +3907,7 @@
       <c r="F107" s="2"/>
       <c r="G107" s="4"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="2" t="s">
@@ -4543,7 +3922,7 @@
       <c r="F108" s="2"/>
       <c r="G108" s="4"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="14" t="s">
@@ -4558,7 +3937,7 @@
       <c r="F109" s="2"/>
       <c r="G109" s="4"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="14" t="s">
@@ -4573,7 +3952,7 @@
       <c r="F110" s="2"/>
       <c r="G110" s="4"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="2" t="s">
@@ -4588,7 +3967,7 @@
       <c r="F111" s="2"/>
       <c r="G111" s="4"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="2" t="s">
@@ -4603,7 +3982,7 @@
       <c r="F112" s="2"/>
       <c r="G112" s="4"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="2" t="s">
@@ -4618,7 +3997,7 @@
       <c r="F113" s="2"/>
       <c r="G113" s="4"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="2" t="s">
@@ -4633,7 +4012,7 @@
       <c r="F114" s="2"/>
       <c r="G114" s="4"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="2" t="s">
@@ -4648,7 +4027,7 @@
       <c r="F115" s="2"/>
       <c r="G115" s="4"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="14" t="s">
@@ -4663,7 +4042,7 @@
       <c r="F116" s="2"/>
       <c r="G116" s="4"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="14" t="s">
@@ -4678,7 +4057,7 @@
       <c r="F117" s="2"/>
       <c r="G117" s="4"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
         <v>18</v>
       </c>
@@ -4692,12 +4071,12 @@
       <c r="E118" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="F118" s="26" t="s">
+      <c r="F118" s="25" t="s">
         <v>285</v>
       </c>
       <c r="G118" s="4"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="2" t="s">
@@ -4709,12 +4088,12 @@
       <c r="E119" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="F119" s="26" t="s">
+      <c r="F119" s="25" t="s">
         <v>21</v>
       </c>
       <c r="G119" s="4"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="2" t="s">
@@ -4729,7 +4108,7 @@
       <c r="F120" s="2"/>
       <c r="G120" s="4"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="2" t="s">
@@ -4744,7 +4123,7 @@
       <c r="F121" s="2"/>
       <c r="G121" s="4"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="2" t="s">
@@ -4759,7 +4138,7 @@
       <c r="F122" s="2"/>
       <c r="G122" s="4"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="2" t="s">
@@ -4774,7 +4153,7 @@
       <c r="F123" s="2"/>
       <c r="G123" s="4"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="2" t="s">
@@ -4789,7 +4168,7 @@
       <c r="F124" s="2"/>
       <c r="G124" s="4"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="2" t="s">
@@ -4804,7 +4183,7 @@
       <c r="F125" s="2"/>
       <c r="G125" s="4"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="2"/>
@@ -4813,7 +4192,7 @@
       <c r="F130" s="2"/>
       <c r="G130" s="4"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
         <v>23</v>
       </c>
@@ -4821,88 +4200,88 @@
       <c r="C131" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D131" s="26" t="s">
+      <c r="D131" s="25" t="s">
         <v>8</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>301</v>
+        <v>538</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A132" s="1" t="s">
         <v>302</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D132" s="26" t="s">
+      <c r="D132" s="25" t="s">
         <v>19</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="4"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D133" s="26" t="s">
+      <c r="D133" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="4"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B134" s="19"/>
       <c r="C134" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D134" s="30" t="s">
+      <c r="D134" s="29" t="s">
         <v>34</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="4"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B135" s="19"/>
       <c r="C135" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D135" s="26" t="s">
+      <c r="D135" s="25" t="s">
         <v>41</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
         <v>39</v>
       </c>
@@ -4910,35 +4289,35 @@
       <c r="C136" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D136" s="26" t="s">
+      <c r="D136" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="E136" s="8" t="s">
         <v>309</v>
-      </c>
-      <c r="E136" s="8" t="s">
-        <v>310</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="4"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B137" s="19"/>
       <c r="C137" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D137" s="26" t="s">
+      <c r="D137" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="E137" s="8" t="s">
         <v>311</v>
-      </c>
-      <c r="E137" s="8" t="s">
-        <v>312</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="8" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
         <v>11</v>
       </c>
@@ -4946,16 +4325,16 @@
       <c r="C138" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D138" s="26" t="s">
+      <c r="D138" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="E138" s="8" t="s">
         <v>314</v>
-      </c>
-      <c r="E138" s="8" t="s">
-        <v>315</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="4"/>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
         <v>11</v>
       </c>
@@ -4963,33 +4342,33 @@
       <c r="C139" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D139" s="26" t="s">
+      <c r="D139" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="E139" s="8" t="s">
         <v>316</v>
-      </c>
-      <c r="E139" s="8" t="s">
-        <v>317</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="4"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D140" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E140" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="D140" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>319</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="4"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
         <v>23</v>
       </c>
@@ -4997,16 +4376,16 @@
       <c r="C141" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D141" s="26" t="s">
+      <c r="D141" s="25" t="s">
         <v>54</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F141" s="2"/>
       <c r="G141" s="4"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
         <v>11</v>
       </c>
@@ -5014,16 +4393,16 @@
       <c r="C142" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D142" s="26" t="s">
+      <c r="D142" s="25" t="s">
         <v>56</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F142" s="2"/>
       <c r="G142" s="4"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
         <v>23</v>
       </c>
@@ -5031,50 +4410,50 @@
       <c r="C143" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D143" s="26" t="s">
+      <c r="D143" s="25" t="s">
         <v>58</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="4"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D144" s="26" t="s">
+      <c r="D144" s="25" t="s">
         <v>60</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" s="4"/>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D145" s="26" t="s">
+      <c r="D145" s="25" t="s">
         <v>62</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F145" s="2"/>
       <c r="G145" s="4"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
         <v>11</v>
       </c>
@@ -5082,16 +4461,16 @@
       <c r="C146" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D146" s="26" t="s">
+      <c r="D146" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="E146" s="4" t="s">
         <v>325</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>326</v>
       </c>
       <c r="F146" s="2"/>
       <c r="G146" s="4"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
         <v>11</v>
       </c>
@@ -5099,16 +4478,16 @@
       <c r="C147" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D147" s="26" t="s">
+      <c r="D147" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="E147" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>328</v>
       </c>
       <c r="F147" s="2"/>
       <c r="G147" s="4"/>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
         <v>11</v>
       </c>
@@ -5116,16 +4495,16 @@
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D148" s="26" t="s">
+      <c r="D148" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="E148" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="E148" s="8" t="s">
-        <v>330</v>
       </c>
       <c r="F148" s="2"/>
       <c r="G148" s="4"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
         <v>11</v>
       </c>
@@ -5133,33 +4512,33 @@
       <c r="C149" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D149" s="26" t="s">
+      <c r="D149" s="25" t="s">
         <v>68</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F149" s="2"/>
       <c r="G149" s="4"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D150" s="26" t="s">
+      <c r="D150" s="25" t="s">
         <v>71</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F150" s="2"/>
       <c r="G150" s="4"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
         <v>11</v>
       </c>
@@ -5167,16 +4546,16 @@
       <c r="C151" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D151" s="26" t="s">
+      <c r="D151" s="25" t="s">
         <v>73</v>
       </c>
       <c r="E151" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F151" s="2"/>
       <c r="G151" s="4"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
         <v>11</v>
       </c>
@@ -5184,16 +4563,16 @@
       <c r="C152" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D152" s="26" t="s">
+      <c r="D152" s="25" t="s">
         <v>78</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="4"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
         <v>23</v>
       </c>
@@ -5201,7 +4580,7 @@
       <c r="C153" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D153" s="26" t="s">
+      <c r="D153" s="25" t="s">
         <v>82</v>
       </c>
       <c r="E153" s="4" t="s">
@@ -5210,7 +4589,7 @@
       <c r="F153" s="2"/>
       <c r="G153" s="4"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
         <v>11</v>
       </c>
@@ -5218,16 +4597,16 @@
       <c r="C154" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D154" s="26" t="s">
+      <c r="D154" s="25" t="s">
         <v>85</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F154" s="2"/>
       <c r="G154" s="4"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
         <v>39</v>
       </c>
@@ -5235,16 +4614,16 @@
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D155" s="26" t="s">
+      <c r="D155" s="25" t="s">
         <v>88</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F155" s="2"/>
       <c r="G155" s="4"/>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
         <v>39</v>
       </c>
@@ -5252,16 +4631,16 @@
       <c r="C156" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D156" s="26" t="s">
+      <c r="D156" s="25" t="s">
         <v>90</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F156" s="2"/>
       <c r="G156" s="4"/>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
         <v>11</v>
       </c>
@@ -5269,16 +4648,16 @@
       <c r="C157" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D157" s="26" t="s">
+      <c r="D157" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="E157" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="F157" s="2"/>
       <c r="G157" s="4"/>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
         <v>11</v>
       </c>
@@ -5286,16 +4665,16 @@
       <c r="C158" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D158" s="26" t="s">
+      <c r="D158" s="25" t="s">
         <v>92</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F158" s="2"/>
       <c r="G158" s="4"/>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
         <v>39</v>
       </c>
@@ -5303,18 +4682,18 @@
       <c r="C159" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D159" s="26" t="s">
+      <c r="D159" s="25" t="s">
         <v>95</v>
       </c>
       <c r="E159" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F159" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="F159" s="26" t="s">
-        <v>342</v>
-      </c>
       <c r="G159" s="4"/>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
         <v>39</v>
       </c>
@@ -5322,33 +4701,33 @@
       <c r="C160" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D160" s="26" t="s">
+      <c r="D160" s="25" t="s">
         <v>97</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F160" s="2"/>
       <c r="G160" s="4"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D161" s="26" t="s">
+      <c r="D161" s="25" t="s">
         <v>99</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" s="4"/>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
         <v>11</v>
       </c>
@@ -5356,16 +4735,16 @@
       <c r="C162" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D162" s="26" t="s">
+      <c r="D162" s="25" t="s">
         <v>101</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F162" s="2"/>
       <c r="G162" s="4"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
         <v>11</v>
       </c>
@@ -5373,33 +4752,33 @@
       <c r="C163" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D163" s="26" t="s">
+      <c r="D163" s="25" t="s">
         <v>105</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="4"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D164" s="26" t="s">
+      <c r="D164" s="25" t="s">
         <v>107</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F164" s="2"/>
       <c r="G164" s="4"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
         <v>11</v>
       </c>
@@ -5407,31 +4786,31 @@
       <c r="C165" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D165" s="26" t="s">
+      <c r="D165" s="25" t="s">
         <v>111</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="4"/>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="2"/>
-      <c r="D166" s="26" t="s">
+      <c r="D166" s="25" t="s">
         <v>113</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" s="4"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
         <v>11</v>
       </c>
@@ -5439,16 +4818,16 @@
       <c r="C167" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D167" s="26" t="s">
-        <v>342</v>
+      <c r="D167" s="25" t="s">
+        <v>341</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F167" s="2"/>
       <c r="G167" s="4"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
         <v>11</v>
       </c>
@@ -5456,16 +4835,16 @@
       <c r="C168" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D168" s="26" t="s">
+      <c r="D168" s="25" t="s">
         <v>115</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F168" s="2"/>
       <c r="G168" s="4"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
         <v>39</v>
       </c>
@@ -5473,16 +4852,16 @@
       <c r="C169" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D169" s="26" t="s">
+      <c r="D169" s="25" t="s">
         <v>117</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" s="4"/>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
         <v>39</v>
       </c>
@@ -5490,31 +4869,31 @@
       <c r="C170" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D170" s="26" t="s">
+      <c r="D170" s="25" t="s">
         <v>119</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F170" s="2"/>
       <c r="G170" s="4"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B171" s="1"/>
       <c r="C171" s="2"/>
-      <c r="D171" s="26" t="s">
+      <c r="D171" s="25" t="s">
         <v>121</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F171" s="2"/>
       <c r="G171" s="4"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
         <v>11</v>
       </c>
@@ -5522,16 +4901,16 @@
       <c r="C172" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D172" s="26" t="s">
+      <c r="D172" s="25" t="s">
         <v>123</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F172" s="2"/>
       <c r="G172" s="4"/>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
         <v>11</v>
       </c>
@@ -5539,16 +4918,16 @@
       <c r="C173" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D173" s="26" t="s">
+      <c r="D173" s="25" t="s">
         <v>125</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="4"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
         <v>11</v>
       </c>
@@ -5556,16 +4935,16 @@
       <c r="C174" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D174" s="26" t="s">
+      <c r="D174" s="25" t="s">
         <v>127</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F174" s="2"/>
       <c r="G174" s="4"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
         <v>11</v>
       </c>
@@ -5573,16 +4952,16 @@
       <c r="C175" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D175" s="26" t="s">
+      <c r="D175" s="25" t="s">
         <v>132</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F175" s="2"/>
       <c r="G175" s="4"/>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
         <v>39</v>
       </c>
@@ -5590,22 +4969,22 @@
       <c r="C176" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D176" s="26" t="s">
+      <c r="D176" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="E176" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="E176" s="4" t="s">
-        <v>360</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" s="4"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B177" s="1"/>
       <c r="C177" s="2"/>
-      <c r="D177" s="26" t="s">
+      <c r="D177" s="25" t="s">
         <v>138</v>
       </c>
       <c r="E177" s="4" t="s">
@@ -5614,7 +4993,7 @@
       <c r="F177" s="2"/>
       <c r="G177" s="4"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
         <v>11</v>
       </c>
@@ -5622,16 +5001,16 @@
       <c r="C178" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D178" s="26" t="s">
+      <c r="D178" s="25" t="s">
         <v>141</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F178" s="2"/>
       <c r="G178" s="4"/>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
         <v>18</v>
       </c>
@@ -5639,33 +5018,33 @@
       <c r="C179" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D179" s="26" t="s">
+      <c r="D179" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="E179" s="4" t="s">
         <v>362</v>
-      </c>
-      <c r="E179" s="4" t="s">
-        <v>363</v>
       </c>
       <c r="F179" s="2"/>
       <c r="G179" s="4"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D180" s="26" t="s">
+      <c r="D180" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="E180" s="4" t="s">
         <v>364</v>
-      </c>
-      <c r="E180" s="4" t="s">
-        <v>365</v>
       </c>
       <c r="F180" s="2"/>
       <c r="G180" s="4"/>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
         <v>23</v>
       </c>
@@ -5673,101 +5052,101 @@
       <c r="C181" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D181" s="26" t="s">
+      <c r="D181" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="E181" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="E181" s="4" t="s">
-        <v>367</v>
       </c>
       <c r="F181" s="2"/>
       <c r="G181" s="4"/>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D182" s="26" t="s">
+      <c r="D182" s="25" t="s">
         <v>144</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F182" s="2"/>
       <c r="G182" s="4"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D183" s="26" t="s">
+      <c r="D183" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="E183" s="4" t="s">
         <v>369</v>
-      </c>
-      <c r="E183" s="4" t="s">
-        <v>370</v>
       </c>
       <c r="F183" s="2"/>
       <c r="G183" s="4"/>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D184" s="26" t="s">
+      <c r="D184" s="25" t="s">
         <v>146</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="4"/>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D185" s="26" t="s">
+      <c r="D185" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="E185" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="E185" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="F185" s="2"/>
       <c r="G185" s="4"/>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D186" s="26" t="s">
+      <c r="D186" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="E186" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="E186" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="F186" s="2"/>
       <c r="G186" s="4"/>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
         <v>39</v>
       </c>
@@ -5775,16 +5154,16 @@
       <c r="C187" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D187" s="26" t="s">
+      <c r="D187" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="E187" s="4" t="s">
         <v>376</v>
-      </c>
-      <c r="E187" s="4" t="s">
-        <v>377</v>
       </c>
       <c r="F187" s="2"/>
       <c r="G187" s="4"/>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
         <v>23</v>
       </c>
@@ -5792,33 +5171,33 @@
       <c r="C188" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D188" s="26" t="s">
+      <c r="D188" s="25" t="s">
         <v>149</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F188" s="2"/>
       <c r="G188" s="4"/>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D189" s="26" t="s">
+      <c r="D189" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="E189" s="4" t="s">
         <v>380</v>
-      </c>
-      <c r="E189" s="4" t="s">
-        <v>381</v>
       </c>
       <c r="F189" s="2"/>
       <c r="G189" s="4"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
         <v>11</v>
       </c>
@@ -5826,16 +5205,16 @@
       <c r="C190" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D190" s="26" t="s">
+      <c r="D190" s="25" t="s">
         <v>154</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="4"/>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
         <v>23</v>
       </c>
@@ -5843,16 +5222,16 @@
       <c r="C191" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D191" s="26" t="s">
+      <c r="D191" s="25" t="s">
         <v>156</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F191" s="2"/>
       <c r="G191" s="4"/>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
         <v>11</v>
       </c>
@@ -5860,16 +5239,16 @@
       <c r="C192" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D192" s="26" t="s">
+      <c r="D192" s="25" t="s">
         <v>159</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F192" s="2"/>
       <c r="G192" s="4"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
         <v>11</v>
       </c>
@@ -5877,16 +5256,16 @@
       <c r="C193" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D193" s="26" t="s">
+      <c r="D193" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="E193" s="4" t="s">
         <v>385</v>
-      </c>
-      <c r="E193" s="4" t="s">
-        <v>386</v>
       </c>
       <c r="F193" s="2"/>
       <c r="G193" s="4"/>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
         <v>11</v>
       </c>
@@ -5894,33 +5273,33 @@
       <c r="C194" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D194" s="26" t="s">
+      <c r="D194" s="25" t="s">
         <v>162</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F194" s="2"/>
       <c r="G194" s="4"/>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D195" s="26" t="s">
+      <c r="D195" s="25" t="s">
         <v>165</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" s="4"/>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
         <v>11</v>
       </c>
@@ -5928,16 +5307,16 @@
       <c r="C196" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D196" s="26" t="s">
+      <c r="D196" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="E196" s="4" t="s">
         <v>389</v>
-      </c>
-      <c r="E196" s="4" t="s">
-        <v>390</v>
       </c>
       <c r="F196" s="2"/>
       <c r="G196" s="4"/>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
         <v>39</v>
       </c>
@@ -5945,16 +5324,16 @@
       <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D197" s="26" t="s">
+      <c r="D197" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="E197" s="4" t="s">
         <v>391</v>
-      </c>
-      <c r="E197" s="4" t="s">
-        <v>392</v>
       </c>
       <c r="F197" s="2"/>
       <c r="G197" s="4"/>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
         <v>11</v>
       </c>
@@ -5962,16 +5341,16 @@
       <c r="C198" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D198" s="26" t="s">
+      <c r="D198" s="25" t="s">
         <v>172</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F198" s="2"/>
       <c r="G198" s="4"/>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
         <v>11</v>
       </c>
@@ -5979,16 +5358,16 @@
       <c r="C199" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D199" s="26" t="s">
+      <c r="D199" s="25" t="s">
         <v>176</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F199" s="2"/>
       <c r="G199" s="4"/>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
         <v>11</v>
       </c>
@@ -5996,16 +5375,16 @@
       <c r="C200" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D200" s="26" t="s">
+      <c r="D200" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="E200" s="4" t="s">
         <v>395</v>
-      </c>
-      <c r="E200" s="4" t="s">
-        <v>396</v>
       </c>
       <c r="F200" s="2"/>
       <c r="G200" s="4"/>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
         <v>39</v>
       </c>
@@ -6013,33 +5392,33 @@
       <c r="C201" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D201" s="26" t="s">
+      <c r="D201" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="E201" s="4" t="s">
         <v>397</v>
-      </c>
-      <c r="E201" s="4" t="s">
-        <v>398</v>
       </c>
       <c r="F201" s="2"/>
       <c r="G201" s="4"/>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D202" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="D202" s="25" t="s">
         <v>180</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F202" s="2"/>
       <c r="G202" s="4"/>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
         <v>11</v>
       </c>
@@ -6047,50 +5426,50 @@
       <c r="C203" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D203" s="26" t="s">
+      <c r="D203" s="25" t="s">
         <v>182</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F203" s="2"/>
       <c r="G203" s="4"/>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D204" s="26" t="s">
+      <c r="D204" s="25" t="s">
         <v>186</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F204" s="2"/>
       <c r="G204" s="4"/>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D205" s="26" t="s">
+      <c r="D205" s="25" t="s">
         <v>188</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F205" s="2"/>
       <c r="G205" s="4"/>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
         <v>11</v>
       </c>
@@ -6098,16 +5477,16 @@
       <c r="C206" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D206" s="26" t="s">
+      <c r="D206" s="25" t="s">
         <v>192</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F206" s="2"/>
       <c r="G206" s="4"/>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
         <v>11</v>
       </c>
@@ -6115,16 +5494,16 @@
       <c r="C207" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D207" s="26" t="s">
+      <c r="D207" s="25" t="s">
         <v>195</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F207" s="2"/>
       <c r="G207" s="4"/>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A208" s="1" t="s">
         <v>11</v>
       </c>
@@ -6132,16 +5511,16 @@
       <c r="C208" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D208" s="26" t="s">
+      <c r="D208" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="E208" s="4" t="s">
         <v>405</v>
-      </c>
-      <c r="E208" s="4" t="s">
-        <v>406</v>
       </c>
       <c r="F208" s="2"/>
       <c r="G208" s="4"/>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A209" s="1" t="s">
         <v>39</v>
       </c>
@@ -6149,16 +5528,16 @@
       <c r="C209" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D209" s="26" t="s">
+      <c r="D209" s="25" t="s">
         <v>200</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F209" s="2"/>
       <c r="G209" s="4"/>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
         <v>11</v>
       </c>
@@ -6166,377 +5545,375 @@
       <c r="C210" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D210" s="26" t="s">
+      <c r="D210" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="E210" s="4" t="s">
         <v>408</v>
-      </c>
-      <c r="E210" s="4" t="s">
-        <v>409</v>
       </c>
       <c r="F210" s="2"/>
       <c r="G210" s="4"/>
     </row>
-    <row r="226" s="16" customFormat="1" spans="1:6">
-      <c r="A226" s="24"/>
-      <c r="B226" s="24"/>
-      <c r="C226" s="25"/>
-      <c r="D226" s="25"/>
-      <c r="F226" s="25"/>
-    </row>
-    <row r="227" s="16" customFormat="1" spans="1:6">
-      <c r="A227" s="24"/>
-      <c r="B227" s="24"/>
-      <c r="C227" s="25"/>
-      <c r="D227" s="25"/>
-      <c r="F227" s="25"/>
-    </row>
-    <row r="228" s="16" customFormat="1" spans="1:6">
-      <c r="A228" s="24"/>
-      <c r="B228" s="24"/>
-      <c r="C228" s="25"/>
-      <c r="D228" s="25"/>
-      <c r="F228" s="25"/>
-    </row>
-    <row r="229" s="16" customFormat="1" spans="1:6">
-      <c r="A229" s="24"/>
-      <c r="B229" s="24"/>
-      <c r="C229" s="25"/>
-      <c r="D229" s="25"/>
-      <c r="F229" s="25"/>
-    </row>
-    <row r="230" s="16" customFormat="1" spans="1:6">
-      <c r="A230" s="24"/>
-      <c r="B230" s="24"/>
-      <c r="C230" s="25"/>
-      <c r="D230" s="25"/>
-      <c r="F230" s="25"/>
-    </row>
-    <row r="231" s="16" customFormat="1" spans="1:6">
-      <c r="A231" s="24"/>
-      <c r="B231" s="24"/>
-      <c r="C231" s="25"/>
-      <c r="D231" s="25"/>
-      <c r="F231" s="25"/>
-    </row>
-    <row r="232" s="16" customFormat="1" spans="1:6">
-      <c r="A232" s="24"/>
-      <c r="B232" s="24"/>
-      <c r="C232" s="25"/>
-      <c r="D232" s="25"/>
-      <c r="F232" s="25"/>
-    </row>
-    <row r="233" s="16" customFormat="1" spans="1:6">
-      <c r="A233" s="24"/>
-      <c r="B233" s="24"/>
-      <c r="C233" s="25"/>
-      <c r="D233" s="25"/>
-      <c r="F233" s="25"/>
-    </row>
-    <row r="234" s="16" customFormat="1" spans="1:6">
-      <c r="A234" s="24"/>
-      <c r="B234" s="24"/>
-      <c r="C234" s="25"/>
-      <c r="D234" s="25"/>
-      <c r="F234" s="25"/>
-    </row>
-    <row r="235" s="16" customFormat="1" spans="1:6">
-      <c r="A235" s="24"/>
-      <c r="B235" s="24"/>
-      <c r="C235" s="25"/>
-      <c r="D235" s="25"/>
-      <c r="F235" s="25"/>
-    </row>
-    <row r="236" s="16" customFormat="1" spans="1:6">
-      <c r="A236" s="24"/>
-      <c r="B236" s="24"/>
-      <c r="C236" s="25"/>
-      <c r="D236" s="25"/>
-      <c r="F236" s="25"/>
-    </row>
-    <row r="237" s="16" customFormat="1" spans="1:6">
-      <c r="A237" s="24"/>
-      <c r="B237" s="24"/>
-      <c r="C237" s="25"/>
-      <c r="D237" s="25"/>
-      <c r="F237" s="25"/>
-    </row>
-    <row r="238" s="16" customFormat="1" spans="1:6">
-      <c r="A238" s="24"/>
-      <c r="B238" s="24"/>
-      <c r="C238" s="25"/>
-      <c r="D238" s="25"/>
-      <c r="F238" s="25"/>
-    </row>
-    <row r="239" s="16" customFormat="1" spans="1:6">
-      <c r="A239" s="24"/>
-      <c r="B239" s="24"/>
-      <c r="C239" s="25"/>
-      <c r="D239" s="25"/>
-      <c r="F239" s="25"/>
-    </row>
-    <row r="240" s="16" customFormat="1" spans="1:6">
-      <c r="A240" s="24"/>
-      <c r="B240" s="24"/>
-      <c r="C240" s="25"/>
-      <c r="D240" s="25"/>
-      <c r="F240" s="25"/>
-    </row>
-    <row r="241" s="16" customFormat="1" spans="1:6">
-      <c r="A241" s="24"/>
-      <c r="B241" s="24"/>
-      <c r="C241" s="25"/>
-      <c r="D241" s="25"/>
-      <c r="F241" s="25"/>
-    </row>
-    <row r="242" s="16" customFormat="1" spans="1:6">
-      <c r="A242" s="24"/>
-      <c r="B242" s="24"/>
-      <c r="C242" s="25"/>
-      <c r="D242" s="25"/>
-      <c r="F242" s="25"/>
-    </row>
-    <row r="243" s="16" customFormat="1" spans="1:6">
-      <c r="A243" s="24"/>
-      <c r="B243" s="24"/>
-      <c r="C243" s="25"/>
-      <c r="D243" s="25"/>
-      <c r="F243" s="25"/>
-    </row>
-    <row r="244" s="16" customFormat="1" spans="1:6">
-      <c r="A244" s="24"/>
-      <c r="B244" s="24"/>
-      <c r="C244" s="25"/>
-      <c r="D244" s="25"/>
-      <c r="F244" s="25"/>
-    </row>
-    <row r="245" s="16" customFormat="1" spans="1:6">
-      <c r="A245" s="24"/>
-      <c r="B245" s="24"/>
-      <c r="C245" s="25"/>
-      <c r="D245" s="25"/>
-      <c r="F245" s="25"/>
-    </row>
-    <row r="246" s="16" customFormat="1" spans="1:6">
-      <c r="A246" s="24"/>
-      <c r="B246" s="24"/>
-      <c r="C246" s="25"/>
-      <c r="D246" s="25"/>
-      <c r="F246" s="25"/>
-    </row>
-    <row r="247" s="16" customFormat="1" spans="1:6">
-      <c r="A247" s="24"/>
-      <c r="B247" s="24"/>
-      <c r="C247" s="25"/>
-      <c r="D247" s="25"/>
-      <c r="F247" s="25"/>
-    </row>
-    <row r="248" s="16" customFormat="1" spans="1:6">
-      <c r="A248" s="24"/>
-      <c r="B248" s="24"/>
-      <c r="C248" s="25"/>
-      <c r="D248" s="25"/>
-      <c r="F248" s="25"/>
-    </row>
-    <row r="249" s="16" customFormat="1" spans="1:6">
-      <c r="A249" s="24"/>
-      <c r="B249" s="24"/>
-      <c r="C249" s="25"/>
-      <c r="D249" s="25"/>
-      <c r="F249" s="25"/>
-    </row>
-    <row r="250" s="16" customFormat="1" spans="1:6">
-      <c r="A250" s="24"/>
-      <c r="B250" s="24"/>
-      <c r="C250" s="25"/>
-      <c r="D250" s="25"/>
-      <c r="F250" s="25"/>
-    </row>
-    <row r="251" s="16" customFormat="1" spans="1:6">
-      <c r="A251" s="24"/>
-      <c r="B251" s="24"/>
-      <c r="C251" s="25"/>
-      <c r="D251" s="25"/>
-      <c r="F251" s="25"/>
-    </row>
-    <row r="252" s="16" customFormat="1" spans="1:6">
-      <c r="A252" s="24"/>
-      <c r="B252" s="24"/>
-      <c r="C252" s="25"/>
-      <c r="D252" s="25"/>
-      <c r="F252" s="25"/>
-    </row>
-    <row r="253" s="16" customFormat="1" spans="1:6">
-      <c r="A253" s="24"/>
-      <c r="B253" s="24"/>
-      <c r="C253" s="25"/>
-      <c r="D253" s="25"/>
-      <c r="F253" s="25"/>
-    </row>
-    <row r="254" s="16" customFormat="1" spans="1:6">
-      <c r="A254" s="24"/>
-      <c r="B254" s="24"/>
-      <c r="C254" s="25"/>
-      <c r="D254" s="25"/>
-      <c r="F254" s="25"/>
-    </row>
-    <row r="255" s="16" customFormat="1" spans="1:6">
-      <c r="A255" s="24"/>
-      <c r="B255" s="24"/>
-      <c r="C255" s="25"/>
-      <c r="D255" s="25"/>
-      <c r="F255" s="25"/>
-    </row>
-    <row r="256" s="16" customFormat="1" spans="1:6">
-      <c r="A256" s="24"/>
-      <c r="B256" s="24"/>
-      <c r="C256" s="25"/>
-      <c r="D256" s="25"/>
-      <c r="F256" s="25"/>
-    </row>
-    <row r="257" s="16" customFormat="1" spans="1:6">
-      <c r="A257" s="24"/>
-      <c r="B257" s="24"/>
-      <c r="C257" s="25"/>
-      <c r="D257" s="25"/>
-      <c r="F257" s="25"/>
-    </row>
-    <row r="258" s="16" customFormat="1" spans="1:6">
-      <c r="A258" s="24"/>
-      <c r="B258" s="24"/>
-      <c r="C258" s="25"/>
-      <c r="D258" s="25"/>
-      <c r="F258" s="25"/>
-    </row>
-    <row r="259" s="16" customFormat="1" spans="1:6">
-      <c r="A259" s="24"/>
-      <c r="B259" s="24"/>
-      <c r="C259" s="25"/>
-      <c r="D259" s="25"/>
-      <c r="F259" s="25"/>
-    </row>
-    <row r="260" s="16" customFormat="1" spans="1:6">
-      <c r="A260" s="24"/>
-      <c r="B260" s="24"/>
-      <c r="C260" s="25"/>
-      <c r="D260" s="25"/>
-      <c r="F260" s="25"/>
-    </row>
-    <row r="261" s="16" customFormat="1" spans="1:6">
-      <c r="A261" s="24"/>
-      <c r="B261" s="24"/>
-      <c r="C261" s="25"/>
-      <c r="D261" s="25"/>
-      <c r="F261" s="25"/>
-    </row>
-    <row r="262" s="16" customFormat="1" spans="1:6">
-      <c r="A262" s="24"/>
-      <c r="B262" s="24"/>
-      <c r="C262" s="25"/>
-      <c r="D262" s="25"/>
-      <c r="F262" s="25"/>
-    </row>
-    <row r="263" s="16" customFormat="1" spans="1:6">
-      <c r="A263" s="24"/>
-      <c r="B263" s="24"/>
-      <c r="C263" s="25"/>
-      <c r="D263" s="25"/>
-      <c r="F263" s="25"/>
-    </row>
-    <row r="264" s="16" customFormat="1" spans="1:6">
-      <c r="A264" s="24"/>
-      <c r="B264" s="24"/>
-      <c r="C264" s="25"/>
-      <c r="D264" s="25"/>
-      <c r="F264" s="25"/>
-    </row>
-    <row r="265" s="16" customFormat="1" spans="1:6">
-      <c r="A265" s="24"/>
-      <c r="B265" s="24"/>
-      <c r="C265" s="25"/>
-      <c r="D265" s="25"/>
-      <c r="F265" s="25"/>
-    </row>
-    <row r="266" s="16" customFormat="1" spans="1:6">
-      <c r="A266" s="24"/>
-      <c r="B266" s="24"/>
-      <c r="C266" s="25"/>
-      <c r="D266" s="25"/>
-      <c r="F266" s="25"/>
-    </row>
-    <row r="267" s="16" customFormat="1" spans="1:6">
-      <c r="A267" s="24"/>
-      <c r="B267" s="24"/>
-      <c r="C267" s="25"/>
-      <c r="D267" s="25"/>
-      <c r="F267" s="25"/>
-    </row>
-    <row r="268" s="16" customFormat="1" spans="1:6">
-      <c r="A268" s="24"/>
-      <c r="B268" s="24"/>
-      <c r="C268" s="25"/>
-      <c r="D268" s="25"/>
-      <c r="F268" s="25"/>
-    </row>
-    <row r="269" s="16" customFormat="1" spans="1:6">
-      <c r="A269" s="24"/>
-      <c r="B269" s="24"/>
-      <c r="C269" s="25"/>
-      <c r="D269" s="25"/>
-      <c r="F269" s="25"/>
-    </row>
-    <row r="270" s="16" customFormat="1" spans="1:6">
-      <c r="A270" s="24"/>
-      <c r="B270" s="24"/>
-      <c r="C270" s="25"/>
-      <c r="D270" s="25"/>
-      <c r="F270" s="25"/>
-    </row>
-    <row r="271" s="16" customFormat="1" spans="1:6">
-      <c r="A271" s="24"/>
-      <c r="B271" s="24"/>
-      <c r="C271" s="25"/>
-      <c r="D271" s="25"/>
-      <c r="F271" s="25"/>
-    </row>
-    <row r="272" s="16" customFormat="1" spans="1:6">
-      <c r="A272" s="24"/>
-      <c r="B272" s="24"/>
-      <c r="C272" s="25"/>
-      <c r="D272" s="25"/>
-      <c r="F272" s="25"/>
-    </row>
-    <row r="273" s="16" customFormat="1" spans="1:6">
-      <c r="A273" s="24"/>
-      <c r="B273" s="24"/>
-      <c r="C273" s="25"/>
-      <c r="D273" s="25"/>
-      <c r="F273" s="25"/>
-    </row>
-    <row r="274" s="16" customFormat="1" spans="1:6">
-      <c r="A274" s="24"/>
-      <c r="B274" s="24"/>
-      <c r="C274" s="25"/>
-      <c r="D274" s="25"/>
-      <c r="F274" s="25"/>
+    <row r="226" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A226" s="23"/>
+      <c r="B226" s="23"/>
+      <c r="C226" s="24"/>
+      <c r="D226" s="24"/>
+      <c r="F226" s="24"/>
+    </row>
+    <row r="227" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A227" s="23"/>
+      <c r="B227" s="23"/>
+      <c r="C227" s="24"/>
+      <c r="D227" s="24"/>
+      <c r="F227" s="24"/>
+    </row>
+    <row r="228" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A228" s="23"/>
+      <c r="B228" s="23"/>
+      <c r="C228" s="24"/>
+      <c r="D228" s="24"/>
+      <c r="F228" s="24"/>
+    </row>
+    <row r="229" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A229" s="23"/>
+      <c r="B229" s="23"/>
+      <c r="C229" s="24"/>
+      <c r="D229" s="24"/>
+      <c r="F229" s="24"/>
+    </row>
+    <row r="230" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A230" s="23"/>
+      <c r="B230" s="23"/>
+      <c r="C230" s="24"/>
+      <c r="D230" s="24"/>
+      <c r="F230" s="24"/>
+    </row>
+    <row r="231" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A231" s="23"/>
+      <c r="B231" s="23"/>
+      <c r="C231" s="24"/>
+      <c r="D231" s="24"/>
+      <c r="F231" s="24"/>
+    </row>
+    <row r="232" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A232" s="23"/>
+      <c r="B232" s="23"/>
+      <c r="C232" s="24"/>
+      <c r="D232" s="24"/>
+      <c r="F232" s="24"/>
+    </row>
+    <row r="233" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A233" s="23"/>
+      <c r="B233" s="23"/>
+      <c r="C233" s="24"/>
+      <c r="D233" s="24"/>
+      <c r="F233" s="24"/>
+    </row>
+    <row r="234" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A234" s="23"/>
+      <c r="B234" s="23"/>
+      <c r="C234" s="24"/>
+      <c r="D234" s="24"/>
+      <c r="F234" s="24"/>
+    </row>
+    <row r="235" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A235" s="23"/>
+      <c r="B235" s="23"/>
+      <c r="C235" s="24"/>
+      <c r="D235" s="24"/>
+      <c r="F235" s="24"/>
+    </row>
+    <row r="236" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A236" s="23"/>
+      <c r="B236" s="23"/>
+      <c r="C236" s="24"/>
+      <c r="D236" s="24"/>
+      <c r="F236" s="24"/>
+    </row>
+    <row r="237" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A237" s="23"/>
+      <c r="B237" s="23"/>
+      <c r="C237" s="24"/>
+      <c r="D237" s="24"/>
+      <c r="F237" s="24"/>
+    </row>
+    <row r="238" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A238" s="23"/>
+      <c r="B238" s="23"/>
+      <c r="C238" s="24"/>
+      <c r="D238" s="24"/>
+      <c r="F238" s="24"/>
+    </row>
+    <row r="239" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A239" s="23"/>
+      <c r="B239" s="23"/>
+      <c r="C239" s="24"/>
+      <c r="D239" s="24"/>
+      <c r="F239" s="24"/>
+    </row>
+    <row r="240" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A240" s="23"/>
+      <c r="B240" s="23"/>
+      <c r="C240" s="24"/>
+      <c r="D240" s="24"/>
+      <c r="F240" s="24"/>
+    </row>
+    <row r="241" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A241" s="23"/>
+      <c r="B241" s="23"/>
+      <c r="C241" s="24"/>
+      <c r="D241" s="24"/>
+      <c r="F241" s="24"/>
+    </row>
+    <row r="242" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A242" s="23"/>
+      <c r="B242" s="23"/>
+      <c r="C242" s="24"/>
+      <c r="D242" s="24"/>
+      <c r="F242" s="24"/>
+    </row>
+    <row r="243" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A243" s="23"/>
+      <c r="B243" s="23"/>
+      <c r="C243" s="24"/>
+      <c r="D243" s="24"/>
+      <c r="F243" s="24"/>
+    </row>
+    <row r="244" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A244" s="23"/>
+      <c r="B244" s="23"/>
+      <c r="C244" s="24"/>
+      <c r="D244" s="24"/>
+      <c r="F244" s="24"/>
+    </row>
+    <row r="245" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A245" s="23"/>
+      <c r="B245" s="23"/>
+      <c r="C245" s="24"/>
+      <c r="D245" s="24"/>
+      <c r="F245" s="24"/>
+    </row>
+    <row r="246" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A246" s="23"/>
+      <c r="B246" s="23"/>
+      <c r="C246" s="24"/>
+      <c r="D246" s="24"/>
+      <c r="F246" s="24"/>
+    </row>
+    <row r="247" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A247" s="23"/>
+      <c r="B247" s="23"/>
+      <c r="C247" s="24"/>
+      <c r="D247" s="24"/>
+      <c r="F247" s="24"/>
+    </row>
+    <row r="248" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A248" s="23"/>
+      <c r="B248" s="23"/>
+      <c r="C248" s="24"/>
+      <c r="D248" s="24"/>
+      <c r="F248" s="24"/>
+    </row>
+    <row r="249" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A249" s="23"/>
+      <c r="B249" s="23"/>
+      <c r="C249" s="24"/>
+      <c r="D249" s="24"/>
+      <c r="F249" s="24"/>
+    </row>
+    <row r="250" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A250" s="23"/>
+      <c r="B250" s="23"/>
+      <c r="C250" s="24"/>
+      <c r="D250" s="24"/>
+      <c r="F250" s="24"/>
+    </row>
+    <row r="251" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A251" s="23"/>
+      <c r="B251" s="23"/>
+      <c r="C251" s="24"/>
+      <c r="D251" s="24"/>
+      <c r="F251" s="24"/>
+    </row>
+    <row r="252" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A252" s="23"/>
+      <c r="B252" s="23"/>
+      <c r="C252" s="24"/>
+      <c r="D252" s="24"/>
+      <c r="F252" s="24"/>
+    </row>
+    <row r="253" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A253" s="23"/>
+      <c r="B253" s="23"/>
+      <c r="C253" s="24"/>
+      <c r="D253" s="24"/>
+      <c r="F253" s="24"/>
+    </row>
+    <row r="254" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A254" s="23"/>
+      <c r="B254" s="23"/>
+      <c r="C254" s="24"/>
+      <c r="D254" s="24"/>
+      <c r="F254" s="24"/>
+    </row>
+    <row r="255" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A255" s="23"/>
+      <c r="B255" s="23"/>
+      <c r="C255" s="24"/>
+      <c r="D255" s="24"/>
+      <c r="F255" s="24"/>
+    </row>
+    <row r="256" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A256" s="23"/>
+      <c r="B256" s="23"/>
+      <c r="C256" s="24"/>
+      <c r="D256" s="24"/>
+      <c r="F256" s="24"/>
+    </row>
+    <row r="257" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A257" s="23"/>
+      <c r="B257" s="23"/>
+      <c r="C257" s="24"/>
+      <c r="D257" s="24"/>
+      <c r="F257" s="24"/>
+    </row>
+    <row r="258" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A258" s="23"/>
+      <c r="B258" s="23"/>
+      <c r="C258" s="24"/>
+      <c r="D258" s="24"/>
+      <c r="F258" s="24"/>
+    </row>
+    <row r="259" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A259" s="23"/>
+      <c r="B259" s="23"/>
+      <c r="C259" s="24"/>
+      <c r="D259" s="24"/>
+      <c r="F259" s="24"/>
+    </row>
+    <row r="260" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A260" s="23"/>
+      <c r="B260" s="23"/>
+      <c r="C260" s="24"/>
+      <c r="D260" s="24"/>
+      <c r="F260" s="24"/>
+    </row>
+    <row r="261" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A261" s="23"/>
+      <c r="B261" s="23"/>
+      <c r="C261" s="24"/>
+      <c r="D261" s="24"/>
+      <c r="F261" s="24"/>
+    </row>
+    <row r="262" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A262" s="23"/>
+      <c r="B262" s="23"/>
+      <c r="C262" s="24"/>
+      <c r="D262" s="24"/>
+      <c r="F262" s="24"/>
+    </row>
+    <row r="263" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A263" s="23"/>
+      <c r="B263" s="23"/>
+      <c r="C263" s="24"/>
+      <c r="D263" s="24"/>
+      <c r="F263" s="24"/>
+    </row>
+    <row r="264" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A264" s="23"/>
+      <c r="B264" s="23"/>
+      <c r="C264" s="24"/>
+      <c r="D264" s="24"/>
+      <c r="F264" s="24"/>
+    </row>
+    <row r="265" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A265" s="23"/>
+      <c r="B265" s="23"/>
+      <c r="C265" s="24"/>
+      <c r="D265" s="24"/>
+      <c r="F265" s="24"/>
+    </row>
+    <row r="266" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A266" s="23"/>
+      <c r="B266" s="23"/>
+      <c r="C266" s="24"/>
+      <c r="D266" s="24"/>
+      <c r="F266" s="24"/>
+    </row>
+    <row r="267" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A267" s="23"/>
+      <c r="B267" s="23"/>
+      <c r="C267" s="24"/>
+      <c r="D267" s="24"/>
+      <c r="F267" s="24"/>
+    </row>
+    <row r="268" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A268" s="23"/>
+      <c r="B268" s="23"/>
+      <c r="C268" s="24"/>
+      <c r="D268" s="24"/>
+      <c r="F268" s="24"/>
+    </row>
+    <row r="269" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A269" s="23"/>
+      <c r="B269" s="23"/>
+      <c r="C269" s="24"/>
+      <c r="D269" s="24"/>
+      <c r="F269" s="24"/>
+    </row>
+    <row r="270" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A270" s="23"/>
+      <c r="B270" s="23"/>
+      <c r="C270" s="24"/>
+      <c r="D270" s="24"/>
+      <c r="F270" s="24"/>
+    </row>
+    <row r="271" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A271" s="23"/>
+      <c r="B271" s="23"/>
+      <c r="C271" s="24"/>
+      <c r="D271" s="24"/>
+      <c r="F271" s="24"/>
+    </row>
+    <row r="272" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A272" s="23"/>
+      <c r="B272" s="23"/>
+      <c r="C272" s="24"/>
+      <c r="D272" s="24"/>
+      <c r="F272" s="24"/>
+    </row>
+    <row r="273" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A273" s="23"/>
+      <c r="B273" s="23"/>
+      <c r="C273" s="24"/>
+      <c r="D273" s="24"/>
+      <c r="F273" s="24"/>
+    </row>
+    <row r="274" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A274" s="23"/>
+      <c r="B274" s="23"/>
+      <c r="C274" s="24"/>
+      <c r="D274" s="24"/>
+      <c r="F274" s="24"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="4" max="4" width="78.125" customWidth="1"/>
@@ -6544,7 +5921,7 @@
     <col min="6" max="6" width="78.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6564,443 +5941,443 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>309</v>
+      <c r="C2" s="25" t="s">
+        <v>308</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>311</v>
+      <c r="C3" s="25" t="s">
+        <v>310</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>415</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>314</v>
+      <c r="C5" s="25" t="s">
+        <v>313</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>329</v>
+      <c r="C9" s="25" t="s">
+        <v>328</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="E9" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>338</v>
+      <c r="C10" s="25" t="s">
+        <v>337</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="E10" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>66</v>
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>342</v>
+      <c r="C11" s="25" t="s">
+        <v>341</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="E11" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>95</v>
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>362</v>
+      <c r="C13" s="25" t="s">
+        <v>361</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>364</v>
+      <c r="C14" s="25" t="s">
+        <v>363</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>366</v>
+      <c r="C15" s="25" t="s">
+        <v>365</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>369</v>
+      <c r="C16" s="25" t="s">
+        <v>368</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>372</v>
+      <c r="C17" s="25" t="s">
+        <v>371</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>374</v>
+      <c r="C18" s="25" t="s">
+        <v>373</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="26" t="s">
-        <v>376</v>
+      <c r="C19" s="25" t="s">
+        <v>375</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="4" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>438</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>439</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>7</v>
@@ -7009,546 +6386,546 @@
         <v>285</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="4" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>446</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>447</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>449</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>450</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="8" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="32" ht="34" spans="1:6">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>452</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>453</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="9" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="33" ht="34" spans="1:6">
-      <c r="A33" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="4" t="s">
         <v>459</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>460</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>461</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>462</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>463</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>464</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>465</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>466</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>236</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>468</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>469</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>236</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>471</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>236</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>472</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>473</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>236</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>474</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>475</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>236</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>476</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>477</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>267</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>478</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>479</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>267</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>480</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>481</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>267</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>482</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>483</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>267</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>484</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>485</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>267</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>486</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>487</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>267</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>488</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>489</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>267</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>490</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>491</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>267</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>492</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>493</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>267</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>494</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>495</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>267</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>496</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>497</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="4" t="s">
         <v>499</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>500</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>282</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>501</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>502</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>282</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>503</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>504</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>282</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>505</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>506</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>282</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>507</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>508</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C70" s="26" t="s">
+      <c r="C70" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="E70" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="E70" s="25" t="s">
         <v>200</v>
       </c>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="C71" s="25" t="s">
         <v>10</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="E71" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="E71" s="25" t="s">
         <v>8</v>
       </c>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C72" s="26" t="s">
+      <c r="C72" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="E72" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="E72" s="25" t="s">
         <v>286</v>
       </c>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>12</v>
@@ -7557,50 +6934,50 @@
         <v>28</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E73" s="2">
         <v>121</v>
       </c>
       <c r="F73" s="4"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>513</v>
-      </c>
-      <c r="C74" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>514</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="26" t="s">
+      <c r="C75" s="25" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="E75" s="26" t="s">
+        <v>514</v>
+      </c>
+      <c r="E75" s="25" t="s">
         <v>13</v>
       </c>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>12</v>
@@ -7609,34 +6986,34 @@
         <v>43</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B77" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C77" s="26" t="s">
-        <v>414</v>
+      <c r="C77" s="25" t="s">
+        <v>413</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="8" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>12</v>
@@ -7645,154 +7022,154 @@
         <v>46</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E78" s="2">
         <v>114</v>
       </c>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="C79" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="C79" s="25" t="s">
         <v>50</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="26" t="s">
+      <c r="C80" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D80" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="E80" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="E80" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F80" s="4"/>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B81" s="2" t="s">
+      <c r="C81" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="C81" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="E81" s="26" t="s">
+      <c r="E81" s="25" t="s">
         <v>176</v>
       </c>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C82" s="26" t="s">
+      <c r="C82" s="25" t="s">
         <v>66</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="E82" s="26" t="s">
-        <v>338</v>
+        <v>523</v>
+      </c>
+      <c r="E82" s="25" t="s">
+        <v>337</v>
       </c>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C83" s="26" t="s">
+      <c r="C83" s="25" t="s">
         <v>75</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C84" s="26" t="s">
+      <c r="C84" s="25" t="s">
         <v>33</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E84" s="26" t="s">
+      <c r="E84" s="25" t="s">
         <v>31</v>
       </c>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>526</v>
-      </c>
-      <c r="C85" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>527</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C86" s="26" t="s">
+      <c r="C86" s="25" t="s">
         <v>36</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="E86" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="E86" s="25" t="s">
         <v>34</v>
       </c>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>12</v>
@@ -7808,45 +7185,45 @@
       </c>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C88" s="26" t="s">
+      <c r="C88" s="25" t="s">
         <v>109</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E88" s="2">
         <v>134</v>
       </c>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C89" s="26" t="s">
+      <c r="C89" s="25" t="s">
         <v>129</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="E89" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="E89" s="25" t="s">
         <v>172</v>
       </c>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>151</v>
@@ -7855,100 +7232,100 @@
         <v>136</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>165</v>
       </c>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B91" s="2"/>
-      <c r="C91" s="26" t="s">
+      <c r="C91" s="25" t="s">
         <v>134</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E91" s="2">
         <v>120</v>
       </c>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C92" s="26" t="s">
+      <c r="C92" s="25" t="s">
         <v>152</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>533</v>
-      </c>
-      <c r="E92" s="27" t="s">
+        <v>532</v>
+      </c>
+      <c r="E92" s="26" t="s">
         <v>80</v>
       </c>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C93" s="26" t="s">
+      <c r="C93" s="25" t="s">
         <v>140</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E93" s="26" t="s">
+      <c r="E93" s="25" t="s">
         <v>138</v>
       </c>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C94" s="26" t="s">
+      <c r="C94" s="25" t="s">
         <v>169</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C95" s="26" t="s">
-        <v>438</v>
+      <c r="C95" s="25" t="s">
+        <v>437</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>168</v>
@@ -7957,34 +7334,34 @@
         <v>184</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>169</v>
       </c>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>190</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E97" s="2">
         <v>115</v>
       </c>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>168</v>
@@ -7993,14 +7370,14 @@
         <v>197</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>282</v>
@@ -8009,7 +7386,7 @@
         <v>285</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E99" s="2">
         <v>170</v>
@@ -8017,7 +7394,7 @@
       <c r="F99" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/017 面试题/自测题.xlsx
+++ b/017 面试题/自测题.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\personal\00-Python\017 面试题\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D23F50-2704-4EB8-8B80-E9F192346862}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546">
   <si>
     <t>类型</t>
   </si>
@@ -74,12 +68,18 @@
     <t>010</t>
   </si>
   <si>
-    <t>简述 with 方法打开处理文件帮我我们做了什么？</t>
+    <t xml:space="preserve">*  </t>
+  </si>
+  <si>
+    <t>简述 with 方法打开处理文件帮我们做了什么？</t>
   </si>
   <si>
     <t>068, 012</t>
   </si>
   <si>
+    <t>问题不难但难在回答的全面</t>
+  </si>
+  <si>
     <t>*</t>
   </si>
   <si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*  </t>
   </si>
   <si>
     <t>语言特性</t>
@@ -382,7 +379,9 @@
     <t>058</t>
   </si>
   <si>
-    <t>下面的代码输出的结果是什么?</t>
+    <t xml:space="preserve">下面的代码输出的结果是什么?
+a = (1, 2, 3, [4, 5, 6, 7], 8)
+a[3][0] = 2  </t>
   </si>
   <si>
     <t>059</t>
@@ -955,6 +954,9 @@
     <t>git 如何查看某次提交修改的内容</t>
   </si>
   <si>
+    <t>一行代码实现1--100之和</t>
+  </si>
+  <si>
     <t>重点在 sum 可以接受一个可迭代对象并迭代求和</t>
   </si>
   <si>
@@ -1018,6 +1020,9 @@
     <t>字典根据键从小到大排序 dic={"name":"zs","age":18,"city":"深圳","tel":"1362626627"}</t>
   </si>
   <si>
+    <t>非常好的一道题, 重点在于 dic.items 可以把字典转成一个由元组组成的列表, 然后利用sorted对这个列表中的元素进行排序, 最后再转回列表</t>
+  </si>
+  <si>
     <t>利用collections库的Counter方法统计字符串每个单词出现的次数"kjalfj;ldsjafl;hdsllfdhg;lahfbl;hl;ahlf;h"</t>
   </si>
   <si>
@@ -1111,18 +1116,41 @@
     <t>列出常见MYSQL数据存储引擎</t>
   </si>
   <si>
-    <t>计算代码运行结果，得出[("a",1),("b",2)，("c",3),("d",4),("e",5)]</t>
+    <t>计算代码运行结果，得出[("a",1),("b",2)，("c",3),("d",4),("e",5)]
+A = zip(("a", "b", "c", "d", "e"), (1, 2, 3, 4, 5))
+A0 = dict(A)
+A1 = range(10)
+A2 = list(zip(("a", "b", "c", "d", "e"), (1, 2, 3, 4, 5)))
+A3 = [i for i in A1 if i in A0]
+A4 = [A0[s] for s in A0]
+求 A0, A2, A3 和 A4 的结果</t>
+  </si>
+  <si>
+    <t>这一题的第一个选项A0是盲点, 之前知道zip函数的用法,也就是对应位置配对, 但是不知道可以直接把zip组装的配对zip对象传给dict()直接生成字典
+A3 和 A4 是求的key 和 value 的集合</t>
+  </si>
+  <si>
+    <t>安全</t>
   </si>
   <si>
     <t>简述同源策略</t>
   </si>
   <si>
+    <t>安全方面的题, 和 CSRF 有关</t>
+  </si>
+  <si>
     <t>简述cookie和session的区别</t>
   </si>
   <si>
+    <t>网络方面的一星题吧, 张挺教程和慕课网相关章节有更详细描述</t>
+  </si>
+  <si>
     <t>简述多线程、多进程</t>
   </si>
   <si>
+    <t>好像知道但其实回答不出来</t>
+  </si>
+  <si>
     <t>IOError、AttributeError、ImportError、IndentationError、IndexError、KeyError、SyntaxError、NameError分别代表什么异常</t>
   </si>
   <si>
@@ -1664,17 +1692,19 @@
   </si>
   <si>
     <t>python垃圾回收机制</t>
-  </si>
-  <si>
-    <t>一行代码实现1--100之和</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1688,12 +1718,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1712,8 +1888,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1736,13 +2098,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1803,6 +2407,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1812,39 +2419,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2102,20 +2756,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G274"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E132" sqref="E132"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="4" style="17" customWidth="1"/>
     <col min="2" max="2" width="4.875" style="17" customWidth="1"/>
@@ -2123,10 +2778,10 @@
     <col min="4" max="4" width="9" style="18"/>
     <col min="5" max="5" width="71" customWidth="1"/>
     <col min="6" max="6" width="9" style="18"/>
-    <col min="7" max="7" width="98.625" customWidth="1"/>
+    <col min="7" max="7" width="145.923076923077" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2149,79 +2804,81 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="27" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="27" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="27" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B4" s="19"/>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="27" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F4" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>19</v>
+      <c r="D5" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2229,1961 +2886,1961 @@
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>21</v>
+      <c r="D6" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>30</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>31</v>
+      <c r="D9" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>34</v>
+      <c r="D10" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="27" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>40</v>
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="25" t="s">
         <v>41</v>
       </c>
+      <c r="D12" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="E12" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>44</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="25" t="s">
         <v>46</v>
       </c>
+      <c r="D14" s="27" t="s">
+        <v>47</v>
+      </c>
       <c r="E14" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>52</v>
+        <v>46</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>53</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>55</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>56</v>
+        <v>46</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>58</v>
+        <v>46</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>59</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>60</v>
+        <v>46</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>61</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>62</v>
+        <v>46</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>63</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>64</v>
+        <v>46</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>65</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>66</v>
+        <v>26</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>67</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>68</v>
+        <v>26</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>71</v>
+        <v>26</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>72</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>73</v>
+        <v>26</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>74</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7">
       <c r="A28" s="1"/>
       <c r="B28" s="19"/>
       <c r="C28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>75</v>
+        <v>26</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>76</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7">
       <c r="A29" s="1"/>
       <c r="B29" s="19"/>
       <c r="C29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>35</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7">
       <c r="A30" s="1"/>
       <c r="B30" s="19"/>
       <c r="C30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>78</v>
+        <v>26</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>79</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="31" ht="51" spans="1:7">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>80</v>
+        <v>26</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>81</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="32" ht="34" spans="1:7">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>82</v>
+        <v>26</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>83</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="25" t="s">
         <v>85</v>
       </c>
+      <c r="D33" s="27" t="s">
+        <v>86</v>
+      </c>
       <c r="E33" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>36</v>
+        <v>85</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>88</v>
+        <v>85</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>91</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>92</v>
+        <v>85</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>93</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="25" t="s">
         <v>95</v>
       </c>
+      <c r="D38" s="27" t="s">
+        <v>96</v>
+      </c>
       <c r="E38" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>98</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>100</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>101</v>
+        <v>95</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>102</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>38</v>
+        <v>95</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>40</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="25" t="s">
         <v>105</v>
       </c>
+      <c r="D43" s="27" t="s">
+        <v>106</v>
+      </c>
       <c r="E43" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>108</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>109</v>
+        <v>105</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>110</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>111</v>
+        <v>105</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>112</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>113</v>
+        <v>105</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>114</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>115</v>
+        <v>105</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>116</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" ht="51" spans="1:7">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="E49" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="27" t="s">
         <v>118</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>119</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="25" t="s">
-        <v>119</v>
+      <c r="D50" s="27" t="s">
+        <v>120</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>121</v>
+        <v>29</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="25" t="s">
-        <v>123</v>
+      <c r="D52" s="27" t="s">
+        <v>124</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="25" t="s">
-        <v>125</v>
+      <c r="D53" s="27" t="s">
+        <v>126</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="25" t="s">
-        <v>127</v>
+        <v>29</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>128</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="25" t="s">
-        <v>129</v>
+      <c r="D55" s="27" t="s">
+        <v>130</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D56" s="25" t="s">
         <v>132</v>
       </c>
+      <c r="D56" s="27" t="s">
+        <v>133</v>
+      </c>
       <c r="E56" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+    <row r="57" ht="101" spans="1:7">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>134</v>
+        <v>132</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>135</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="25" t="s">
-        <v>136</v>
+      <c r="D58" s="27" t="s">
+        <v>137</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D59" s="25" t="s">
-        <v>138</v>
+        <v>95</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>139</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F59" s="25" t="s">
         <v>140</v>
       </c>
+      <c r="F59" s="27" t="s">
+        <v>141</v>
+      </c>
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>141</v>
+        <v>132</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>142</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D61" s="25" t="s">
         <v>144</v>
       </c>
+      <c r="D61" s="27" t="s">
+        <v>145</v>
+      </c>
       <c r="E61" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>147</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E66" s="27" t="s">
         <v>157</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>158</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B69" s="19"/>
       <c r="C69" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B70" s="19"/>
       <c r="C70" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F70" s="25" t="s">
-        <v>136</v>
+        <v>167</v>
+      </c>
+      <c r="F70" s="27" t="s">
+        <v>137</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B71" s="19"/>
       <c r="C71" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F71" s="2">
         <v>100</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A72" s="20" t="s">
-        <v>30</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="B72" s="19"/>
-      <c r="C72" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="D72" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="E72" s="22" t="s">
+      <c r="C72" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D72" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="F72" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="G72" s="22" t="s">
+      <c r="E72" s="23" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F72" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G72" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" s="15" customFormat="1" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B73" s="19"/>
       <c r="C73" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F73" s="25" t="s">
-        <v>64</v>
+        <v>178</v>
+      </c>
+      <c r="F73" s="27" t="s">
+        <v>65</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7">
       <c r="A77" s="1"/>
       <c r="B77" s="19"/>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:7">
       <c r="A78" s="1"/>
       <c r="B78" s="19"/>
       <c r="C78" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7">
       <c r="A79" s="1"/>
       <c r="B79" s="19"/>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B80" s="19"/>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1"/>
       <c r="B81" s="19"/>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B82" s="19"/>
       <c r="C82" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B83" s="19"/>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F83" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="F83" s="27" t="s">
         <v>13</v>
       </c>
       <c r="G83" s="4"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:7">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="4"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="85" ht="17" spans="1:7">
       <c r="A85" s="1"/>
       <c r="B85" s="19"/>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F85" s="25" t="s">
-        <v>46</v>
+        <v>206</v>
+      </c>
+      <c r="F85" s="27" t="s">
+        <v>47</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1"/>
       <c r="B86" s="19"/>
       <c r="C86" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F86" s="2">
         <v>103</v>
       </c>
       <c r="G86" s="4"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B87" s="19"/>
       <c r="C87" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B88" s="19"/>
       <c r="C88" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B89" s="19"/>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="F89" s="25" t="s">
-        <v>134</v>
+        <v>218</v>
+      </c>
+      <c r="F89" s="27" t="s">
+        <v>135</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1"/>
       <c r="B90" s="19"/>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="F90" s="25" t="s">
-        <v>28</v>
+        <v>221</v>
+      </c>
+      <c r="F90" s="27" t="s">
+        <v>30</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B91" s="19"/>
       <c r="C91" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="4"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="4"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:7">
       <c r="A94" s="1"/>
       <c r="B94" s="19"/>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:7">
       <c r="A95" s="1"/>
       <c r="B95" s="19"/>
       <c r="C95" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:7">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="97" ht="51" spans="1:7">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:7">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B99" s="19"/>
       <c r="C99" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="F99" s="25" t="s">
-        <v>109</v>
+        <v>243</v>
+      </c>
+      <c r="F99" s="27" t="s">
+        <v>110</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="4"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:7">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="4"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:7">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="4"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="4"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="4"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:7">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="4"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="4"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:7">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="4"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:7">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="4"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:7">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="14" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="4"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:7">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="14" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="4"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:7">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="4"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:7">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="4"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:7">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="4"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:7">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="4"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:7">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="4"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:7">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="14" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="4"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:7">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="14" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="4"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:7">
       <c r="A118" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="F118" s="25" t="s">
         <v>285</v>
       </c>
+      <c r="F118" s="27" t="s">
+        <v>286</v>
+      </c>
       <c r="G118" s="4"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:7">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="F119" s="25" t="s">
-        <v>21</v>
+        <v>288</v>
+      </c>
+      <c r="F119" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="G119" s="4"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:7">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="4"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:7">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="4"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:7">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="4"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:7">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="4"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:7">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="4"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:7">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="4"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:7">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="2"/>
@@ -4192,302 +4849,304 @@
       <c r="F130" s="2"/>
       <c r="G130" s="4"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:7">
       <c r="A131" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B131" s="19"/>
       <c r="C131" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D131" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D131" s="27" t="s">
         <v>8</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>538</v>
+        <v>302</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D132" s="25" t="s">
-        <v>19</v>
+        <v>95</v>
+      </c>
+      <c r="D132" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="4"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:7">
       <c r="A133" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D133" s="25" t="s">
-        <v>25</v>
+        <v>85</v>
+      </c>
+      <c r="D133" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="4"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:7">
       <c r="A134" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B134" s="19"/>
       <c r="C134" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D134" s="29" t="s">
-        <v>34</v>
+        <v>176</v>
+      </c>
+      <c r="D134" s="31" t="s">
+        <v>36</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="4"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:7">
       <c r="A135" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B135" s="19"/>
       <c r="C135" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D135" s="25" t="s">
-        <v>41</v>
+        <v>152</v>
+      </c>
+      <c r="D135" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B136" s="19"/>
       <c r="C136" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D136" s="25" t="s">
-        <v>308</v>
+        <v>105</v>
+      </c>
+      <c r="D136" s="27" t="s">
+        <v>310</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="4"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:7">
       <c r="A137" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B137" s="19"/>
       <c r="C137" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D137" s="25" t="s">
-        <v>310</v>
+      <c r="D137" s="27" t="s">
+        <v>312</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D138" s="25" t="s">
-        <v>313</v>
+        <v>180</v>
+      </c>
+      <c r="D138" s="27" t="s">
+        <v>315</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="4"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:7">
       <c r="A139" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B139" s="1"/>
+      <c r="B139" s="19"/>
       <c r="C139" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D139" s="25" t="s">
-        <v>315</v>
+        <v>144</v>
+      </c>
+      <c r="D139" s="27" t="s">
+        <v>317</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="4"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:7">
       <c r="A140" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B140" s="1"/>
+      <c r="B140" s="19"/>
       <c r="C140" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D140" s="25" t="s">
-        <v>48</v>
+        <v>319</v>
+      </c>
+      <c r="D140" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="4"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:7">
       <c r="A141" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D141" s="25" t="s">
-        <v>54</v>
+        <v>26</v>
+      </c>
+      <c r="D141" s="27" t="s">
+        <v>55</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F141" s="2"/>
       <c r="G141" s="4"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:7">
       <c r="A142" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D142" s="25" t="s">
-        <v>56</v>
+        <v>176</v>
+      </c>
+      <c r="D142" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F142" s="2"/>
       <c r="G142" s="4"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:7">
       <c r="A143" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B143" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="B143" s="19"/>
       <c r="C143" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D143" s="25" t="s">
-        <v>58</v>
+        <v>95</v>
+      </c>
+      <c r="D143" s="27" t="s">
+        <v>59</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F143" s="2"/>
-      <c r="G143" s="4"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G143" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D144" s="25" t="s">
-        <v>60</v>
+      <c r="D144" s="27" t="s">
+        <v>61</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" s="4"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:7">
       <c r="A145" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D145" s="25" t="s">
-        <v>62</v>
+        <v>180</v>
+      </c>
+      <c r="D145" s="27" t="s">
+        <v>63</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F145" s="2"/>
       <c r="G145" s="4"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:7">
       <c r="A146" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D146" s="25" t="s">
-        <v>324</v>
+        <v>105</v>
+      </c>
+      <c r="D146" s="27" t="s">
+        <v>327</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F146" s="2"/>
       <c r="G146" s="4"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:7">
       <c r="A147" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D147" s="25" t="s">
-        <v>326</v>
+        <v>180</v>
+      </c>
+      <c r="D147" s="27" t="s">
+        <v>329</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F147" s="2"/>
       <c r="G147" s="4"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:7">
       <c r="A148" s="1" t="s">
         <v>11</v>
       </c>
@@ -4495,16 +5154,16 @@
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D148" s="25" t="s">
-        <v>328</v>
+      <c r="D148" s="27" t="s">
+        <v>331</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F148" s="2"/>
       <c r="G148" s="4"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:7">
       <c r="A149" s="1" t="s">
         <v>11</v>
       </c>
@@ -4512,1408 +5171,1418 @@
       <c r="C149" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D149" s="25" t="s">
-        <v>68</v>
+      <c r="D149" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F149" s="2"/>
       <c r="G149" s="4"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:7">
       <c r="A150" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D150" s="25" t="s">
-        <v>71</v>
+        <v>232</v>
+      </c>
+      <c r="D150" s="27" t="s">
+        <v>72</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F150" s="2"/>
       <c r="G150" s="4"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:7">
       <c r="A151" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D151" s="25" t="s">
-        <v>73</v>
+        <v>144</v>
+      </c>
+      <c r="D151" s="27" t="s">
+        <v>74</v>
       </c>
       <c r="E151" s="13" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F151" s="2"/>
       <c r="G151" s="4"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:7">
       <c r="A152" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D152" s="25" t="s">
-        <v>78</v>
+        <v>180</v>
+      </c>
+      <c r="D152" s="27" t="s">
+        <v>79</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="4"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:7">
       <c r="A153" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D153" s="25" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="D153" s="27" t="s">
+        <v>83</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="4"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:7">
       <c r="A154" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D154" s="25" t="s">
-        <v>85</v>
+        <v>26</v>
+      </c>
+      <c r="D154" s="27" t="s">
+        <v>86</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F154" s="2"/>
       <c r="G154" s="4"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:7">
       <c r="A155" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D155" s="25" t="s">
-        <v>88</v>
+      <c r="D155" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F155" s="2"/>
       <c r="G155" s="4"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:7">
       <c r="A156" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D156" s="25" t="s">
-        <v>90</v>
+        <v>162</v>
+      </c>
+      <c r="D156" s="27" t="s">
+        <v>91</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F156" s="2"/>
       <c r="G156" s="4"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:7">
       <c r="A157" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D157" s="25" t="s">
-        <v>337</v>
+        <v>180</v>
+      </c>
+      <c r="D157" s="27" t="s">
+        <v>340</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F157" s="2"/>
       <c r="G157" s="4"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:7">
       <c r="A158" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D158" s="25" t="s">
-        <v>92</v>
+        <v>144</v>
+      </c>
+      <c r="D158" s="27" t="s">
+        <v>93</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F158" s="2"/>
       <c r="G158" s="4"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:7">
       <c r="A159" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D159" s="25" t="s">
-        <v>95</v>
+        <v>26</v>
+      </c>
+      <c r="D159" s="27" t="s">
+        <v>96</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="F159" s="25" t="s">
-        <v>341</v>
+        <v>343</v>
+      </c>
+      <c r="F159" s="27" t="s">
+        <v>344</v>
       </c>
       <c r="G159" s="4"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:7">
       <c r="A160" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D160" s="25" t="s">
-        <v>97</v>
+        <v>85</v>
+      </c>
+      <c r="D160" s="27" t="s">
+        <v>98</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F160" s="2"/>
       <c r="G160" s="4"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:7">
       <c r="A161" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D161" s="25" t="s">
-        <v>99</v>
+        <v>105</v>
+      </c>
+      <c r="D161" s="27" t="s">
+        <v>100</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" s="4"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:7">
       <c r="A162" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D162" s="25" t="s">
-        <v>101</v>
+        <v>144</v>
+      </c>
+      <c r="D162" s="27" t="s">
+        <v>102</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F162" s="2"/>
       <c r="G162" s="4"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:7">
       <c r="A163" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D163" s="25" t="s">
-        <v>105</v>
+        <v>180</v>
+      </c>
+      <c r="D163" s="27" t="s">
+        <v>106</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="4"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:7">
       <c r="A164" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D164" s="25" t="s">
-        <v>107</v>
+        <v>85</v>
+      </c>
+      <c r="D164" s="27" t="s">
+        <v>108</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F164" s="2"/>
       <c r="G164" s="4"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:7">
       <c r="A165" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D165" s="25" t="s">
-        <v>111</v>
+        <v>26</v>
+      </c>
+      <c r="D165" s="27" t="s">
+        <v>112</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="4"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:7">
       <c r="A166" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="2"/>
-      <c r="D166" s="25" t="s">
-        <v>113</v>
+      <c r="D166" s="27" t="s">
+        <v>114</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" s="4"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:7">
       <c r="A167" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D167" s="25" t="s">
-        <v>341</v>
+        <v>263</v>
+      </c>
+      <c r="D167" s="27" t="s">
+        <v>344</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F167" s="2"/>
       <c r="G167" s="4"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:7">
       <c r="A168" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D168" s="25" t="s">
-        <v>115</v>
+        <v>105</v>
+      </c>
+      <c r="D168" s="27" t="s">
+        <v>116</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F168" s="2"/>
       <c r="G168" s="4"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:7">
       <c r="A169" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D169" s="25" t="s">
-        <v>117</v>
+        <v>95</v>
+      </c>
+      <c r="D169" s="27" t="s">
+        <v>118</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" s="4"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:7">
       <c r="A170" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D170" s="25" t="s">
-        <v>119</v>
+        <v>144</v>
+      </c>
+      <c r="D170" s="27" t="s">
+        <v>120</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F170" s="2"/>
       <c r="G170" s="4"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="171" ht="135" spans="1:7">
       <c r="A171" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B171" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B171" s="19"/>
       <c r="C171" s="2"/>
-      <c r="D171" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E171" s="4" t="s">
-        <v>353</v>
+      <c r="D171" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="E171" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="F171" s="2"/>
-      <c r="G171" s="4"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G171" s="20" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B172" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="B172" s="19"/>
       <c r="C172" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D172" s="25" t="s">
-        <v>123</v>
+        <v>358</v>
+      </c>
+      <c r="D172" s="27" t="s">
+        <v>124</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="F172" s="2"/>
-      <c r="G172" s="4"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G172" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B173" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="B173" s="19"/>
       <c r="C173" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D173" s="25" t="s">
-        <v>125</v>
+        <v>263</v>
+      </c>
+      <c r="D173" s="27" t="s">
+        <v>126</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F173" s="2"/>
-      <c r="G173" s="4"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G173" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B174" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="B174" s="19"/>
       <c r="C174" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D174" s="25" t="s">
-        <v>127</v>
+        <v>283</v>
+      </c>
+      <c r="D174" s="27" t="s">
+        <v>128</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="F174" s="2"/>
-      <c r="G174" s="4"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G174" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B175" s="1"/>
       <c r="C175" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D175" s="25" t="s">
-        <v>132</v>
+        <v>213</v>
+      </c>
+      <c r="D175" s="27" t="s">
+        <v>133</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F175" s="2"/>
       <c r="G175" s="4"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:7">
       <c r="A176" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B176" s="1"/>
       <c r="C176" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D176" s="25" t="s">
-        <v>358</v>
+      <c r="D176" s="27" t="s">
+        <v>366</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" s="4"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:7">
       <c r="A177" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B177" s="1"/>
       <c r="C177" s="2"/>
-      <c r="D177" s="25" t="s">
-        <v>138</v>
+      <c r="D177" s="27" t="s">
+        <v>139</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F177" s="2"/>
       <c r="G177" s="4"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:7">
       <c r="A178" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D178" s="25" t="s">
-        <v>141</v>
+        <v>26</v>
+      </c>
+      <c r="D178" s="27" t="s">
+        <v>142</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="F178" s="2"/>
       <c r="G178" s="4"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:7">
       <c r="A179" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D179" s="25" t="s">
-        <v>361</v>
+        <v>85</v>
+      </c>
+      <c r="D179" s="27" t="s">
+        <v>369</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F179" s="2"/>
       <c r="G179" s="4"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:7">
       <c r="A180" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D180" s="25" t="s">
-        <v>363</v>
+        <v>85</v>
+      </c>
+      <c r="D180" s="27" t="s">
+        <v>371</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="F180" s="2"/>
       <c r="G180" s="4"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:7">
       <c r="A181" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D181" s="25" t="s">
-        <v>365</v>
+        <v>176</v>
+      </c>
+      <c r="D181" s="27" t="s">
+        <v>373</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="F181" s="2"/>
       <c r="G181" s="4"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:7">
       <c r="A182" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D182" s="25" t="s">
-        <v>144</v>
+        <v>105</v>
+      </c>
+      <c r="D182" s="27" t="s">
+        <v>145</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="F182" s="2"/>
       <c r="G182" s="4"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:7">
       <c r="A183" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D183" s="25" t="s">
-        <v>368</v>
+        <v>105</v>
+      </c>
+      <c r="D183" s="27" t="s">
+        <v>376</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F183" s="2"/>
       <c r="G183" s="4"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:7">
       <c r="A184" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D184" s="25" t="s">
-        <v>146</v>
+        <v>105</v>
+      </c>
+      <c r="D184" s="27" t="s">
+        <v>147</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="4"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:7">
       <c r="A185" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D185" s="25" t="s">
-        <v>371</v>
+        <v>95</v>
+      </c>
+      <c r="D185" s="27" t="s">
+        <v>379</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="F185" s="2"/>
       <c r="G185" s="4"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:7">
       <c r="A186" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D186" s="25" t="s">
-        <v>373</v>
+        <v>95</v>
+      </c>
+      <c r="D186" s="27" t="s">
+        <v>381</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="F186" s="2"/>
       <c r="G186" s="4"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:7">
       <c r="A187" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D187" s="25" t="s">
-        <v>375</v>
+        <v>105</v>
+      </c>
+      <c r="D187" s="27" t="s">
+        <v>383</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="F187" s="2"/>
       <c r="G187" s="4"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:7">
       <c r="A188" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D188" s="25" t="s">
-        <v>149</v>
+        <v>105</v>
+      </c>
+      <c r="D188" s="27" t="s">
+        <v>150</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F188" s="2"/>
       <c r="G188" s="4"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:7">
       <c r="A189" s="1" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D189" s="25" t="s">
-        <v>379</v>
+        <v>144</v>
+      </c>
+      <c r="D189" s="27" t="s">
+        <v>387</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="F189" s="2"/>
       <c r="G189" s="4"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:7">
       <c r="A190" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B190" s="1"/>
       <c r="C190" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D190" s="25" t="s">
-        <v>154</v>
+        <v>180</v>
+      </c>
+      <c r="D190" s="27" t="s">
+        <v>155</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="4"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:7">
       <c r="A191" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D191" s="25" t="s">
-        <v>156</v>
+      <c r="D191" s="27" t="s">
+        <v>157</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F191" s="2"/>
       <c r="G191" s="4"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:7">
       <c r="A192" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D192" s="25" t="s">
-        <v>159</v>
+        <v>144</v>
+      </c>
+      <c r="D192" s="27" t="s">
+        <v>160</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="F192" s="2"/>
       <c r="G192" s="4"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:7">
       <c r="A193" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B193" s="1"/>
       <c r="C193" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D193" s="25" t="s">
-        <v>384</v>
+        <v>26</v>
+      </c>
+      <c r="D193" s="27" t="s">
+        <v>392</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="F193" s="2"/>
       <c r="G193" s="4"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:7">
       <c r="A194" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D194" s="25" t="s">
-        <v>162</v>
+        <v>26</v>
+      </c>
+      <c r="D194" s="27" t="s">
+        <v>163</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="F194" s="2"/>
       <c r="G194" s="4"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:7">
       <c r="A195" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D195" s="25" t="s">
-        <v>165</v>
+        <v>26</v>
+      </c>
+      <c r="D195" s="27" t="s">
+        <v>166</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" s="4"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:7">
       <c r="A196" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D196" s="25" t="s">
-        <v>388</v>
+        <v>180</v>
+      </c>
+      <c r="D196" s="27" t="s">
+        <v>396</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="F196" s="2"/>
       <c r="G196" s="4"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:7">
       <c r="A197" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D197" s="25" t="s">
-        <v>390</v>
+      <c r="D197" s="27" t="s">
+        <v>398</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="F197" s="2"/>
       <c r="G197" s="4"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:7">
       <c r="A198" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D198" s="25" t="s">
-        <v>172</v>
+        <v>46</v>
+      </c>
+      <c r="D198" s="27" t="s">
+        <v>173</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="F198" s="2"/>
       <c r="G198" s="4"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:7">
       <c r="A199" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D199" s="25" t="s">
-        <v>176</v>
+        <v>180</v>
+      </c>
+      <c r="D199" s="27" t="s">
+        <v>177</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="F199" s="2"/>
       <c r="G199" s="4"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:7">
       <c r="A200" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D200" s="25" t="s">
-        <v>394</v>
+        <v>180</v>
+      </c>
+      <c r="D200" s="27" t="s">
+        <v>402</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="F200" s="2"/>
       <c r="G200" s="4"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:7">
       <c r="A201" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D201" s="25" t="s">
-        <v>396</v>
+        <v>29</v>
+      </c>
+      <c r="D201" s="27" t="s">
+        <v>404</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="F201" s="2"/>
       <c r="G201" s="4"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:7">
       <c r="A202" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D202" s="25" t="s">
-        <v>180</v>
+        <v>319</v>
+      </c>
+      <c r="D202" s="27" t="s">
+        <v>181</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="F202" s="2"/>
       <c r="G202" s="4"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:7">
       <c r="A203" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D203" s="25" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="D203" s="27" t="s">
+        <v>183</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="F203" s="2"/>
       <c r="G203" s="4"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:7">
       <c r="A204" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D204" s="25" t="s">
-        <v>186</v>
+        <v>85</v>
+      </c>
+      <c r="D204" s="27" t="s">
+        <v>187</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="F204" s="2"/>
       <c r="G204" s="4"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:7">
       <c r="A205" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D205" s="25" t="s">
-        <v>188</v>
+      <c r="D205" s="27" t="s">
+        <v>189</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="F205" s="2"/>
       <c r="G205" s="4"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:7">
       <c r="A206" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B206" s="1"/>
       <c r="C206" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D206" s="25" t="s">
-        <v>192</v>
+        <v>263</v>
+      </c>
+      <c r="D206" s="27" t="s">
+        <v>193</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="F206" s="2"/>
       <c r="G206" s="4"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:7">
       <c r="A207" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D207" s="25" t="s">
-        <v>195</v>
+        <v>26</v>
+      </c>
+      <c r="D207" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="F207" s="2"/>
       <c r="G207" s="4"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:7">
       <c r="A208" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B208" s="1"/>
       <c r="C208" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D208" s="25" t="s">
-        <v>404</v>
+        <v>263</v>
+      </c>
+      <c r="D208" s="27" t="s">
+        <v>412</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="F208" s="2"/>
       <c r="G208" s="4"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:7">
       <c r="A209" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B209" s="1"/>
       <c r="C209" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D209" s="25" t="s">
-        <v>200</v>
+        <v>29</v>
+      </c>
+      <c r="D209" s="27" t="s">
+        <v>201</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="F209" s="2"/>
       <c r="G209" s="4"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:7">
       <c r="A210" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D210" s="25" t="s">
-        <v>407</v>
+        <v>180</v>
+      </c>
+      <c r="D210" s="27" t="s">
+        <v>415</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="F210" s="2"/>
       <c r="G210" s="4"/>
     </row>
-    <row r="226" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A226" s="23"/>
-      <c r="B226" s="23"/>
-      <c r="C226" s="24"/>
-      <c r="D226" s="24"/>
-      <c r="F226" s="24"/>
-    </row>
-    <row r="227" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A227" s="23"/>
-      <c r="B227" s="23"/>
-      <c r="C227" s="24"/>
-      <c r="D227" s="24"/>
-      <c r="F227" s="24"/>
-    </row>
-    <row r="228" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A228" s="23"/>
-      <c r="B228" s="23"/>
-      <c r="C228" s="24"/>
-      <c r="D228" s="24"/>
-      <c r="F228" s="24"/>
-    </row>
-    <row r="229" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A229" s="23"/>
-      <c r="B229" s="23"/>
-      <c r="C229" s="24"/>
-      <c r="D229" s="24"/>
-      <c r="F229" s="24"/>
-    </row>
-    <row r="230" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A230" s="23"/>
-      <c r="B230" s="23"/>
-      <c r="C230" s="24"/>
-      <c r="D230" s="24"/>
-      <c r="F230" s="24"/>
-    </row>
-    <row r="231" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A231" s="23"/>
-      <c r="B231" s="23"/>
-      <c r="C231" s="24"/>
-      <c r="D231" s="24"/>
-      <c r="F231" s="24"/>
-    </row>
-    <row r="232" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A232" s="23"/>
-      <c r="B232" s="23"/>
-      <c r="C232" s="24"/>
-      <c r="D232" s="24"/>
-      <c r="F232" s="24"/>
-    </row>
-    <row r="233" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A233" s="23"/>
-      <c r="B233" s="23"/>
-      <c r="C233" s="24"/>
-      <c r="D233" s="24"/>
-      <c r="F233" s="24"/>
-    </row>
-    <row r="234" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A234" s="23"/>
-      <c r="B234" s="23"/>
-      <c r="C234" s="24"/>
-      <c r="D234" s="24"/>
-      <c r="F234" s="24"/>
-    </row>
-    <row r="235" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A235" s="23"/>
-      <c r="B235" s="23"/>
-      <c r="C235" s="24"/>
-      <c r="D235" s="24"/>
-      <c r="F235" s="24"/>
-    </row>
-    <row r="236" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A236" s="23"/>
-      <c r="B236" s="23"/>
-      <c r="C236" s="24"/>
-      <c r="D236" s="24"/>
-      <c r="F236" s="24"/>
-    </row>
-    <row r="237" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A237" s="23"/>
-      <c r="B237" s="23"/>
-      <c r="C237" s="24"/>
-      <c r="D237" s="24"/>
-      <c r="F237" s="24"/>
-    </row>
-    <row r="238" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A238" s="23"/>
-      <c r="B238" s="23"/>
-      <c r="C238" s="24"/>
-      <c r="D238" s="24"/>
-      <c r="F238" s="24"/>
-    </row>
-    <row r="239" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A239" s="23"/>
-      <c r="B239" s="23"/>
-      <c r="C239" s="24"/>
-      <c r="D239" s="24"/>
-      <c r="F239" s="24"/>
-    </row>
-    <row r="240" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A240" s="23"/>
-      <c r="B240" s="23"/>
-      <c r="C240" s="24"/>
-      <c r="D240" s="24"/>
-      <c r="F240" s="24"/>
-    </row>
-    <row r="241" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A241" s="23"/>
-      <c r="B241" s="23"/>
-      <c r="C241" s="24"/>
-      <c r="D241" s="24"/>
-      <c r="F241" s="24"/>
-    </row>
-    <row r="242" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A242" s="23"/>
-      <c r="B242" s="23"/>
-      <c r="C242" s="24"/>
-      <c r="D242" s="24"/>
-      <c r="F242" s="24"/>
-    </row>
-    <row r="243" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A243" s="23"/>
-      <c r="B243" s="23"/>
-      <c r="C243" s="24"/>
-      <c r="D243" s="24"/>
-      <c r="F243" s="24"/>
-    </row>
-    <row r="244" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A244" s="23"/>
-      <c r="B244" s="23"/>
-      <c r="C244" s="24"/>
-      <c r="D244" s="24"/>
-      <c r="F244" s="24"/>
-    </row>
-    <row r="245" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A245" s="23"/>
-      <c r="B245" s="23"/>
-      <c r="C245" s="24"/>
-      <c r="D245" s="24"/>
-      <c r="F245" s="24"/>
-    </row>
-    <row r="246" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A246" s="23"/>
-      <c r="B246" s="23"/>
-      <c r="C246" s="24"/>
-      <c r="D246" s="24"/>
-      <c r="F246" s="24"/>
-    </row>
-    <row r="247" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A247" s="23"/>
-      <c r="B247" s="23"/>
-      <c r="C247" s="24"/>
-      <c r="D247" s="24"/>
-      <c r="F247" s="24"/>
-    </row>
-    <row r="248" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A248" s="23"/>
-      <c r="B248" s="23"/>
-      <c r="C248" s="24"/>
-      <c r="D248" s="24"/>
-      <c r="F248" s="24"/>
-    </row>
-    <row r="249" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A249" s="23"/>
-      <c r="B249" s="23"/>
-      <c r="C249" s="24"/>
-      <c r="D249" s="24"/>
-      <c r="F249" s="24"/>
-    </row>
-    <row r="250" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A250" s="23"/>
-      <c r="B250" s="23"/>
-      <c r="C250" s="24"/>
-      <c r="D250" s="24"/>
-      <c r="F250" s="24"/>
-    </row>
-    <row r="251" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A251" s="23"/>
-      <c r="B251" s="23"/>
-      <c r="C251" s="24"/>
-      <c r="D251" s="24"/>
-      <c r="F251" s="24"/>
-    </row>
-    <row r="252" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A252" s="23"/>
-      <c r="B252" s="23"/>
-      <c r="C252" s="24"/>
-      <c r="D252" s="24"/>
-      <c r="F252" s="24"/>
-    </row>
-    <row r="253" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A253" s="23"/>
-      <c r="B253" s="23"/>
-      <c r="C253" s="24"/>
-      <c r="D253" s="24"/>
-      <c r="F253" s="24"/>
-    </row>
-    <row r="254" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A254" s="23"/>
-      <c r="B254" s="23"/>
-      <c r="C254" s="24"/>
-      <c r="D254" s="24"/>
-      <c r="F254" s="24"/>
-    </row>
-    <row r="255" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A255" s="23"/>
-      <c r="B255" s="23"/>
-      <c r="C255" s="24"/>
-      <c r="D255" s="24"/>
-      <c r="F255" s="24"/>
-    </row>
-    <row r="256" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A256" s="23"/>
-      <c r="B256" s="23"/>
-      <c r="C256" s="24"/>
-      <c r="D256" s="24"/>
-      <c r="F256" s="24"/>
-    </row>
-    <row r="257" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A257" s="23"/>
-      <c r="B257" s="23"/>
-      <c r="C257" s="24"/>
-      <c r="D257" s="24"/>
-      <c r="F257" s="24"/>
-    </row>
-    <row r="258" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A258" s="23"/>
-      <c r="B258" s="23"/>
-      <c r="C258" s="24"/>
-      <c r="D258" s="24"/>
-      <c r="F258" s="24"/>
-    </row>
-    <row r="259" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A259" s="23"/>
-      <c r="B259" s="23"/>
-      <c r="C259" s="24"/>
-      <c r="D259" s="24"/>
-      <c r="F259" s="24"/>
-    </row>
-    <row r="260" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A260" s="23"/>
-      <c r="B260" s="23"/>
-      <c r="C260" s="24"/>
-      <c r="D260" s="24"/>
-      <c r="F260" s="24"/>
-    </row>
-    <row r="261" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A261" s="23"/>
-      <c r="B261" s="23"/>
-      <c r="C261" s="24"/>
-      <c r="D261" s="24"/>
-      <c r="F261" s="24"/>
-    </row>
-    <row r="262" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A262" s="23"/>
-      <c r="B262" s="23"/>
-      <c r="C262" s="24"/>
-      <c r="D262" s="24"/>
-      <c r="F262" s="24"/>
-    </row>
-    <row r="263" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A263" s="23"/>
-      <c r="B263" s="23"/>
-      <c r="C263" s="24"/>
-      <c r="D263" s="24"/>
-      <c r="F263" s="24"/>
-    </row>
-    <row r="264" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A264" s="23"/>
-      <c r="B264" s="23"/>
-      <c r="C264" s="24"/>
-      <c r="D264" s="24"/>
-      <c r="F264" s="24"/>
-    </row>
-    <row r="265" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A265" s="23"/>
-      <c r="B265" s="23"/>
-      <c r="C265" s="24"/>
-      <c r="D265" s="24"/>
-      <c r="F265" s="24"/>
-    </row>
-    <row r="266" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A266" s="23"/>
-      <c r="B266" s="23"/>
-      <c r="C266" s="24"/>
-      <c r="D266" s="24"/>
-      <c r="F266" s="24"/>
-    </row>
-    <row r="267" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A267" s="23"/>
-      <c r="B267" s="23"/>
-      <c r="C267" s="24"/>
-      <c r="D267" s="24"/>
-      <c r="F267" s="24"/>
-    </row>
-    <row r="268" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A268" s="23"/>
-      <c r="B268" s="23"/>
-      <c r="C268" s="24"/>
-      <c r="D268" s="24"/>
-      <c r="F268" s="24"/>
-    </row>
-    <row r="269" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A269" s="23"/>
-      <c r="B269" s="23"/>
-      <c r="C269" s="24"/>
-      <c r="D269" s="24"/>
-      <c r="F269" s="24"/>
-    </row>
-    <row r="270" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A270" s="23"/>
-      <c r="B270" s="23"/>
-      <c r="C270" s="24"/>
-      <c r="D270" s="24"/>
-      <c r="F270" s="24"/>
-    </row>
-    <row r="271" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A271" s="23"/>
-      <c r="B271" s="23"/>
-      <c r="C271" s="24"/>
-      <c r="D271" s="24"/>
-      <c r="F271" s="24"/>
-    </row>
-    <row r="272" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A272" s="23"/>
-      <c r="B272" s="23"/>
-      <c r="C272" s="24"/>
-      <c r="D272" s="24"/>
-      <c r="F272" s="24"/>
-    </row>
-    <row r="273" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A273" s="23"/>
-      <c r="B273" s="23"/>
-      <c r="C273" s="24"/>
-      <c r="D273" s="24"/>
-      <c r="F273" s="24"/>
-    </row>
-    <row r="274" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A274" s="23"/>
-      <c r="B274" s="23"/>
-      <c r="C274" s="24"/>
-      <c r="D274" s="24"/>
-      <c r="F274" s="24"/>
+    <row r="226" s="16" customFormat="1" spans="1:6">
+      <c r="A226" s="25"/>
+      <c r="B226" s="25"/>
+      <c r="C226" s="26"/>
+      <c r="D226" s="26"/>
+      <c r="F226" s="26"/>
+    </row>
+    <row r="227" s="16" customFormat="1" spans="1:6">
+      <c r="A227" s="25"/>
+      <c r="B227" s="25"/>
+      <c r="C227" s="26"/>
+      <c r="D227" s="26"/>
+      <c r="F227" s="26"/>
+    </row>
+    <row r="228" s="16" customFormat="1" spans="1:6">
+      <c r="A228" s="25"/>
+      <c r="B228" s="25"/>
+      <c r="C228" s="26"/>
+      <c r="D228" s="26"/>
+      <c r="F228" s="26"/>
+    </row>
+    <row r="229" s="16" customFormat="1" spans="1:6">
+      <c r="A229" s="25"/>
+      <c r="B229" s="25"/>
+      <c r="C229" s="26"/>
+      <c r="D229" s="26"/>
+      <c r="F229" s="26"/>
+    </row>
+    <row r="230" s="16" customFormat="1" spans="1:6">
+      <c r="A230" s="25"/>
+      <c r="B230" s="25"/>
+      <c r="C230" s="26"/>
+      <c r="D230" s="26"/>
+      <c r="F230" s="26"/>
+    </row>
+    <row r="231" s="16" customFormat="1" spans="1:6">
+      <c r="A231" s="25"/>
+      <c r="B231" s="25"/>
+      <c r="C231" s="26"/>
+      <c r="D231" s="26"/>
+      <c r="F231" s="26"/>
+    </row>
+    <row r="232" s="16" customFormat="1" spans="1:6">
+      <c r="A232" s="25"/>
+      <c r="B232" s="25"/>
+      <c r="C232" s="26"/>
+      <c r="D232" s="26"/>
+      <c r="F232" s="26"/>
+    </row>
+    <row r="233" s="16" customFormat="1" spans="1:6">
+      <c r="A233" s="25"/>
+      <c r="B233" s="25"/>
+      <c r="C233" s="26"/>
+      <c r="D233" s="26"/>
+      <c r="F233" s="26"/>
+    </row>
+    <row r="234" s="16" customFormat="1" spans="1:6">
+      <c r="A234" s="25"/>
+      <c r="B234" s="25"/>
+      <c r="C234" s="26"/>
+      <c r="D234" s="26"/>
+      <c r="F234" s="26"/>
+    </row>
+    <row r="235" s="16" customFormat="1" spans="1:6">
+      <c r="A235" s="25"/>
+      <c r="B235" s="25"/>
+      <c r="C235" s="26"/>
+      <c r="D235" s="26"/>
+      <c r="F235" s="26"/>
+    </row>
+    <row r="236" s="16" customFormat="1" spans="1:6">
+      <c r="A236" s="25"/>
+      <c r="B236" s="25"/>
+      <c r="C236" s="26"/>
+      <c r="D236" s="26"/>
+      <c r="F236" s="26"/>
+    </row>
+    <row r="237" s="16" customFormat="1" spans="1:6">
+      <c r="A237" s="25"/>
+      <c r="B237" s="25"/>
+      <c r="C237" s="26"/>
+      <c r="D237" s="26"/>
+      <c r="F237" s="26"/>
+    </row>
+    <row r="238" s="16" customFormat="1" spans="1:6">
+      <c r="A238" s="25"/>
+      <c r="B238" s="25"/>
+      <c r="C238" s="26"/>
+      <c r="D238" s="26"/>
+      <c r="F238" s="26"/>
+    </row>
+    <row r="239" s="16" customFormat="1" spans="1:6">
+      <c r="A239" s="25"/>
+      <c r="B239" s="25"/>
+      <c r="C239" s="26"/>
+      <c r="D239" s="26"/>
+      <c r="F239" s="26"/>
+    </row>
+    <row r="240" s="16" customFormat="1" spans="1:6">
+      <c r="A240" s="25"/>
+      <c r="B240" s="25"/>
+      <c r="C240" s="26"/>
+      <c r="D240" s="26"/>
+      <c r="F240" s="26"/>
+    </row>
+    <row r="241" s="16" customFormat="1" spans="1:6">
+      <c r="A241" s="25"/>
+      <c r="B241" s="25"/>
+      <c r="C241" s="26"/>
+      <c r="D241" s="26"/>
+      <c r="F241" s="26"/>
+    </row>
+    <row r="242" s="16" customFormat="1" spans="1:6">
+      <c r="A242" s="25"/>
+      <c r="B242" s="25"/>
+      <c r="C242" s="26"/>
+      <c r="D242" s="26"/>
+      <c r="F242" s="26"/>
+    </row>
+    <row r="243" s="16" customFormat="1" spans="1:6">
+      <c r="A243" s="25"/>
+      <c r="B243" s="25"/>
+      <c r="C243" s="26"/>
+      <c r="D243" s="26"/>
+      <c r="F243" s="26"/>
+    </row>
+    <row r="244" s="16" customFormat="1" spans="1:6">
+      <c r="A244" s="25"/>
+      <c r="B244" s="25"/>
+      <c r="C244" s="26"/>
+      <c r="D244" s="26"/>
+      <c r="F244" s="26"/>
+    </row>
+    <row r="245" s="16" customFormat="1" spans="1:6">
+      <c r="A245" s="25"/>
+      <c r="B245" s="25"/>
+      <c r="C245" s="26"/>
+      <c r="D245" s="26"/>
+      <c r="F245" s="26"/>
+    </row>
+    <row r="246" s="16" customFormat="1" spans="1:6">
+      <c r="A246" s="25"/>
+      <c r="B246" s="25"/>
+      <c r="C246" s="26"/>
+      <c r="D246" s="26"/>
+      <c r="F246" s="26"/>
+    </row>
+    <row r="247" s="16" customFormat="1" spans="1:6">
+      <c r="A247" s="25"/>
+      <c r="B247" s="25"/>
+      <c r="C247" s="26"/>
+      <c r="D247" s="26"/>
+      <c r="F247" s="26"/>
+    </row>
+    <row r="248" s="16" customFormat="1" spans="1:6">
+      <c r="A248" s="25"/>
+      <c r="B248" s="25"/>
+      <c r="C248" s="26"/>
+      <c r="D248" s="26"/>
+      <c r="F248" s="26"/>
+    </row>
+    <row r="249" s="16" customFormat="1" spans="1:6">
+      <c r="A249" s="25"/>
+      <c r="B249" s="25"/>
+      <c r="C249" s="26"/>
+      <c r="D249" s="26"/>
+      <c r="F249" s="26"/>
+    </row>
+    <row r="250" s="16" customFormat="1" spans="1:6">
+      <c r="A250" s="25"/>
+      <c r="B250" s="25"/>
+      <c r="C250" s="26"/>
+      <c r="D250" s="26"/>
+      <c r="F250" s="26"/>
+    </row>
+    <row r="251" s="16" customFormat="1" spans="1:6">
+      <c r="A251" s="25"/>
+      <c r="B251" s="25"/>
+      <c r="C251" s="26"/>
+      <c r="D251" s="26"/>
+      <c r="F251" s="26"/>
+    </row>
+    <row r="252" s="16" customFormat="1" spans="1:6">
+      <c r="A252" s="25"/>
+      <c r="B252" s="25"/>
+      <c r="C252" s="26"/>
+      <c r="D252" s="26"/>
+      <c r="F252" s="26"/>
+    </row>
+    <row r="253" s="16" customFormat="1" spans="1:6">
+      <c r="A253" s="25"/>
+      <c r="B253" s="25"/>
+      <c r="C253" s="26"/>
+      <c r="D253" s="26"/>
+      <c r="F253" s="26"/>
+    </row>
+    <row r="254" s="16" customFormat="1" spans="1:6">
+      <c r="A254" s="25"/>
+      <c r="B254" s="25"/>
+      <c r="C254" s="26"/>
+      <c r="D254" s="26"/>
+      <c r="F254" s="26"/>
+    </row>
+    <row r="255" s="16" customFormat="1" spans="1:6">
+      <c r="A255" s="25"/>
+      <c r="B255" s="25"/>
+      <c r="C255" s="26"/>
+      <c r="D255" s="26"/>
+      <c r="F255" s="26"/>
+    </row>
+    <row r="256" s="16" customFormat="1" spans="1:6">
+      <c r="A256" s="25"/>
+      <c r="B256" s="25"/>
+      <c r="C256" s="26"/>
+      <c r="D256" s="26"/>
+      <c r="F256" s="26"/>
+    </row>
+    <row r="257" s="16" customFormat="1" spans="1:6">
+      <c r="A257" s="25"/>
+      <c r="B257" s="25"/>
+      <c r="C257" s="26"/>
+      <c r="D257" s="26"/>
+      <c r="F257" s="26"/>
+    </row>
+    <row r="258" s="16" customFormat="1" spans="1:6">
+      <c r="A258" s="25"/>
+      <c r="B258" s="25"/>
+      <c r="C258" s="26"/>
+      <c r="D258" s="26"/>
+      <c r="F258" s="26"/>
+    </row>
+    <row r="259" s="16" customFormat="1" spans="1:6">
+      <c r="A259" s="25"/>
+      <c r="B259" s="25"/>
+      <c r="C259" s="26"/>
+      <c r="D259" s="26"/>
+      <c r="F259" s="26"/>
+    </row>
+    <row r="260" s="16" customFormat="1" spans="1:6">
+      <c r="A260" s="25"/>
+      <c r="B260" s="25"/>
+      <c r="C260" s="26"/>
+      <c r="D260" s="26"/>
+      <c r="F260" s="26"/>
+    </row>
+    <row r="261" s="16" customFormat="1" spans="1:6">
+      <c r="A261" s="25"/>
+      <c r="B261" s="25"/>
+      <c r="C261" s="26"/>
+      <c r="D261" s="26"/>
+      <c r="F261" s="26"/>
+    </row>
+    <row r="262" s="16" customFormat="1" spans="1:6">
+      <c r="A262" s="25"/>
+      <c r="B262" s="25"/>
+      <c r="C262" s="26"/>
+      <c r="D262" s="26"/>
+      <c r="F262" s="26"/>
+    </row>
+    <row r="263" s="16" customFormat="1" spans="1:6">
+      <c r="A263" s="25"/>
+      <c r="B263" s="25"/>
+      <c r="C263" s="26"/>
+      <c r="D263" s="26"/>
+      <c r="F263" s="26"/>
+    </row>
+    <row r="264" s="16" customFormat="1" spans="1:6">
+      <c r="A264" s="25"/>
+      <c r="B264" s="25"/>
+      <c r="C264" s="26"/>
+      <c r="D264" s="26"/>
+      <c r="F264" s="26"/>
+    </row>
+    <row r="265" s="16" customFormat="1" spans="1:6">
+      <c r="A265" s="25"/>
+      <c r="B265" s="25"/>
+      <c r="C265" s="26"/>
+      <c r="D265" s="26"/>
+      <c r="F265" s="26"/>
+    </row>
+    <row r="266" s="16" customFormat="1" spans="1:6">
+      <c r="A266" s="25"/>
+      <c r="B266" s="25"/>
+      <c r="C266" s="26"/>
+      <c r="D266" s="26"/>
+      <c r="F266" s="26"/>
+    </row>
+    <row r="267" s="16" customFormat="1" spans="1:6">
+      <c r="A267" s="25"/>
+      <c r="B267" s="25"/>
+      <c r="C267" s="26"/>
+      <c r="D267" s="26"/>
+      <c r="F267" s="26"/>
+    </row>
+    <row r="268" s="16" customFormat="1" spans="1:6">
+      <c r="A268" s="25"/>
+      <c r="B268" s="25"/>
+      <c r="C268" s="26"/>
+      <c r="D268" s="26"/>
+      <c r="F268" s="26"/>
+    </row>
+    <row r="269" s="16" customFormat="1" spans="1:6">
+      <c r="A269" s="25"/>
+      <c r="B269" s="25"/>
+      <c r="C269" s="26"/>
+      <c r="D269" s="26"/>
+      <c r="F269" s="26"/>
+    </row>
+    <row r="270" s="16" customFormat="1" spans="1:6">
+      <c r="A270" s="25"/>
+      <c r="B270" s="25"/>
+      <c r="C270" s="26"/>
+      <c r="D270" s="26"/>
+      <c r="F270" s="26"/>
+    </row>
+    <row r="271" s="16" customFormat="1" spans="1:6">
+      <c r="A271" s="25"/>
+      <c r="B271" s="25"/>
+      <c r="C271" s="26"/>
+      <c r="D271" s="26"/>
+      <c r="F271" s="26"/>
+    </row>
+    <row r="272" s="16" customFormat="1" spans="1:6">
+      <c r="A272" s="25"/>
+      <c r="B272" s="25"/>
+      <c r="C272" s="26"/>
+      <c r="D272" s="26"/>
+      <c r="F272" s="26"/>
+    </row>
+    <row r="273" s="16" customFormat="1" spans="1:6">
+      <c r="A273" s="25"/>
+      <c r="B273" s="25"/>
+      <c r="C273" s="26"/>
+      <c r="D273" s="26"/>
+      <c r="F273" s="26"/>
+    </row>
+    <row r="274" s="16" customFormat="1" spans="1:6">
+      <c r="A274" s="25"/>
+      <c r="B274" s="25"/>
+      <c r="C274" s="26"/>
+      <c r="D274" s="26"/>
+      <c r="F274" s="26"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="4" max="4" width="78.125" customWidth="1"/>
@@ -5921,7 +6590,7 @@
     <col min="6" max="6" width="78.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5941,1452 +6610,1452 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>308</v>
+        <v>41</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>310</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>310</v>
+        <v>41</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>312</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>413</v>
+        <v>41</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>421</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>313</v>
+        <v>41</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>315</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>328</v>
+      <c r="C9" s="27" t="s">
+        <v>331</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>19</v>
+        <v>428</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>337</v>
+        <v>85</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>340</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>66</v>
+        <v>429</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>67</v>
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>341</v>
+        <v>105</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>344</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>95</v>
+        <v>430</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>96</v>
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>361</v>
+        <v>132</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>369</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>363</v>
+        <v>132</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>371</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>365</v>
+        <v>132</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>373</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>368</v>
+        <v>132</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>376</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>371</v>
+        <v>132</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>379</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>373</v>
+        <v>132</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>381</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>375</v>
+        <v>132</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>383</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="4" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="4" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="4" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="8" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="32" ht="34" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="9" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="33" ht="34" spans="1:6">
       <c r="A33" s="5" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="7" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C70" s="25" t="s">
+      <c r="C70" s="27" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="E70" s="25" t="s">
-        <v>200</v>
+        <v>516</v>
+      </c>
+      <c r="E70" s="27" t="s">
+        <v>201</v>
       </c>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="27" t="s">
         <v>10</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="E71" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="E71" s="27" t="s">
         <v>8</v>
       </c>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C72" s="25" t="s">
-        <v>21</v>
+        <v>283</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="E72" s="25" t="s">
-        <v>286</v>
+        <v>518</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>287</v>
       </c>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="E73" s="2">
         <v>121</v>
       </c>
       <c r="F73" s="4"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C74" s="25" t="s">
-        <v>31</v>
+        <v>520</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="25" t="s">
+      <c r="C75" s="27" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="E75" s="25" t="s">
+        <v>522</v>
+      </c>
+      <c r="E75" s="27" t="s">
         <v>13</v>
       </c>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6">
       <c r="A77" s="11" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C77" s="25" t="s">
-        <v>413</v>
+        <v>26</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>421</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="8" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="E78" s="2">
         <v>114</v>
       </c>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C79" s="25" t="s">
-        <v>50</v>
+        <v>520</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="25" t="s">
-        <v>52</v>
+      <c r="C80" s="27" t="s">
+        <v>53</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="E80" s="25" t="s">
-        <v>19</v>
+        <v>528</v>
+      </c>
+      <c r="E80" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="C81" s="25" t="s">
-        <v>64</v>
+        <v>529</v>
+      </c>
+      <c r="C81" s="27" t="s">
+        <v>65</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="E81" s="25" t="s">
-        <v>176</v>
+        <v>530</v>
+      </c>
+      <c r="E81" s="27" t="s">
+        <v>177</v>
       </c>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C82" s="25" t="s">
-        <v>66</v>
+        <v>85</v>
+      </c>
+      <c r="C82" s="27" t="s">
+        <v>67</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="E82" s="25" t="s">
-        <v>337</v>
+        <v>531</v>
+      </c>
+      <c r="E82" s="27" t="s">
+        <v>340</v>
       </c>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C83" s="25" t="s">
-        <v>75</v>
+        <v>232</v>
+      </c>
+      <c r="C83" s="27" t="s">
+        <v>76</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C84" s="25" t="s">
+      <c r="C84" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E84" s="25" t="s">
-        <v>31</v>
-      </c>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="C85" s="25" t="s">
-        <v>80</v>
+        <v>533</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C86" s="25" t="s">
+      <c r="C86" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="E86" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="E86" s="25" t="s">
-        <v>34</v>
-      </c>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C88" s="25" t="s">
-        <v>109</v>
+        <v>105</v>
+      </c>
+      <c r="C88" s="27" t="s">
+        <v>110</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="E88" s="2">
         <v>134</v>
       </c>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6">
       <c r="A89" s="3" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C89" s="25" t="s">
-        <v>129</v>
+      <c r="C89" s="27" t="s">
+        <v>130</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="E89" s="25" t="s">
-        <v>172</v>
+        <v>537</v>
+      </c>
+      <c r="E89" s="27" t="s">
+        <v>173</v>
       </c>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B91" s="2"/>
-      <c r="C91" s="25" t="s">
-        <v>134</v>
+      <c r="C91" s="27" t="s">
+        <v>135</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="E91" s="2">
         <v>120</v>
       </c>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6">
       <c r="A92" s="3" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C92" s="25" t="s">
-        <v>152</v>
+        <v>180</v>
+      </c>
+      <c r="C92" s="27" t="s">
+        <v>153</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>532</v>
-      </c>
-      <c r="E92" s="26" t="s">
-        <v>80</v>
+        <v>540</v>
+      </c>
+      <c r="E92" s="28" t="s">
+        <v>81</v>
       </c>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C93" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="E93" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="E93" s="25" t="s">
-        <v>138</v>
-      </c>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C94" s="25" t="s">
         <v>169</v>
       </c>
+      <c r="C94" s="27" t="s">
+        <v>170</v>
+      </c>
       <c r="D94" s="4" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C95" s="25" t="s">
-        <v>437</v>
+        <v>144</v>
+      </c>
+      <c r="C95" s="27" t="s">
+        <v>445</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="E97" s="2">
         <v>115</v>
       </c>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="E99" s="2">
         <v>170</v>
@@ -7394,7 +8063,7 @@
       <c r="F99" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/017 面试题/自测题.xlsx
+++ b/017 面试题/自测题.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\personal\00-Python\017 面试题\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8213B5F8-EAD0-41E9-8844-CBE842408496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17020"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="584">
   <si>
     <t>类型</t>
   </si>
@@ -418,9 +424,6 @@
     <t>061</t>
   </si>
   <si>
-    <t>json 序列化时，可以处理的数据类型有哪些？如何定制支持 datetime 类型？</t>
-  </si>
-  <si>
     <t>062</t>
   </si>
   <si>
@@ -437,9 +440,6 @@
   </si>
   <si>
     <t>064</t>
-  </si>
-  <si>
-    <t>如果当前的日期为 20190530，要求写一个函数输出 N 天后的日期，(比如 N 为 2，则输出 20190601)</t>
   </si>
   <si>
     <t>操作类</t>
@@ -650,9 +650,6 @@
     <t>102</t>
   </si>
   <si>
-    <t>简述你对 input()函数的理解</t>
-  </si>
-  <si>
     <t>103</t>
   </si>
   <si>
@@ -675,9 +672,6 @@
   </si>
   <si>
     <t>106</t>
-  </si>
-  <si>
-    <t>了解 enumerate 么？</t>
   </si>
   <si>
     <t>这个没用过, 应当记住</t>
@@ -733,9 +727,6 @@
     <t>117</t>
   </si>
   <si>
-    <t>dir()是干什么用的？</t>
-  </si>
-  <si>
     <t>常用的一个内置方法, 但是漏掉了一个方面没用过, 就是单独调用 dir() 时会显示什么</t>
   </si>
   <si>
@@ -1004,9 +995,6 @@
     <t>git 如何查看某次提交修改的内容</t>
   </si>
   <si>
-    <t>一行代码实现1--100之和</t>
-  </si>
-  <si>
     <t>重点在 sum 可以接受一个可迭代对象并迭代求和</t>
   </si>
   <si>
@@ -1085,9 +1073,6 @@
     <t>025</t>
   </si>
   <si>
-    <t>利用collections库的Counter方法统计字符串每个单词出现的次数"kjalfj;ldsjafl;hdsllfdhg;lahfbl;hl;ahlf;h"</t>
-  </si>
-  <si>
     <t>026</t>
   </si>
   <si>
@@ -1125,9 +1110,6 @@
   </si>
   <si>
     <t>x="abc",y="def",z=["d","e","f"],分别求出x.join(y)和x.join(z)返回的结果</t>
-  </si>
-  <si>
-    <t>举例说明zip（）函数用法</t>
   </si>
   <si>
     <t>044</t>
@@ -1935,18 +1917,60 @@
   <si>
     <t>python垃圾回收机制</t>
   </si>
+  <si>
+    <t>举例说明zip（）函数用法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解 enumerate 么？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dir()是干什么用的？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一行代码实现1--100之和</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原答案还是有点全面的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简述你对 input()函数的理解</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用collections库的Counter方法统计字符串每个单词出现的次数"kjalfj;ldsjafl;hdsllfdhg;lahfbl;hl;ahlf;h"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>json 序列化时，可以处理的数据类型有哪些？如何定制支持 datetime 类型？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个以前知道，但是忘记了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制支持 datetime 这个不会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果当前的日期为 20190530，要求写一个函数输出 N 天后的日期，(比如 N 为 2，则输出 20190601)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1960,158 +1984,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2130,194 +2015,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2340,255 +2039,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2661,9 +2118,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2673,77 +2127,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3001,32 +2414,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G274"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" style="17" customWidth="1"/>
     <col min="2" max="2" width="4.875" style="17" customWidth="1"/>
     <col min="3" max="3" width="10" style="18" customWidth="1"/>
     <col min="4" max="4" width="9" style="18"/>
-    <col min="5" max="5" width="71.2884615384615" customWidth="1"/>
+    <col min="5" max="5" width="71.25" customWidth="1"/>
     <col min="6" max="6" width="9" style="18"/>
     <col min="7" max="7" width="145.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3049,24 +2461,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="19"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="27" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -3074,18 +2486,18 @@
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3093,20 +2505,20 @@
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -3114,7 +2526,7 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -3123,7 +2535,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -3131,7 +2543,7 @@
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -3142,7 +2554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -3150,7 +2562,7 @@
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="27" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -3159,7 +2571,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" ht="17" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -3167,7 +2579,7 @@
       <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="27" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="10" t="s">
@@ -3178,7 +2590,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -3186,18 +2598,18 @@
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="27" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="27" t="s">
         <v>37</v>
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -3205,18 +2617,18 @@
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="27" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="27" t="s">
         <v>40</v>
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -3224,18 +2636,18 @@
       <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="27" t="s">
         <v>42</v>
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -3243,7 +2655,7 @@
       <c r="C12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>44</v>
       </c>
       <c r="E12" s="10" t="s">
@@ -3252,7 +2664,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3260,7 +2672,7 @@
       <c r="C13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="27" t="s">
         <v>46</v>
       </c>
       <c r="E13" s="10" t="s">
@@ -3269,7 +2681,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -3277,7 +2689,7 @@
       <c r="C14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="27" t="s">
         <v>49</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -3286,7 +2698,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -3294,7 +2706,7 @@
       <c r="C15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="27" t="s">
         <v>51</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -3303,7 +2715,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -3311,7 +2723,7 @@
       <c r="C16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>53</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -3320,7 +2732,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -3328,7 +2740,7 @@
       <c r="C17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="27" t="s">
         <v>55</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -3337,7 +2749,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -3345,7 +2757,7 @@
       <c r="C18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="27" t="s">
         <v>57</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -3354,7 +2766,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -3362,7 +2774,7 @@
       <c r="C19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="27" t="s">
         <v>59</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -3371,7 +2783,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -3379,7 +2791,7 @@
       <c r="C20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="27" t="s">
         <v>61</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -3388,13 +2800,13 @@
       <c r="F20" s="2"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="27" t="s">
         <v>63</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -3403,7 +2815,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -3411,7 +2823,7 @@
       <c r="C22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="27" t="s">
         <v>65</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -3422,7 +2834,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -3430,7 +2842,7 @@
       <c r="C23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="27" t="s">
         <v>68</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -3439,7 +2851,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -3447,7 +2859,7 @@
       <c r="C24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="27" t="s">
         <v>70</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -3456,13 +2868,13 @@
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="19"/>
       <c r="C25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="27" t="s">
         <v>72</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -3471,13 +2883,13 @@
       <c r="F25" s="2"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="19"/>
       <c r="C26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="27" t="s">
         <v>37</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -3486,13 +2898,13 @@
       <c r="F26" s="2"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="19"/>
       <c r="C27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="27" t="s">
         <v>75</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -3501,13 +2913,13 @@
       <c r="F27" s="2"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" ht="51" spans="1:7">
+    <row r="28" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="28" t="s">
         <v>77</v>
       </c>
       <c r="E28" s="11" t="s">
@@ -3516,13 +2928,13 @@
       <c r="F28" s="2"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" ht="34" spans="1:7">
+    <row r="29" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="27" t="s">
         <v>79</v>
       </c>
       <c r="E29" s="11" t="s">
@@ -3531,7 +2943,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
@@ -3539,7 +2951,7 @@
       <c r="C30" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="27" t="s">
         <v>82</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -3548,7 +2960,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
@@ -3556,7 +2968,7 @@
       <c r="C31" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="27" t="s">
         <v>40</v>
       </c>
       <c r="E31" s="4" t="s">
@@ -3565,7 +2977,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -3573,7 +2985,7 @@
       <c r="C32" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="27" t="s">
         <v>85</v>
       </c>
       <c r="E32" s="4" t="s">
@@ -3582,7 +2994,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
@@ -3590,7 +3002,7 @@
       <c r="C33" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="27" t="s">
         <v>87</v>
       </c>
       <c r="E33" s="4" t="s">
@@ -3599,7 +3011,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
@@ -3607,7 +3019,7 @@
       <c r="C34" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="27" t="s">
         <v>89</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -3616,13 +3028,13 @@
       <c r="F34" s="2"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="27" t="s">
         <v>92</v>
       </c>
       <c r="E35" s="4" t="s">
@@ -3631,13 +3043,13 @@
       <c r="F35" s="2"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="27" t="s">
         <v>94</v>
       </c>
       <c r="E36" s="4" t="s">
@@ -3646,13 +3058,13 @@
       <c r="F36" s="2"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="27" t="s">
         <v>96</v>
       </c>
       <c r="E37" s="4" t="s">
@@ -3661,13 +3073,13 @@
       <c r="F37" s="2"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="27" t="s">
         <v>98</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -3676,13 +3088,13 @@
       <c r="F38" s="2"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="27" t="s">
         <v>42</v>
       </c>
       <c r="E39" s="4" t="s">
@@ -3691,13 +3103,13 @@
       <c r="F39" s="2"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="27" t="s">
         <v>102</v>
       </c>
       <c r="E40" s="10" t="s">
@@ -3706,13 +3118,13 @@
       <c r="F40" s="2"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="27" t="s">
         <v>104</v>
       </c>
       <c r="E41" s="4" t="s">
@@ -3721,13 +3133,13 @@
       <c r="F41" s="2"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="27" t="s">
         <v>106</v>
       </c>
       <c r="E42" s="4" t="s">
@@ -3736,13 +3148,13 @@
       <c r="F42" s="2"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D43" s="27" t="s">
         <v>108</v>
       </c>
       <c r="E43" s="4" t="s">
@@ -3751,13 +3163,13 @@
       <c r="F43" s="2"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="27" t="s">
         <v>110</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -3766,13 +3178,13 @@
       <c r="F44" s="2"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="27" t="s">
         <v>112</v>
       </c>
       <c r="E45" s="4" t="s">
@@ -3781,13 +3193,13 @@
       <c r="F45" s="2"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" ht="51" spans="1:7">
+    <row r="46" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="27" t="s">
         <v>114</v>
       </c>
       <c r="E46" s="11" t="s">
@@ -3796,30 +3208,30 @@
       <c r="F46" s="2"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" ht="17" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="19"/>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="27" t="s">
         <v>116</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F47" s="30" t="s">
+      <c r="F47" s="29" t="s">
         <v>118</v>
       </c>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="19"/>
       <c r="C48" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="28" t="s">
+      <c r="D48" s="27" t="s">
         <v>119</v>
       </c>
       <c r="E48" s="4" t="s">
@@ -3830,101 +3242,107 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="1"/>
+      <c r="B49" s="19"/>
       <c r="C49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="28" t="s">
+      <c r="D49" s="27" t="s">
         <v>122</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>123</v>
+        <v>579</v>
       </c>
       <c r="F49" s="2"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+      <c r="G49" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B50" s="19"/>
       <c r="C50" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="28" t="s">
+      <c r="D50" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="F50" s="2"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="G50" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="19"/>
       <c r="C51" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>127</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>130</v>
+      <c r="D52" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>583</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="D53" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" ht="101" spans="1:7">
+    <row r="54" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D54" s="28" t="s">
-        <v>134</v>
+        <v>129</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>132</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>20</v>
       </c>
@@ -3932,16 +3350,16 @@
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="28" t="s">
-        <v>136</v>
+      <c r="D55" s="27" t="s">
+        <v>134</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>20</v>
       </c>
@@ -3949,338 +3367,338 @@
       <c r="C56" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D56" s="28" t="s">
+      <c r="D56" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F56" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F56" s="28" t="s">
-        <v>140</v>
-      </c>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D57" s="28" t="s">
-        <v>141</v>
+        <v>129</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>139</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" ht="17" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B58" s="19"/>
       <c r="C58" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="E58" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="D58" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>145</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="19"/>
       <c r="C59" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D59" s="28" t="s">
-        <v>147</v>
+        <v>141</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>145</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B60" s="19"/>
       <c r="C60" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="F60" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="G60" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F60" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
       <c r="B62" s="19"/>
       <c r="C62" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B63" s="19"/>
       <c r="C63" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E63" s="31" t="s">
-        <v>163</v>
+        <v>160</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>161</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B64" s="19"/>
       <c r="C64" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B65" s="19"/>
       <c r="C65" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F65" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="G65" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F65" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B66" s="19"/>
       <c r="C66" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="F66" s="2">
         <v>100</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B67" s="19"/>
       <c r="C67" s="22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D67" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="F67" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G67" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="E67" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="F67" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="G67" s="23" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="68" s="15" customFormat="1" spans="1:7">
+    </row>
+    <row r="68" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B68" s="19"/>
       <c r="C68" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F68" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="G68" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="F68" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="4"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
       <c r="B72" s="19"/>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
       <c r="B73" s="19"/>
       <c r="C73" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>193</v>
+        <v>577</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="1"/>
       <c r="B74" s="19"/>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>20</v>
       </c>
@@ -4289,51 +3707,51 @@
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="1"/>
       <c r="B76" s="19"/>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>202</v>
+        <v>573</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>20</v>
       </c>
@@ -4342,108 +3760,108 @@
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="F78" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="F78" s="27" t="s">
         <v>13</v>
       </c>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
       <c r="B79" s="19"/>
       <c r="C79" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="80" ht="17" spans="1:7">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="1"/>
       <c r="B80" s="19"/>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F80" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="F80" s="27" t="s">
         <v>49</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="1"/>
       <c r="B81" s="19"/>
       <c r="C81" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F81" s="2">
         <v>103</v>
       </c>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B82" s="19"/>
       <c r="C82" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>215</v>
+        <v>574</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B83" s="19"/>
       <c r="C83" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>26</v>
       </c>
@@ -4452,76 +3870,76 @@
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F84" s="28" t="s">
-        <v>134</v>
+        <v>217</v>
+      </c>
+      <c r="F84" s="27" t="s">
+        <v>132</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="1"/>
       <c r="B85" s="19"/>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="F85" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="F85" s="27" t="s">
         <v>31</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B86" s="19"/>
       <c r="C86" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="87" ht="17" spans="1:7">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" s="1"/>
       <c r="B87" s="19"/>
       <c r="C87" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F87" s="30" t="s">
-        <v>232</v>
+        <v>226</v>
+      </c>
+      <c r="F87" s="29" t="s">
+        <v>227</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>34</v>
       </c>
@@ -4530,94 +3948,94 @@
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="F88" s="28" t="s">
-        <v>236</v>
+        <v>230</v>
+      </c>
+      <c r="F88" s="27" t="s">
+        <v>231</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
       <c r="B89" s="19"/>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="4"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" s="1"/>
       <c r="B90" s="19"/>
       <c r="C90" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" s="1"/>
       <c r="B91" s="19"/>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="4"/>
     </row>
-    <row r="92" ht="51" spans="1:7">
+    <row r="92" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E92" s="25" t="s">
-        <v>247</v>
+        <v>241</v>
+      </c>
+      <c r="E92" s="24" t="s">
+        <v>242</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="4"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="4"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>34</v>
       </c>
@@ -4626,454 +4044,454 @@
         <v>101</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="F94" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="F94" s="27" t="s">
         <v>106</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="4"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="4"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="4"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="4"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="13" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="4"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="13" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="4"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="4"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="4"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="13" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="4"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="13" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="4"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="F109" s="28" t="s">
-        <v>286</v>
+        <v>280</v>
+      </c>
+      <c r="F109" s="27" t="s">
+        <v>281</v>
       </c>
       <c r="G109" s="4"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E110" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E110" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="F110" s="28" t="s">
+      <c r="F110" s="27" t="s">
         <v>23</v>
       </c>
       <c r="G110" s="4"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="4"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="4"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="4"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="4"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="4"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="4"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B130" s="19"/>
       <c r="C130" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D130" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D130" s="27" t="s">
         <v>8</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>302</v>
+        <v>575</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D131" s="28" t="s">
+      <c r="D131" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="4"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D132" s="28" t="s">
+      <c r="D132" s="27" t="s">
         <v>28</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="4"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B133" s="19"/>
       <c r="C133" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D133" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D133" s="28" t="s">
         <v>38</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="F133" s="28" t="s">
-        <v>308</v>
+        <v>301</v>
+      </c>
+      <c r="F133" s="27" t="s">
+        <v>302</v>
       </c>
       <c r="G133" s="4"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B134" s="19"/>
       <c r="C134" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D134" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="D134" s="27" t="s">
         <v>44</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
         <v>16</v>
       </c>
@@ -5081,88 +4499,88 @@
       <c r="C135" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D135" s="28" t="s">
-        <v>311</v>
+      <c r="D135" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="4"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B136" s="19"/>
       <c r="C136" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D136" s="28" t="s">
-        <v>313</v>
+      <c r="D136" s="27" t="s">
+        <v>307</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D137" s="28" t="s">
-        <v>316</v>
+        <v>181</v>
+      </c>
+      <c r="D137" s="27" t="s">
+        <v>310</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="4"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B138" s="19"/>
       <c r="C138" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D138" s="28" t="s">
-        <v>318</v>
+        <v>141</v>
+      </c>
+      <c r="D138" s="27" t="s">
+        <v>312</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B139" s="19"/>
       <c r="C139" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D139" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="D139" s="27" t="s">
         <v>51</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="4"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
         <v>26</v>
       </c>
@@ -5170,35 +4588,35 @@
       <c r="C140" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D140" s="28" t="s">
+      <c r="D140" s="27" t="s">
         <v>57</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="4"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B141" s="19"/>
       <c r="C141" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D141" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D141" s="27" t="s">
         <v>59</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F141" s="2"/>
       <c r="G141" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
         <v>26</v>
       </c>
@@ -5206,52 +4624,52 @@
       <c r="C142" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D142" s="28" t="s">
+      <c r="D142" s="27" t="s">
         <v>61</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F142" s="2"/>
       <c r="G142" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D143" s="28" t="s">
-        <v>328</v>
+      <c r="D143" s="27" t="s">
+        <v>322</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>329</v>
+        <v>578</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="4"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D144" s="28" t="s">
-        <v>330</v>
+        <v>181</v>
+      </c>
+      <c r="D144" s="27" t="s">
+        <v>323</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" s="4"/>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
         <v>11</v>
       </c>
@@ -5259,33 +4677,33 @@
       <c r="C145" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D145" s="28" t="s">
-        <v>332</v>
+      <c r="D145" s="27" t="s">
+        <v>325</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F145" s="2"/>
       <c r="G145" s="4"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D146" s="28" t="s">
-        <v>334</v>
+        <v>181</v>
+      </c>
+      <c r="D146" s="27" t="s">
+        <v>327</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F146" s="2"/>
       <c r="G146" s="4"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
         <v>11</v>
       </c>
@@ -5293,69 +4711,69 @@
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D147" s="28" t="s">
-        <v>336</v>
+      <c r="D147" s="27" t="s">
+        <v>329</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F147" s="2"/>
       <c r="G147" s="4"/>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D148" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="D148" s="27" t="s">
         <v>68</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F148" s="2"/>
       <c r="G148" s="4"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B149" s="19"/>
       <c r="C149" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D149" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D149" s="27" t="s">
         <v>70</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F149" s="2"/>
       <c r="G149" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D150" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="D150" s="27" t="s">
         <v>75</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F150" s="2"/>
       <c r="G150" s="4"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
         <v>26</v>
       </c>
@@ -5363,7 +4781,7 @@
       <c r="C151" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D151" s="28" t="s">
+      <c r="D151" s="27" t="s">
         <v>79</v>
       </c>
       <c r="E151" s="4" t="s">
@@ -5372,7 +4790,7 @@
       <c r="F151" s="2"/>
       <c r="G151" s="4"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
         <v>11</v>
       </c>
@@ -5380,69 +4798,71 @@
       <c r="C152" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D152" s="28" t="s">
+      <c r="D152" s="27" t="s">
         <v>82</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="4"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B153" s="1"/>
+      <c r="B153" s="19"/>
       <c r="C153" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D153" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D153" s="27" t="s">
         <v>87</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>343</v>
+        <v>572</v>
       </c>
       <c r="F153" s="2"/>
-      <c r="G153" s="4"/>
-    </row>
-    <row r="154" spans="1:7">
+      <c r="G153" s="4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D154" s="28" t="s">
-        <v>344</v>
+        <v>181</v>
+      </c>
+      <c r="D154" s="27" t="s">
+        <v>336</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F154" s="2"/>
       <c r="G154" s="4"/>
     </row>
-    <row r="155" ht="17" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B155" s="19"/>
       <c r="C155" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D155" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D155" s="27" t="s">
         <v>89</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F155" s="2"/>
       <c r="G155" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
         <v>16</v>
       </c>
@@ -5450,18 +4870,18 @@
       <c r="C156" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D156" s="28" t="s">
+      <c r="D156" s="27" t="s">
         <v>92</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="F156" s="28" t="s">
-        <v>349</v>
+        <v>340</v>
+      </c>
+      <c r="F156" s="27" t="s">
+        <v>341</v>
       </c>
       <c r="G156" s="4"/>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
         <v>16</v>
       </c>
@@ -5469,67 +4889,67 @@
       <c r="C157" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D157" s="28" t="s">
+      <c r="D157" s="27" t="s">
         <v>94</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F157" s="2"/>
       <c r="G157" s="4"/>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D158" s="28" t="s">
+      <c r="D158" s="27" t="s">
         <v>96</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F158" s="2"/>
       <c r="G158" s="4"/>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D159" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="D159" s="27" t="s">
         <v>102</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F159" s="2"/>
       <c r="G159" s="4"/>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D160" s="28" t="s">
+      <c r="D160" s="27" t="s">
         <v>104</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F160" s="2"/>
       <c r="G160" s="4"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
         <v>11</v>
       </c>
@@ -5537,16 +4957,16 @@
       <c r="C161" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D161" s="28" t="s">
+      <c r="D161" s="27" t="s">
         <v>108</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" s="4"/>
     </row>
-    <row r="162" ht="135" spans="1:7">
+    <row r="162" spans="1:7" ht="108" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
         <v>16</v>
       </c>
@@ -5554,33 +4974,33 @@
       <c r="C162" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D162" s="28" t="s">
+      <c r="D162" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="E162" s="25" t="s">
-        <v>355</v>
+      <c r="E162" s="24" t="s">
+        <v>347</v>
       </c>
       <c r="F162" s="2"/>
       <c r="G162" s="4"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D163" s="28" t="s">
-        <v>349</v>
+        <v>264</v>
+      </c>
+      <c r="D163" s="27" t="s">
+        <v>341</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="4"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
         <v>11</v>
       </c>
@@ -5588,16 +5008,16 @@
       <c r="C164" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D164" s="28" t="s">
+      <c r="D164" s="27" t="s">
         <v>112</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F164" s="2"/>
       <c r="G164" s="4"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
         <v>16</v>
       </c>
@@ -5605,35 +5025,35 @@
       <c r="C165" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D165" s="28" t="s">
+      <c r="D165" s="27" t="s">
         <v>114</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="4"/>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B166" s="19"/>
       <c r="C166" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D166" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D166" s="27" t="s">
         <v>116</v>
       </c>
       <c r="E166" s="10" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" s="10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="167" ht="135" spans="1:7">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="108" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
         <v>16</v>
       </c>
@@ -5641,92 +5061,92 @@
       <c r="C167" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D167" s="28" t="s">
+      <c r="D167" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="E167" s="25" t="s">
-        <v>361</v>
+      <c r="E167" s="24" t="s">
+        <v>353</v>
       </c>
       <c r="F167" s="2"/>
       <c r="G167" s="11" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B168" s="19"/>
       <c r="C168" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D168" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="D168" s="27" t="s">
         <v>122</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="F168" s="2"/>
       <c r="G168" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B169" s="19"/>
       <c r="C169" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D169" s="28" t="s">
-        <v>124</v>
+        <v>264</v>
+      </c>
+      <c r="D169" s="27" t="s">
+        <v>123</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" s="4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B170" s="19"/>
       <c r="C170" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D170" s="28" t="s">
-        <v>126</v>
+        <v>278</v>
+      </c>
+      <c r="D170" s="27" t="s">
+        <v>125</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F170" s="2"/>
       <c r="G170" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B171" s="1"/>
       <c r="C171" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D171" s="28" t="s">
-        <v>132</v>
+        <v>212</v>
+      </c>
+      <c r="D171" s="27" t="s">
+        <v>130</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F171" s="2"/>
       <c r="G171" s="4"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
         <v>16</v>
       </c>
@@ -5734,23 +5154,23 @@
       <c r="C172" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D172" s="28" t="s">
-        <v>371</v>
+      <c r="D172" s="27" t="s">
+        <v>363</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="F172" s="2"/>
       <c r="G172" s="4"/>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="2"/>
-      <c r="D173" s="28" t="s">
-        <v>138</v>
+      <c r="D173" s="27" t="s">
+        <v>136</v>
       </c>
       <c r="E173" s="4" t="s">
         <v>111</v>
@@ -5758,7 +5178,7 @@
       <c r="F173" s="2"/>
       <c r="G173" s="4"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
         <v>11</v>
       </c>
@@ -5766,16 +5186,16 @@
       <c r="C174" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D174" s="28" t="s">
-        <v>141</v>
+      <c r="D174" s="27" t="s">
+        <v>139</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F174" s="2"/>
       <c r="G174" s="4"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
         <v>20</v>
       </c>
@@ -5783,35 +5203,35 @@
       <c r="C175" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D175" s="28" t="s">
-        <v>236</v>
+      <c r="D175" s="27" t="s">
+        <v>231</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="F175" s="2">
         <v>124</v>
       </c>
       <c r="G175" s="4"/>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B176" s="1"/>
       <c r="C176" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D176" s="28" t="s">
-        <v>375</v>
+      <c r="D176" s="27" t="s">
+        <v>367</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" s="4"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
         <v>26</v>
       </c>
@@ -5819,101 +5239,101 @@
       <c r="C177" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D177" s="28" t="s">
-        <v>377</v>
+      <c r="D177" s="27" t="s">
+        <v>369</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F177" s="2"/>
       <c r="G177" s="4"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D178" s="28" t="s">
-        <v>144</v>
+      <c r="D178" s="27" t="s">
+        <v>142</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F178" s="2"/>
       <c r="G178" s="4"/>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D179" s="28" t="s">
-        <v>380</v>
+      <c r="D179" s="27" t="s">
+        <v>372</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F179" s="2"/>
       <c r="G179" s="4"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D180" s="28" t="s">
-        <v>147</v>
+      <c r="D180" s="27" t="s">
+        <v>145</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F180" s="2"/>
       <c r="G180" s="4"/>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D181" s="28" t="s">
-        <v>383</v>
+      <c r="D181" s="27" t="s">
+        <v>375</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="F181" s="2"/>
       <c r="G181" s="4"/>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D182" s="28" t="s">
-        <v>385</v>
+      <c r="D182" s="27" t="s">
+        <v>377</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="F182" s="2"/>
       <c r="G182" s="4"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
         <v>16</v>
       </c>
@@ -5921,16 +5341,16 @@
       <c r="C183" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D183" s="28" t="s">
-        <v>387</v>
+      <c r="D183" s="27" t="s">
+        <v>379</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="F183" s="2"/>
       <c r="G183" s="4"/>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
         <v>26</v>
       </c>
@@ -5938,52 +5358,52 @@
       <c r="C184" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D184" s="28" t="s">
-        <v>151</v>
+      <c r="D184" s="27" t="s">
+        <v>149</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="4"/>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B185" s="19"/>
       <c r="C185" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="D185" s="28" t="s">
-        <v>391</v>
+        <v>355</v>
+      </c>
+      <c r="D185" s="27" t="s">
+        <v>383</v>
       </c>
       <c r="E185" s="10" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="F185" s="2"/>
       <c r="G185" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D186" s="28" t="s">
-        <v>159</v>
+        <v>181</v>
+      </c>
+      <c r="D186" s="27" t="s">
+        <v>157</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="F186" s="2"/>
       <c r="G186" s="4"/>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
         <v>26</v>
       </c>
@@ -5991,35 +5411,35 @@
       <c r="C187" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D187" s="28" t="s">
-        <v>162</v>
+      <c r="D187" s="27" t="s">
+        <v>160</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F187" s="2"/>
       <c r="G187" s="4"/>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A188" s="9" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B188" s="19"/>
       <c r="C188" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D188" s="28" t="s">
-        <v>396</v>
+        <v>141</v>
+      </c>
+      <c r="D188" s="27" t="s">
+        <v>388</v>
       </c>
       <c r="E188" s="10" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F188" s="2"/>
       <c r="G188" s="10" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
         <v>11</v>
       </c>
@@ -6027,16 +5447,16 @@
       <c r="C189" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D189" s="28" t="s">
-        <v>399</v>
+      <c r="D189" s="27" t="s">
+        <v>391</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="F189" s="2"/>
       <c r="G189" s="4"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
         <v>11</v>
       </c>
@@ -6044,50 +5464,50 @@
       <c r="C190" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D190" s="28" t="s">
-        <v>166</v>
+      <c r="D190" s="27" t="s">
+        <v>164</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="4"/>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D191" s="28" t="s">
-        <v>169</v>
+      <c r="D191" s="27" t="s">
+        <v>167</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="F191" s="2"/>
       <c r="G191" s="4"/>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D192" s="28" t="s">
-        <v>403</v>
+        <v>181</v>
+      </c>
+      <c r="D192" s="27" t="s">
+        <v>395</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="F192" s="2"/>
       <c r="G192" s="4"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
         <v>16</v>
       </c>
@@ -6095,50 +5515,50 @@
       <c r="C193" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D193" s="28" t="s">
-        <v>405</v>
+      <c r="D193" s="27" t="s">
+        <v>397</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="F193" s="2"/>
       <c r="G193" s="4"/>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D194" s="28" t="s">
-        <v>179</v>
+        <v>181</v>
+      </c>
+      <c r="D194" s="27" t="s">
+        <v>177</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F194" s="2"/>
       <c r="G194" s="4"/>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D195" s="28" t="s">
-        <v>408</v>
+        <v>181</v>
+      </c>
+      <c r="D195" s="27" t="s">
+        <v>400</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" s="4"/>
     </row>
-    <row r="196" ht="17" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
         <v>16</v>
       </c>
@@ -6146,122 +5566,122 @@
       <c r="C196" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D196" s="28" t="s">
-        <v>410</v>
+      <c r="D196" s="27" t="s">
+        <v>402</v>
       </c>
       <c r="E196" s="10" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F196" s="2">
         <v>123</v>
       </c>
       <c r="G196" s="10" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D197" s="28" t="s">
-        <v>184</v>
+        <v>315</v>
+      </c>
+      <c r="D197" s="27" t="s">
+        <v>182</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F197" s="2"/>
       <c r="G197" s="4"/>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D198" s="28" t="s">
-        <v>186</v>
+        <v>181</v>
+      </c>
+      <c r="D198" s="27" t="s">
+        <v>184</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F198" s="2"/>
       <c r="G198" s="4"/>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D199" s="28" t="s">
-        <v>190</v>
+      <c r="D199" s="27" t="s">
+        <v>188</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F199" s="2"/>
       <c r="G199" s="4"/>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D200" s="28" t="s">
-        <v>192</v>
+      <c r="D200" s="27" t="s">
+        <v>190</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="F200" s="2"/>
       <c r="G200" s="4"/>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D201" s="28" t="s">
-        <v>196</v>
+        <v>264</v>
+      </c>
+      <c r="D201" s="27" t="s">
+        <v>193</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F201" s="2"/>
       <c r="G201" s="4"/>
     </row>
-    <row r="202" customFormat="1" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D202" s="28" t="s">
-        <v>418</v>
+        <v>264</v>
+      </c>
+      <c r="D202" s="27" t="s">
+        <v>410</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F202" s="2"/>
       <c r="G202" s="4"/>
     </row>
-    <row r="203" ht="17" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
         <v>16</v>
       </c>
@@ -6269,396 +5689,394 @@
       <c r="C203" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D203" s="28" t="s">
-        <v>204</v>
+      <c r="D203" s="27" t="s">
+        <v>200</v>
       </c>
       <c r="E203" s="10" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="F203" s="2"/>
       <c r="G203" s="10" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D204" s="28" t="s">
-        <v>422</v>
+        <v>181</v>
+      </c>
+      <c r="D204" s="27" t="s">
+        <v>414</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F204" s="2"/>
       <c r="G204" s="4"/>
     </row>
-    <row r="226" s="16" customFormat="1" spans="1:6">
-      <c r="A226" s="26"/>
-      <c r="B226" s="26"/>
-      <c r="C226" s="27"/>
-      <c r="D226" s="27"/>
-      <c r="F226" s="27"/>
-    </row>
-    <row r="227" s="16" customFormat="1" spans="1:6">
-      <c r="A227" s="26"/>
-      <c r="B227" s="26"/>
-      <c r="C227" s="27"/>
-      <c r="D227" s="27"/>
-      <c r="F227" s="27"/>
-    </row>
-    <row r="228" s="16" customFormat="1" spans="1:6">
-      <c r="A228" s="26"/>
-      <c r="B228" s="26"/>
-      <c r="C228" s="27"/>
-      <c r="D228" s="27"/>
-      <c r="F228" s="27"/>
-    </row>
-    <row r="229" s="16" customFormat="1" spans="1:6">
-      <c r="A229" s="26"/>
-      <c r="B229" s="26"/>
-      <c r="C229" s="27"/>
-      <c r="D229" s="27"/>
-      <c r="F229" s="27"/>
-    </row>
-    <row r="230" s="16" customFormat="1" spans="1:6">
-      <c r="A230" s="26"/>
-      <c r="B230" s="26"/>
-      <c r="C230" s="27"/>
-      <c r="D230" s="27"/>
-      <c r="F230" s="27"/>
-    </row>
-    <row r="231" s="16" customFormat="1" spans="1:6">
-      <c r="A231" s="26"/>
-      <c r="B231" s="26"/>
-      <c r="C231" s="27"/>
-      <c r="D231" s="27"/>
-      <c r="F231" s="27"/>
-    </row>
-    <row r="232" s="16" customFormat="1" spans="1:6">
-      <c r="A232" s="26"/>
-      <c r="B232" s="26"/>
-      <c r="C232" s="27"/>
-      <c r="D232" s="27"/>
-      <c r="F232" s="27"/>
-    </row>
-    <row r="233" s="16" customFormat="1" spans="1:6">
-      <c r="A233" s="26"/>
-      <c r="B233" s="26"/>
-      <c r="C233" s="27"/>
-      <c r="D233" s="27"/>
-      <c r="F233" s="27"/>
-    </row>
-    <row r="234" s="16" customFormat="1" spans="1:6">
-      <c r="A234" s="26"/>
-      <c r="B234" s="26"/>
-      <c r="C234" s="27"/>
-      <c r="D234" s="27"/>
-      <c r="F234" s="27"/>
-    </row>
-    <row r="235" s="16" customFormat="1" spans="1:6">
-      <c r="A235" s="26"/>
-      <c r="B235" s="26"/>
-      <c r="C235" s="27"/>
-      <c r="D235" s="27"/>
-      <c r="F235" s="27"/>
-    </row>
-    <row r="236" s="16" customFormat="1" spans="1:6">
-      <c r="A236" s="26"/>
-      <c r="B236" s="26"/>
-      <c r="C236" s="27"/>
-      <c r="D236" s="27"/>
-      <c r="F236" s="27"/>
-    </row>
-    <row r="237" s="16" customFormat="1" spans="1:6">
-      <c r="A237" s="26"/>
-      <c r="B237" s="26"/>
-      <c r="C237" s="27"/>
-      <c r="D237" s="27"/>
-      <c r="F237" s="27"/>
-    </row>
-    <row r="238" s="16" customFormat="1" spans="1:6">
-      <c r="A238" s="26"/>
-      <c r="B238" s="26"/>
-      <c r="C238" s="27"/>
-      <c r="D238" s="27"/>
-      <c r="F238" s="27"/>
-    </row>
-    <row r="239" s="16" customFormat="1" spans="1:6">
-      <c r="A239" s="26"/>
-      <c r="B239" s="26"/>
-      <c r="C239" s="27"/>
-      <c r="D239" s="27"/>
-      <c r="F239" s="27"/>
-    </row>
-    <row r="240" s="16" customFormat="1" spans="1:6">
-      <c r="A240" s="26"/>
-      <c r="B240" s="26"/>
-      <c r="C240" s="27"/>
-      <c r="D240" s="27"/>
-      <c r="F240" s="27"/>
-    </row>
-    <row r="241" s="16" customFormat="1" spans="1:6">
-      <c r="A241" s="26"/>
-      <c r="B241" s="26"/>
-      <c r="C241" s="27"/>
-      <c r="D241" s="27"/>
-      <c r="F241" s="27"/>
-    </row>
-    <row r="242" s="16" customFormat="1" spans="1:6">
-      <c r="A242" s="26"/>
-      <c r="B242" s="26"/>
-      <c r="C242" s="27"/>
-      <c r="D242" s="27"/>
-      <c r="F242" s="27"/>
-    </row>
-    <row r="243" s="16" customFormat="1" spans="1:6">
-      <c r="A243" s="26"/>
-      <c r="B243" s="26"/>
-      <c r="C243" s="27"/>
-      <c r="D243" s="27"/>
-      <c r="F243" s="27"/>
-    </row>
-    <row r="244" s="16" customFormat="1" spans="1:6">
-      <c r="A244" s="26"/>
-      <c r="B244" s="26"/>
-      <c r="C244" s="27"/>
-      <c r="D244" s="27"/>
-      <c r="F244" s="27"/>
-    </row>
-    <row r="245" s="16" customFormat="1" spans="1:6">
-      <c r="A245" s="26"/>
-      <c r="B245" s="26"/>
-      <c r="C245" s="27"/>
-      <c r="D245" s="27"/>
-      <c r="F245" s="27"/>
-    </row>
-    <row r="246" s="16" customFormat="1" spans="1:6">
-      <c r="A246" s="26"/>
-      <c r="B246" s="26"/>
-      <c r="C246" s="27"/>
-      <c r="D246" s="27"/>
-      <c r="F246" s="27"/>
-    </row>
-    <row r="247" s="16" customFormat="1" spans="1:6">
-      <c r="A247" s="26"/>
-      <c r="B247" s="26"/>
-      <c r="C247" s="27"/>
-      <c r="D247" s="27"/>
-      <c r="F247" s="27"/>
-    </row>
-    <row r="248" s="16" customFormat="1" spans="1:6">
-      <c r="A248" s="26"/>
-      <c r="B248" s="26"/>
-      <c r="C248" s="27"/>
-      <c r="D248" s="27"/>
-      <c r="F248" s="27"/>
-    </row>
-    <row r="249" s="16" customFormat="1" spans="1:6">
-      <c r="A249" s="26"/>
-      <c r="B249" s="26"/>
-      <c r="C249" s="27"/>
-      <c r="D249" s="27"/>
-      <c r="F249" s="27"/>
-    </row>
-    <row r="250" s="16" customFormat="1" spans="1:6">
-      <c r="A250" s="26"/>
-      <c r="B250" s="26"/>
-      <c r="C250" s="27"/>
-      <c r="D250" s="27"/>
-      <c r="F250" s="27"/>
-    </row>
-    <row r="251" s="16" customFormat="1" spans="1:6">
-      <c r="A251" s="26"/>
-      <c r="B251" s="26"/>
-      <c r="C251" s="27"/>
-      <c r="D251" s="27"/>
-      <c r="F251" s="27"/>
-    </row>
-    <row r="252" s="16" customFormat="1" spans="1:6">
-      <c r="A252" s="26"/>
-      <c r="B252" s="26"/>
-      <c r="C252" s="27"/>
-      <c r="D252" s="27"/>
-      <c r="F252" s="27"/>
-    </row>
-    <row r="253" s="16" customFormat="1" spans="1:6">
-      <c r="A253" s="26"/>
-      <c r="B253" s="26"/>
-      <c r="C253" s="27"/>
-      <c r="D253" s="27"/>
-      <c r="F253" s="27"/>
-    </row>
-    <row r="254" s="16" customFormat="1" spans="1:6">
-      <c r="A254" s="26"/>
-      <c r="B254" s="26"/>
-      <c r="C254" s="27"/>
-      <c r="D254" s="27"/>
-      <c r="F254" s="27"/>
-    </row>
-    <row r="255" s="16" customFormat="1" spans="1:6">
-      <c r="A255" s="26"/>
-      <c r="B255" s="26"/>
-      <c r="C255" s="27"/>
-      <c r="D255" s="27"/>
-      <c r="F255" s="27"/>
-    </row>
-    <row r="256" s="16" customFormat="1" spans="1:6">
-      <c r="A256" s="26"/>
-      <c r="B256" s="26"/>
-      <c r="C256" s="27"/>
-      <c r="D256" s="27"/>
-      <c r="F256" s="27"/>
-    </row>
-    <row r="257" s="16" customFormat="1" spans="1:6">
-      <c r="A257" s="26"/>
-      <c r="B257" s="26"/>
-      <c r="C257" s="27"/>
-      <c r="D257" s="27"/>
-      <c r="F257" s="27"/>
-    </row>
-    <row r="258" s="16" customFormat="1" spans="1:6">
-      <c r="A258" s="26"/>
-      <c r="B258" s="26"/>
-      <c r="C258" s="27"/>
-      <c r="D258" s="27"/>
-      <c r="F258" s="27"/>
-    </row>
-    <row r="259" s="16" customFormat="1" spans="1:6">
-      <c r="A259" s="26"/>
-      <c r="B259" s="26"/>
-      <c r="C259" s="27"/>
-      <c r="D259" s="27"/>
-      <c r="F259" s="27"/>
-    </row>
-    <row r="260" s="16" customFormat="1" spans="1:6">
-      <c r="A260" s="26"/>
-      <c r="B260" s="26"/>
-      <c r="C260" s="27"/>
-      <c r="D260" s="27"/>
-      <c r="F260" s="27"/>
-    </row>
-    <row r="261" s="16" customFormat="1" spans="1:6">
-      <c r="A261" s="26"/>
-      <c r="B261" s="26"/>
-      <c r="C261" s="27"/>
-      <c r="D261" s="27"/>
-      <c r="F261" s="27"/>
-    </row>
-    <row r="262" s="16" customFormat="1" spans="1:6">
-      <c r="A262" s="26"/>
-      <c r="B262" s="26"/>
-      <c r="C262" s="27"/>
-      <c r="D262" s="27"/>
-      <c r="F262" s="27"/>
-    </row>
-    <row r="263" s="16" customFormat="1" spans="1:6">
-      <c r="A263" s="26"/>
-      <c r="B263" s="26"/>
-      <c r="C263" s="27"/>
-      <c r="D263" s="27"/>
-      <c r="F263" s="27"/>
-    </row>
-    <row r="264" s="16" customFormat="1" spans="1:6">
-      <c r="A264" s="26"/>
-      <c r="B264" s="26"/>
-      <c r="C264" s="27"/>
-      <c r="D264" s="27"/>
-      <c r="F264" s="27"/>
-    </row>
-    <row r="265" s="16" customFormat="1" spans="1:6">
-      <c r="A265" s="26"/>
-      <c r="B265" s="26"/>
-      <c r="C265" s="27"/>
-      <c r="D265" s="27"/>
-      <c r="F265" s="27"/>
-    </row>
-    <row r="266" s="16" customFormat="1" spans="1:6">
-      <c r="A266" s="26"/>
-      <c r="B266" s="26"/>
-      <c r="C266" s="27"/>
-      <c r="D266" s="27"/>
-      <c r="F266" s="27"/>
-    </row>
-    <row r="267" s="16" customFormat="1" spans="1:6">
-      <c r="A267" s="26"/>
-      <c r="B267" s="26"/>
-      <c r="C267" s="27"/>
-      <c r="D267" s="27"/>
-      <c r="F267" s="27"/>
-    </row>
-    <row r="268" s="16" customFormat="1" spans="1:6">
-      <c r="A268" s="26"/>
-      <c r="B268" s="26"/>
-      <c r="C268" s="27"/>
-      <c r="D268" s="27"/>
-      <c r="F268" s="27"/>
-    </row>
-    <row r="269" s="16" customFormat="1" spans="1:6">
-      <c r="A269" s="26"/>
-      <c r="B269" s="26"/>
-      <c r="C269" s="27"/>
-      <c r="D269" s="27"/>
-      <c r="F269" s="27"/>
-    </row>
-    <row r="270" s="16" customFormat="1" spans="1:6">
-      <c r="A270" s="26"/>
-      <c r="B270" s="26"/>
-      <c r="C270" s="27"/>
-      <c r="D270" s="27"/>
-      <c r="F270" s="27"/>
-    </row>
-    <row r="271" s="16" customFormat="1" spans="1:6">
-      <c r="A271" s="26"/>
-      <c r="B271" s="26"/>
-      <c r="C271" s="27"/>
-      <c r="D271" s="27"/>
-      <c r="F271" s="27"/>
-    </row>
-    <row r="272" s="16" customFormat="1" spans="1:6">
-      <c r="A272" s="26"/>
-      <c r="B272" s="26"/>
-      <c r="C272" s="27"/>
-      <c r="D272" s="27"/>
-      <c r="F272" s="27"/>
-    </row>
-    <row r="273" s="16" customFormat="1" spans="1:6">
-      <c r="A273" s="26"/>
-      <c r="B273" s="26"/>
-      <c r="C273" s="27"/>
-      <c r="D273" s="27"/>
-      <c r="F273" s="27"/>
-    </row>
-    <row r="274" s="16" customFormat="1" spans="1:6">
-      <c r="A274" s="26"/>
-      <c r="B274" s="26"/>
-      <c r="C274" s="27"/>
-      <c r="D274" s="27"/>
-      <c r="F274" s="27"/>
+    <row r="226" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A226" s="25"/>
+      <c r="B226" s="25"/>
+      <c r="C226" s="26"/>
+      <c r="D226" s="26"/>
+      <c r="F226" s="26"/>
+    </row>
+    <row r="227" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A227" s="25"/>
+      <c r="B227" s="25"/>
+      <c r="C227" s="26"/>
+      <c r="D227" s="26"/>
+      <c r="F227" s="26"/>
+    </row>
+    <row r="228" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A228" s="25"/>
+      <c r="B228" s="25"/>
+      <c r="C228" s="26"/>
+      <c r="D228" s="26"/>
+      <c r="F228" s="26"/>
+    </row>
+    <row r="229" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A229" s="25"/>
+      <c r="B229" s="25"/>
+      <c r="C229" s="26"/>
+      <c r="D229" s="26"/>
+      <c r="F229" s="26"/>
+    </row>
+    <row r="230" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A230" s="25"/>
+      <c r="B230" s="25"/>
+      <c r="C230" s="26"/>
+      <c r="D230" s="26"/>
+      <c r="F230" s="26"/>
+    </row>
+    <row r="231" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A231" s="25"/>
+      <c r="B231" s="25"/>
+      <c r="C231" s="26"/>
+      <c r="D231" s="26"/>
+      <c r="F231" s="26"/>
+    </row>
+    <row r="232" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A232" s="25"/>
+      <c r="B232" s="25"/>
+      <c r="C232" s="26"/>
+      <c r="D232" s="26"/>
+      <c r="F232" s="26"/>
+    </row>
+    <row r="233" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A233" s="25"/>
+      <c r="B233" s="25"/>
+      <c r="C233" s="26"/>
+      <c r="D233" s="26"/>
+      <c r="F233" s="26"/>
+    </row>
+    <row r="234" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A234" s="25"/>
+      <c r="B234" s="25"/>
+      <c r="C234" s="26"/>
+      <c r="D234" s="26"/>
+      <c r="F234" s="26"/>
+    </row>
+    <row r="235" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A235" s="25"/>
+      <c r="B235" s="25"/>
+      <c r="C235" s="26"/>
+      <c r="D235" s="26"/>
+      <c r="F235" s="26"/>
+    </row>
+    <row r="236" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A236" s="25"/>
+      <c r="B236" s="25"/>
+      <c r="C236" s="26"/>
+      <c r="D236" s="26"/>
+      <c r="F236" s="26"/>
+    </row>
+    <row r="237" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A237" s="25"/>
+      <c r="B237" s="25"/>
+      <c r="C237" s="26"/>
+      <c r="D237" s="26"/>
+      <c r="F237" s="26"/>
+    </row>
+    <row r="238" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A238" s="25"/>
+      <c r="B238" s="25"/>
+      <c r="C238" s="26"/>
+      <c r="D238" s="26"/>
+      <c r="F238" s="26"/>
+    </row>
+    <row r="239" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A239" s="25"/>
+      <c r="B239" s="25"/>
+      <c r="C239" s="26"/>
+      <c r="D239" s="26"/>
+      <c r="F239" s="26"/>
+    </row>
+    <row r="240" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A240" s="25"/>
+      <c r="B240" s="25"/>
+      <c r="C240" s="26"/>
+      <c r="D240" s="26"/>
+      <c r="F240" s="26"/>
+    </row>
+    <row r="241" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A241" s="25"/>
+      <c r="B241" s="25"/>
+      <c r="C241" s="26"/>
+      <c r="D241" s="26"/>
+      <c r="F241" s="26"/>
+    </row>
+    <row r="242" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A242" s="25"/>
+      <c r="B242" s="25"/>
+      <c r="C242" s="26"/>
+      <c r="D242" s="26"/>
+      <c r="F242" s="26"/>
+    </row>
+    <row r="243" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A243" s="25"/>
+      <c r="B243" s="25"/>
+      <c r="C243" s="26"/>
+      <c r="D243" s="26"/>
+      <c r="F243" s="26"/>
+    </row>
+    <row r="244" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A244" s="25"/>
+      <c r="B244" s="25"/>
+      <c r="C244" s="26"/>
+      <c r="D244" s="26"/>
+      <c r="F244" s="26"/>
+    </row>
+    <row r="245" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A245" s="25"/>
+      <c r="B245" s="25"/>
+      <c r="C245" s="26"/>
+      <c r="D245" s="26"/>
+      <c r="F245" s="26"/>
+    </row>
+    <row r="246" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A246" s="25"/>
+      <c r="B246" s="25"/>
+      <c r="C246" s="26"/>
+      <c r="D246" s="26"/>
+      <c r="F246" s="26"/>
+    </row>
+    <row r="247" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A247" s="25"/>
+      <c r="B247" s="25"/>
+      <c r="C247" s="26"/>
+      <c r="D247" s="26"/>
+      <c r="F247" s="26"/>
+    </row>
+    <row r="248" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A248" s="25"/>
+      <c r="B248" s="25"/>
+      <c r="C248" s="26"/>
+      <c r="D248" s="26"/>
+      <c r="F248" s="26"/>
+    </row>
+    <row r="249" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A249" s="25"/>
+      <c r="B249" s="25"/>
+      <c r="C249" s="26"/>
+      <c r="D249" s="26"/>
+      <c r="F249" s="26"/>
+    </row>
+    <row r="250" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A250" s="25"/>
+      <c r="B250" s="25"/>
+      <c r="C250" s="26"/>
+      <c r="D250" s="26"/>
+      <c r="F250" s="26"/>
+    </row>
+    <row r="251" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A251" s="25"/>
+      <c r="B251" s="25"/>
+      <c r="C251" s="26"/>
+      <c r="D251" s="26"/>
+      <c r="F251" s="26"/>
+    </row>
+    <row r="252" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A252" s="25"/>
+      <c r="B252" s="25"/>
+      <c r="C252" s="26"/>
+      <c r="D252" s="26"/>
+      <c r="F252" s="26"/>
+    </row>
+    <row r="253" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A253" s="25"/>
+      <c r="B253" s="25"/>
+      <c r="C253" s="26"/>
+      <c r="D253" s="26"/>
+      <c r="F253" s="26"/>
+    </row>
+    <row r="254" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A254" s="25"/>
+      <c r="B254" s="25"/>
+      <c r="C254" s="26"/>
+      <c r="D254" s="26"/>
+      <c r="F254" s="26"/>
+    </row>
+    <row r="255" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A255" s="25"/>
+      <c r="B255" s="25"/>
+      <c r="C255" s="26"/>
+      <c r="D255" s="26"/>
+      <c r="F255" s="26"/>
+    </row>
+    <row r="256" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A256" s="25"/>
+      <c r="B256" s="25"/>
+      <c r="C256" s="26"/>
+      <c r="D256" s="26"/>
+      <c r="F256" s="26"/>
+    </row>
+    <row r="257" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A257" s="25"/>
+      <c r="B257" s="25"/>
+      <c r="C257" s="26"/>
+      <c r="D257" s="26"/>
+      <c r="F257" s="26"/>
+    </row>
+    <row r="258" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A258" s="25"/>
+      <c r="B258" s="25"/>
+      <c r="C258" s="26"/>
+      <c r="D258" s="26"/>
+      <c r="F258" s="26"/>
+    </row>
+    <row r="259" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A259" s="25"/>
+      <c r="B259" s="25"/>
+      <c r="C259" s="26"/>
+      <c r="D259" s="26"/>
+      <c r="F259" s="26"/>
+    </row>
+    <row r="260" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A260" s="25"/>
+      <c r="B260" s="25"/>
+      <c r="C260" s="26"/>
+      <c r="D260" s="26"/>
+      <c r="F260" s="26"/>
+    </row>
+    <row r="261" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A261" s="25"/>
+      <c r="B261" s="25"/>
+      <c r="C261" s="26"/>
+      <c r="D261" s="26"/>
+      <c r="F261" s="26"/>
+    </row>
+    <row r="262" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A262" s="25"/>
+      <c r="B262" s="25"/>
+      <c r="C262" s="26"/>
+      <c r="D262" s="26"/>
+      <c r="F262" s="26"/>
+    </row>
+    <row r="263" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A263" s="25"/>
+      <c r="B263" s="25"/>
+      <c r="C263" s="26"/>
+      <c r="D263" s="26"/>
+      <c r="F263" s="26"/>
+    </row>
+    <row r="264" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A264" s="25"/>
+      <c r="B264" s="25"/>
+      <c r="C264" s="26"/>
+      <c r="D264" s="26"/>
+      <c r="F264" s="26"/>
+    </row>
+    <row r="265" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A265" s="25"/>
+      <c r="B265" s="25"/>
+      <c r="C265" s="26"/>
+      <c r="D265" s="26"/>
+      <c r="F265" s="26"/>
+    </row>
+    <row r="266" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A266" s="25"/>
+      <c r="B266" s="25"/>
+      <c r="C266" s="26"/>
+      <c r="D266" s="26"/>
+      <c r="F266" s="26"/>
+    </row>
+    <row r="267" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A267" s="25"/>
+      <c r="B267" s="25"/>
+      <c r="C267" s="26"/>
+      <c r="D267" s="26"/>
+      <c r="F267" s="26"/>
+    </row>
+    <row r="268" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A268" s="25"/>
+      <c r="B268" s="25"/>
+      <c r="C268" s="26"/>
+      <c r="D268" s="26"/>
+      <c r="F268" s="26"/>
+    </row>
+    <row r="269" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A269" s="25"/>
+      <c r="B269" s="25"/>
+      <c r="C269" s="26"/>
+      <c r="D269" s="26"/>
+      <c r="F269" s="26"/>
+    </row>
+    <row r="270" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A270" s="25"/>
+      <c r="B270" s="25"/>
+      <c r="C270" s="26"/>
+      <c r="D270" s="26"/>
+      <c r="F270" s="26"/>
+    </row>
+    <row r="271" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A271" s="25"/>
+      <c r="B271" s="25"/>
+      <c r="C271" s="26"/>
+      <c r="D271" s="26"/>
+      <c r="F271" s="26"/>
+    </row>
+    <row r="272" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A272" s="25"/>
+      <c r="B272" s="25"/>
+      <c r="C272" s="26"/>
+      <c r="D272" s="26"/>
+      <c r="F272" s="26"/>
+    </row>
+    <row r="273" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A273" s="25"/>
+      <c r="B273" s="25"/>
+      <c r="C273" s="26"/>
+      <c r="D273" s="26"/>
+      <c r="F273" s="26"/>
+    </row>
+    <row r="274" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A274" s="25"/>
+      <c r="B274" s="25"/>
+      <c r="C274" s="26"/>
+      <c r="D274" s="26"/>
+      <c r="F274" s="26"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="4" max="4" width="78.125" customWidth="1"/>
@@ -6666,7 +6084,7 @@
     <col min="6" max="6" width="78.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6686,1149 +6104,1149 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>311</v>
+      <c r="C2" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>313</v>
+      <c r="C3" s="27" t="s">
+        <v>307</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>428</v>
+      <c r="C4" s="27" t="s">
+        <v>420</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>316</v>
+      <c r="C5" s="27" t="s">
+        <v>310</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="4" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="4" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="4" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>336</v>
+      <c r="C12" s="27" t="s">
+        <v>329</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="E12" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="E12" s="27" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>344</v>
+      <c r="C13" s="27" t="s">
+        <v>336</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E13" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>63</v>
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>349</v>
+      <c r="C14" s="27" t="s">
+        <v>341</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="E14" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>92</v>
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>236</v>
+        <v>129</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>231</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>375</v>
+        <v>129</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>367</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>377</v>
+        <v>129</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>369</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>380</v>
+        <v>129</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>372</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>383</v>
+        <v>129</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>375</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>385</v>
+        <v>129</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>377</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>387</v>
+        <v>129</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>379</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="4" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="4" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="4" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="4" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="5" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="37" ht="34" spans="1:6">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="11" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="38" ht="34" spans="1:6">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="8" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>485</v>
-      </c>
       <c r="D41" s="4" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="10" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="10" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C79" s="28" t="s">
+      <c r="C79" s="27" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="E79" s="28" t="s">
-        <v>204</v>
+        <v>533</v>
+      </c>
+      <c r="E79" s="27" t="s">
+        <v>200</v>
       </c>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C80" s="28" t="s">
+      <c r="C80" s="27" t="s">
         <v>10</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="E80" s="28" t="s">
+        <v>534</v>
+      </c>
+      <c r="E80" s="27" t="s">
         <v>8</v>
       </c>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C81" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="C81" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="E81" s="28" t="s">
-        <v>287</v>
+        <v>535</v>
+      </c>
+      <c r="E81" s="27" t="s">
+        <v>282</v>
       </c>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>12</v>
@@ -7837,50 +7255,50 @@
         <v>31</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="E82" s="2">
         <v>121</v>
       </c>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="C83" s="28" t="s">
+        <v>537</v>
+      </c>
+      <c r="C83" s="27" t="s">
         <v>35</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C84" s="28" t="s">
+      <c r="C84" s="27" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="E84" s="28" t="s">
+        <v>539</v>
+      </c>
+      <c r="E84" s="27" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>12</v>
@@ -7889,34 +7307,34 @@
         <v>46</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C86" s="28" t="s">
-        <v>428</v>
+      <c r="C86" s="27" t="s">
+        <v>420</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="5" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>12</v>
@@ -7925,208 +7343,208 @@
         <v>49</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="E87" s="2">
         <v>114</v>
       </c>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="C88" s="28" t="s">
+        <v>537</v>
+      </c>
+      <c r="C88" s="27" t="s">
         <v>53</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C89" s="28" t="s">
+      <c r="C89" s="27" t="s">
         <v>55</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="E89" s="28" t="s">
+        <v>545</v>
+      </c>
+      <c r="E89" s="27" t="s">
         <v>21</v>
       </c>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="C90" s="28" t="s">
-        <v>181</v>
+        <v>546</v>
+      </c>
+      <c r="C90" s="27" t="s">
+        <v>179</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="E90" s="28" t="s">
-        <v>179</v>
+        <v>547</v>
+      </c>
+      <c r="E90" s="27" t="s">
+        <v>177</v>
       </c>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C91" s="28" t="s">
+      <c r="C91" s="27" t="s">
         <v>63</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="E91" s="28" t="s">
-        <v>344</v>
+        <v>548</v>
+      </c>
+      <c r="E91" s="27" t="s">
+        <v>336</v>
       </c>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" ht="17" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="9" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C92" s="28" t="s">
+      <c r="C92" s="27" t="s">
         <v>65</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="E92" s="30" t="s">
-        <v>559</v>
+        <v>550</v>
+      </c>
+      <c r="E92" s="29" t="s">
+        <v>551</v>
       </c>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C93" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="C93" s="27" t="s">
         <v>72</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C94" s="28" t="s">
+      <c r="C94" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E94" s="28" t="s">
+      <c r="E94" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="C95" s="28" t="s">
+        <v>553</v>
+      </c>
+      <c r="C95" s="27" t="s">
         <v>77</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C96" s="28" t="s">
+      <c r="C96" s="27" t="s">
         <v>40</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="E96" s="28" t="s">
+        <v>555</v>
+      </c>
+      <c r="E96" s="27" t="s">
         <v>38</v>
       </c>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" ht="17" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="9" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C97" s="28" t="s">
+      <c r="C97" s="27" t="s">
         <v>85</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="E97" s="30" t="s">
-        <v>565</v>
+        <v>556</v>
+      </c>
+      <c r="E97" s="29" t="s">
+        <v>557</v>
       </c>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="9" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C98" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C98" s="27" t="s">
         <v>98</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B99" s="14" t="s">
         <v>12</v>
@@ -8142,244 +7560,244 @@
       </c>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C100" s="28" t="s">
+      <c r="C100" s="27" t="s">
         <v>106</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="E100" s="2">
         <v>134</v>
       </c>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="3" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C101" s="28" t="s">
-        <v>129</v>
+      <c r="C101" s="27" t="s">
+        <v>128</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="E101" s="28" t="s">
-        <v>176</v>
+        <v>560</v>
+      </c>
+      <c r="E101" s="27" t="s">
+        <v>174</v>
       </c>
       <c r="F101" s="4"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F102" s="4"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B103" s="2"/>
-      <c r="C103" s="28" t="s">
-        <v>134</v>
+      <c r="C103" s="27" t="s">
+        <v>132</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="E103" s="2">
         <v>120</v>
       </c>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="3" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C104" s="28" t="s">
-        <v>156</v>
+        <v>181</v>
+      </c>
+      <c r="C104" s="27" t="s">
+        <v>154</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="E104" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="E104" s="28" t="s">
         <v>77</v>
       </c>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C105" s="28" t="s">
-        <v>140</v>
+      <c r="C105" s="27" t="s">
+        <v>138</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E105" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="E105" s="27" t="s">
+        <v>136</v>
       </c>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C106" s="28" t="s">
-        <v>173</v>
+        <v>170</v>
+      </c>
+      <c r="C106" s="27" t="s">
+        <v>171</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="4" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C108" s="28" t="s">
-        <v>460</v>
+        <v>141</v>
+      </c>
+      <c r="C108" s="27" t="s">
+        <v>452</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="4"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="E110" s="2">
         <v>115</v>
       </c>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F111" s="4"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E113" s="2">
         <v>170</v>
@@ -8387,7 +7805,7 @@
       <c r="F113" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/017 面试题/自测题.xlsx
+++ b/017 面试题/自测题.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\personal\00-Python\017 面试题\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8213B5F8-EAD0-41E9-8844-CBE842408496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593">
   <si>
     <t>类型</t>
   </si>
@@ -148,6 +142,9 @@
     <t>**</t>
   </si>
   <si>
+    <t>错误调试</t>
+  </si>
+  <si>
     <t>008</t>
   </si>
   <si>
@@ -348,15 +345,15 @@
     <t>如何把元组("a","b")和元组(1,2)，变为字典{"a":1,"b":2}</t>
   </si>
   <si>
-    <t>综合</t>
-  </si>
-  <si>
     <t>051</t>
   </si>
   <si>
     <t>Python 常用的数据结构的类型及其特性？</t>
   </si>
   <si>
+    <t>问的是字典的键的特性,但是题干驴唇不对马嘴</t>
+  </si>
+  <si>
     <t>052</t>
   </si>
   <si>
@@ -369,6 +366,9 @@
     <t>Python 里面如何实现 tuple 和 list 的转换？</t>
   </si>
   <si>
+    <t>高级特性</t>
+  </si>
+  <si>
     <t>054</t>
   </si>
   <si>
@@ -381,10 +381,18 @@
     <t>请将[i for i in range(3)]改成生成器</t>
   </si>
   <si>
+    <t>069</t>
+  </si>
+  <si>
     <t>057</t>
   </si>
   <si>
-    <t>下面的代码输出结果是什么？</t>
+    <t>下面的代码输出结果是什么？
+a = (1, 2, 3, [4, 5, 6, 7], 8)
+a[2] = 2</t>
+  </si>
+  <si>
+    <t>元组的不可变特性</t>
   </si>
   <si>
     <t>058</t>
@@ -424,12 +432,21 @@
     <t>061</t>
   </si>
   <si>
+    <t>json 序列化时，可以处理的数据类型有哪些？如何定制支持 datetime 类型？</t>
+  </si>
+  <si>
+    <t>定制支持 datetime 这个不会</t>
+  </si>
+  <si>
     <t>062</t>
   </si>
   <si>
     <t>json 序列化时，默认遇到中文会转换成 unicode，如果想要保留中文怎么办？</t>
   </si>
   <si>
+    <t>这个以前知道，但是忘记了</t>
+  </si>
+  <si>
     <t>063</t>
   </si>
   <si>
@@ -440,6 +457,12 @@
   </si>
   <si>
     <t>064</t>
+  </si>
+  <si>
+    <t>如果当前的日期为 20190530，要求写一个函数输出 N 天后的日期，(比如 N 为 2，则输出 20190601)</t>
+  </si>
+  <si>
+    <t>主要应用了datime包里的timedelta</t>
   </si>
   <si>
     <t>操作类</t>
@@ -466,9 +489,6 @@
   </si>
   <si>
     <t>一行代码输出 1-100 之间的所有偶数</t>
-  </si>
-  <si>
-    <t>069</t>
   </si>
   <si>
     <t>Python 字典和 Json 字符串相互转化方法</t>
@@ -650,6 +670,9 @@
     <t>102</t>
   </si>
   <si>
+    <t>简述你对 input()函数的理解</t>
+  </si>
+  <si>
     <t>103</t>
   </si>
   <si>
@@ -672,6 +695,9 @@
   </si>
   <si>
     <t>106</t>
+  </si>
+  <si>
+    <t>了解 enumerate 么？</t>
   </si>
   <si>
     <t>这个没用过, 应当记住</t>
@@ -727,10 +753,10 @@
     <t>117</t>
   </si>
   <si>
+    <t>dir()是干什么用的？</t>
+  </si>
+  <si>
     <t>常用的一个内置方法, 但是漏掉了一个方面没用过, 就是单独调用 dir() 时会显示什么</t>
-  </si>
-  <si>
-    <t>错误调试</t>
   </si>
   <si>
     <t>119</t>
@@ -839,6 +865,9 @@
     <t>用 Python 实现一个二分查找的函数</t>
   </si>
   <si>
+    <t>综合</t>
+  </si>
+  <si>
     <t>134</t>
   </si>
   <si>
@@ -995,6 +1024,9 @@
     <t>git 如何查看某次提交修改的内容</t>
   </si>
   <si>
+    <t>一行代码实现1--100之和</t>
+  </si>
+  <si>
     <t>重点在 sum 可以接受一个可迭代对象并迭代求和</t>
   </si>
   <si>
@@ -1070,9 +1102,18 @@
     <t>非常好的一道题, 重点在于 dic.items 可以把字典转成一个由元组组成的列表, 然后利用sorted对这个列表中的元素进行排序, 最后再转回列表</t>
   </si>
   <si>
+    <t xml:space="preserve">* </t>
+  </si>
+  <si>
     <t>025</t>
   </si>
   <si>
+    <t>利用collections库的Counter方法统计字符串每个单词出现的次数"kjalfj;ldsjafl;hdsllfdhg;lahfbl;hl;ahlf;h"</t>
+  </si>
+  <si>
+    <t>collections包的Counter方法的直接应用, 廖雪峰的课程里有讲到</t>
+  </si>
+  <si>
     <t>026</t>
   </si>
   <si>
@@ -1110,6 +1151,12 @@
   </si>
   <si>
     <t>x="abc",y="def",z=["d","e","f"],分别求出x.join(y)和x.join(z)返回的结果</t>
+  </si>
+  <si>
+    <t>举例说明zip（）函数用法</t>
+  </si>
+  <si>
+    <t>原答案还是有点全面的</t>
   </si>
   <si>
     <t>044</t>
@@ -1150,9 +1197,6 @@
     <t>[1,2,3]+[4,5,6]的结果是多少？</t>
   </si>
   <si>
-    <t>提高python运行效率的方法</t>
-  </si>
-  <si>
     <t>正则匹配，匹配日期2018-03-20</t>
   </si>
   <si>
@@ -1172,9 +1216,6 @@
   </si>
   <si>
     <t>列出常见的状态码和意义</t>
-  </si>
-  <si>
-    <t>分别从前端、后端、数据库阐述web项目的性能优化</t>
   </si>
   <si>
     <t>使用pop和del删除字典中的"name"字段，dic={"name":"zs","age":18}</t>
@@ -1224,12 +1265,18 @@
     <t>IOError、AttributeError、ImportError、IndentationError、IndexError、KeyError、SyntaxError、NameError分别代表什么异常</t>
   </si>
   <si>
+    <t>和109题类似</t>
+  </si>
+  <si>
     <t>068</t>
   </si>
   <si>
     <t>C:\Users\ry-wu.junya\Desktop&gt;python 1.py 22 33命令行启动程序并传参，print(sys.argv)</t>
   </si>
   <si>
+    <t>只记得默认是文件名, 其实是文件名和参数组成的列表, 文件名是用 sys.argv[0]来表示的</t>
+  </si>
+  <si>
     <t>a = " hehheh ",去除头尾空格</t>
   </si>
   <si>
@@ -1257,9 +1304,15 @@
     <t>列表嵌套元组，分别按字母和数字排序</t>
   </si>
   <si>
+    <t xml:space="preserve">*** </t>
+  </si>
+  <si>
     <t>列表嵌套列表排序，年龄数字相同怎么办？</t>
   </si>
   <si>
+    <t>这道题有点没看懂</t>
+  </si>
+  <si>
     <t>077</t>
   </si>
   <si>
@@ -1279,9 +1332,6 @@
   </si>
   <si>
     <t>最后出一道检验题目，根据字符串长度排序，看排序是否灵活运用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* </t>
   </si>
   <si>
     <t>081</t>
@@ -1492,9 +1542,6 @@
     <t>写一段 Python 使用 Mongo 数据库创建索引的代码。</t>
   </si>
   <si>
-    <t>高级特性</t>
-  </si>
-  <si>
     <t>Python 垃圾回收机制？</t>
   </si>
   <si>
@@ -1876,12 +1923,24 @@
     </r>
   </si>
   <si>
+    <t>提高python运行效率的方法</t>
+  </si>
+  <si>
+    <t>感觉应该不会问</t>
+  </si>
+  <si>
     <t>简述mysql和redis区别</t>
   </si>
   <si>
     <t>写一个单列模式</t>
   </si>
   <si>
+    <t>分别从前端、后端、数据库阐述web项目的性能优化</t>
+  </si>
+  <si>
+    <t>觉得也不会考</t>
+  </si>
+  <si>
     <t>简述any()和all()方法</t>
   </si>
   <si>
@@ -1916,61 +1975,19 @@
   </si>
   <si>
     <t>python垃圾回收机制</t>
-  </si>
-  <si>
-    <t>举例说明zip（）函数用法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>了解 enumerate 么？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dir()是干什么用的？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一行代码实现1--100之和</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>原答案还是有点全面的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>简述你对 input()函数的理解</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用collections库的Counter方法统计字符串每个单词出现的次数"kjalfj;ldsjafl;hdsllfdhg;lahfbl;hl;ahlf;h"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>json 序列化时，可以处理的数据类型有哪些？如何定制支持 datetime 类型？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个以前知道，但是忘记了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>定制支持 datetime 这个不会</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果当前的日期为 20190530，要求写一个函数输出 N 天后的日期，(比如 N 为 2，则输出 20190601)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1984,19 +2001,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2015,8 +2171,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2039,13 +2381,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2073,12 +2657,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2088,13 +2666,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2109,6 +2681,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2118,45 +2696,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2414,31 +3027,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G274"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="4" style="17" customWidth="1"/>
-    <col min="2" max="2" width="4.875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="10" style="18" customWidth="1"/>
-    <col min="4" max="4" width="9" style="18"/>
+    <col min="1" max="1" width="4" style="13" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="10" style="14" customWidth="1"/>
+    <col min="4" max="4" width="9" style="14"/>
     <col min="5" max="5" width="71.25" customWidth="1"/>
-    <col min="6" max="6" width="9" style="18"/>
+    <col min="6" max="6" width="9" style="14"/>
     <col min="7" max="7" width="145.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2461,72 +3075,72 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
-      <c r="B2" s="19"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="24" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="24" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="24" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -2535,15 +3149,15 @@
       <c r="F5" s="2"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -2554,7 +3168,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -2562,7 +3176,7 @@
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="24" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -2571,778 +3185,788 @@
       <c r="F7" s="2"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" ht="17" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="27" t="s">
         <v>35</v>
       </c>
+      <c r="D9" s="24" t="s">
+        <v>36</v>
+      </c>
       <c r="E9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="27" t="s">
         <v>37</v>
       </c>
+      <c r="F9" s="24" t="s">
+        <v>38</v>
+      </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="27" t="s">
         <v>40</v>
       </c>
+      <c r="F10" s="24" t="s">
+        <v>41</v>
+      </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="27" t="s">
         <v>42</v>
       </c>
+      <c r="F11" s="24" t="s">
+        <v>43</v>
+      </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="24" t="s">
         <v>45</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>47</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="27" t="s">
         <v>49</v>
       </c>
+      <c r="D14" s="24" t="s">
+        <v>50</v>
+      </c>
       <c r="E14" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>52</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>60</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>61</v>
+        <v>49</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="27" t="s">
-        <v>63</v>
+      <c r="D21" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="19"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="27" t="s">
-        <v>65</v>
+      <c r="D22" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="27" t="s">
-        <v>68</v>
+      <c r="D23" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="27" t="s">
-        <v>70</v>
+      <c r="D24" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7">
       <c r="A25" s="1"/>
-      <c r="B25" s="19"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="27" t="s">
-        <v>72</v>
+      <c r="D25" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7">
       <c r="A26" s="1"/>
-      <c r="B26" s="19"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="27" t="s">
-        <v>37</v>
+      <c r="D26" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7">
       <c r="A27" s="1"/>
-      <c r="B27" s="19"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="27" t="s">
-        <v>75</v>
+      <c r="D27" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="28" ht="51" spans="1:7">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="11" t="s">
+      <c r="D28" s="25" t="s">
         <v>78</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" ht="34" spans="1:7">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="11" t="s">
+      <c r="D29" s="24" t="s">
         <v>80</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="27" t="s">
         <v>82</v>
       </c>
+      <c r="D30" s="24" t="s">
+        <v>83</v>
+      </c>
       <c r="E30" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>40</v>
+        <v>82</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>86</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>87</v>
+        <v>82</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="27" t="s">
         <v>92</v>
       </c>
+      <c r="D35" s="24" t="s">
+        <v>93</v>
+      </c>
       <c r="E35" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>95</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>97</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>98</v>
+        <v>92</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>42</v>
+        <v>92</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="5" t="s">
         <v>103</v>
       </c>
       <c r="F40" s="2"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G40" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>104</v>
+        <v>92</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>106</v>
+        <v>82</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>107</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>110</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>112</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F44" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>114</v>
+      </c>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" ht="51" spans="1:7">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>113</v>
+        <v>82</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>116</v>
       </c>
       <c r="F45" s="2"/>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="G45" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" ht="51" spans="1:7">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>115</v>
+        <v>82</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" ht="17" spans="1:7">
       <c r="A47" s="1"/>
-      <c r="B47" s="19"/>
+      <c r="B47" s="15"/>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F47" s="29" t="s">
-        <v>118</v>
+      <c r="D47" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>122</v>
       </c>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7">
       <c r="A48" s="1"/>
-      <c r="B48" s="19"/>
+      <c r="B48" s="15"/>
       <c r="C48" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="27" t="s">
-        <v>119</v>
+      <c r="D48" s="24" t="s">
+        <v>123</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F48" s="2"/>
-      <c r="G48" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G48" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="19"/>
+      <c r="B49" s="15"/>
       <c r="C49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="27" t="s">
-        <v>122</v>
+      <c r="D49" s="24" t="s">
+        <v>126</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>579</v>
+        <v>127</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B50" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="B50" s="15"/>
       <c r="C50" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="27" t="s">
-        <v>123</v>
+      <c r="D50" s="24" t="s">
+        <v>129</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="4" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1"/>
-      <c r="B51" s="19"/>
+      <c r="B51" s="15"/>
       <c r="C51" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>126</v>
+      <c r="D51" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="F51" s="2"/>
-      <c r="G51" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+      <c r="G51" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="15"/>
       <c r="C52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="E52" s="32" t="s">
-        <v>583</v>
+      <c r="D52" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>136</v>
       </c>
       <c r="F52" s="2"/>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G52" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>130</v>
+        <v>138</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>139</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+    <row r="54" ht="101" spans="1:7">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>133</v>
+        <v>138</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>20</v>
       </c>
@@ -3350,1606 +3974,1794 @@
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="27" t="s">
-        <v>134</v>
+      <c r="D55" s="24" t="s">
+        <v>143</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>136</v>
+        <v>92</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>114</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F56" s="27" t="s">
-        <v>138</v>
+        <v>145</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>146</v>
       </c>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>147</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="9" t="s">
+    <row r="58" ht="17" spans="1:7">
+      <c r="A58" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B58" s="19"/>
+      <c r="B58" s="15"/>
       <c r="C58" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>143</v>
+        <v>149</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="F58" s="2"/>
-      <c r="G58" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G58" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1"/>
-      <c r="B59" s="19"/>
+      <c r="B59" s="15"/>
       <c r="C59" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>145</v>
+        <v>149</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>153</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F59" s="2"/>
-      <c r="G59" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G59" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B60" s="19"/>
+      <c r="B60" s="15"/>
       <c r="C60" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F60" s="27" t="s">
-        <v>151</v>
+        <v>158</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>159</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B61" s="19"/>
+      <c r="B61" s="15"/>
       <c r="C61" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1"/>
-      <c r="B62" s="19"/>
+      <c r="B62" s="15"/>
       <c r="C62" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B63" s="19"/>
+      <c r="B63" s="15"/>
       <c r="C63" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E63" s="30" t="s">
-        <v>161</v>
+        <v>168</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B64" s="19"/>
+      <c r="B64" s="15"/>
       <c r="C64" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B65" s="19"/>
+      <c r="B65" s="15"/>
       <c r="C65" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F65" s="27" t="s">
-        <v>134</v>
+        <v>176</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>143</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B66" s="19"/>
+      <c r="B66" s="15"/>
       <c r="C66" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F66" s="2">
         <v>100</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="D67" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="E67" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="F67" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="G67" s="23" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="15"/>
+      <c r="C67" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="F67" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="G67" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="68" s="12" customFormat="1" spans="1:7">
       <c r="A68" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B68" s="19"/>
+      <c r="B68" s="15"/>
       <c r="C68" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F68" s="27" t="s">
-        <v>179</v>
+        <v>186</v>
+      </c>
+      <c r="F68" s="24" t="s">
+        <v>187</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="4"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7">
       <c r="A72" s="1"/>
-      <c r="B72" s="19"/>
+      <c r="B72" s="15"/>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7">
       <c r="A73" s="1"/>
-      <c r="B73" s="19"/>
+      <c r="B73" s="15"/>
       <c r="C73" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>577</v>
+        <v>199</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7">
       <c r="A74" s="1"/>
-      <c r="B74" s="19"/>
+      <c r="B74" s="15"/>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B75" s="19"/>
+      <c r="B75" s="15"/>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1"/>
-      <c r="B76" s="19"/>
+      <c r="B76" s="15"/>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B77" s="19"/>
+      <c r="B77" s="15"/>
       <c r="C77" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>573</v>
+        <v>208</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B78" s="19"/>
+      <c r="B78" s="15"/>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F78" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="F78" s="24" t="s">
         <v>13</v>
       </c>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7">
       <c r="A79" s="1"/>
-      <c r="B79" s="19"/>
+      <c r="B79" s="15"/>
       <c r="C79" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>203</v>
+        <v>212</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="80" ht="17" spans="1:7">
       <c r="A80" s="1"/>
-      <c r="B80" s="19"/>
+      <c r="B80" s="15"/>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F80" s="27" t="s">
-        <v>49</v>
+        <v>216</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1"/>
-      <c r="B81" s="19"/>
+      <c r="B81" s="15"/>
       <c r="C81" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="F81" s="2">
         <v>103</v>
       </c>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B82" s="19"/>
+      <c r="B82" s="15"/>
       <c r="C82" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>574</v>
+        <v>221</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B83" s="19"/>
+      <c r="B83" s="15"/>
       <c r="C83" s="2" t="s">
-        <v>212</v>
+        <v>35</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B84" s="19"/>
+      <c r="B84" s="15"/>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="F84" s="27" t="s">
-        <v>132</v>
+        <v>227</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>141</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1"/>
-      <c r="B85" s="19"/>
+      <c r="B85" s="15"/>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="F85" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="F85" s="24" t="s">
         <v>31</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B86" s="19"/>
+      <c r="B86" s="15"/>
       <c r="C86" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="87" ht="17" spans="1:7">
       <c r="A87" s="1"/>
-      <c r="B87" s="19"/>
+      <c r="B87" s="15"/>
       <c r="C87" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="F87" s="29" t="s">
-        <v>227</v>
+        <v>235</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F87" s="25" t="s">
+        <v>237</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B88" s="19"/>
+      <c r="B88" s="15"/>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="F88" s="27" t="s">
-        <v>231</v>
+        <v>239</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F88" s="24" t="s">
+        <v>241</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1"/>
-      <c r="B89" s="19"/>
+      <c r="B89" s="15"/>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="4"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:7">
       <c r="A90" s="1"/>
-      <c r="B90" s="19"/>
+      <c r="B90" s="15"/>
       <c r="C90" s="2" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:7">
       <c r="A91" s="1"/>
-      <c r="B91" s="19"/>
+      <c r="B91" s="15"/>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>239</v>
+        <v>248</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="4"/>
     </row>
-    <row r="92" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="92" ht="51" spans="1:7">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="2" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E92" s="24" t="s">
-        <v>242</v>
+        <v>251</v>
+      </c>
+      <c r="E92" s="23" t="s">
+        <v>252</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="4"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:7">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="2" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>244</v>
+        <v>253</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>254</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="4"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B94" s="19"/>
+      <c r="B94" s="15"/>
       <c r="C94" s="2" t="s">
-        <v>101</v>
+        <v>255</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="F94" s="27" t="s">
-        <v>106</v>
+        <v>257</v>
+      </c>
+      <c r="F94" s="24" t="s">
+        <v>107</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="2" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:7">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:7">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="2" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="2" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="2" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="4"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="2" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="4"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:7">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="4"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:7">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="4"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:7">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
-      <c r="C103" s="13" t="s">
-        <v>264</v>
+      <c r="C103" s="11" t="s">
+        <v>275</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="4"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:7">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
-      <c r="C104" s="13" t="s">
-        <v>264</v>
+      <c r="C104" s="11" t="s">
+        <v>275</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="4"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:7">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="2" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E105" s="10" t="s">
-        <v>271</v>
+        <v>281</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>282</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="4"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:7">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="2" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E106" s="10" t="s">
-        <v>273</v>
+        <v>283</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>284</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="4"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:7">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
-      <c r="C107" s="13" t="s">
-        <v>264</v>
+      <c r="C107" s="11" t="s">
+        <v>275</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E107" s="10" t="s">
-        <v>275</v>
+        <v>285</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="4"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:7">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
-      <c r="C108" s="13" t="s">
-        <v>264</v>
+      <c r="C108" s="11" t="s">
+        <v>275</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E108" s="10" t="s">
-        <v>277</v>
+        <v>287</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>288</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="4"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:7">
       <c r="A109" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="2" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E109" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="F109" s="27" t="s">
-        <v>281</v>
+        <v>290</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F109" s="24" t="s">
+        <v>292</v>
       </c>
       <c r="G109" s="4"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:7">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="2" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E110" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="F110" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F110" s="24" t="s">
         <v>23</v>
       </c>
       <c r="G110" s="4"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:7">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="2" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E111" s="10" t="s">
-        <v>285</v>
+        <v>295</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>296</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="4"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:7">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="2" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E112" s="10" t="s">
-        <v>287</v>
+        <v>297</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>298</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="4"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:7">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="2" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E113" s="10" t="s">
-        <v>289</v>
+        <v>299</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>300</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="4"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:7">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="2" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="4"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:7">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="2" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E115" s="10" t="s">
-        <v>294</v>
+        <v>304</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>305</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="4"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:7">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="2" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="4"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:7">
+      <c r="A120" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B120" s="15"/>
+      <c r="C120" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D120" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F120" s="2"/>
+      <c r="G120" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B121" s="1"/>
+      <c r="C121" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D121" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F121" s="2"/>
+      <c r="G121" s="4"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B122" s="1"/>
+      <c r="C122" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D122" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F122" s="2"/>
+      <c r="G122" s="4"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B123" s="15"/>
+      <c r="C123" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D123" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F123" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="G123" s="4"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B124" s="15"/>
+      <c r="C124" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D124" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="F124" s="2"/>
+      <c r="G124" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B125" s="15"/>
+      <c r="C125" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D125" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F125" s="2"/>
+      <c r="G125" s="4"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B126" s="15"/>
+      <c r="C126" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F126" s="2"/>
+      <c r="G126" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" s="1"/>
+      <c r="C127" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D127" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F127" s="2"/>
+      <c r="G127" s="4"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" s="15"/>
+      <c r="C128" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D128" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F128" s="2"/>
+      <c r="G128" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" s="15"/>
+      <c r="C129" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D129" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F129" s="2"/>
+      <c r="G129" s="4"/>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B130" s="19"/>
+      <c r="B130" s="1"/>
       <c r="C130" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D130" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>575</v>
+        <v>27</v>
+      </c>
+      <c r="D130" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>329</v>
       </c>
       <c r="F130" s="2"/>
-      <c r="G130" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G130" s="4"/>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B131" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B131" s="15"/>
       <c r="C131" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D131" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E131" s="10" t="s">
-        <v>299</v>
+        <v>156</v>
+      </c>
+      <c r="D131" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>330</v>
       </c>
       <c r="F131" s="2"/>
-      <c r="G131" s="4"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G131" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B132" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="B132" s="15"/>
       <c r="C132" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D132" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E132" s="10" t="s">
-        <v>300</v>
+        <v>92</v>
+      </c>
+      <c r="D132" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>332</v>
       </c>
       <c r="F132" s="2"/>
-      <c r="G132" s="4"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G132" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B133" s="19"/>
-      <c r="C133" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D133" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E133" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="F133" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="G133" s="4"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
+        <v>334</v>
+      </c>
+      <c r="B133" s="15"/>
+      <c r="C133" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F133" s="2"/>
+      <c r="G133" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B134" s="19"/>
+        <v>310</v>
+      </c>
+      <c r="B134" s="1"/>
       <c r="C134" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D134" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>303</v>
+        <v>189</v>
+      </c>
+      <c r="D134" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>339</v>
       </c>
       <c r="F134" s="2"/>
-      <c r="G134" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G134" s="4"/>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B135" s="19"/>
+        <v>11</v>
+      </c>
+      <c r="B135" s="1"/>
       <c r="C135" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D135" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>306</v>
+        <v>109</v>
+      </c>
+      <c r="D135" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="4"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:7">
       <c r="A136" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B136" s="19"/>
+        <v>11</v>
+      </c>
+      <c r="B136" s="1"/>
       <c r="C136" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D136" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>308</v>
+        <v>189</v>
+      </c>
+      <c r="D136" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="F136" s="2"/>
-      <c r="G136" s="5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G136" s="4"/>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D137" s="27" t="s">
-        <v>310</v>
+        <v>12</v>
+      </c>
+      <c r="D137" s="24" t="s">
+        <v>344</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="4"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:7">
       <c r="A138" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B138" s="19"/>
+        <v>310</v>
+      </c>
+      <c r="B138" s="1"/>
       <c r="C138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D138" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="E138" s="10" t="s">
-        <v>313</v>
+        <v>245</v>
+      </c>
+      <c r="D138" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="F138" s="2"/>
-      <c r="G138" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G138" s="4"/>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B139" s="19"/>
+      <c r="B139" s="15"/>
       <c r="C139" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D139" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>316</v>
+        <v>149</v>
+      </c>
+      <c r="D139" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>347</v>
       </c>
       <c r="F139" s="2"/>
-      <c r="G139" s="4"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G139" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D140" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E140" s="10" t="s">
-        <v>317</v>
+        <v>189</v>
+      </c>
+      <c r="D140" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="4"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:7">
       <c r="A141" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B141" s="1"/>
+      <c r="C141" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D141" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F141" s="2"/>
+      <c r="G141" s="4"/>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B141" s="19"/>
-      <c r="C141" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D141" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E141" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="F141" s="2"/>
-      <c r="G141" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A142" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B142" s="19"/>
+      <c r="B142" s="1"/>
       <c r="C142" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D142" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E142" s="10" t="s">
-        <v>320</v>
+        <v>27</v>
+      </c>
+      <c r="D142" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>350</v>
       </c>
       <c r="F142" s="2"/>
-      <c r="G142" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G142" s="4"/>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B143" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B143" s="15"/>
       <c r="C143" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D143" s="27" t="s">
-        <v>322</v>
+        <v>171</v>
+      </c>
+      <c r="D143" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>578</v>
+        <v>351</v>
       </c>
       <c r="F143" s="2"/>
-      <c r="G143" s="4"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G143" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" s="1" t="s">
-        <v>298</v>
+        <v>11</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D144" s="27" t="s">
-        <v>323</v>
+        <v>189</v>
+      </c>
+      <c r="D144" s="24" t="s">
+        <v>353</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" s="4"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="145" ht="17" spans="1:7">
       <c r="A145" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B145" s="1"/>
+      <c r="B145" s="15"/>
       <c r="C145" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D145" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>326</v>
+        <v>149</v>
+      </c>
+      <c r="D145" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>355</v>
       </c>
       <c r="F145" s="2"/>
-      <c r="G145" s="4"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G145" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D146" s="27" t="s">
-        <v>327</v>
+        <v>27</v>
+      </c>
+      <c r="D146" s="24" t="s">
+        <v>93</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="F146" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="F146" s="24" t="s">
+        <v>358</v>
+      </c>
       <c r="G146" s="4"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:7">
       <c r="A147" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D147" s="27" t="s">
-        <v>329</v>
+        <v>82</v>
+      </c>
+      <c r="D147" s="24" t="s">
+        <v>95</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="F147" s="2"/>
       <c r="G147" s="4"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:7">
       <c r="A148" s="1" t="s">
-        <v>298</v>
+        <v>11</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D148" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>331</v>
+        <v>189</v>
+      </c>
+      <c r="D148" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>360</v>
       </c>
       <c r="F148" s="2"/>
       <c r="G148" s="4"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:7">
       <c r="A149" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B149" s="19"/>
+        <v>310</v>
+      </c>
+      <c r="B149" s="1"/>
       <c r="C149" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D149" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="E149" s="10" t="s">
-        <v>332</v>
+        <v>82</v>
+      </c>
+      <c r="D149" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>361</v>
       </c>
       <c r="F149" s="2"/>
-      <c r="G149" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G149" s="4"/>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D150" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>334</v>
+        <v>27</v>
+      </c>
+      <c r="D150" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>362</v>
       </c>
       <c r="F150" s="2"/>
       <c r="G150" s="4"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="151" ht="135" spans="1:7">
       <c r="A151" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B151" s="1"/>
-      <c r="C151" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D151" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>88</v>
+      <c r="C151" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D151" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E151" s="23" t="s">
+        <v>363</v>
       </c>
       <c r="F151" s="2"/>
       <c r="G151" s="4"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:7">
       <c r="A152" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D152" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>335</v>
+        <v>275</v>
+      </c>
+      <c r="D152" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>364</v>
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="4"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:7">
       <c r="A153" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B153" s="19"/>
+      <c r="B153" s="1"/>
       <c r="C153" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D153" s="27" t="s">
-        <v>87</v>
+        <v>92</v>
+      </c>
+      <c r="D153" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>572</v>
+        <v>365</v>
       </c>
       <c r="F153" s="2"/>
-      <c r="G153" s="4" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G153" s="4"/>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B154" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B154" s="15"/>
       <c r="C154" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D154" s="27" t="s">
-        <v>336</v>
-      </c>
-      <c r="E154" s="4" t="s">
-        <v>337</v>
+        <v>149</v>
+      </c>
+      <c r="D154" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>366</v>
       </c>
       <c r="F154" s="2"/>
-      <c r="G154" s="4"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G154" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="155" ht="135" spans="1:7">
       <c r="A155" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B155" s="19"/>
-      <c r="C155" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D155" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="E155" s="10" t="s">
-        <v>338</v>
+        <v>16</v>
+      </c>
+      <c r="B155" s="15"/>
+      <c r="C155" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D155" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E155" s="23" t="s">
+        <v>368</v>
       </c>
       <c r="F155" s="2"/>
-      <c r="G155" s="10" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G155" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B156" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="B156" s="15"/>
       <c r="C156" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D156" s="27" t="s">
-        <v>92</v>
+        <v>370</v>
+      </c>
+      <c r="D156" s="24" t="s">
+        <v>126</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="F156" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="G156" s="4"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
+        <v>371</v>
+      </c>
+      <c r="F156" s="2"/>
+      <c r="G156" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B157" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="B157" s="15"/>
       <c r="C157" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D157" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E157" s="10" t="s">
-        <v>342</v>
+        <v>275</v>
+      </c>
+      <c r="D157" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>373</v>
       </c>
       <c r="F157" s="2"/>
-      <c r="G157" s="4"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G157" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B158" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="B158" s="15"/>
       <c r="C158" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D158" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="E158" s="10" t="s">
-        <v>343</v>
+        <v>289</v>
+      </c>
+      <c r="D158" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>375</v>
       </c>
       <c r="F158" s="2"/>
-      <c r="G158" s="4"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G158" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B159" s="1"/>
+      <c r="B159" s="15"/>
       <c r="C159" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D159" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E159" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="F159" s="2"/>
-      <c r="G159" s="4"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="D159" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F159" s="2">
+        <v>109</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B160" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B160" s="15"/>
       <c r="C160" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D160" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E160" s="10" t="s">
-        <v>345</v>
+        <v>7</v>
+      </c>
+      <c r="D160" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="F160" s="2"/>
-      <c r="G160" s="4"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G160" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="161" customFormat="1" spans="1:7">
       <c r="A161" s="1" t="s">
         <v>11</v>
       </c>
@@ -4957,1126 +5769,901 @@
       <c r="C161" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D161" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="E161" s="10" t="s">
-        <v>346</v>
+      <c r="D161" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>382</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" s="4"/>
     </row>
-    <row r="162" spans="1:7" ht="108" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:7">
       <c r="A162" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B162" s="1"/>
-      <c r="C162" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D162" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="E162" s="24" t="s">
-        <v>347</v>
-      </c>
-      <c r="F162" s="2"/>
+      <c r="C162" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D162" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="F162" s="2">
+        <v>124</v>
+      </c>
       <c r="G162" s="4"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:7">
       <c r="A163" s="1" t="s">
-        <v>11</v>
+        <v>310</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D163" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="E163" s="10" t="s">
-        <v>348</v>
+        <v>82</v>
+      </c>
+      <c r="D163" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>385</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="4"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:7">
       <c r="A164" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D164" s="27" t="s">
-        <v>112</v>
+        <v>82</v>
+      </c>
+      <c r="D164" s="24" t="s">
+        <v>386</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="F164" s="2"/>
       <c r="G164" s="4"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:7">
       <c r="A165" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B165" s="1"/>
+        <v>310</v>
+      </c>
+      <c r="B165" s="15"/>
       <c r="C165" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D165" s="27" t="s">
-        <v>114</v>
+        <v>156</v>
+      </c>
+      <c r="D165" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="4"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:7">
       <c r="A166" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B166" s="15"/>
+      <c r="C166" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D166" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="F166" s="2"/>
+      <c r="G166" s="4"/>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B167" s="15"/>
+      <c r="C167" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D167" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F167" s="2"/>
+      <c r="G167" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B168" s="1"/>
+      <c r="C168" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D168" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="F168" s="2"/>
+      <c r="G168" s="4"/>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B169" s="1"/>
+      <c r="C169" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D169" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F169" s="2"/>
+      <c r="G169" s="4"/>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B166" s="19"/>
-      <c r="C166" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D166" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E166" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="F166" s="2"/>
-      <c r="G166" s="10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="108" x14ac:dyDescent="0.15">
-      <c r="A167" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B167" s="19"/>
-      <c r="C167" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D167" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="E167" s="24" t="s">
-        <v>353</v>
-      </c>
-      <c r="F167" s="2"/>
-      <c r="G167" s="11" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A168" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B168" s="19"/>
-      <c r="C168" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D168" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="E168" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="F168" s="2"/>
-      <c r="G168" s="4" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A169" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B169" s="19"/>
-      <c r="C169" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D169" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E169" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="F169" s="2"/>
-      <c r="G169" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A170" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B170" s="19"/>
+      <c r="B170" s="1"/>
       <c r="C170" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D170" s="27" t="s">
-        <v>125</v>
+        <v>109</v>
+      </c>
+      <c r="D170" s="24" t="s">
+        <v>398</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="F170" s="2"/>
-      <c r="G170" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G170" s="4"/>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B171" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="B171" s="15"/>
       <c r="C171" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D171" s="27" t="s">
-        <v>130</v>
+        <v>82</v>
+      </c>
+      <c r="D171" s="24" t="s">
+        <v>157</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="F171" s="2"/>
       <c r="G171" s="4"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:7">
       <c r="A172" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B172" s="1"/>
-      <c r="C172" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D172" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>364</v>
+        <v>334</v>
+      </c>
+      <c r="B172" s="15"/>
+      <c r="C172" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="D172" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="F172" s="2"/>
-      <c r="G172" s="4"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G172" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B173" s="1"/>
-      <c r="C173" s="2"/>
-      <c r="D173" s="27" t="s">
-        <v>136</v>
+      <c r="C173" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D173" s="24" t="s">
+        <v>165</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>111</v>
+        <v>404</v>
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="4"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:7">
       <c r="A174" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D174" s="27" t="s">
-        <v>139</v>
+        <v>12</v>
+      </c>
+      <c r="D174" s="24" t="s">
+        <v>168</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="F174" s="2"/>
       <c r="G174" s="4"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A175" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B175" s="1"/>
+    <row r="175" spans="1:7">
+      <c r="A175" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B175" s="15"/>
       <c r="C175" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D175" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="E175" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="F175" s="2">
-        <v>124</v>
-      </c>
-      <c r="G175" s="4"/>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="D175" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F175" s="2"/>
+      <c r="G175" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176" s="1" t="s">
-        <v>298</v>
+        <v>11</v>
       </c>
       <c r="B176" s="1"/>
       <c r="C176" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D176" s="27" t="s">
-        <v>367</v>
+        <v>27</v>
+      </c>
+      <c r="D176" s="24" t="s">
+        <v>409</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" s="4"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:7">
       <c r="A177" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B177" s="1"/>
       <c r="C177" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D177" s="27" t="s">
-        <v>369</v>
+        <v>27</v>
+      </c>
+      <c r="D177" s="24" t="s">
+        <v>172</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="F177" s="2"/>
       <c r="G177" s="4"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:7">
       <c r="A178" s="1" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D178" s="27" t="s">
-        <v>142</v>
+        <v>27</v>
+      </c>
+      <c r="D178" s="24" t="s">
+        <v>175</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="F178" s="2"/>
       <c r="G178" s="4"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:7">
       <c r="A179" s="1" t="s">
-        <v>298</v>
+        <v>11</v>
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D179" s="27" t="s">
-        <v>372</v>
+        <v>189</v>
+      </c>
+      <c r="D179" s="24" t="s">
+        <v>413</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="F179" s="2"/>
       <c r="G179" s="4"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:7">
       <c r="A180" s="1" t="s">
-        <v>298</v>
+        <v>16</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D180" s="27" t="s">
-        <v>145</v>
+        <v>12</v>
+      </c>
+      <c r="D180" s="24" t="s">
+        <v>415</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="F180" s="2"/>
       <c r="G180" s="4"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:7">
       <c r="A181" s="1" t="s">
-        <v>298</v>
+        <v>11</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D181" s="27" t="s">
-        <v>375</v>
+        <v>189</v>
+      </c>
+      <c r="D181" s="24" t="s">
+        <v>185</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="F181" s="2"/>
       <c r="G181" s="4"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:7">
       <c r="A182" s="1" t="s">
-        <v>298</v>
+        <v>11</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D182" s="27" t="s">
-        <v>377</v>
+        <v>189</v>
+      </c>
+      <c r="D182" s="24" t="s">
+        <v>418</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="F182" s="2"/>
       <c r="G182" s="4"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="183" ht="17" spans="1:7">
       <c r="A183" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B183" s="1"/>
+      <c r="B183" s="15"/>
       <c r="C183" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D183" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="E183" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="F183" s="2"/>
-      <c r="G183" s="4"/>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="D183" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="F183" s="2">
+        <v>123</v>
+      </c>
+      <c r="G183" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D184" s="27" t="s">
-        <v>149</v>
+        <v>327</v>
+      </c>
+      <c r="D184" s="24" t="s">
+        <v>190</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="4"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:7">
       <c r="A185" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B185" s="19"/>
-      <c r="C185" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="D185" s="27" t="s">
-        <v>383</v>
-      </c>
-      <c r="E185" s="10" t="s">
-        <v>384</v>
+        <v>11</v>
+      </c>
+      <c r="B185" s="1"/>
+      <c r="C185" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D185" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>424</v>
       </c>
       <c r="F185" s="2"/>
-      <c r="G185" s="10" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G185" s="4"/>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186" s="1" t="s">
-        <v>11</v>
+        <v>310</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D186" s="27" t="s">
-        <v>157</v>
+        <v>82</v>
+      </c>
+      <c r="D186" s="24" t="s">
+        <v>196</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="F186" s="2"/>
       <c r="G186" s="4"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:7">
       <c r="A187" s="1" t="s">
-        <v>26</v>
+        <v>310</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D187" s="27" t="s">
-        <v>160</v>
+      <c r="D187" s="24" t="s">
+        <v>198</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
       <c r="F187" s="2"/>
       <c r="G187" s="4"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A188" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="B188" s="19"/>
+    <row r="188" spans="1:7">
+      <c r="A188" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B188" s="1"/>
       <c r="C188" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D188" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="E188" s="10" t="s">
-        <v>389</v>
+        <v>275</v>
+      </c>
+      <c r="D188" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>427</v>
       </c>
       <c r="F188" s="2"/>
-      <c r="G188" s="10" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G188" s="4"/>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D189" s="27" t="s">
-        <v>391</v>
+        <v>275</v>
+      </c>
+      <c r="D189" s="24" t="s">
+        <v>428</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>392</v>
+        <v>429</v>
       </c>
       <c r="F189" s="2"/>
       <c r="G189" s="4"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="190" ht="17" spans="1:7">
       <c r="A190" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B190" s="15"/>
+      <c r="C190" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D190" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="F190" s="2"/>
+      <c r="G190" s="5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B190" s="1"/>
-      <c r="C190" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D190" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="E190" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="F190" s="2"/>
-      <c r="G190" s="4"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A191" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D191" s="27" t="s">
-        <v>167</v>
+        <v>189</v>
+      </c>
+      <c r="D191" s="24" t="s">
+        <v>432</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="F191" s="2"/>
       <c r="G191" s="4"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A192" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B192" s="1"/>
-      <c r="C192" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D192" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="E192" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="F192" s="2"/>
-      <c r="G192" s="4"/>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A193" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B193" s="1"/>
-      <c r="C193" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D193" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E193" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="F193" s="2"/>
-      <c r="G193" s="4"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A194" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B194" s="1"/>
-      <c r="C194" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D194" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="E194" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="F194" s="2"/>
-      <c r="G194" s="4"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A195" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B195" s="1"/>
-      <c r="C195" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D195" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="E195" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="F195" s="2"/>
-      <c r="G195" s="4"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A196" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B196" s="19"/>
-      <c r="C196" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D196" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="E196" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="F196" s="2">
-        <v>123</v>
-      </c>
-      <c r="G196" s="10" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A197" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B197" s="1"/>
-      <c r="C197" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D197" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="E197" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F197" s="2"/>
-      <c r="G197" s="4"/>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A198" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B198" s="1"/>
-      <c r="C198" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D198" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="E198" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="F198" s="2"/>
-      <c r="G198" s="4"/>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A199" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B199" s="1"/>
-      <c r="C199" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D199" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="E199" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="F199" s="2"/>
-      <c r="G199" s="4"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A200" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B200" s="1"/>
-      <c r="C200" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D200" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="E200" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="F200" s="2"/>
-      <c r="G200" s="4"/>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A201" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B201" s="1"/>
-      <c r="C201" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D201" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="E201" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="F201" s="2"/>
-      <c r="G201" s="4"/>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A202" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B202" s="1"/>
-      <c r="C202" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D202" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="E202" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="F202" s="2"/>
-      <c r="G202" s="4"/>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A203" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B203" s="19"/>
-      <c r="C203" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D203" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="E203" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="F203" s="2"/>
-      <c r="G203" s="10" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A204" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B204" s="1"/>
-      <c r="C204" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D204" s="27" t="s">
-        <v>414</v>
-      </c>
-      <c r="E204" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="F204" s="2"/>
-      <c r="G204" s="4"/>
-    </row>
-    <row r="226" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A226" s="25"/>
-      <c r="B226" s="25"/>
-      <c r="C226" s="26"/>
-      <c r="D226" s="26"/>
-      <c r="F226" s="26"/>
-    </row>
-    <row r="227" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A227" s="25"/>
-      <c r="B227" s="25"/>
-      <c r="C227" s="26"/>
-      <c r="D227" s="26"/>
-      <c r="F227" s="26"/>
-    </row>
-    <row r="228" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A228" s="25"/>
-      <c r="B228" s="25"/>
-      <c r="C228" s="26"/>
-      <c r="D228" s="26"/>
-      <c r="F228" s="26"/>
-    </row>
-    <row r="229" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A229" s="25"/>
-      <c r="B229" s="25"/>
-      <c r="C229" s="26"/>
-      <c r="D229" s="26"/>
-      <c r="F229" s="26"/>
-    </row>
-    <row r="230" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A230" s="25"/>
-      <c r="B230" s="25"/>
-      <c r="C230" s="26"/>
-      <c r="D230" s="26"/>
-      <c r="F230" s="26"/>
-    </row>
-    <row r="231" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A231" s="25"/>
-      <c r="B231" s="25"/>
-      <c r="C231" s="26"/>
-      <c r="D231" s="26"/>
-      <c r="F231" s="26"/>
-    </row>
-    <row r="232" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A232" s="25"/>
-      <c r="B232" s="25"/>
-      <c r="C232" s="26"/>
-      <c r="D232" s="26"/>
-      <c r="F232" s="26"/>
-    </row>
-    <row r="233" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A233" s="25"/>
-      <c r="B233" s="25"/>
-      <c r="C233" s="26"/>
-      <c r="D233" s="26"/>
-      <c r="F233" s="26"/>
-    </row>
-    <row r="234" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A234" s="25"/>
-      <c r="B234" s="25"/>
-      <c r="C234" s="26"/>
-      <c r="D234" s="26"/>
-      <c r="F234" s="26"/>
-    </row>
-    <row r="235" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A235" s="25"/>
-      <c r="B235" s="25"/>
-      <c r="C235" s="26"/>
-      <c r="D235" s="26"/>
-      <c r="F235" s="26"/>
-    </row>
-    <row r="236" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A236" s="25"/>
-      <c r="B236" s="25"/>
-      <c r="C236" s="26"/>
-      <c r="D236" s="26"/>
-      <c r="F236" s="26"/>
-    </row>
-    <row r="237" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A237" s="25"/>
-      <c r="B237" s="25"/>
-      <c r="C237" s="26"/>
-      <c r="D237" s="26"/>
-      <c r="F237" s="26"/>
-    </row>
-    <row r="238" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A238" s="25"/>
-      <c r="B238" s="25"/>
-      <c r="C238" s="26"/>
-      <c r="D238" s="26"/>
-      <c r="F238" s="26"/>
-    </row>
-    <row r="239" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A239" s="25"/>
-      <c r="B239" s="25"/>
-      <c r="C239" s="26"/>
-      <c r="D239" s="26"/>
-      <c r="F239" s="26"/>
-    </row>
-    <row r="240" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A240" s="25"/>
-      <c r="B240" s="25"/>
-      <c r="C240" s="26"/>
-      <c r="D240" s="26"/>
-      <c r="F240" s="26"/>
-    </row>
-    <row r="241" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A241" s="25"/>
-      <c r="B241" s="25"/>
-      <c r="C241" s="26"/>
-      <c r="D241" s="26"/>
-      <c r="F241" s="26"/>
-    </row>
-    <row r="242" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A242" s="25"/>
-      <c r="B242" s="25"/>
-      <c r="C242" s="26"/>
-      <c r="D242" s="26"/>
-      <c r="F242" s="26"/>
-    </row>
-    <row r="243" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A243" s="25"/>
-      <c r="B243" s="25"/>
-      <c r="C243" s="26"/>
-      <c r="D243" s="26"/>
-      <c r="F243" s="26"/>
-    </row>
-    <row r="244" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A244" s="25"/>
-      <c r="B244" s="25"/>
-      <c r="C244" s="26"/>
-      <c r="D244" s="26"/>
-      <c r="F244" s="26"/>
-    </row>
-    <row r="245" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A245" s="25"/>
-      <c r="B245" s="25"/>
-      <c r="C245" s="26"/>
-      <c r="D245" s="26"/>
-      <c r="F245" s="26"/>
-    </row>
-    <row r="246" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A246" s="25"/>
-      <c r="B246" s="25"/>
-      <c r="C246" s="26"/>
-      <c r="D246" s="26"/>
-      <c r="F246" s="26"/>
-    </row>
-    <row r="247" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A247" s="25"/>
-      <c r="B247" s="25"/>
-      <c r="C247" s="26"/>
-      <c r="D247" s="26"/>
-      <c r="F247" s="26"/>
-    </row>
-    <row r="248" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A248" s="25"/>
-      <c r="B248" s="25"/>
-      <c r="C248" s="26"/>
-      <c r="D248" s="26"/>
-      <c r="F248" s="26"/>
-    </row>
-    <row r="249" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A249" s="25"/>
-      <c r="B249" s="25"/>
-      <c r="C249" s="26"/>
-      <c r="D249" s="26"/>
-      <c r="F249" s="26"/>
-    </row>
-    <row r="250" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A250" s="25"/>
-      <c r="B250" s="25"/>
-      <c r="C250" s="26"/>
-      <c r="D250" s="26"/>
-      <c r="F250" s="26"/>
-    </row>
-    <row r="251" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A251" s="25"/>
-      <c r="B251" s="25"/>
-      <c r="C251" s="26"/>
-      <c r="D251" s="26"/>
-      <c r="F251" s="26"/>
-    </row>
-    <row r="252" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A252" s="25"/>
-      <c r="B252" s="25"/>
-      <c r="C252" s="26"/>
-      <c r="D252" s="26"/>
-      <c r="F252" s="26"/>
-    </row>
-    <row r="253" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A253" s="25"/>
-      <c r="B253" s="25"/>
-      <c r="C253" s="26"/>
-      <c r="D253" s="26"/>
-      <c r="F253" s="26"/>
-    </row>
-    <row r="254" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A254" s="25"/>
-      <c r="B254" s="25"/>
-      <c r="C254" s="26"/>
-      <c r="D254" s="26"/>
-      <c r="F254" s="26"/>
-    </row>
-    <row r="255" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A255" s="25"/>
-      <c r="B255" s="25"/>
-      <c r="C255" s="26"/>
-      <c r="D255" s="26"/>
-      <c r="F255" s="26"/>
-    </row>
-    <row r="256" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A256" s="25"/>
-      <c r="B256" s="25"/>
-      <c r="C256" s="26"/>
-      <c r="D256" s="26"/>
-      <c r="F256" s="26"/>
-    </row>
-    <row r="257" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A257" s="25"/>
-      <c r="B257" s="25"/>
-      <c r="C257" s="26"/>
-      <c r="D257" s="26"/>
-      <c r="F257" s="26"/>
-    </row>
-    <row r="258" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A258" s="25"/>
-      <c r="B258" s="25"/>
-      <c r="C258" s="26"/>
-      <c r="D258" s="26"/>
-      <c r="F258" s="26"/>
-    </row>
-    <row r="259" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A259" s="25"/>
-      <c r="B259" s="25"/>
-      <c r="C259" s="26"/>
-      <c r="D259" s="26"/>
-      <c r="F259" s="26"/>
-    </row>
-    <row r="260" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A260" s="25"/>
-      <c r="B260" s="25"/>
-      <c r="C260" s="26"/>
-      <c r="D260" s="26"/>
-      <c r="F260" s="26"/>
-    </row>
-    <row r="261" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A261" s="25"/>
-      <c r="B261" s="25"/>
-      <c r="C261" s="26"/>
-      <c r="D261" s="26"/>
-      <c r="F261" s="26"/>
-    </row>
-    <row r="262" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A262" s="25"/>
-      <c r="B262" s="25"/>
-      <c r="C262" s="26"/>
-      <c r="D262" s="26"/>
-      <c r="F262" s="26"/>
-    </row>
-    <row r="263" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A263" s="25"/>
-      <c r="B263" s="25"/>
-      <c r="C263" s="26"/>
-      <c r="D263" s="26"/>
-      <c r="F263" s="26"/>
-    </row>
-    <row r="264" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A264" s="25"/>
-      <c r="B264" s="25"/>
-      <c r="C264" s="26"/>
-      <c r="D264" s="26"/>
-      <c r="F264" s="26"/>
-    </row>
-    <row r="265" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A265" s="25"/>
-      <c r="B265" s="25"/>
-      <c r="C265" s="26"/>
-      <c r="D265" s="26"/>
-      <c r="F265" s="26"/>
-    </row>
-    <row r="266" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A266" s="25"/>
-      <c r="B266" s="25"/>
-      <c r="C266" s="26"/>
-      <c r="D266" s="26"/>
-      <c r="F266" s="26"/>
-    </row>
-    <row r="267" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A267" s="25"/>
-      <c r="B267" s="25"/>
-      <c r="C267" s="26"/>
-      <c r="D267" s="26"/>
-      <c r="F267" s="26"/>
-    </row>
-    <row r="268" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A268" s="25"/>
-      <c r="B268" s="25"/>
-      <c r="C268" s="26"/>
-      <c r="D268" s="26"/>
-      <c r="F268" s="26"/>
-    </row>
-    <row r="269" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A269" s="25"/>
-      <c r="B269" s="25"/>
-      <c r="C269" s="26"/>
-      <c r="D269" s="26"/>
-      <c r="F269" s="26"/>
-    </row>
-    <row r="270" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A270" s="25"/>
-      <c r="B270" s="25"/>
-      <c r="C270" s="26"/>
-      <c r="D270" s="26"/>
-      <c r="F270" s="26"/>
-    </row>
-    <row r="271" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A271" s="25"/>
-      <c r="B271" s="25"/>
-      <c r="C271" s="26"/>
-      <c r="D271" s="26"/>
-      <c r="F271" s="26"/>
-    </row>
-    <row r="272" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A272" s="25"/>
-      <c r="B272" s="25"/>
-      <c r="C272" s="26"/>
-      <c r="D272" s="26"/>
-      <c r="F272" s="26"/>
-    </row>
-    <row r="273" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A273" s="25"/>
-      <c r="B273" s="25"/>
-      <c r="C273" s="26"/>
-      <c r="D273" s="26"/>
-      <c r="F273" s="26"/>
-    </row>
-    <row r="274" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A274" s="25"/>
-      <c r="B274" s="25"/>
-      <c r="C274" s="26"/>
-      <c r="D274" s="26"/>
-      <c r="F274" s="26"/>
+    <row r="226" customFormat="1" spans="1:6">
+      <c r="A226" s="13"/>
+      <c r="B226" s="13"/>
+      <c r="C226" s="14"/>
+      <c r="D226" s="14"/>
+      <c r="F226" s="14"/>
+    </row>
+    <row r="227" customFormat="1" spans="1:6">
+      <c r="A227" s="13"/>
+      <c r="B227" s="13"/>
+      <c r="C227" s="14"/>
+      <c r="D227" s="14"/>
+      <c r="F227" s="14"/>
+    </row>
+    <row r="228" customFormat="1" spans="1:6">
+      <c r="A228" s="13"/>
+      <c r="B228" s="13"/>
+      <c r="C228" s="14"/>
+      <c r="D228" s="14"/>
+      <c r="F228" s="14"/>
+    </row>
+    <row r="229" customFormat="1" spans="1:6">
+      <c r="A229" s="13"/>
+      <c r="B229" s="13"/>
+      <c r="C229" s="14"/>
+      <c r="D229" s="14"/>
+      <c r="F229" s="14"/>
+    </row>
+    <row r="230" customFormat="1" spans="1:6">
+      <c r="A230" s="13"/>
+      <c r="B230" s="13"/>
+      <c r="C230" s="14"/>
+      <c r="D230" s="14"/>
+      <c r="F230" s="14"/>
+    </row>
+    <row r="231" customFormat="1" spans="1:6">
+      <c r="A231" s="13"/>
+      <c r="B231" s="13"/>
+      <c r="C231" s="14"/>
+      <c r="D231" s="14"/>
+      <c r="F231" s="14"/>
+    </row>
+    <row r="232" customFormat="1" spans="1:6">
+      <c r="A232" s="13"/>
+      <c r="B232" s="13"/>
+      <c r="C232" s="14"/>
+      <c r="D232" s="14"/>
+      <c r="F232" s="14"/>
+    </row>
+    <row r="233" customFormat="1" spans="1:6">
+      <c r="A233" s="13"/>
+      <c r="B233" s="13"/>
+      <c r="C233" s="14"/>
+      <c r="D233" s="14"/>
+      <c r="F233" s="14"/>
+    </row>
+    <row r="234" customFormat="1" spans="1:6">
+      <c r="A234" s="13"/>
+      <c r="B234" s="13"/>
+      <c r="C234" s="14"/>
+      <c r="D234" s="14"/>
+      <c r="F234" s="14"/>
+    </row>
+    <row r="235" customFormat="1" spans="1:6">
+      <c r="A235" s="13"/>
+      <c r="B235" s="13"/>
+      <c r="C235" s="14"/>
+      <c r="D235" s="14"/>
+      <c r="F235" s="14"/>
+    </row>
+    <row r="236" customFormat="1" spans="1:6">
+      <c r="A236" s="13"/>
+      <c r="B236" s="13"/>
+      <c r="C236" s="14"/>
+      <c r="D236" s="14"/>
+      <c r="F236" s="14"/>
+    </row>
+    <row r="237" customFormat="1" spans="1:6">
+      <c r="A237" s="13"/>
+      <c r="B237" s="13"/>
+      <c r="C237" s="14"/>
+      <c r="D237" s="14"/>
+      <c r="F237" s="14"/>
+    </row>
+    <row r="238" customFormat="1" spans="1:6">
+      <c r="A238" s="13"/>
+      <c r="B238" s="13"/>
+      <c r="C238" s="14"/>
+      <c r="D238" s="14"/>
+      <c r="F238" s="14"/>
+    </row>
+    <row r="239" customFormat="1" spans="1:6">
+      <c r="A239" s="13"/>
+      <c r="B239" s="13"/>
+      <c r="C239" s="14"/>
+      <c r="D239" s="14"/>
+      <c r="F239" s="14"/>
+    </row>
+    <row r="240" customFormat="1" spans="1:6">
+      <c r="A240" s="13"/>
+      <c r="B240" s="13"/>
+      <c r="C240" s="14"/>
+      <c r="D240" s="14"/>
+      <c r="F240" s="14"/>
+    </row>
+    <row r="241" customFormat="1" spans="1:6">
+      <c r="A241" s="13"/>
+      <c r="B241" s="13"/>
+      <c r="C241" s="14"/>
+      <c r="D241" s="14"/>
+      <c r="F241" s="14"/>
+    </row>
+    <row r="242" customFormat="1" spans="1:6">
+      <c r="A242" s="13"/>
+      <c r="B242" s="13"/>
+      <c r="C242" s="14"/>
+      <c r="D242" s="14"/>
+      <c r="F242" s="14"/>
+    </row>
+    <row r="243" customFormat="1" spans="1:6">
+      <c r="A243" s="13"/>
+      <c r="B243" s="13"/>
+      <c r="C243" s="14"/>
+      <c r="D243" s="14"/>
+      <c r="F243" s="14"/>
+    </row>
+    <row r="244" customFormat="1" spans="1:6">
+      <c r="A244" s="13"/>
+      <c r="B244" s="13"/>
+      <c r="C244" s="14"/>
+      <c r="D244" s="14"/>
+      <c r="F244" s="14"/>
+    </row>
+    <row r="245" customFormat="1" spans="1:6">
+      <c r="A245" s="13"/>
+      <c r="B245" s="13"/>
+      <c r="C245" s="14"/>
+      <c r="D245" s="14"/>
+      <c r="F245" s="14"/>
+    </row>
+    <row r="246" customFormat="1" spans="1:6">
+      <c r="A246" s="13"/>
+      <c r="B246" s="13"/>
+      <c r="C246" s="14"/>
+      <c r="D246" s="14"/>
+      <c r="F246" s="14"/>
+    </row>
+    <row r="247" customFormat="1" spans="1:6">
+      <c r="A247" s="13"/>
+      <c r="B247" s="13"/>
+      <c r="C247" s="14"/>
+      <c r="D247" s="14"/>
+      <c r="F247" s="14"/>
+    </row>
+    <row r="248" customFormat="1" spans="1:6">
+      <c r="A248" s="13"/>
+      <c r="B248" s="13"/>
+      <c r="C248" s="14"/>
+      <c r="D248" s="14"/>
+      <c r="F248" s="14"/>
+    </row>
+    <row r="249" customFormat="1" spans="1:6">
+      <c r="A249" s="13"/>
+      <c r="B249" s="13"/>
+      <c r="C249" s="14"/>
+      <c r="D249" s="14"/>
+      <c r="F249" s="14"/>
+    </row>
+    <row r="250" customFormat="1" spans="1:6">
+      <c r="A250" s="13"/>
+      <c r="B250" s="13"/>
+      <c r="C250" s="14"/>
+      <c r="D250" s="14"/>
+      <c r="F250" s="14"/>
+    </row>
+    <row r="251" customFormat="1" spans="1:6">
+      <c r="A251" s="13"/>
+      <c r="B251" s="13"/>
+      <c r="C251" s="14"/>
+      <c r="D251" s="14"/>
+      <c r="F251" s="14"/>
+    </row>
+    <row r="252" customFormat="1" spans="1:6">
+      <c r="A252" s="13"/>
+      <c r="B252" s="13"/>
+      <c r="C252" s="14"/>
+      <c r="D252" s="14"/>
+      <c r="F252" s="14"/>
+    </row>
+    <row r="253" customFormat="1" spans="1:6">
+      <c r="A253" s="13"/>
+      <c r="B253" s="13"/>
+      <c r="C253" s="14"/>
+      <c r="D253" s="14"/>
+      <c r="F253" s="14"/>
+    </row>
+    <row r="254" customFormat="1" spans="1:6">
+      <c r="A254" s="13"/>
+      <c r="B254" s="13"/>
+      <c r="C254" s="14"/>
+      <c r="D254" s="14"/>
+      <c r="F254" s="14"/>
+    </row>
+    <row r="255" customFormat="1" spans="1:6">
+      <c r="A255" s="13"/>
+      <c r="B255" s="13"/>
+      <c r="C255" s="14"/>
+      <c r="D255" s="14"/>
+      <c r="F255" s="14"/>
+    </row>
+    <row r="256" customFormat="1" spans="1:6">
+      <c r="A256" s="13"/>
+      <c r="B256" s="13"/>
+      <c r="C256" s="14"/>
+      <c r="D256" s="14"/>
+      <c r="F256" s="14"/>
+    </row>
+    <row r="257" customFormat="1" spans="1:6">
+      <c r="A257" s="13"/>
+      <c r="B257" s="13"/>
+      <c r="C257" s="14"/>
+      <c r="D257" s="14"/>
+      <c r="F257" s="14"/>
+    </row>
+    <row r="258" customFormat="1" spans="1:6">
+      <c r="A258" s="13"/>
+      <c r="B258" s="13"/>
+      <c r="C258" s="14"/>
+      <c r="D258" s="14"/>
+      <c r="F258" s="14"/>
+    </row>
+    <row r="259" customFormat="1" spans="1:6">
+      <c r="A259" s="13"/>
+      <c r="B259" s="13"/>
+      <c r="C259" s="14"/>
+      <c r="D259" s="14"/>
+      <c r="F259" s="14"/>
+    </row>
+    <row r="260" customFormat="1" spans="1:6">
+      <c r="A260" s="13"/>
+      <c r="B260" s="13"/>
+      <c r="C260" s="14"/>
+      <c r="D260" s="14"/>
+      <c r="F260" s="14"/>
+    </row>
+    <row r="261" customFormat="1" spans="1:6">
+      <c r="A261" s="13"/>
+      <c r="B261" s="13"/>
+      <c r="C261" s="14"/>
+      <c r="D261" s="14"/>
+      <c r="F261" s="14"/>
+    </row>
+    <row r="262" customFormat="1" spans="1:6">
+      <c r="A262" s="13"/>
+      <c r="B262" s="13"/>
+      <c r="C262" s="14"/>
+      <c r="D262" s="14"/>
+      <c r="F262" s="14"/>
+    </row>
+    <row r="263" customFormat="1" spans="1:6">
+      <c r="A263" s="13"/>
+      <c r="B263" s="13"/>
+      <c r="C263" s="14"/>
+      <c r="D263" s="14"/>
+      <c r="F263" s="14"/>
+    </row>
+    <row r="264" customFormat="1" spans="1:6">
+      <c r="A264" s="13"/>
+      <c r="B264" s="13"/>
+      <c r="C264" s="14"/>
+      <c r="D264" s="14"/>
+      <c r="F264" s="14"/>
+    </row>
+    <row r="265" customFormat="1" spans="1:6">
+      <c r="A265" s="13"/>
+      <c r="B265" s="13"/>
+      <c r="C265" s="14"/>
+      <c r="D265" s="14"/>
+      <c r="F265" s="14"/>
+    </row>
+    <row r="266" customFormat="1" spans="1:6">
+      <c r="A266" s="13"/>
+      <c r="B266" s="13"/>
+      <c r="C266" s="14"/>
+      <c r="D266" s="14"/>
+      <c r="F266" s="14"/>
+    </row>
+    <row r="267" customFormat="1" spans="1:6">
+      <c r="A267" s="13"/>
+      <c r="B267" s="13"/>
+      <c r="C267" s="14"/>
+      <c r="D267" s="14"/>
+      <c r="F267" s="14"/>
+    </row>
+    <row r="268" customFormat="1" spans="1:6">
+      <c r="A268" s="13"/>
+      <c r="B268" s="13"/>
+      <c r="C268" s="14"/>
+      <c r="D268" s="14"/>
+      <c r="F268" s="14"/>
+    </row>
+    <row r="269" customFormat="1" spans="1:6">
+      <c r="A269" s="13"/>
+      <c r="B269" s="13"/>
+      <c r="C269" s="14"/>
+      <c r="D269" s="14"/>
+      <c r="F269" s="14"/>
+    </row>
+    <row r="270" customFormat="1" spans="1:6">
+      <c r="A270" s="13"/>
+      <c r="B270" s="13"/>
+      <c r="C270" s="14"/>
+      <c r="D270" s="14"/>
+      <c r="F270" s="14"/>
+    </row>
+    <row r="271" customFormat="1" spans="1:6">
+      <c r="A271" s="13"/>
+      <c r="B271" s="13"/>
+      <c r="C271" s="14"/>
+      <c r="D271" s="14"/>
+      <c r="F271" s="14"/>
+    </row>
+    <row r="272" customFormat="1" spans="1:6">
+      <c r="A272" s="13"/>
+      <c r="B272" s="13"/>
+      <c r="C272" s="14"/>
+      <c r="D272" s="14"/>
+      <c r="F272" s="14"/>
+    </row>
+    <row r="273" customFormat="1" spans="1:6">
+      <c r="A273" s="13"/>
+      <c r="B273" s="13"/>
+      <c r="C273" s="14"/>
+      <c r="D273" s="14"/>
+      <c r="F273" s="14"/>
+    </row>
+    <row r="274" customFormat="1" spans="1:6">
+      <c r="A274" s="13"/>
+      <c r="B274" s="13"/>
+      <c r="C274" s="14"/>
+      <c r="D274" s="14"/>
+      <c r="F274" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C79" sqref="C79:C116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="4" max="4" width="78.125" customWidth="1"/>
@@ -6084,7 +6671,7 @@
     <col min="6" max="6" width="78.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6104,1149 +6691,1149 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>305</v>
+        <v>44</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>317</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>307</v>
+        <v>44</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>319</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>420</v>
+        <v>44</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>438</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>310</v>
+        <v>44</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>322</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>329</v>
+      <c r="C12" s="24" t="s">
+        <v>344</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="E12" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>336</v>
+        <v>82</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>353</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>63</v>
+        <v>449</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>341</v>
+        <v>255</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>358</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>92</v>
+        <v>450</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>93</v>
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>231</v>
+        <v>138</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>241</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>367</v>
+        <v>138</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>384</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>369</v>
+        <v>138</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>386</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>372</v>
+        <v>138</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>389</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>375</v>
+        <v>138</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>394</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>377</v>
+        <v>138</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>396</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>379</v>
+        <v>138</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>398</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>441</v>
+        <v>109</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>441</v>
+        <v>109</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>441</v>
+        <v>109</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="4" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="4" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="4" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>212</v>
+        <v>35</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>441</v>
+        <v>109</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="4" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="37" ht="34" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="11" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="F37" s="9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="38" ht="34" spans="1:6">
       <c r="A38" s="6" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="E38" s="12"/>
+        <v>488</v>
+      </c>
+      <c r="E38" s="10"/>
       <c r="F38" s="8" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="E44" s="2"/>
-      <c r="F44" s="10" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F44" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="9" t="s">
-        <v>416</v>
+    <row r="56" spans="1:6">
+      <c r="A56" s="3" t="s">
+        <v>434</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>510</v>
+        <v>526</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>527</v>
       </c>
       <c r="E56" s="2"/>
-      <c r="F56" s="10" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F56" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" s="9" t="s">
-        <v>416</v>
+    <row r="60" spans="1:6">
+      <c r="A60" s="3" t="s">
+        <v>434</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>519</v>
+        <v>535</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" s="9" t="s">
-        <v>416</v>
+    <row r="61" spans="1:6">
+      <c r="A61" s="3" t="s">
+        <v>434</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>521</v>
+        <v>537</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>528</v>
+        <v>545</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>531</v>
+        <v>548</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C79" s="27" t="s">
+      <c r="C79" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="E79" s="27" t="s">
-        <v>200</v>
+        <v>550</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>210</v>
       </c>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C80" s="27" t="s">
+      <c r="C80" s="24" t="s">
         <v>10</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="E80" s="27" t="s">
+        <v>551</v>
+      </c>
+      <c r="E80" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C81" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="C81" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="E81" s="27" t="s">
-        <v>282</v>
+        <v>552</v>
+      </c>
+      <c r="E81" s="24" t="s">
+        <v>293</v>
       </c>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>12</v>
@@ -7255,557 +7842,613 @@
         <v>31</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="E82" s="2">
         <v>121</v>
       </c>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="C83" s="27" t="s">
-        <v>35</v>
+        <v>554</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C84" s="27" t="s">
+      <c r="C84" s="24" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="E84" s="27" t="s">
+        <v>556</v>
+      </c>
+      <c r="E84" s="24" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6">
       <c r="A86" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B86" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="B86" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C86" s="27" t="s">
-        <v>420</v>
+      <c r="C86" s="24" t="s">
+        <v>438</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="E87" s="2">
         <v>114</v>
       </c>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="C88" s="27" t="s">
-        <v>53</v>
+        <v>554</v>
+      </c>
+      <c r="C88" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C89" s="27" t="s">
-        <v>55</v>
+      <c r="C89" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="E89" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="E89" s="24" t="s">
         <v>21</v>
       </c>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="C90" s="27" t="s">
-        <v>179</v>
+        <v>563</v>
+      </c>
+      <c r="C90" s="24" t="s">
+        <v>187</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="E90" s="27" t="s">
-        <v>177</v>
+        <v>564</v>
+      </c>
+      <c r="E90" s="24" t="s">
+        <v>185</v>
       </c>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C91" s="27" t="s">
-        <v>63</v>
+        <v>82</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="E91" s="27" t="s">
-        <v>336</v>
+        <v>565</v>
+      </c>
+      <c r="E91" s="24" t="s">
+        <v>353</v>
       </c>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A92" s="9" t="s">
-        <v>549</v>
+    <row r="92" ht="17" spans="1:6">
+      <c r="A92" s="3" t="s">
+        <v>566</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C92" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="E92" s="29" t="s">
-        <v>551</v>
+      <c r="C92" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="E92" s="25" t="s">
+        <v>568</v>
       </c>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C93" s="27" t="s">
-        <v>72</v>
+        <v>245</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C94" s="27" t="s">
+      <c r="C94" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="E94" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E94" s="27" t="s">
-        <v>35</v>
-      </c>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C95" s="27" t="s">
-        <v>77</v>
+        <v>570</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>78</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C96" s="27" t="s">
-        <v>40</v>
+      <c r="C96" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="E96" s="27" t="s">
-        <v>38</v>
+        <v>572</v>
+      </c>
+      <c r="E96" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A97" s="9" t="s">
-        <v>428</v>
+    <row r="97" ht="17" spans="1:6">
+      <c r="A97" s="3" t="s">
+        <v>446</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C97" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D97" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="E97" s="29" t="s">
-        <v>557</v>
+      <c r="C97" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="E97" s="25" t="s">
+        <v>574</v>
       </c>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A98" s="9" t="s">
-        <v>418</v>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1" t="s">
+        <v>434</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" s="4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" s="4"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C101" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="E101" s="2">
+        <v>134</v>
+      </c>
+      <c r="F101" s="4"/>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" s="4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="E103" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="F103" s="4"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F104" s="4"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="C98" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" s="10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A99" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F99" s="4"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A100" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C100" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="E100" s="2">
-        <v>134</v>
-      </c>
-      <c r="F100" s="4"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A101" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C101" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="E101" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="F101" s="4"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A102" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F102" s="4"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A103" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="E103" s="2">
+      <c r="D105" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="E105" s="2">
         <v>120</v>
       </c>
-      <c r="F103" s="4"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A104" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C104" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="D104" s="5" t="s">
+      <c r="F105" s="4"/>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F106" s="4"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="E107" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F107" s="4"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C108" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E108" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F108" s="4"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C109" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" s="4"/>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C111" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" s="4"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F112" s="4"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E104" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="F104" s="4"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A105" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C105" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E105" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="F105" s="4"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A106" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B106" s="2" t="s">
+      <c r="C113" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="E113" s="2">
+        <v>115</v>
+      </c>
+      <c r="F113" s="4"/>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F114" s="4"/>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E116" s="2">
         <v>170</v>
       </c>
-      <c r="C106" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" s="4"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A107" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="E107" s="2"/>
-      <c r="F107" s="4" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A108" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C108" s="27" t="s">
-        <v>452</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="E108" s="2"/>
-      <c r="F108" s="4"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A109" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F109" s="4"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A110" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="E110" s="2">
-        <v>115</v>
-      </c>
-      <c r="F110" s="4"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A111" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F111" s="4"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A112" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A113" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="E113" s="2">
-        <v>170</v>
-      </c>
-      <c r="F113" s="4"/>
+      <c r="F116" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/017 面试题/自测题.xlsx
+++ b/017 面试题/自测题.xlsx
@@ -11,14 +11,14 @@
     <sheet name="重复" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$274</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$191</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601">
   <si>
     <t>类型</t>
   </si>
@@ -943,12 +943,6 @@
     <t>爬虫</t>
   </si>
   <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>验证码的解决（简单的：对图像做处理后可以得到的，困难的：验证码是点击，拖动等动态进行的？）</t>
-  </si>
-  <si>
     <t>165</t>
   </si>
   <si>
@@ -979,16 +973,25 @@
     <t>109</t>
   </si>
   <si>
+    <t>答案在109</t>
+  </si>
+  <si>
     <t>171</t>
   </si>
   <si>
     <t>简述 GIL</t>
   </si>
   <si>
+    <t>答案在005</t>
+  </si>
+  <si>
     <t>172</t>
   </si>
   <si>
     <t>进程之间如何通信</t>
+  </si>
+  <si>
+    <t>无答案</t>
   </si>
   <si>
     <t>176</t>
@@ -1349,6 +1352,9 @@
     <t>递归完成1+2+3+...+10求和</t>
   </si>
   <si>
+    <t>注意审题, 不是要用循环, 而是要用递归方式</t>
+  </si>
+  <si>
     <t>086</t>
   </si>
   <si>
@@ -1420,6 +1426,9 @@
     <t>Linux命令重定向 &gt; 和 &gt;&gt;</t>
   </si>
   <si>
+    <t>还是挺有意思的一道题, 和自己印象中不太一样</t>
+  </si>
+  <si>
     <t>正则表达式匹配出&lt;html&gt;&lt;h1&gt;http://www.itcast.cn&lt;/h1&gt;&lt;/html&gt;</t>
   </si>
   <si>
@@ -1429,6 +1438,9 @@
     <t>生成0-100的随机数</t>
   </si>
   <si>
+    <t>重点是一共有三种方法, 思路要打开</t>
+  </si>
+  <si>
     <t>常见的网络传输协议</t>
   </si>
   <si>
@@ -1436,6 +1448,9 @@
   </si>
   <si>
     <t>HTTP请求中get和post区别</t>
+  </si>
+  <si>
+    <t>小林网络里有专门一个标题说这个</t>
   </si>
   <si>
     <t>python中读取Excel文件的方法</t>
@@ -1782,6 +1797,15 @@
     <t>需要登录的网页，如何解决同时限制 ip，cookie,session（其中有一些是动态生成的）在不使用动态爬取的情况下？</t>
   </si>
   <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>验证码的解决（简单的：对图像做处理后可以得到的，困难的：验证码是点击，拖动等动态进行的？）</t>
+  </si>
+  <si>
+    <t>这个应该不会问</t>
+  </si>
+  <si>
     <t>网络编程</t>
   </si>
   <si>
@@ -1982,12 +2006,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1996,13 +2020,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2015,23 +2063,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2061,31 +2103,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2098,9 +2124,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2115,10 +2155,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2129,30 +2169,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2173,49 +2191,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="0" tint="-0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2233,7 +2215,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2251,7 +2263,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2263,31 +2317,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2299,13 +2329,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2317,31 +2353,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2354,6 +2366,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2382,17 +2406,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2442,11 +2469,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2465,17 +2498,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2484,152 +2508,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2681,17 +2705,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -3033,12 +3054,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G274"/>
+  <dimension ref="A1:G191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G50" sqref="G50"/>
+      <selection pane="bottomLeft" activeCell="E198" sqref="E198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -3081,13 +3102,13 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="4"/>
@@ -3100,13 +3121,13 @@
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="23" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="4"/>
@@ -3119,13 +3140,13 @@
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -3140,7 +3161,7 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -3157,7 +3178,7 @@
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -3176,7 +3197,7 @@
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -3193,7 +3214,7 @@
       <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -3212,13 +3233,13 @@
       <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="23" t="s">
         <v>38</v>
       </c>
       <c r="G9" s="4"/>
@@ -3231,13 +3252,13 @@
       <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="23" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="4"/>
@@ -3250,13 +3271,13 @@
       <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G11" s="4"/>
@@ -3269,7 +3290,7 @@
       <c r="C12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="23" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -3286,7 +3307,7 @@
       <c r="C13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="23" t="s">
         <v>47</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -3303,7 +3324,7 @@
       <c r="C14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="23" t="s">
         <v>50</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -3320,7 +3341,7 @@
       <c r="C15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="23" t="s">
         <v>52</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -3337,7 +3358,7 @@
       <c r="C16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="23" t="s">
         <v>54</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -3354,7 +3375,7 @@
       <c r="C17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>56</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -3371,7 +3392,7 @@
       <c r="C18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="23" t="s">
         <v>58</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -3388,7 +3409,7 @@
       <c r="C19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="23" t="s">
         <v>60</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -3405,7 +3426,7 @@
       <c r="C20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="23" t="s">
         <v>62</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -3420,7 +3441,7 @@
       <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="23" t="s">
         <v>64</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -3437,7 +3458,7 @@
       <c r="C22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="23" t="s">
         <v>66</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -3456,7 +3477,7 @@
       <c r="C23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="23" t="s">
         <v>69</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -3473,7 +3494,7 @@
       <c r="C24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="23" t="s">
         <v>71</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -3488,7 +3509,7 @@
       <c r="C25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="23" t="s">
         <v>73</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -3503,7 +3524,7 @@
       <c r="C26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -3518,7 +3539,7 @@
       <c r="C27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="23" t="s">
         <v>76</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -3533,7 +3554,7 @@
       <c r="C28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="24" t="s">
         <v>78</v>
       </c>
       <c r="E28" s="9" t="s">
@@ -3548,7 +3569,7 @@
       <c r="C29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="23" t="s">
         <v>80</v>
       </c>
       <c r="E29" s="9" t="s">
@@ -3565,7 +3586,7 @@
       <c r="C30" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="23" t="s">
         <v>83</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -3582,7 +3603,7 @@
       <c r="C31" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="23" t="s">
         <v>41</v>
       </c>
       <c r="E31" s="4" t="s">
@@ -3599,7 +3620,7 @@
       <c r="C32" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="23" t="s">
         <v>86</v>
       </c>
       <c r="E32" s="4" t="s">
@@ -3616,7 +3637,7 @@
       <c r="C33" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="23" t="s">
         <v>88</v>
       </c>
       <c r="E33" s="4" t="s">
@@ -3633,7 +3654,7 @@
       <c r="C34" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="23" t="s">
         <v>90</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -3648,7 +3669,7 @@
       <c r="C35" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="23" t="s">
         <v>93</v>
       </c>
       <c r="E35" s="4" t="s">
@@ -3663,7 +3684,7 @@
       <c r="C36" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="23" t="s">
         <v>95</v>
       </c>
       <c r="E36" s="4" t="s">
@@ -3678,7 +3699,7 @@
       <c r="C37" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="23" t="s">
         <v>97</v>
       </c>
       <c r="E37" s="4" t="s">
@@ -3693,7 +3714,7 @@
       <c r="C38" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="23" t="s">
         <v>99</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -3708,7 +3729,7 @@
       <c r="C39" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="23" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="4" t="s">
@@ -3723,7 +3744,7 @@
       <c r="C40" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="23" t="s">
         <v>102</v>
       </c>
       <c r="E40" s="5" t="s">
@@ -3740,7 +3761,7 @@
       <c r="C41" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="23" t="s">
         <v>105</v>
       </c>
       <c r="E41" s="4" t="s">
@@ -3755,7 +3776,7 @@
       <c r="C42" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="23" t="s">
         <v>107</v>
       </c>
       <c r="E42" s="4" t="s">
@@ -3770,7 +3791,7 @@
       <c r="C43" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="23" t="s">
         <v>110</v>
       </c>
       <c r="E43" s="4" t="s">
@@ -3785,13 +3806,13 @@
       <c r="C44" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="23" t="s">
         <v>112</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="23" t="s">
         <v>114</v>
       </c>
       <c r="G44" s="4"/>
@@ -3802,10 +3823,10 @@
       <c r="C45" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="9" t="s">
         <v>116</v>
       </c>
       <c r="F45" s="2"/>
@@ -3819,7 +3840,7 @@
       <c r="C46" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="23" t="s">
         <v>118</v>
       </c>
       <c r="E46" s="9" t="s">
@@ -3834,13 +3855,13 @@
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="23" t="s">
         <v>120</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F47" s="25" t="s">
+      <c r="F47" s="24" t="s">
         <v>122</v>
       </c>
       <c r="G47" s="4"/>
@@ -3851,7 +3872,7 @@
       <c r="C48" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="23" t="s">
         <v>123</v>
       </c>
       <c r="E48" s="4" t="s">
@@ -3870,7 +3891,7 @@
       <c r="C49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="23" t="s">
         <v>126</v>
       </c>
       <c r="E49" s="4" t="s">
@@ -3889,7 +3910,7 @@
       <c r="C50" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="23" t="s">
         <v>129</v>
       </c>
       <c r="E50" s="4" t="s">
@@ -3906,7 +3927,7 @@
       <c r="C51" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="23" t="s">
         <v>132</v>
       </c>
       <c r="E51" s="5" t="s">
@@ -3925,10 +3946,10 @@
       <c r="C52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D52" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="5" t="s">
         <v>136</v>
       </c>
       <c r="F52" s="2"/>
@@ -3942,7 +3963,7 @@
       <c r="C53" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="23" t="s">
         <v>139</v>
       </c>
       <c r="E53" s="4" t="s">
@@ -3957,7 +3978,7 @@
       <c r="C54" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="23" t="s">
         <v>141</v>
       </c>
       <c r="E54" s="9" t="s">
@@ -3974,7 +3995,7 @@
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="23" t="s">
         <v>143</v>
       </c>
       <c r="E55" s="4" t="s">
@@ -3991,13 +4012,13 @@
       <c r="C56" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D56" s="23" t="s">
         <v>114</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F56" s="24" t="s">
+      <c r="F56" s="23" t="s">
         <v>146</v>
       </c>
       <c r="G56" s="4"/>
@@ -4008,7 +4029,7 @@
       <c r="C57" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D57" s="24" t="s">
+      <c r="D57" s="23" t="s">
         <v>147</v>
       </c>
       <c r="E57" s="4" t="s">
@@ -4025,7 +4046,7 @@
       <c r="C58" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="D58" s="23" t="s">
         <v>150</v>
       </c>
       <c r="E58" s="5" t="s">
@@ -4042,7 +4063,7 @@
       <c r="C59" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D59" s="23" t="s">
         <v>153</v>
       </c>
       <c r="E59" s="4" t="s">
@@ -4067,7 +4088,7 @@
       <c r="E60" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F60" s="24" t="s">
+      <c r="F60" s="23" t="s">
         <v>159</v>
       </c>
       <c r="G60" s="4" t="s">
@@ -4121,7 +4142,7 @@
       <c r="D63" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E63" s="26" t="s">
+      <c r="E63" s="25" t="s">
         <v>169</v>
       </c>
       <c r="F63" s="2"/>
@@ -4162,7 +4183,7 @@
       <c r="E65" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F65" s="24" t="s">
+      <c r="F65" s="23" t="s">
         <v>143</v>
       </c>
       <c r="G65" s="4" t="s">
@@ -4191,23 +4212,23 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="17" t="s">
         <v>34</v>
       </c>
       <c r="B67" s="15"/>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="D67" s="20" t="s">
+      <c r="D67" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="E67" s="21" t="s">
+      <c r="E67" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="F67" s="27" t="s">
+      <c r="F67" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="G67" s="21" t="s">
+      <c r="G67" s="20" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4225,7 +4246,7 @@
       <c r="E68" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F68" s="24" t="s">
+      <c r="F68" s="23" t="s">
         <v>187</v>
       </c>
       <c r="G68" s="4" t="s">
@@ -4389,7 +4410,7 @@
       <c r="E78" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="F78" s="24" t="s">
+      <c r="F78" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G78" s="4"/>
@@ -4423,7 +4444,7 @@
       <c r="E80" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="F80" s="24" t="s">
+      <c r="F80" s="23" t="s">
         <v>50</v>
       </c>
       <c r="G80" s="5" t="s">
@@ -4499,7 +4520,7 @@
       <c r="E84" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="F84" s="24" t="s">
+      <c r="F84" s="23" t="s">
         <v>141</v>
       </c>
       <c r="G84" s="4" t="s">
@@ -4518,7 +4539,7 @@
       <c r="E85" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="F85" s="24" t="s">
+      <c r="F85" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G85" s="4" t="s">
@@ -4556,7 +4577,7 @@
       <c r="E87" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="F87" s="25" t="s">
+      <c r="F87" s="24" t="s">
         <v>237</v>
       </c>
       <c r="G87" s="4" t="s">
@@ -4577,7 +4598,7 @@
       <c r="E88" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F88" s="24" t="s">
+      <c r="F88" s="23" t="s">
         <v>241</v>
       </c>
       <c r="G88" s="4" t="s">
@@ -4638,7 +4659,7 @@
       <c r="D92" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E92" s="23" t="s">
+      <c r="E92" s="22" t="s">
         <v>252</v>
       </c>
       <c r="F92" s="2"/>
@@ -4673,7 +4694,7 @@
       <c r="E94" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F94" s="24" t="s">
+      <c r="F94" s="23" t="s">
         <v>107</v>
       </c>
       <c r="G94" s="4" t="s">
@@ -4840,7 +4861,7 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
+      <c r="B105" s="15"/>
       <c r="C105" s="2" t="s">
         <v>280</v>
       </c>
@@ -4856,8 +4877,8 @@
     <row r="106" spans="1:7">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
-      <c r="C106" s="2" t="s">
-        <v>280</v>
+      <c r="C106" s="11" t="s">
+        <v>275</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>283</v>
@@ -4884,145 +4905,146 @@
       <c r="G107" s="4"/>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="11" t="s">
-        <v>275</v>
+      <c r="A108" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B108" s="15"/>
+      <c r="C108" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F108" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E108" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="F108" s="2"/>
-      <c r="G108" s="4"/>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B109" s="1"/>
-      <c r="C109" s="2" t="s">
-        <v>289</v>
-      </c>
       <c r="D109" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="F109" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="G109" s="4"/>
+        <v>293</v>
+      </c>
+      <c r="F109" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
+      <c r="B110" s="19"/>
       <c r="C110" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F110" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G110" s="4"/>
+        <v>296</v>
+      </c>
+      <c r="F110" s="2"/>
+      <c r="G110" s="4" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
+      <c r="B111" s="19"/>
       <c r="C111" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F111" s="2"/>
-      <c r="G111" s="4"/>
+      <c r="G111" s="4" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
+      <c r="B112" s="19"/>
       <c r="C112" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F112" s="2"/>
+      <c r="G112" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="E112" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="F112" s="2"/>
-      <c r="G112" s="4"/>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
+      <c r="B113" s="19"/>
       <c r="C113" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>300</v>
+        <v>302</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="F113" s="2"/>
-      <c r="G113" s="4"/>
+      <c r="G113" s="4" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
+      <c r="B114" s="19"/>
       <c r="C114" s="2" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>302</v>
+        <v>305</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>306</v>
       </c>
       <c r="F114" s="2"/>
-      <c r="G114" s="4"/>
+      <c r="G114" s="4" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
+      <c r="B115" s="19"/>
       <c r="C115" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>305</v>
+        <v>307</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>308</v>
       </c>
       <c r="F115" s="2"/>
-      <c r="G115" s="4"/>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="F116" s="2"/>
-      <c r="G116" s="4"/>
+      <c r="G115" s="4" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="1" t="s">
@@ -5032,87 +5054,87 @@
       <c r="C120" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D120" s="24" t="s">
+      <c r="D120" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D121" s="24" t="s">
+      <c r="D121" s="23" t="s">
         <v>21</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="4"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D122" s="24" t="s">
+      <c r="D122" s="23" t="s">
         <v>28</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="4"/>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B123" s="15"/>
       <c r="C123" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D123" s="25" t="s">
+      <c r="D123" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="F123" s="24" t="s">
         <v>314</v>
+      </c>
+      <c r="F123" s="23" t="s">
+        <v>315</v>
       </c>
       <c r="G123" s="4"/>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B124" s="15"/>
       <c r="C124" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D124" s="24" t="s">
+      <c r="D124" s="23" t="s">
         <v>45</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -5123,32 +5145,32 @@
       <c r="C125" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D125" s="24" t="s">
-        <v>317</v>
+      <c r="D125" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="4"/>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B126" s="15"/>
       <c r="C126" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D126" s="24" t="s">
-        <v>319</v>
+      <c r="D126" s="23" t="s">
+        <v>320</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -5159,11 +5181,11 @@
       <c r="C127" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D127" s="24" t="s">
-        <v>322</v>
+      <c r="D127" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="4"/>
@@ -5176,15 +5198,15 @@
       <c r="C128" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D128" s="24" t="s">
-        <v>324</v>
+      <c r="D128" s="23" t="s">
+        <v>325</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -5193,13 +5215,13 @@
       </c>
       <c r="B129" s="15"/>
       <c r="C129" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D129" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="D129" s="23" t="s">
         <v>52</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="4"/>
@@ -5212,11 +5234,11 @@
       <c r="C130" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D130" s="24" t="s">
+      <c r="D130" s="23" t="s">
         <v>58</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="4"/>
@@ -5229,15 +5251,15 @@
       <c r="C131" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D131" s="24" t="s">
+      <c r="D131" s="23" t="s">
         <v>60</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5248,49 +5270,49 @@
       <c r="C132" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D132" s="24" t="s">
+      <c r="D132" s="23" t="s">
         <v>62</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B133" s="15"/>
       <c r="C133" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D133" s="24" t="s">
-        <v>335</v>
+      <c r="D133" s="23" t="s">
+        <v>336</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D134" s="24" t="s">
-        <v>338</v>
+      <c r="D134" s="23" t="s">
+        <v>339</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="4"/>
@@ -5303,11 +5325,11 @@
       <c r="C135" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D135" s="24" t="s">
-        <v>340</v>
+      <c r="D135" s="23" t="s">
+        <v>341</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="4"/>
@@ -5320,11 +5342,11 @@
       <c r="C136" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D136" s="24" t="s">
-        <v>342</v>
+      <c r="D136" s="23" t="s">
+        <v>343</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="4"/>
@@ -5337,28 +5359,28 @@
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D137" s="24" t="s">
-        <v>344</v>
+      <c r="D137" s="23" t="s">
+        <v>345</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="4"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D138" s="24" t="s">
+      <c r="D138" s="23" t="s">
         <v>69</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="4"/>
@@ -5371,15 +5393,15 @@
       <c r="C139" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D139" s="24" t="s">
+      <c r="D139" s="23" t="s">
         <v>71</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5390,11 +5412,11 @@
       <c r="C140" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D140" s="24" t="s">
+      <c r="D140" s="23" t="s">
         <v>76</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="4"/>
@@ -5407,7 +5429,7 @@
       <c r="C141" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D141" s="24" t="s">
+      <c r="D141" s="23" t="s">
         <v>80</v>
       </c>
       <c r="E141" s="4" t="s">
@@ -5424,11 +5446,11 @@
       <c r="C142" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D142" s="24" t="s">
+      <c r="D142" s="23" t="s">
         <v>83</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F142" s="2"/>
       <c r="G142" s="4"/>
@@ -5441,15 +5463,15 @@
       <c r="C143" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D143" s="24" t="s">
+      <c r="D143" s="23" t="s">
         <v>88</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -5460,11 +5482,11 @@
       <c r="C144" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D144" s="24" t="s">
-        <v>353</v>
+      <c r="D144" s="23" t="s">
+        <v>354</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" s="4"/>
@@ -5477,15 +5499,15 @@
       <c r="C145" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D145" s="24" t="s">
+      <c r="D145" s="23" t="s">
         <v>90</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F145" s="2"/>
       <c r="G145" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -5496,14 +5518,14 @@
       <c r="C146" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D146" s="24" t="s">
+      <c r="D146" s="23" t="s">
         <v>93</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="F146" s="24" t="s">
         <v>358</v>
+      </c>
+      <c r="F146" s="23" t="s">
+        <v>359</v>
       </c>
       <c r="G146" s="4"/>
     </row>
@@ -5515,11 +5537,11 @@
       <c r="C147" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D147" s="24" t="s">
+      <c r="D147" s="23" t="s">
         <v>95</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F147" s="2"/>
       <c r="G147" s="4"/>
@@ -5532,28 +5554,28 @@
       <c r="C148" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D148" s="24" t="s">
+      <c r="D148" s="23" t="s">
         <v>102</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F148" s="2"/>
       <c r="G148" s="4"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D149" s="24" t="s">
+      <c r="D149" s="23" t="s">
         <v>105</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F149" s="2"/>
       <c r="G149" s="4"/>
@@ -5566,11 +5588,11 @@
       <c r="C150" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D150" s="24" t="s">
+      <c r="D150" s="23" t="s">
         <v>110</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F150" s="2"/>
       <c r="G150" s="4"/>
@@ -5583,11 +5605,11 @@
       <c r="C151" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D151" s="24" t="s">
+      <c r="D151" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="E151" s="23" t="s">
-        <v>363</v>
+      <c r="E151" s="22" t="s">
+        <v>364</v>
       </c>
       <c r="F151" s="2"/>
       <c r="G151" s="4"/>
@@ -5600,11 +5622,11 @@
       <c r="C152" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D152" s="24" t="s">
-        <v>358</v>
+      <c r="D152" s="23" t="s">
+        <v>359</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="4"/>
@@ -5617,11 +5639,11 @@
       <c r="C153" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D153" s="24" t="s">
+      <c r="D153" s="23" t="s">
         <v>118</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="4"/>
@@ -5634,15 +5656,15 @@
       <c r="C154" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D154" s="24" t="s">
+      <c r="D154" s="23" t="s">
         <v>120</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F154" s="2"/>
       <c r="G154" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="155" ht="135" spans="1:7">
@@ -5653,15 +5675,15 @@
       <c r="C155" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="D155" s="24" t="s">
+      <c r="D155" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="E155" s="23" t="s">
-        <v>368</v>
+      <c r="E155" s="22" t="s">
+        <v>369</v>
       </c>
       <c r="F155" s="2"/>
       <c r="G155" s="9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5670,17 +5692,17 @@
       </c>
       <c r="B156" s="15"/>
       <c r="C156" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D156" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="D156" s="23" t="s">
         <v>126</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F156" s="2"/>
       <c r="G156" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5691,15 +5713,15 @@
       <c r="C157" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D157" s="24" t="s">
+      <c r="D157" s="23" t="s">
         <v>129</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F157" s="2"/>
       <c r="G157" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5708,17 +5730,17 @@
       </c>
       <c r="B158" s="15"/>
       <c r="C158" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D158" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="D158" s="23" t="s">
         <v>132</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F158" s="2"/>
       <c r="G158" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5729,17 +5751,17 @@
       <c r="C159" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D159" s="24" t="s">
+      <c r="D159" s="23" t="s">
         <v>139</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F159" s="2">
         <v>109</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5750,15 +5772,15 @@
       <c r="C160" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D160" s="24" t="s">
-        <v>379</v>
+      <c r="D160" s="23" t="s">
+        <v>380</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F160" s="2"/>
       <c r="G160" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="161" customFormat="1" spans="1:7">
@@ -5769,11 +5791,11 @@
       <c r="C161" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D161" s="24" t="s">
+      <c r="D161" s="23" t="s">
         <v>147</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" s="4"/>
@@ -5786,11 +5808,11 @@
       <c r="C162" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D162" s="24" t="s">
+      <c r="D162" s="23" t="s">
         <v>241</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F162" s="2">
         <v>124</v>
@@ -5799,17 +5821,17 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D163" s="24" t="s">
-        <v>384</v>
+      <c r="D163" s="23" t="s">
+        <v>385</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="4"/>
@@ -5822,98 +5844,98 @@
       <c r="C164" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D164" s="24" t="s">
-        <v>386</v>
+      <c r="D164" s="23" t="s">
+        <v>387</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F164" s="2"/>
       <c r="G164" s="4"/>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B165" s="15"/>
       <c r="C165" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D165" s="24" t="s">
+      <c r="D165" s="23" t="s">
         <v>150</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="4"/>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B166" s="15"/>
       <c r="C166" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D166" s="24" t="s">
-        <v>389</v>
+      <c r="D166" s="23" t="s">
+        <v>390</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" s="4"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B167" s="15"/>
       <c r="C167" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D167" s="24" t="s">
+      <c r="D167" s="23" t="s">
         <v>153</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F167" s="2"/>
       <c r="G167" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D168" s="24" t="s">
-        <v>394</v>
+      <c r="D168" s="23" t="s">
+        <v>395</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F168" s="2"/>
       <c r="G168" s="4"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D169" s="24" t="s">
-        <v>396</v>
+      <c r="D169" s="23" t="s">
+        <v>397</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" s="4"/>
@@ -5926,11 +5948,11 @@
       <c r="C170" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D170" s="24" t="s">
-        <v>398</v>
+      <c r="D170" s="23" t="s">
+        <v>399</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F170" s="2"/>
       <c r="G170" s="4"/>
@@ -5943,32 +5965,32 @@
       <c r="C171" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D171" s="24" t="s">
+      <c r="D171" s="23" t="s">
         <v>157</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F171" s="2"/>
       <c r="G171" s="4"/>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B172" s="15"/>
       <c r="C172" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="D172" s="24" t="s">
-        <v>401</v>
+        <v>371</v>
+      </c>
+      <c r="D172" s="23" t="s">
+        <v>402</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F172" s="2"/>
       <c r="G172" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5979,49 +6001,51 @@
       <c r="C173" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D173" s="24" t="s">
+      <c r="D173" s="23" t="s">
         <v>165</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="4"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B174" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="B174" s="15"/>
       <c r="C174" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D174" s="24" t="s">
+      <c r="D174" s="23" t="s">
         <v>168</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F174" s="2"/>
-      <c r="G174" s="4"/>
+      <c r="G174" s="4" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B175" s="15"/>
       <c r="C175" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D175" s="24" t="s">
-        <v>406</v>
+      <c r="D175" s="23" t="s">
+        <v>408</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F175" s="2"/>
       <c r="G175" s="5" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -6032,11 +6056,11 @@
       <c r="C176" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D176" s="24" t="s">
-        <v>409</v>
+      <c r="D176" s="23" t="s">
+        <v>411</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" s="4"/>
@@ -6049,28 +6073,28 @@
       <c r="C177" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D177" s="24" t="s">
+      <c r="D177" s="23" t="s">
         <v>172</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F177" s="2"/>
       <c r="G177" s="4"/>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D178" s="24" t="s">
+      <c r="D178" s="23" t="s">
         <v>175</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F178" s="2"/>
       <c r="G178" s="4"/>
@@ -6083,11 +6107,11 @@
       <c r="C179" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D179" s="24" t="s">
-        <v>413</v>
+      <c r="D179" s="23" t="s">
+        <v>415</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F179" s="2"/>
       <c r="G179" s="4"/>
@@ -6096,15 +6120,15 @@
       <c r="A180" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B180" s="1"/>
+      <c r="B180" s="15"/>
       <c r="C180" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D180" s="24" t="s">
-        <v>415</v>
+      <c r="D180" s="23" t="s">
+        <v>417</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F180" s="2"/>
       <c r="G180" s="4"/>
@@ -6117,11 +6141,11 @@
       <c r="C181" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D181" s="24" t="s">
+      <c r="D181" s="23" t="s">
         <v>185</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F181" s="2"/>
       <c r="G181" s="4"/>
@@ -6134,11 +6158,11 @@
       <c r="C182" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D182" s="24" t="s">
-        <v>418</v>
+      <c r="D182" s="23" t="s">
+        <v>420</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F182" s="2"/>
       <c r="G182" s="4"/>
@@ -6151,35 +6175,37 @@
       <c r="C183" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D183" s="24" t="s">
-        <v>420</v>
+      <c r="D183" s="23" t="s">
+        <v>422</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F183" s="2">
         <v>123</v>
       </c>
       <c r="G183" s="5" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B184" s="1"/>
+      <c r="B184" s="15"/>
       <c r="C184" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D184" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="D184" s="23" t="s">
         <v>190</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F184" s="2"/>
-      <c r="G184" s="4"/>
+      <c r="G184" s="4" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="1" t="s">
@@ -6189,62 +6215,64 @@
       <c r="C185" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D185" s="24" t="s">
+      <c r="D185" s="23" t="s">
         <v>192</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F185" s="2"/>
       <c r="G185" s="4"/>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D186" s="24" t="s">
+      <c r="D186" s="23" t="s">
         <v>196</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F186" s="2"/>
       <c r="G186" s="4"/>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B187" s="1"/>
+        <v>311</v>
+      </c>
+      <c r="B187" s="15"/>
       <c r="C187" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D187" s="24" t="s">
+      <c r="D187" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F187" s="2"/>
-      <c r="G187" s="4"/>
+      <c r="G187" s="4" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B188" s="1"/>
+      <c r="B188" s="15"/>
       <c r="C188" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D188" s="24" t="s">
+      <c r="D188" s="23" t="s">
         <v>202</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F188" s="2"/>
       <c r="G188" s="4"/>
@@ -6253,18 +6281,20 @@
       <c r="A189" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B189" s="1"/>
+      <c r="B189" s="15"/>
       <c r="C189" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D189" s="24" t="s">
-        <v>428</v>
+      <c r="D189" s="23" t="s">
+        <v>432</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F189" s="2"/>
-      <c r="G189" s="4"/>
+      <c r="G189" s="4" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="190" ht="17" spans="1:7">
       <c r="A190" s="1" t="s">
@@ -6274,15 +6304,15 @@
       <c r="C190" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D190" s="24" t="s">
+      <c r="D190" s="23" t="s">
         <v>210</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="5" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6293,357 +6323,14 @@
       <c r="C191" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D191" s="24" t="s">
-        <v>432</v>
+      <c r="D191" s="23" t="s">
+        <v>437</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="F191" s="2"/>
       <c r="G191" s="4"/>
-    </row>
-    <row r="226" customFormat="1" spans="1:6">
-      <c r="A226" s="13"/>
-      <c r="B226" s="13"/>
-      <c r="C226" s="14"/>
-      <c r="D226" s="14"/>
-      <c r="F226" s="14"/>
-    </row>
-    <row r="227" customFormat="1" spans="1:6">
-      <c r="A227" s="13"/>
-      <c r="B227" s="13"/>
-      <c r="C227" s="14"/>
-      <c r="D227" s="14"/>
-      <c r="F227" s="14"/>
-    </row>
-    <row r="228" customFormat="1" spans="1:6">
-      <c r="A228" s="13"/>
-      <c r="B228" s="13"/>
-      <c r="C228" s="14"/>
-      <c r="D228" s="14"/>
-      <c r="F228" s="14"/>
-    </row>
-    <row r="229" customFormat="1" spans="1:6">
-      <c r="A229" s="13"/>
-      <c r="B229" s="13"/>
-      <c r="C229" s="14"/>
-      <c r="D229" s="14"/>
-      <c r="F229" s="14"/>
-    </row>
-    <row r="230" customFormat="1" spans="1:6">
-      <c r="A230" s="13"/>
-      <c r="B230" s="13"/>
-      <c r="C230" s="14"/>
-      <c r="D230" s="14"/>
-      <c r="F230" s="14"/>
-    </row>
-    <row r="231" customFormat="1" spans="1:6">
-      <c r="A231" s="13"/>
-      <c r="B231" s="13"/>
-      <c r="C231" s="14"/>
-      <c r="D231" s="14"/>
-      <c r="F231" s="14"/>
-    </row>
-    <row r="232" customFormat="1" spans="1:6">
-      <c r="A232" s="13"/>
-      <c r="B232" s="13"/>
-      <c r="C232" s="14"/>
-      <c r="D232" s="14"/>
-      <c r="F232" s="14"/>
-    </row>
-    <row r="233" customFormat="1" spans="1:6">
-      <c r="A233" s="13"/>
-      <c r="B233" s="13"/>
-      <c r="C233" s="14"/>
-      <c r="D233" s="14"/>
-      <c r="F233" s="14"/>
-    </row>
-    <row r="234" customFormat="1" spans="1:6">
-      <c r="A234" s="13"/>
-      <c r="B234" s="13"/>
-      <c r="C234" s="14"/>
-      <c r="D234" s="14"/>
-      <c r="F234" s="14"/>
-    </row>
-    <row r="235" customFormat="1" spans="1:6">
-      <c r="A235" s="13"/>
-      <c r="B235" s="13"/>
-      <c r="C235" s="14"/>
-      <c r="D235" s="14"/>
-      <c r="F235" s="14"/>
-    </row>
-    <row r="236" customFormat="1" spans="1:6">
-      <c r="A236" s="13"/>
-      <c r="B236" s="13"/>
-      <c r="C236" s="14"/>
-      <c r="D236" s="14"/>
-      <c r="F236" s="14"/>
-    </row>
-    <row r="237" customFormat="1" spans="1:6">
-      <c r="A237" s="13"/>
-      <c r="B237" s="13"/>
-      <c r="C237" s="14"/>
-      <c r="D237" s="14"/>
-      <c r="F237" s="14"/>
-    </row>
-    <row r="238" customFormat="1" spans="1:6">
-      <c r="A238" s="13"/>
-      <c r="B238" s="13"/>
-      <c r="C238" s="14"/>
-      <c r="D238" s="14"/>
-      <c r="F238" s="14"/>
-    </row>
-    <row r="239" customFormat="1" spans="1:6">
-      <c r="A239" s="13"/>
-      <c r="B239" s="13"/>
-      <c r="C239" s="14"/>
-      <c r="D239" s="14"/>
-      <c r="F239" s="14"/>
-    </row>
-    <row r="240" customFormat="1" spans="1:6">
-      <c r="A240" s="13"/>
-      <c r="B240" s="13"/>
-      <c r="C240" s="14"/>
-      <c r="D240" s="14"/>
-      <c r="F240" s="14"/>
-    </row>
-    <row r="241" customFormat="1" spans="1:6">
-      <c r="A241" s="13"/>
-      <c r="B241" s="13"/>
-      <c r="C241" s="14"/>
-      <c r="D241" s="14"/>
-      <c r="F241" s="14"/>
-    </row>
-    <row r="242" customFormat="1" spans="1:6">
-      <c r="A242" s="13"/>
-      <c r="B242" s="13"/>
-      <c r="C242" s="14"/>
-      <c r="D242" s="14"/>
-      <c r="F242" s="14"/>
-    </row>
-    <row r="243" customFormat="1" spans="1:6">
-      <c r="A243" s="13"/>
-      <c r="B243" s="13"/>
-      <c r="C243" s="14"/>
-      <c r="D243" s="14"/>
-      <c r="F243" s="14"/>
-    </row>
-    <row r="244" customFormat="1" spans="1:6">
-      <c r="A244" s="13"/>
-      <c r="B244" s="13"/>
-      <c r="C244" s="14"/>
-      <c r="D244" s="14"/>
-      <c r="F244" s="14"/>
-    </row>
-    <row r="245" customFormat="1" spans="1:6">
-      <c r="A245" s="13"/>
-      <c r="B245" s="13"/>
-      <c r="C245" s="14"/>
-      <c r="D245" s="14"/>
-      <c r="F245" s="14"/>
-    </row>
-    <row r="246" customFormat="1" spans="1:6">
-      <c r="A246" s="13"/>
-      <c r="B246" s="13"/>
-      <c r="C246" s="14"/>
-      <c r="D246" s="14"/>
-      <c r="F246" s="14"/>
-    </row>
-    <row r="247" customFormat="1" spans="1:6">
-      <c r="A247" s="13"/>
-      <c r="B247" s="13"/>
-      <c r="C247" s="14"/>
-      <c r="D247" s="14"/>
-      <c r="F247" s="14"/>
-    </row>
-    <row r="248" customFormat="1" spans="1:6">
-      <c r="A248" s="13"/>
-      <c r="B248" s="13"/>
-      <c r="C248" s="14"/>
-      <c r="D248" s="14"/>
-      <c r="F248" s="14"/>
-    </row>
-    <row r="249" customFormat="1" spans="1:6">
-      <c r="A249" s="13"/>
-      <c r="B249" s="13"/>
-      <c r="C249" s="14"/>
-      <c r="D249" s="14"/>
-      <c r="F249" s="14"/>
-    </row>
-    <row r="250" customFormat="1" spans="1:6">
-      <c r="A250" s="13"/>
-      <c r="B250" s="13"/>
-      <c r="C250" s="14"/>
-      <c r="D250" s="14"/>
-      <c r="F250" s="14"/>
-    </row>
-    <row r="251" customFormat="1" spans="1:6">
-      <c r="A251" s="13"/>
-      <c r="B251" s="13"/>
-      <c r="C251" s="14"/>
-      <c r="D251" s="14"/>
-      <c r="F251" s="14"/>
-    </row>
-    <row r="252" customFormat="1" spans="1:6">
-      <c r="A252" s="13"/>
-      <c r="B252" s="13"/>
-      <c r="C252" s="14"/>
-      <c r="D252" s="14"/>
-      <c r="F252" s="14"/>
-    </row>
-    <row r="253" customFormat="1" spans="1:6">
-      <c r="A253" s="13"/>
-      <c r="B253" s="13"/>
-      <c r="C253" s="14"/>
-      <c r="D253" s="14"/>
-      <c r="F253" s="14"/>
-    </row>
-    <row r="254" customFormat="1" spans="1:6">
-      <c r="A254" s="13"/>
-      <c r="B254" s="13"/>
-      <c r="C254" s="14"/>
-      <c r="D254" s="14"/>
-      <c r="F254" s="14"/>
-    </row>
-    <row r="255" customFormat="1" spans="1:6">
-      <c r="A255" s="13"/>
-      <c r="B255" s="13"/>
-      <c r="C255" s="14"/>
-      <c r="D255" s="14"/>
-      <c r="F255" s="14"/>
-    </row>
-    <row r="256" customFormat="1" spans="1:6">
-      <c r="A256" s="13"/>
-      <c r="B256" s="13"/>
-      <c r="C256" s="14"/>
-      <c r="D256" s="14"/>
-      <c r="F256" s="14"/>
-    </row>
-    <row r="257" customFormat="1" spans="1:6">
-      <c r="A257" s="13"/>
-      <c r="B257" s="13"/>
-      <c r="C257" s="14"/>
-      <c r="D257" s="14"/>
-      <c r="F257" s="14"/>
-    </row>
-    <row r="258" customFormat="1" spans="1:6">
-      <c r="A258" s="13"/>
-      <c r="B258" s="13"/>
-      <c r="C258" s="14"/>
-      <c r="D258" s="14"/>
-      <c r="F258" s="14"/>
-    </row>
-    <row r="259" customFormat="1" spans="1:6">
-      <c r="A259" s="13"/>
-      <c r="B259" s="13"/>
-      <c r="C259" s="14"/>
-      <c r="D259" s="14"/>
-      <c r="F259" s="14"/>
-    </row>
-    <row r="260" customFormat="1" spans="1:6">
-      <c r="A260" s="13"/>
-      <c r="B260" s="13"/>
-      <c r="C260" s="14"/>
-      <c r="D260" s="14"/>
-      <c r="F260" s="14"/>
-    </row>
-    <row r="261" customFormat="1" spans="1:6">
-      <c r="A261" s="13"/>
-      <c r="B261" s="13"/>
-      <c r="C261" s="14"/>
-      <c r="D261" s="14"/>
-      <c r="F261" s="14"/>
-    </row>
-    <row r="262" customFormat="1" spans="1:6">
-      <c r="A262" s="13"/>
-      <c r="B262" s="13"/>
-      <c r="C262" s="14"/>
-      <c r="D262" s="14"/>
-      <c r="F262" s="14"/>
-    </row>
-    <row r="263" customFormat="1" spans="1:6">
-      <c r="A263" s="13"/>
-      <c r="B263" s="13"/>
-      <c r="C263" s="14"/>
-      <c r="D263" s="14"/>
-      <c r="F263" s="14"/>
-    </row>
-    <row r="264" customFormat="1" spans="1:6">
-      <c r="A264" s="13"/>
-      <c r="B264" s="13"/>
-      <c r="C264" s="14"/>
-      <c r="D264" s="14"/>
-      <c r="F264" s="14"/>
-    </row>
-    <row r="265" customFormat="1" spans="1:6">
-      <c r="A265" s="13"/>
-      <c r="B265" s="13"/>
-      <c r="C265" s="14"/>
-      <c r="D265" s="14"/>
-      <c r="F265" s="14"/>
-    </row>
-    <row r="266" customFormat="1" spans="1:6">
-      <c r="A266" s="13"/>
-      <c r="B266" s="13"/>
-      <c r="C266" s="14"/>
-      <c r="D266" s="14"/>
-      <c r="F266" s="14"/>
-    </row>
-    <row r="267" customFormat="1" spans="1:6">
-      <c r="A267" s="13"/>
-      <c r="B267" s="13"/>
-      <c r="C267" s="14"/>
-      <c r="D267" s="14"/>
-      <c r="F267" s="14"/>
-    </row>
-    <row r="268" customFormat="1" spans="1:6">
-      <c r="A268" s="13"/>
-      <c r="B268" s="13"/>
-      <c r="C268" s="14"/>
-      <c r="D268" s="14"/>
-      <c r="F268" s="14"/>
-    </row>
-    <row r="269" customFormat="1" spans="1:6">
-      <c r="A269" s="13"/>
-      <c r="B269" s="13"/>
-      <c r="C269" s="14"/>
-      <c r="D269" s="14"/>
-      <c r="F269" s="14"/>
-    </row>
-    <row r="270" customFormat="1" spans="1:6">
-      <c r="A270" s="13"/>
-      <c r="B270" s="13"/>
-      <c r="C270" s="14"/>
-      <c r="D270" s="14"/>
-      <c r="F270" s="14"/>
-    </row>
-    <row r="271" customFormat="1" spans="1:6">
-      <c r="A271" s="13"/>
-      <c r="B271" s="13"/>
-      <c r="C271" s="14"/>
-      <c r="D271" s="14"/>
-      <c r="F271" s="14"/>
-    </row>
-    <row r="272" customFormat="1" spans="1:6">
-      <c r="A272" s="13"/>
-      <c r="B272" s="13"/>
-      <c r="C272" s="14"/>
-      <c r="D272" s="14"/>
-      <c r="F272" s="14"/>
-    </row>
-    <row r="273" customFormat="1" spans="1:6">
-      <c r="A273" s="13"/>
-      <c r="B273" s="13"/>
-      <c r="C273" s="14"/>
-      <c r="D273" s="14"/>
-      <c r="F273" s="14"/>
-    </row>
-    <row r="274" customFormat="1" spans="1:6">
-      <c r="A274" s="13"/>
-      <c r="B274" s="13"/>
-      <c r="C274" s="14"/>
-      <c r="D274" s="14"/>
-      <c r="F274" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6655,12 +6342,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C79" sqref="C79:C116"/>
+      <selection pane="bottomLeft" activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -6693,123 +6380,123 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>317</v>
+      <c r="C2" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>319</v>
+      <c r="C3" s="23" t="s">
+        <v>320</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>438</v>
+      <c r="C4" s="23" t="s">
+        <v>443</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>322</v>
+      <c r="C5" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>49</v>
@@ -6818,41 +6505,41 @@
         <v>187</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
@@ -6861,70 +6548,70 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>344</v>
+      <c r="C12" s="23" t="s">
+        <v>345</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="E12" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>353</v>
+      <c r="C13" s="23" t="s">
+        <v>354</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="E13" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>64</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>358</v>
+      <c r="C14" s="23" t="s">
+        <v>359</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="E14" s="24" t="s">
+        <v>455</v>
+      </c>
+      <c r="E14" s="23" t="s">
         <v>93</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
@@ -6933,135 +6620,135 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>241</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>384</v>
+      <c r="C17" s="23" t="s">
+        <v>385</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>386</v>
+      <c r="C18" s="23" t="s">
+        <v>387</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>389</v>
+      <c r="C19" s="23" t="s">
+        <v>390</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="24" t="s">
-        <v>394</v>
+      <c r="C20" s="23" t="s">
+        <v>395</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>396</v>
+      <c r="C21" s="23" t="s">
+        <v>397</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>398</v>
+      <c r="C22" s="23" t="s">
+        <v>399</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>109</v>
@@ -7070,145 +6757,145 @@
         <v>146</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="4" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="4" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="4" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>178</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>178</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>178</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>8</v>
@@ -7217,58 +6904,58 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="4" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="4" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7277,1175 +6964,1193 @@
         <v>178</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="5" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="37" ht="34" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="9" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="38" ht="34" spans="1:6">
       <c r="A38" s="6" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="8" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>250</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>250</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="5" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>250</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>250</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>250</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>250</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>280</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>280</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>280</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>280</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>280</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>280</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>280</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>280</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="5" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>280</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>280</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="4"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>280</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="3" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>280</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="4"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="3" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>280</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="4"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="1" t="s">
-        <v>434</v>
+      <c r="A62" s="3" t="s">
+        <v>439</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>539</v>
+        <v>280</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
+        <v>544</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="4" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>289</v>
+        <v>547</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="E79" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="F79" s="4"/>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="E80" s="24" t="s">
-        <v>8</v>
+        <v>558</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="F80" s="4"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C81" s="24" t="s">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>10</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="E81" s="24" t="s">
-        <v>293</v>
+        <v>559</v>
+      </c>
+      <c r="E81" s="23" t="s">
+        <v>8</v>
       </c>
       <c r="F81" s="4"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>31</v>
+        <v>287</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="E82" s="2">
-        <v>121</v>
+        <v>560</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>292</v>
       </c>
       <c r="F82" s="4"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="C83" s="24" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="E83" s="2"/>
+        <v>561</v>
+      </c>
+      <c r="E83" s="2">
+        <v>121</v>
+      </c>
       <c r="F83" s="4"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C84" s="24" t="s">
-        <v>15</v>
+        <v>562</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="E84" s="24" t="s">
-        <v>13</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="E84" s="2"/>
       <c r="F84" s="4"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="E85" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="4"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="E85" s="2" t="s">
+      <c r="D86" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F85" s="4"/>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="B86" s="11" t="s">
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B87" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C86" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" s="5" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="E87" s="2">
-        <v>114</v>
-      </c>
-      <c r="F87" s="4"/>
+      <c r="C87" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" s="5" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="C88" s="24" t="s">
-        <v>54</v>
+        <v>12</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="E88" s="2"/>
+        <v>568</v>
+      </c>
+      <c r="E88" s="2">
+        <v>114</v>
+      </c>
       <c r="F88" s="4"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C89" s="24" t="s">
-        <v>56</v>
+        <v>562</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>54</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="E89" s="24" t="s">
-        <v>21</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="E89" s="2"/>
       <c r="F89" s="4"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="C90" s="24" t="s">
-        <v>187</v>
+        <v>12</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>56</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="E90" s="24" t="s">
-        <v>185</v>
+        <v>570</v>
+      </c>
+      <c r="E90" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="F90" s="4"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C91" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="E91" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="F91" s="4"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C91" s="24" t="s">
+      <c r="C92" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="E91" s="24" t="s">
-        <v>353</v>
-      </c>
-      <c r="F91" s="4"/>
-    </row>
-    <row r="92" ht="17" spans="1:6">
-      <c r="A92" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="B92" s="2" t="s">
+      <c r="D92" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="E92" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="F92" s="4"/>
+    </row>
+    <row r="93" ht="17" spans="1:6">
+      <c r="A93" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C92" s="24" t="s">
+      <c r="C93" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D92" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="E92" s="25" t="s">
-        <v>568</v>
-      </c>
-      <c r="F92" s="4"/>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C93" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="E93" s="2"/>
+      <c r="D93" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>576</v>
+      </c>
       <c r="F93" s="4"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C94" s="24" t="s">
-        <v>38</v>
+        <v>245</v>
+      </c>
+      <c r="C94" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E94" s="24" t="s">
-        <v>36</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="E94" s="2"/>
       <c r="F94" s="4"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="C95" s="24" t="s">
-        <v>78</v>
+        <v>12</v>
+      </c>
+      <c r="C95" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="E95" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="E95" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="F95" s="4"/>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C96" s="24" t="s">
-        <v>41</v>
+        <v>578</v>
+      </c>
+      <c r="C96" s="23" t="s">
+        <v>78</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="E96" s="24" t="s">
-        <v>39</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="E96" s="2"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" ht="17" spans="1:6">
-      <c r="A97" s="3" t="s">
-        <v>446</v>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1" t="s">
+        <v>451</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C97" s="24" t="s">
+      <c r="C97" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="E97" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F97" s="4"/>
+    </row>
+    <row r="98" ht="17" spans="1:6">
+      <c r="A98" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D97" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="E97" s="25" t="s">
-        <v>574</v>
-      </c>
-      <c r="F97" s="4"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B98" s="2" t="s">
+      <c r="D98" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="E98" s="24" t="s">
+        <v>582</v>
+      </c>
+      <c r="F98" s="4"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D98" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" s="4" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="B99" s="2" t="s">
+      <c r="D99" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C99" s="24" t="s">
+      <c r="C100" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" s="5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D100" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F100" s="4"/>
+        <v>585</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" s="5" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C101" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="E101" s="2">
-        <v>134</v>
+        <v>451</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F101" s="4"/>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="E102" s="2">
+        <v>134</v>
+      </c>
+      <c r="F102" s="4"/>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" s="4" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="B103" s="2" t="s">
+      <c r="D103" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" s="4" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C103" s="24" t="s">
+      <c r="C104" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D103" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="E103" s="24" t="s">
+      <c r="D104" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="E104" s="23" t="s">
         <v>182</v>
-      </c>
-      <c r="F103" s="4"/>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="F104" s="4"/>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C105" s="24" t="s">
-        <v>141</v>
+        <v>161</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="E105" s="2">
-        <v>120</v>
+        <v>590</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="F105" s="4"/>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="E106" s="2">
+        <v>120</v>
+      </c>
+      <c r="F106" s="4"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D107" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E107" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F106" s="4"/>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="B107" s="2" t="s">
+      <c r="F107" s="4"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C107" s="24" t="s">
+      <c r="C108" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="D107" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="E107" s="25" t="s">
+      <c r="D108" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="E108" s="24" t="s">
         <v>78</v>
-      </c>
-      <c r="F107" s="4"/>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C108" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E108" s="24" t="s">
-        <v>114</v>
       </c>
       <c r="F108" s="4"/>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C109" s="24" t="s">
-        <v>179</v>
+        <v>92</v>
+      </c>
+      <c r="C109" s="23" t="s">
+        <v>146</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="E109" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="E109" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="F109" s="4"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>179</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="E110" s="2"/>
-      <c r="F110" s="4" t="s">
-        <v>587</v>
-      </c>
+      <c r="F110" s="4"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C111" s="24" t="s">
-        <v>469</v>
+        <v>49</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="E111" s="2"/>
-      <c r="F111" s="4"/>
+      <c r="F111" s="4" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>194</v>
+        <v>149</v>
+      </c>
+      <c r="C112" s="23" t="s">
+        <v>474</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>179</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="E112" s="2"/>
       <c r="F112" s="4"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>563</v>
+        <v>178</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="E113" s="2">
-        <v>115</v>
+        <v>597</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="F113" s="4"/>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>27</v>
+        <v>571</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>80</v>
+        <v>598</v>
+      </c>
+      <c r="E114" s="2">
+        <v>115</v>
       </c>
       <c r="F114" s="4"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="E115" s="4"/>
+        <v>599</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="F115" s="4"/>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>289</v>
+        <v>178</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E116" s="2">
+        <v>600</v>
+      </c>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E117" s="2">
         <v>170</v>
       </c>
-      <c r="F116" s="4"/>
+      <c r="F117" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/017 面试题/自测题.xlsx
+++ b/017 面试题/自测题.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\personal\00-Python\017 面试题\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEDF295-C709-493F-AC3B-252683670542}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17020"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="重复" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$191</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$209</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="628">
   <si>
     <t>类型</t>
   </si>
@@ -92,9 +98,6 @@
     <t>005</t>
   </si>
   <si>
-    <t>Python 获取当前日期？</t>
-  </si>
-  <si>
     <t>datetime 模块的直接应用, 还可以补充一些时间和字符串转换的题</t>
   </si>
   <si>
@@ -105,9 +108,6 @@
   </si>
   <si>
     <t>006</t>
-  </si>
-  <si>
-    <t>统计字符串每个单词出现的次数</t>
   </si>
   <si>
     <t>文件</t>
@@ -181,9 +181,6 @@
     <t>012</t>
   </si>
   <si>
-    <t>简述解释型和编译型编程语言</t>
-  </si>
-  <si>
     <t>编码规范</t>
   </si>
   <si>
@@ -232,59 +229,27 @@
     <t>031</t>
   </si>
   <si>
-    <t>将"hello world"转换为首字母大写"Hello World"</t>
-  </si>
-  <si>
     <t>032</t>
   </si>
   <si>
-    <t>如何检测字符串中只含有数字?</t>
-  </si>
-  <si>
-    <t>str 内置方法isdigit的直接考察, 之前并不知道</t>
-  </si>
-  <si>
     <t>033</t>
   </si>
   <si>
-    <t>将字符串"ilovechina"进行反转</t>
-  </si>
-  <si>
     <t>034</t>
   </si>
   <si>
-    <t>Python 中的字符串格式化方式你知道哪些？</t>
-  </si>
-  <si>
     <t>035</t>
   </si>
   <si>
-    <t>有一个字符串开头和末尾都有空格，比如“ adabdw ”,要求写一个函数把这个字符串的前后空格都去掉。</t>
-  </si>
-  <si>
-    <t>获取字符串”123456“最后的两个字符。</t>
-  </si>
-  <si>
     <t>037</t>
   </si>
   <si>
-    <t>一个编码为 GBK 的字符串 S，要将其转成 UTF-8 编码的字符串，应如何操作？</t>
-  </si>
-  <si>
     <t>038</t>
   </si>
   <si>
-    <t>(1)s="info：xiaoZhang 33 shandong"，用正则切分字符串输出['info', 'xiaoZhang', '33', 'shandong']
-(2) a = "你好 中国 "，去除多余空格只留一个空格。</t>
-  </si>
-  <si>
     <t>039</t>
   </si>
   <si>
-    <t>(1)怎样将字符串转换为小写
-(2)单引号、双引号、三引号的区别？</t>
-  </si>
-  <si>
     <t>列表</t>
   </si>
   <si>
@@ -294,15 +259,9 @@
     <t>已知 AList = [1,2,3,1,2],对 AList 列表元素去重，写出具体过程。（一共4种方法）</t>
   </si>
   <si>
-    <t>如何实现 "1,2,3" 变成 ["1","2","3"]</t>
-  </si>
-  <si>
     <t>042</t>
   </si>
   <si>
-    <t>给定两个 list，A 和 B，找出相同元素和不同元素</t>
-  </si>
-  <si>
     <t>043</t>
   </si>
   <si>
@@ -312,9 +271,6 @@
     <t>045</t>
   </si>
   <si>
-    <t>如何打乱一个列表的元素？</t>
-  </si>
-  <si>
     <t>字典</t>
   </si>
   <si>
@@ -361,9 +317,6 @@
   </si>
   <si>
     <t>053</t>
-  </si>
-  <si>
-    <t>Python 里面如何实现 tuple 和 list 的转换？</t>
   </si>
   <si>
     <t>高级特性</t>
@@ -1090,9 +1043,6 @@
     <t>10个Linux常用命令</t>
   </si>
   <si>
-    <t>s = "ajldjlajfdljfddd"，去重并从小到大排序输出"adfjl"</t>
-  </si>
-  <si>
     <t>用lambda函数实现两个数相乘</t>
   </si>
   <si>
@@ -1111,9 +1061,6 @@
     <t>025</t>
   </si>
   <si>
-    <t>利用collections库的Counter方法统计字符串每个单词出现的次数"kjalfj;ldsjafl;hdsllfdhg;lahfbl;hl;ahlf;h"</t>
-  </si>
-  <si>
     <t>collections包的Counter方法的直接应用, 廖雪峰的课程里有讲到</t>
   </si>
   <si>
@@ -1151,9 +1098,6 @@
   </si>
   <si>
     <t>正则表达式匹配中，（.*）和（.*?）匹配区别？</t>
-  </si>
-  <si>
-    <t>x="abc",y="def",z=["d","e","f"],分别求出x.join(y)和x.join(z)返回的结果</t>
   </si>
   <si>
     <t>举例说明zip（）函数用法</t>
@@ -1191,9 +1135,6 @@
     </r>
   </si>
   <si>
-    <t>a="hello"和b="你好"编码成bytes类型</t>
-  </si>
-  <si>
     <t>056</t>
   </si>
   <si>
@@ -1204,9 +1145,6 @@
   </si>
   <si>
     <t>list=[2,3,5,4,9,6]，从小到大排序，不许用sort，输出[2,3,4,5,6,9]</t>
-  </si>
-  <si>
-    <t>a="%.03f"%1.3335,让计算a的结果保留两位小数</t>
   </si>
   <si>
     <t>求三个方法打印结果
@@ -1280,9 +1218,6 @@
     <t>只记得默认是文件名, 其实是文件名和参数组成的列表, 文件名是用 sys.argv[0]来表示的</t>
   </si>
   <si>
-    <t>a = " hehheh ",去除头尾空格</t>
-  </si>
-  <si>
     <t>举例sort和sorted对列表排序，list=[0,-1,3,-10,5,9]</t>
   </si>
   <si>
@@ -1349,12 +1284,6 @@
     <t>正则匹配以http://163.com结尾的邮箱</t>
   </si>
   <si>
-    <t>递归完成1+2+3+...+10求和</t>
-  </si>
-  <si>
-    <t>注意审题, 不是要用循环, 而是要用递归方式</t>
-  </si>
-  <si>
     <t>086</t>
   </si>
   <si>
@@ -1365,12 +1294,6 @@
   </si>
   <si>
     <t>087</t>
-  </si>
-  <si>
-    <t>统计字符串中某字符出现次数</t>
-  </si>
-  <si>
-    <t>字符串转化大小写</t>
   </si>
   <si>
     <t>用两种方法去空格</t>
@@ -1432,16 +1355,7 @@
     <t>正则表达式匹配出&lt;html&gt;&lt;h1&gt;http://www.itcast.cn&lt;/h1&gt;&lt;/html&gt;</t>
   </si>
   <si>
-    <t>求两个列表的交集、差集、并集</t>
-  </si>
-  <si>
-    <t>生成0-100的随机数</t>
-  </si>
-  <si>
     <t>重点是一共有三种方法, 思路要打开</t>
-  </si>
-  <si>
-    <t>常见的网络传输协议</t>
   </si>
   <si>
     <t>107</t>
@@ -2000,18 +1914,365 @@
   <si>
     <t>python垃圾回收机制</t>
   </si>
+  <si>
+    <t>求两个列表的交集、差集、并集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成0-100的随机数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见的网络传输协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归完成1+2+3+...+10求和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意审题, 不是要用循环, 而是要用递归方式；这个题不会写啊，再看还是不会写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>006</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用collections库的Counter方法统计字符串每个单词出现的次数"kjalfj;ldsjafl;hdsllfdhg;lahfbl;hl;ahlf;h"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计字符串每个单词出现的次数 "kjalfj;ldsjafl;hdsllfdhg;lahfbl;hl;ahlf;h"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python 获取当前日期？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>一共有三种方法，注意审题，并不是字母个数而是单词个数，0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25是统计字符个数，所以前两种方法并不适用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何检测字符串中只含有数字?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以有三种方法实现，一种是定义函数，另外可以用匿名函数或列表推导式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>**</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str 内置方法isdigit的直接考察, 之前并不知道，但是要记得怎么使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将"hello world"转换为首字母大写"Hello World"（一行代码实现）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将字符串"ilovechina"进行反转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>应该一共有5种方法吧，至少要会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3种</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python 中的字符串格式化方式你知道哪些？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一个字符串开头和末尾都有空格，比如“ adabdw ”,要求写一个函数把这个字符串的前后空格都去掉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取字符串”123456“最后的两个字符。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个编码为 GBK 的字符串 S，要将其转成 UTF-8 编码的字符串，应如何操作？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计字符串中某字符出现次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串转化大小写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s = "ajldjlajfdljfddd"，去重并从小到大排序输出"adfjl"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1)s="info：xiaoZhang 33 shandong"，用正则切分字符串输出['info', 'xiaoZhang', '33', 'shandong']
+(2) a = "你好 中国 "，去除多余空格只留一个空格。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有原答案，一共有三种方式格式化字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原答案写的不对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a = " hehheh ",去除头尾空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>035</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>070</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>和0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>06很像，这个太简单了</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a="hello"和b="你好"编码成bytes类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太简单了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x="abc",y="def",z=["d","e","f"],分别求出x.join(y)和x.join(z)返回的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a="%.03f"%1.3335,让计算a的结果保留两位小数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hardet部分了解一下</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1)怎样将字符串转换为小写
+(2)单引号、双引号、三引号的区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>和0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>37相关</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这道题有点意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆分含有多种分隔符的字符串 s = "ab;fd/ft|fs,f\tdf.fss*dfd;fs:uu}fsd"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://mp.weixin.qq.com/s/tKLRfVojpSDtszW5SmF3SQ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 两种方法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何实现 "1,2,3" 变成 ["1","2","3"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定两个 list，A 和 B，找出相同元素和不同元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,2],[3,4],[5,6]]一行代码展开该列表，得出[1,2,3,4,5,6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何打乱一个列表的元素？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python 里面如何实现 tuple 和 list 的转换？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简述解释型和编译型编程语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计一个列表中正负数的个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2019,158 +2280,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2191,198 +2313,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2405,255 +2341,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2717,80 +2411,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3048,21 +2710,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:G191"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E198" sqref="E198"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G194" sqref="G194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" style="13" customWidth="1"/>
     <col min="2" max="2" width="4.875" style="13" customWidth="1"/>
@@ -3073,7 +2734,7 @@
     <col min="7" max="7" width="145.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3096,24 +2757,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="15"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -3121,18 +2782,18 @@
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3140,20 +2801,20 @@
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="22" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -3161,7 +2822,7 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -3170,7 +2831,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -3178,712 +2839,734 @@
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>24</v>
+      <c r="E6" s="27" t="s">
+        <v>582</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" ht="17" spans="1:7">
+      <c r="E7" s="27" t="s">
+        <v>580</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>577</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>38</v>
-      </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>41</v>
-      </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>624</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>52</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>56</v>
+        <v>46</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>58</v>
+        <v>46</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>60</v>
+        <v>46</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>62</v>
+        <v>46</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="B21" s="15"/>
       <c r="C21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>65</v>
+        <v>26</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>588</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="27" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>67</v>
+        <v>26</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>584</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="27" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>70</v>
+        <v>26</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>589</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23" s="27" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>72</v>
+        <v>26</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>591</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>592</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>604</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="28" t="s">
+        <v>601</v>
+      </c>
       <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>75</v>
+        <v>26</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>593</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="28" t="s">
+        <v>601</v>
+      </c>
       <c r="B27" s="15"/>
       <c r="C27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>77</v>
+        <v>26</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>594</v>
       </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" ht="51" spans="1:7">
+      <c r="G27" s="27" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>79</v>
+        <v>26</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>598</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" ht="34" spans="1:7">
+    <row r="29" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>81</v>
+        <v>26</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>612</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>83</v>
+        <v>69</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>85</v>
+        <v>69</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>619</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>87</v>
+        <v>69</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>620</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>89</v>
+        <v>69</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>621</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>622</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>93</v>
+        <v>76</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>77</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>95</v>
+        <v>76</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>97</v>
+        <v>76</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>99</v>
+        <v>76</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>43</v>
+        <v>76</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="15"/>
       <c r="C40" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>102</v>
+        <v>76</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>105</v>
+        <v>76</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>108</v>
+        <v>69</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>623</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>110</v>
+        <v>92</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>112</v>
+        <v>92</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>95</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>114</v>
+        <v>96</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>97</v>
       </c>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" ht="51" spans="1:7">
+    <row r="45" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="15"/>
       <c r="C45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>115</v>
+        <v>69</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>98</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" ht="51" spans="1:7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>118</v>
+        <v>69</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>101</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" ht="17" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="15"/>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="23" t="s">
-        <v>120</v>
+      <c r="D47" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>122</v>
+        <v>104</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>105</v>
       </c>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="15"/>
       <c r="C48" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>123</v>
+        <v>28</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>106</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>20</v>
       </c>
@@ -3891,18 +3574,18 @@
       <c r="C49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="23" t="s">
-        <v>126</v>
+      <c r="D49" s="22" t="s">
+        <v>109</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>20</v>
       </c>
@@ -3910,35 +3593,35 @@
       <c r="C50" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="23" t="s">
-        <v>129</v>
+      <c r="D50" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="15"/>
       <c r="C51" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>132</v>
+        <v>28</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>115</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
@@ -3946,48 +3629,48 @@
       <c r="C52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="23" t="s">
-        <v>135</v>
+      <c r="D52" s="22" t="s">
+        <v>118</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>139</v>
+        <v>121</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>122</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" ht="101" spans="1:7">
+    <row r="54" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>141</v>
+        <v>121</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>124</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>20</v>
       </c>
@@ -3995,355 +3678,355 @@
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="23" t="s">
-        <v>143</v>
+      <c r="D55" s="22" t="s">
+        <v>126</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D56" s="23" t="s">
-        <v>114</v>
+        <v>76</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>97</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F56" s="23" t="s">
-        <v>146</v>
+        <v>128</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>147</v>
+        <v>121</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" ht="17" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B58" s="15"/>
       <c r="C58" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D58" s="23" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>133</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="15"/>
       <c r="C59" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>153</v>
+        <v>132</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B60" s="15"/>
       <c r="C60" s="2" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F60" s="23" t="s">
-        <v>159</v>
+        <v>141</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B61" s="15"/>
       <c r="C61" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
       <c r="B62" s="15"/>
       <c r="C62" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B63" s="15"/>
       <c r="C63" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E63" s="25" t="s">
-        <v>169</v>
+        <v>151</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>152</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B64" s="15"/>
       <c r="C64" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B65" s="15"/>
       <c r="C65" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F65" s="23" t="s">
-        <v>143</v>
+        <v>159</v>
+      </c>
+      <c r="F65" s="22" t="s">
+        <v>126</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B66" s="15"/>
       <c r="C66" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="F66" s="2">
         <v>100</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B67" s="15"/>
       <c r="C67" s="18" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="F67" s="26" t="s">
-        <v>135</v>
+        <v>166</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>118</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="68" s="12" customFormat="1" spans="1:7">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B68" s="15"/>
       <c r="C68" s="2" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F68" s="23" t="s">
-        <v>187</v>
+        <v>169</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>170</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="2" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="4"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="2" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="2" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
       <c r="B72" s="15"/>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
       <c r="B73" s="15"/>
       <c r="C73" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="1"/>
       <c r="B74" s="15"/>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>20</v>
       </c>
@@ -4352,51 +4035,51 @@
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="1"/>
       <c r="B76" s="15"/>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B77" s="15"/>
       <c r="C77" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>20</v>
       </c>
@@ -4405,1952 +4088,2081 @@
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F78" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="F78" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
       <c r="B79" s="15"/>
       <c r="C79" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="80" ht="17" spans="1:7">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="1"/>
       <c r="B80" s="15"/>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F80" s="23" t="s">
-        <v>50</v>
+        <v>199</v>
+      </c>
+      <c r="F80" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="1"/>
       <c r="B81" s="15"/>
       <c r="C81" s="2" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="F81" s="2">
         <v>103</v>
       </c>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B82" s="15"/>
       <c r="C82" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B83" s="15"/>
       <c r="C83" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B84" s="15"/>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="F84" s="23" t="s">
-        <v>141</v>
+        <v>210</v>
+      </c>
+      <c r="F84" s="22" t="s">
+        <v>124</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="1"/>
       <c r="B85" s="15"/>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="F85" s="23" t="s">
-        <v>31</v>
+        <v>213</v>
+      </c>
+      <c r="F85" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B86" s="15"/>
       <c r="C86" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="87" ht="17" spans="1:7">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" s="1"/>
       <c r="B87" s="15"/>
       <c r="C87" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="F87" s="24" t="s">
-        <v>237</v>
+        <v>219</v>
+      </c>
+      <c r="F87" s="23" t="s">
+        <v>220</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B88" s="15"/>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="F88" s="23" t="s">
-        <v>241</v>
+        <v>223</v>
+      </c>
+      <c r="F88" s="22" t="s">
+        <v>224</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
       <c r="B89" s="15"/>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="4"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" s="1"/>
       <c r="B90" s="15"/>
       <c r="C90" s="2" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" s="1"/>
       <c r="B91" s="15"/>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="4"/>
     </row>
-    <row r="92" ht="51" spans="1:7">
+    <row r="92" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="2" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E92" s="22" t="s">
-        <v>252</v>
+        <v>234</v>
+      </c>
+      <c r="E92" s="21" t="s">
+        <v>235</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="4"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="2" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="4"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B94" s="15"/>
       <c r="C94" s="2" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="F94" s="23" t="s">
-        <v>107</v>
+        <v>240</v>
+      </c>
+      <c r="F94" s="22" t="s">
+        <v>91</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="2" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="2" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="2" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="E99" s="4" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="4"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="2" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="4"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="4"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="4"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="11" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="4"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="11" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="4"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" s="1"/>
       <c r="B105" s="15"/>
       <c r="C105" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="4"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="11" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="4"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="11" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="4"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B108" s="15"/>
       <c r="C108" s="2" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="F108" s="23" t="s">
-        <v>290</v>
+        <v>272</v>
+      </c>
+      <c r="F108" s="22" t="s">
+        <v>273</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109" s="1"/>
       <c r="B109" s="15"/>
       <c r="C109" s="2" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F109" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="F109" s="22" t="s">
         <v>23</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A110" s="1"/>
       <c r="B110" s="19"/>
       <c r="C110" s="2" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A111" s="1"/>
       <c r="B111" s="19"/>
       <c r="C111" s="2" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112" s="1"/>
       <c r="B112" s="19"/>
       <c r="C112" s="2" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A113" s="1"/>
       <c r="B113" s="19"/>
       <c r="C113" s="2" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A114" s="1"/>
       <c r="B114" s="19"/>
       <c r="C114" s="2" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115" s="1"/>
       <c r="B115" s="19"/>
       <c r="C115" s="2" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B120" s="15"/>
       <c r="C120" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D120" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D120" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D121" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D121" s="22" t="s">
         <v>21</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="4"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D122" s="23" t="s">
-        <v>28</v>
+        <v>69</v>
+      </c>
+      <c r="D122" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="4"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="B123" s="15"/>
       <c r="C123" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D123" s="24" t="s">
-        <v>39</v>
+        <v>139</v>
+      </c>
+      <c r="D123" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="F123" s="23" t="s">
-        <v>315</v>
+        <v>297</v>
+      </c>
+      <c r="F123" s="22" t="s">
+        <v>298</v>
       </c>
       <c r="G123" s="4"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="B124" s="15"/>
       <c r="C124" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D124" s="23" t="s">
-        <v>45</v>
+        <v>144</v>
+      </c>
+      <c r="D124" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B125" s="15"/>
       <c r="C125" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D125" s="23" t="s">
-        <v>318</v>
+        <v>92</v>
+      </c>
+      <c r="D125" s="22" t="s">
+        <v>301</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="4"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="B126" s="15"/>
       <c r="C126" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D126" s="23" t="s">
-        <v>320</v>
+      <c r="D126" s="22" t="s">
+        <v>303</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D127" s="23" t="s">
-        <v>323</v>
+        <v>172</v>
+      </c>
+      <c r="D127" s="22" t="s">
+        <v>306</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="4"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B128" s="15"/>
       <c r="C128" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D128" s="23" t="s">
-        <v>325</v>
+        <v>132</v>
+      </c>
+      <c r="D128" s="22" t="s">
+        <v>308</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B129" s="15"/>
       <c r="C129" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D129" s="23" t="s">
-        <v>52</v>
+        <v>311</v>
+      </c>
+      <c r="D129" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="4"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D130" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>330</v>
+        <v>26</v>
+      </c>
+      <c r="D130" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E130" s="27" t="s">
+        <v>597</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="4"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B131" s="15"/>
       <c r="C131" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D131" s="23" t="s">
-        <v>60</v>
+        <v>139</v>
+      </c>
+      <c r="D131" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B132" s="15"/>
       <c r="C132" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D132" s="23" t="s">
-        <v>62</v>
+        <v>76</v>
+      </c>
+      <c r="D132" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B133" s="15"/>
+        <v>294</v>
+      </c>
+      <c r="B133" s="1"/>
       <c r="C133" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D133" s="23" t="s">
-        <v>336</v>
+        <v>172</v>
+      </c>
+      <c r="D133" s="22" t="s">
+        <v>320</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="F133" s="2"/>
-      <c r="G133" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="G133" s="4"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>311</v>
+        <v>11</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D134" s="23" t="s">
-        <v>339</v>
+        <v>92</v>
+      </c>
+      <c r="D134" s="22" t="s">
+        <v>322</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="4"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D135" s="23" t="s">
-        <v>341</v>
+        <v>172</v>
+      </c>
+      <c r="D135" s="22" t="s">
+        <v>324</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="4"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D136" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>344</v>
+        <v>12</v>
+      </c>
+      <c r="D136" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="4"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>11</v>
+        <v>294</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>346</v>
+        <v>228</v>
+      </c>
+      <c r="D137" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>328</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="4"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B138" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B138" s="15"/>
       <c r="C138" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D138" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>347</v>
+        <v>132</v>
+      </c>
+      <c r="D138" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>329</v>
       </c>
       <c r="F138" s="2"/>
-      <c r="G138" s="4"/>
-    </row>
-    <row r="139" spans="1:7">
+      <c r="G138" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B139" s="15"/>
+      <c r="B139" s="1"/>
       <c r="C139" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D139" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>348</v>
+        <v>172</v>
+      </c>
+      <c r="D139" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>331</v>
       </c>
       <c r="F139" s="2"/>
-      <c r="G139" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+      <c r="G139" s="4"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D140" s="23" t="s">
-        <v>76</v>
+        <v>69</v>
+      </c>
+      <c r="D140" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>350</v>
+        <v>74</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="4"/>
     </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="1" t="s">
-        <v>26</v>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A141" s="28" t="s">
+        <v>614</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D141" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>89</v>
+        <v>26</v>
+      </c>
+      <c r="D141" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E141" s="27" t="s">
+        <v>609</v>
       </c>
       <c r="F141" s="2"/>
-      <c r="G141" s="4"/>
-    </row>
-    <row r="142" spans="1:7">
+      <c r="G141" s="27" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B142" s="15"/>
+      <c r="C142" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D142" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F142" s="2"/>
+      <c r="G142" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A143" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B142" s="1"/>
-      <c r="C142" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D142" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="F142" s="2"/>
-      <c r="G142" s="4"/>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B143" s="15"/>
+      <c r="B143" s="1"/>
       <c r="C143" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D143" s="23" t="s">
-        <v>88</v>
+        <v>172</v>
+      </c>
+      <c r="D143" s="22" t="s">
+        <v>334</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="F143" s="2"/>
-      <c r="G143" s="4" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+      <c r="G143" s="4"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B144" s="1"/>
+      <c r="B144" s="15"/>
       <c r="C144" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D144" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>355</v>
+        <v>132</v>
+      </c>
+      <c r="D144" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="F144" s="2"/>
-      <c r="G144" s="4"/>
-    </row>
-    <row r="145" ht="17" spans="1:7">
+      <c r="G144" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B145" s="15"/>
       <c r="C145" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D145" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="F145" s="2"/>
-      <c r="G145" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>26</v>
+      </c>
+      <c r="D145" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E145" s="27" t="s">
+        <v>606</v>
+      </c>
+      <c r="F145" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="G145" s="27" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D146" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="F146" s="23" t="s">
-        <v>359</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D146" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="F146" s="2"/>
       <c r="G146" s="4"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D147" s="23" t="s">
-        <v>95</v>
+        <v>172</v>
+      </c>
+      <c r="D147" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="F147" s="2"/>
       <c r="G147" s="4"/>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>11</v>
+        <v>294</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D148" s="23" t="s">
-        <v>102</v>
+        <v>69</v>
+      </c>
+      <c r="D148" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="F148" s="2"/>
       <c r="G148" s="4"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>311</v>
+        <v>11</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D149" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>362</v>
+        <v>26</v>
+      </c>
+      <c r="D149" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E149" s="27" t="s">
+        <v>610</v>
       </c>
       <c r="F149" s="2"/>
       <c r="G149" s="4"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" ht="108" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B150" s="1"/>
-      <c r="C150" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D150" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>363</v>
+      <c r="C150" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D150" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E150" s="21" t="s">
+        <v>342</v>
       </c>
       <c r="F150" s="2"/>
       <c r="G150" s="4"/>
     </row>
-    <row r="151" ht="135" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B151" s="1"/>
-      <c r="C151" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D151" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="E151" s="22" t="s">
-        <v>364</v>
+      <c r="C151" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D151" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>343</v>
       </c>
       <c r="F151" s="2"/>
       <c r="G151" s="4"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D152" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="E152" s="5" t="s">
-        <v>365</v>
+        <v>76</v>
+      </c>
+      <c r="D152" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>344</v>
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="4"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B153" s="1"/>
+      <c r="B153" s="15"/>
       <c r="C153" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D153" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>366</v>
+        <v>132</v>
+      </c>
+      <c r="D153" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>345</v>
       </c>
       <c r="F153" s="2"/>
-      <c r="G153" s="4"/>
-    </row>
-    <row r="154" spans="1:7">
+      <c r="G153" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="108" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B154" s="15"/>
-      <c r="C154" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D154" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="E154" s="5" t="s">
-        <v>367</v>
+      <c r="C154" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D154" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E154" s="21" t="s">
+        <v>347</v>
       </c>
       <c r="F154" s="2"/>
-      <c r="G154" s="5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="155" ht="135" spans="1:7">
+      <c r="G154" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B155" s="15"/>
-      <c r="C155" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="D155" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="E155" s="22" t="s">
-        <v>369</v>
+      <c r="C155" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D155" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>350</v>
       </c>
       <c r="F155" s="2"/>
-      <c r="G155" s="9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+      <c r="G155" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B156" s="15"/>
       <c r="C156" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D156" s="23" t="s">
-        <v>126</v>
+        <v>258</v>
+      </c>
+      <c r="D156" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="F156" s="2"/>
       <c r="G156" s="4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B157" s="15"/>
       <c r="C157" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D157" s="23" t="s">
-        <v>129</v>
+        <v>270</v>
+      </c>
+      <c r="D157" s="22" t="s">
+        <v>115</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="F157" s="2"/>
       <c r="G157" s="4" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B158" s="15"/>
       <c r="C158" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D158" s="23" t="s">
-        <v>132</v>
+        <v>33</v>
+      </c>
+      <c r="D158" s="22" t="s">
+        <v>122</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="F158" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="F158" s="2">
+        <v>109</v>
+      </c>
       <c r="G158" s="4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B159" s="15"/>
       <c r="C159" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D159" s="23" t="s">
-        <v>139</v>
+        <v>7</v>
+      </c>
+      <c r="D159" s="22" t="s">
+        <v>358</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="F159" s="2">
-        <v>109</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="F159" s="2"/>
       <c r="G159" s="4" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B160" s="15"/>
+        <v>20</v>
+      </c>
+      <c r="B160" s="1"/>
       <c r="C160" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D160" s="23" t="s">
-        <v>380</v>
+        <v>69</v>
+      </c>
+      <c r="D160" s="22" t="s">
+        <v>224</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="F160" s="2"/>
-      <c r="G160" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="161" customFormat="1" spans="1:7">
+        <v>361</v>
+      </c>
+      <c r="F160" s="2">
+        <v>124</v>
+      </c>
+      <c r="G160" s="4"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
-        <v>11</v>
+        <v>294</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D161" s="23" t="s">
-        <v>147</v>
+        <v>69</v>
+      </c>
+      <c r="D161" s="22" t="s">
+        <v>362</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" s="4"/>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D162" s="23" t="s">
-        <v>241</v>
+        <v>69</v>
+      </c>
+      <c r="D162" s="22" t="s">
+        <v>364</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="F162" s="2">
-        <v>124</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="F162" s="2"/>
       <c r="G162" s="4"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B163" s="1"/>
+        <v>294</v>
+      </c>
+      <c r="B163" s="15"/>
       <c r="C163" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D163" s="23" t="s">
-        <v>385</v>
+        <v>139</v>
+      </c>
+      <c r="D163" s="22" t="s">
+        <v>133</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="4"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B164" s="1"/>
+        <v>294</v>
+      </c>
+      <c r="B164" s="15"/>
       <c r="C164" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D164" s="23" t="s">
-        <v>387</v>
+        <v>139</v>
+      </c>
+      <c r="D164" s="22" t="s">
+        <v>367</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="F164" s="2"/>
       <c r="G164" s="4"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
-        <v>311</v>
+        <v>369</v>
       </c>
       <c r="B165" s="15"/>
       <c r="C165" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D165" s="23" t="s">
-        <v>150</v>
+        <v>139</v>
+      </c>
+      <c r="D165" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="F165" s="2"/>
-      <c r="G165" s="4"/>
-    </row>
-    <row r="166" spans="1:7">
+      <c r="G165" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B166" s="15"/>
+        <v>294</v>
+      </c>
+      <c r="B166" s="1"/>
       <c r="C166" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D166" s="23" t="s">
-        <v>390</v>
+        <v>76</v>
+      </c>
+      <c r="D166" s="22" t="s">
+        <v>372</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" s="4"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B167" s="15"/>
+        <v>294</v>
+      </c>
+      <c r="B167" s="1"/>
       <c r="C167" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D167" s="23" t="s">
-        <v>153</v>
+        <v>76</v>
+      </c>
+      <c r="D167" s="22" t="s">
+        <v>374</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="F167" s="2"/>
-      <c r="G167" s="4" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
+      <c r="G167" s="4"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
-        <v>311</v>
+        <v>16</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D168" s="23" t="s">
-        <v>395</v>
+      <c r="D168" s="22" t="s">
+        <v>376</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="F168" s="2"/>
       <c r="G168" s="4"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B169" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="B169" s="15"/>
       <c r="C169" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D169" s="23" t="s">
-        <v>397</v>
+        <v>69</v>
+      </c>
+      <c r="D169" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" s="4"/>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B170" s="1"/>
-      <c r="C170" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D170" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="E170" s="4" t="s">
-        <v>400</v>
+        <v>317</v>
+      </c>
+      <c r="B170" s="15"/>
+      <c r="C170" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="D170" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>380</v>
       </c>
       <c r="F170" s="2"/>
-      <c r="G170" s="4"/>
-    </row>
-    <row r="171" spans="1:7">
+      <c r="G170" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B171" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="B171" s="1"/>
       <c r="C171" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D171" s="23" t="s">
-        <v>157</v>
+        <v>172</v>
+      </c>
+      <c r="D171" s="22" t="s">
+        <v>148</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="F171" s="2"/>
       <c r="G171" s="4"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
-        <v>335</v>
+        <v>575</v>
       </c>
       <c r="B172" s="15"/>
-      <c r="C172" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="D172" s="23" t="s">
-        <v>402</v>
-      </c>
-      <c r="E172" s="5" t="s">
-        <v>403</v>
+      <c r="C172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>574</v>
       </c>
       <c r="F172" s="2"/>
-      <c r="G172" s="5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173" s="1" t="s">
+      <c r="G172" s="4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A173" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B173" s="15"/>
+      <c r="C173" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D173" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="F173" s="2"/>
+      <c r="G173" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A174" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B173" s="1"/>
-      <c r="C173" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D173" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="E173" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F173" s="2"/>
-      <c r="G173" s="4"/>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="B174" s="15"/>
       <c r="C174" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D174" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="E174" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="F174" s="2"/>
-      <c r="G174" s="4" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="B175" s="15"/>
+        <v>26</v>
+      </c>
+      <c r="D174" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="E174" s="27" t="s">
+        <v>595</v>
+      </c>
+      <c r="F174" s="26" t="s">
+        <v>578</v>
+      </c>
+      <c r="G174" s="27" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A175" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B175" s="1"/>
       <c r="C175" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D175" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="E175" s="5" t="s">
-        <v>409</v>
+        <v>26</v>
+      </c>
+      <c r="D175" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>387</v>
       </c>
       <c r="F175" s="2"/>
-      <c r="G175" s="5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
+      <c r="G175" s="4"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B176" s="1"/>
       <c r="C176" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D176" s="23" t="s">
-        <v>411</v>
+        <v>172</v>
+      </c>
+      <c r="D176" s="22" t="s">
+        <v>388</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" s="4"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B177" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B177" s="15"/>
       <c r="C177" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D177" s="23" t="s">
-        <v>172</v>
+        <v>12</v>
+      </c>
+      <c r="D177" s="22" t="s">
+        <v>390</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="F177" s="2"/>
       <c r="G177" s="4"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
-        <v>311</v>
+        <v>11</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D178" s="23" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+      <c r="D178" s="22" t="s">
+        <v>168</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="F178" s="2"/>
       <c r="G178" s="4"/>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D179" s="23" t="s">
-        <v>415</v>
+        <v>172</v>
+      </c>
+      <c r="D179" s="22" t="s">
+        <v>393</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="F179" s="2"/>
       <c r="G179" s="4"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B180" s="15"/>
       <c r="C180" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D180" s="23" t="s">
-        <v>417</v>
-      </c>
-      <c r="E180" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="F180" s="2"/>
-      <c r="G180" s="4"/>
-    </row>
-    <row r="181" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="D180" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F180" s="2">
+        <v>123</v>
+      </c>
+      <c r="G180" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B181" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B181" s="15"/>
       <c r="C181" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D181" s="23" t="s">
-        <v>185</v>
+        <v>311</v>
+      </c>
+      <c r="D181" s="22" t="s">
+        <v>173</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="F181" s="2"/>
-      <c r="G181" s="4"/>
-    </row>
-    <row r="182" spans="1:7">
+      <c r="G181" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D182" s="23" t="s">
-        <v>420</v>
+        <v>172</v>
+      </c>
+      <c r="D182" s="22" t="s">
+        <v>175</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="F182" s="2"/>
       <c r="G182" s="4"/>
     </row>
-    <row r="183" ht="17" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B183" s="15"/>
+        <v>294</v>
+      </c>
+      <c r="B183" s="1"/>
       <c r="C183" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D183" s="23" t="s">
-        <v>422</v>
-      </c>
-      <c r="E183" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="F183" s="2">
-        <v>123</v>
-      </c>
-      <c r="G183" s="5" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
+        <v>69</v>
+      </c>
+      <c r="D183" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="F183" s="2"/>
+      <c r="G183" s="4"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
-        <v>16</v>
+        <v>294</v>
       </c>
       <c r="B184" s="15"/>
       <c r="C184" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D184" s="23" t="s">
-        <v>190</v>
+        <v>12</v>
+      </c>
+      <c r="D184" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>425</v>
+        <v>572</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="4" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B185" s="1"/>
+      <c r="B185" s="15"/>
       <c r="C185" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D185" s="23" t="s">
-        <v>192</v>
+        <v>258</v>
+      </c>
+      <c r="D185" s="22" t="s">
+        <v>185</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>427</v>
+        <v>573</v>
       </c>
       <c r="F185" s="2"/>
       <c r="G185" s="4"/>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B186" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B186" s="15"/>
       <c r="C186" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D186" s="23" t="s">
-        <v>196</v>
+        <v>258</v>
+      </c>
+      <c r="D186" s="22" t="s">
+        <v>402</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="F186" s="2"/>
-      <c r="G186" s="4"/>
-    </row>
-    <row r="187" spans="1:7">
+      <c r="G186" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
-        <v>311</v>
+        <v>16</v>
       </c>
       <c r="B187" s="15"/>
       <c r="C187" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D187" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="E187" s="4" t="s">
-        <v>429</v>
+        <v>28</v>
+      </c>
+      <c r="D187" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>405</v>
       </c>
       <c r="F187" s="2"/>
-      <c r="G187" s="4" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
+      <c r="G187" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B188" s="15"/>
+      <c r="B188" s="1"/>
       <c r="C188" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D188" s="23" t="s">
-        <v>202</v>
+        <v>172</v>
+      </c>
+      <c r="D188" s="22" t="s">
+        <v>407</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="F188" s="2"/>
       <c r="G188" s="4"/>
     </row>
-    <row r="189" spans="1:7">
-      <c r="A189" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B189" s="15"/>
-      <c r="C189" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D189" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="E189" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="F189" s="2"/>
-      <c r="G189" s="4" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="190" ht="17" spans="1:7">
-      <c r="A190" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B190" s="15"/>
-      <c r="C190" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D190" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="E190" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="F190" s="2"/>
-      <c r="G190" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
-      <c r="A191" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B191" s="1"/>
-      <c r="C191" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D191" s="23" t="s">
-        <v>437</v>
-      </c>
-      <c r="E191" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="F191" s="2"/>
-      <c r="G191" s="4"/>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A192" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="B192" s="1"/>
+      <c r="C192" s="30" t="s">
+        <v>616</v>
+      </c>
+      <c r="D192" s="2"/>
+      <c r="E192" s="27" t="s">
+        <v>617</v>
+      </c>
+      <c r="F192" s="2"/>
+      <c r="G192" s="27" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="30" t="s">
+        <v>625</v>
+      </c>
+      <c r="D193" s="2"/>
+      <c r="E193" s="27" t="s">
+        <v>626</v>
+      </c>
+      <c r="F193" s="2"/>
+      <c r="G193" s="27" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="4"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="4"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="4"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="4"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="4"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="4"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="4"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="4"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="4"/>
+      <c r="F198" s="2"/>
+      <c r="G198" s="4"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="4"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="4"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="4"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="4"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="4"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="4"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="4"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="4"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="4"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="4"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="4"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="4"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="4"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="4"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="4"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="4"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="4"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="4"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="4"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="4"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:F117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F120"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D114" sqref="D114"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="4" max="4" width="78.125" customWidth="1"/>
@@ -6358,7 +6170,7 @@
     <col min="6" max="6" width="78.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6378,1782 +6190,1838 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>318</v>
+        <v>42</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>301</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>320</v>
+        <v>42</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>303</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>442</v>
+        <v>412</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>443</v>
+        <v>42</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>323</v>
+        <v>42</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>306</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>446</v>
+        <v>416</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>447</v>
+        <v>417</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="4" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="4" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="4" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>345</v>
+      <c r="C12" s="22" t="s">
+        <v>326</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="E12" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>354</v>
+        <v>69</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>334</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>64</v>
+        <v>424</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>359</v>
+        <v>238</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>338</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>93</v>
+        <v>425</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>77</v>
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>241</v>
+        <v>121</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>224</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>385</v>
+        <v>121</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>362</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>387</v>
+        <v>121</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>364</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>390</v>
+        <v>121</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>367</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>395</v>
+        <v>121</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>372</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>397</v>
+        <v>121</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>374</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>462</v>
+        <v>432</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>399</v>
+        <v>121</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>376</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>463</v>
+        <v>433</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="4" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>467</v>
+        <v>437</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="4" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>469</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="4" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="C29" s="2" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>475</v>
+        <v>445</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>476</v>
+        <v>446</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>477</v>
+        <v>447</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="4" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>437</v>
+        <v>407</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>483</v>
+        <v>453</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>485</v>
+        <v>455</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="5" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="37" ht="34" spans="1:6">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>488</v>
+        <v>458</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>489</v>
+        <v>459</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="9" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="38" ht="34" spans="1:6">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>491</v>
+        <v>461</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>492</v>
+        <v>462</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="8" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>491</v>
+        <v>461</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>491</v>
+        <v>461</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>491</v>
+        <v>461</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>491</v>
+        <v>461</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>509</v>
+        <v>479</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>514</v>
+        <v>484</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>516</v>
+        <v>486</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>517</v>
+        <v>487</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>518</v>
+        <v>488</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>519</v>
+        <v>489</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>520</v>
+        <v>490</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>521</v>
+        <v>491</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>523</v>
+        <v>493</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>524</v>
+        <v>494</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>525</v>
+        <v>495</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>527</v>
+        <v>497</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>528</v>
+        <v>498</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>529</v>
+        <v>499</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>531</v>
+        <v>501</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>532</v>
+        <v>502</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="5" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>535</v>
+        <v>505</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>537</v>
+        <v>507</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>543</v>
+        <v>513</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>544</v>
+        <v>514</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>545</v>
+        <v>515</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="4" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>547</v>
+        <v>517</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>548</v>
+        <v>518</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>549</v>
+        <v>519</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>551</v>
+        <v>521</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>552</v>
+        <v>522</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>554</v>
+        <v>524</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>555</v>
+        <v>525</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>556</v>
+        <v>526</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>557</v>
+        <v>527</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="23" t="s">
+      <c r="C80" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="E80" s="23" t="s">
-        <v>210</v>
+        <v>528</v>
+      </c>
+      <c r="E80" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C81" s="23" t="s">
+      <c r="C81" s="22" t="s">
         <v>10</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="E81" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="E81" s="22" t="s">
         <v>8</v>
       </c>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C82" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="C82" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="E82" s="23" t="s">
-        <v>292</v>
+        <v>530</v>
+      </c>
+      <c r="E82" s="22" t="s">
+        <v>275</v>
       </c>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>561</v>
+        <v>531</v>
       </c>
       <c r="E83" s="2">
         <v>121</v>
       </c>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="C84" s="23" t="s">
-        <v>36</v>
+        <v>532</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C85" s="23" t="s">
+      <c r="C85" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="E85" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="E85" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>565</v>
+        <v>535</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C87" s="23" t="s">
-        <v>443</v>
+        <v>26</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>566</v>
+        <v>536</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="5" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="E88" s="2">
         <v>114</v>
       </c>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="C89" s="23" t="s">
-        <v>54</v>
+        <v>532</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>569</v>
+        <v>539</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C90" s="23" t="s">
-        <v>56</v>
+      <c r="C90" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="E90" s="23" t="s">
+        <v>540</v>
+      </c>
+      <c r="E90" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="1" t="s">
-        <v>451</v>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91" s="28" t="s">
+        <v>581</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="C91" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="E91" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="F91" s="4"/>
-    </row>
-    <row r="92" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="D91" s="27" t="s">
+        <v>579</v>
+      </c>
+      <c r="E91" s="26" t="s">
+        <v>578</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C92" s="23" t="s">
-        <v>64</v>
+        <v>541</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>170</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="E92" s="23" t="s">
-        <v>354</v>
+        <v>542</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>168</v>
       </c>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" ht="17" spans="1:6">
-      <c r="A93" s="3" t="s">
-        <v>574</v>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93" s="1" t="s">
+        <v>421</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E93" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="F93" s="4"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="E93" s="24" t="s">
-        <v>576</v>
-      </c>
-      <c r="F93" s="4"/>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C94" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="E94" s="2"/>
+      <c r="C94" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="E94" s="23" t="s">
+        <v>546</v>
+      </c>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>451</v>
+        <v>409</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C95" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" s="4"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C95" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E95" s="23" t="s">
+      <c r="C96" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F95" s="4"/>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="C96" s="23" t="s">
-        <v>78</v>
-      </c>
       <c r="D96" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="E96" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="E96" s="22" t="s">
+        <v>34</v>
+      </c>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>451</v>
+        <v>409</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C97" s="23" t="s">
-        <v>41</v>
+        <v>548</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>67</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="E97" s="23" t="s">
-        <v>39</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="E97" s="2"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" ht="17" spans="1:6">
-      <c r="A98" s="3" t="s">
-        <v>451</v>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" s="1" t="s">
+        <v>421</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C98" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D98" s="5" t="s">
+      <c r="C98" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="E98" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F98" s="4"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="E99" s="23" t="s">
+        <v>552</v>
+      </c>
+      <c r="F99" s="4"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F102" s="4"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C103" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="E103" s="2">
+        <v>134</v>
+      </c>
+      <c r="F103" s="4"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="E105" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="F105" s="4"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F106" s="4"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A107" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="E107" s="2">
+        <v>120</v>
+      </c>
+      <c r="F107" s="4"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F108" s="4"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A109" s="28" t="s">
         <v>581</v>
       </c>
-      <c r="E98" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="F98" s="4"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C99" s="2" t="s">
+      <c r="B109" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D109" s="27" t="s">
+        <v>602</v>
+      </c>
+      <c r="E109" s="26" t="s">
+        <v>603</v>
+      </c>
+      <c r="F109" s="4"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A110" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C110" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="E110" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F110" s="4"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A111" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C111" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E111" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" s="4" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C100" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" s="5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F101" s="4"/>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C102" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="E102" s="2">
-        <v>134</v>
-      </c>
-      <c r="F102" s="4"/>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C103" s="2" t="s">
+      <c r="F111" s="4"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A112" s="28" t="s">
+        <v>608</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C112" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D112" s="27" t="s">
+        <v>596</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" s="27" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A113" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C113" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" s="4"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A114" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A115" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C115" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" s="4"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A116" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F116" s="4"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A117" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="E117" s="2">
         <v>115</v>
       </c>
-      <c r="D103" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" s="4" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C104" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="E104" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="F104" s="4"/>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B105" s="2" t="s">
+      <c r="F117" s="4"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A118" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F118" s="4"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A119" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F105" s="4"/>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C106" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="E106" s="2">
-        <v>120</v>
-      </c>
-      <c r="F106" s="4"/>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F107" s="4"/>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C108" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="E108" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F108" s="4"/>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C109" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E109" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="F109" s="4"/>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C110" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="E110" s="2"/>
-      <c r="F110" s="4"/>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="E111" s="2"/>
-      <c r="F111" s="4" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C112" s="23" t="s">
-        <v>474</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" s="4"/>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F113" s="4"/>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="E114" s="2">
-        <v>115</v>
-      </c>
-      <c r="F114" s="4"/>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F115" s="4"/>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="E117" s="2">
+      <c r="C119" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A120" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E120" s="2">
         <v>170</v>
       </c>
-      <c r="F117" s="4"/>
+      <c r="F120" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/017 面试题/自测题.xlsx
+++ b/017 面试题/自测题.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\personal\00-Python\017 面试题\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104DF491-C9A3-4FB7-81D9-19829CB00BFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17020"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="647">
   <si>
     <t>类型</t>
   </si>
@@ -391,30 +397,15 @@
     <t>040</t>
   </si>
   <si>
-    <t>已知 AList = [1,2,3,1,2],对 AList 列表元素去重，写出具体过程。（一共4种方法）</t>
-  </si>
-  <si>
-    <t>如何实现 "1,2,3" 变成 ["1","2","3"]</t>
-  </si>
-  <si>
     <t>042</t>
   </si>
   <si>
-    <t>给定两个 list，A 和 B，找出相同元素和不同元素</t>
-  </si>
-  <si>
     <t>043</t>
   </si>
   <si>
-    <t>[[1,2],[3,4],[5,6]]一行代码展开该列表，得出[1,2,3,4,5,6]</t>
-  </si>
-  <si>
     <t>045</t>
   </si>
   <si>
-    <t>如何打乱一个列表的元素？</t>
-  </si>
-  <si>
     <t>字典</t>
   </si>
   <si>
@@ -427,9 +418,6 @@
     <t>047</t>
   </si>
   <si>
-    <t>按照字典的内的年龄排序</t>
-  </si>
-  <si>
     <t>048</t>
   </si>
   <si>
@@ -439,31 +427,16 @@
     <t>049</t>
   </si>
   <si>
-    <t xml:space="preserve">如何使用生成式的方式生成一个字典，写一段功能代码。    </t>
-  </si>
-  <si>
-    <t>如何把元组("a","b")和元组(1,2)，变为字典{"a":1,"b":2}</t>
-  </si>
-  <si>
     <t>051</t>
   </si>
   <si>
-    <t>Python 常用的数据结构的类型及其特性？</t>
-  </si>
-  <si>
     <t>问的是字典的键的特性,但是题干驴唇不对马嘴</t>
   </si>
   <si>
     <t>052</t>
   </si>
   <si>
-    <t>如何交换字典 {"A"：1,"B"：2}的键和值？</t>
-  </si>
-  <si>
     <t>053</t>
-  </si>
-  <si>
-    <t>Python 里面如何实现 tuple 和 list 的转换？</t>
   </si>
   <si>
     <t>高级特性</t>
@@ -493,11 +466,6 @@
   </si>
   <si>
     <t>058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下面的代码输出的结果是什么?
-a = (1, 2, 3, [4, 5, 6, 7], 8)
-a[3][0] = 2  </t>
   </si>
   <si>
     <t>059</t>
@@ -597,16 +565,10 @@
     <t>070</t>
   </si>
   <si>
-    <t>请写一个 Python 逻辑，计算一个文件中的大写字母数量</t>
-  </si>
-  <si>
     <t>数据库</t>
   </si>
   <si>
     <t>074</t>
-  </si>
-  <si>
-    <t>请写一段 Python 连接 MySQL 数据库的代码。</t>
   </si>
   <si>
     <r>
@@ -1031,9 +993,6 @@
     <t>156</t>
   </si>
   <si>
-    <t>列出你知道 header 的内容以及信息</t>
-  </si>
-  <si>
     <t>157</t>
   </si>
   <si>
@@ -1052,15 +1011,9 @@
     <t>166</t>
   </si>
   <si>
-    <t>TCP 和 UDP 的区别？</t>
-  </si>
-  <si>
     <t>167</t>
   </si>
   <si>
-    <t>简要介绍三次握手和四次挥手</t>
-  </si>
-  <si>
     <t>并发</t>
   </si>
   <si>
@@ -1137,9 +1090,6 @@
   </si>
   <si>
     <t>字典如何删除键和合并两个字典</t>
-  </si>
-  <si>
-    <t>Python 实现列表去重的方法</t>
   </si>
   <si>
     <t>一句话解释什么样的语言能够用装饰器?</t>
@@ -1337,19 +1287,10 @@
     </r>
   </si>
   <si>
-    <t>[1,2,3]+[4,5,6]的结果是多少？</t>
-  </si>
-  <si>
     <t>正则匹配，匹配日期2018-03-20</t>
   </si>
   <si>
-    <t>list=[2,3,5,4,9,6]，从小到大排序，不许用sort，输出[2,3,4,5,6,9]</t>
-  </si>
-  <si>
     <t>054</t>
-  </si>
-  <si>
-    <t>a="%.03f"%1.3335,让计算a的结果保留两位小数</t>
   </si>
   <si>
     <t>使用 round</t>
@@ -1365,9 +1306,6 @@
   </si>
   <si>
     <t>列出常见的状态码和意义</t>
-  </si>
-  <si>
-    <t>使用pop和del删除字典中的"name"字段，dic={"name":"zs","age":18}</t>
   </si>
   <si>
     <t>列出常见MYSQL数据存储引擎</t>
@@ -1426,21 +1364,12 @@
     <t>只记得默认是文件名, 其实是文件名和参数组成的列表, 文件名是用 sys.argv[0]来表示的</t>
   </si>
   <si>
-    <t>举例sort和sorted对列表排序，list=[0,-1,3,-10,5,9]</t>
-  </si>
-  <si>
     <t>072</t>
   </si>
   <si>
-    <t>对list排序foo = [-5,8,0,4,9,-4,-20,-2,8,2,-4],使用lambda函数从小到大排序</t>
-  </si>
-  <si>
     <t>073</t>
   </si>
   <si>
-    <t>使用lambda函数对list排序 foo = [-5,8,0,4,9,-4,-20,-2,8,2,-4]，输出结果为 [0,2,4,8,8,9,-2,-4,-4,-5,-20]，正数从小到大，负数从大到小</t>
-  </si>
-  <si>
     <t>列表嵌套字典的排序，分别根据年龄和姓名排序 foo = [{"name":"zs","age":19},{"name":"ll","age":54}, {"name":"wa","age":17},{"name":"df","age":23}]</t>
   </si>
   <si>
@@ -1475,9 +1404,6 @@
   </si>
   <si>
     <t>列表推导式、字典推导式、生成器</t>
-  </si>
-  <si>
-    <t>最后出一道检验题目，根据字符串长度排序，看排序是否灵活运用</t>
   </si>
   <si>
     <t>081</t>
@@ -1677,9 +1603,6 @@
     <t>在日志文件中，其中日期格式为'yyyy-mm-dd', 想把其中的日期改为美国日期格式'mm/dd/yyyy'.比如 2019-06-12 改成 06/12/2019 格式</t>
   </si>
   <si>
-    <t>统计一个列表中正负数的个数</t>
-  </si>
-  <si>
     <t>面试题</t>
   </si>
   <si>
@@ -2249,18 +2172,214 @@
   <si>
     <t>python垃圾回收机制</t>
   </si>
+  <si>
+    <t>已知 AList = [1,2,3,1,2],对 AList 列表元素去重，写出具体过程。（一共4种方法）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何实现 "1,2,3" 变成 ["1","2","3"]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定两个 list，A 和 B，找出相同元素和不同元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,2],[3,4],[5,6]]一行代码展开该列表，得出[1,2,3,4,5,6]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何打乱一个列表的元素？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>***</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python 实现列表去重的方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">下面的代码输出的结果是什么?
+a = (1, 2, 3, [4, 5, 6, 7], 8)
+a[3][0] = 2  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>040</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>040 里的方法更多</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>006</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list=[2,3,5,4,9,6]，从小到大排序，不许用sort，输出[2,3,4,5,6,9]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>举例sort和sorted对列表排序，list=[0,-1,3,-10,5,9]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对list排序foo = [-5,8,0,4,9,-4,-20,-2,8,2,-4],使用lambda函数从小到大排序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用lambda函数对list排序 foo = [-5,8,0,4,9,-4,-20,-2,8,2,-4]，输出结果为 [0,2,4,8,8,9,-2,-4,-4,-5,-20]，正数从小到大，负数从大到小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后出一道检验题目，根据字符串长度排序，看排序是否灵活运用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计一个列表中正负数的个数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>至少要掌握两种吧，我觉得；另外的用字典和p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>andas的可以了解</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这题太简单了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python 常用的数据结构的类型及其特性？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何交换字典 {"A"：1,"B"：2}的键和值？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python 里面如何实现 tuple 和 list 的转换？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>043</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>039</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2,3]+[4,5,6]的结果是多少？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a="%.03f"%1.3335,让计算a的结果保留两位小数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用pop和del删除字典中的"name"字段，dic={"name":"zs","age":18}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照字典的内的年龄排序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">如何使用生成式的方式生成一个字典，写一段功能代码。    </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何把元组("a","b")和元组(1,2)，变为字典{"a":1,"b":2}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP 和 UDP 的区别？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简要介绍三次握手和四次挥手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列出你知道 header 的内容以及信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python 字典和 Json 字符串相互转化方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请写一段 Python 连接 MySQL 数据库的代码。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请写一个 Python 逻辑，计算一个文件中的大写字母数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2274,158 +2393,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2450,194 +2430,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2660,255 +2454,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2987,9 +2539,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3002,77 +2551,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3330,21 +2850,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" style="17" customWidth="1"/>
     <col min="2" max="2" width="4.875" style="17" customWidth="1"/>
@@ -3355,7 +2874,7 @@
     <col min="7" max="7" width="145.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3378,24 +2897,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="19"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -3403,18 +2922,18 @@
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3422,20 +2941,20 @@
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="30" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="30" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -3443,7 +2962,7 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -3452,7 +2971,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -3460,7 +2979,7 @@
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="14" t="s">
@@ -3471,7 +2990,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" ht="17" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -3479,20 +2998,20 @@
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="30" t="s">
         <v>30</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" ht="17" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -3500,7 +3019,7 @@
       <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="30" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -3511,7 +3030,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
@@ -3519,18 +3038,18 @@
       <c r="C9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="30" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="30" t="s">
         <v>40</v>
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
@@ -3538,18 +3057,18 @@
       <c r="C10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="30" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="30" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -3557,18 +3076,18 @@
       <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="30" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="30" t="s">
         <v>45</v>
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -3576,7 +3095,7 @@
       <c r="C12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="30" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -3585,7 +3104,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3593,7 +3112,7 @@
       <c r="C13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="30" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="14" t="s">
@@ -3602,7 +3121,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -3610,7 +3129,7 @@
       <c r="C14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="30" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -3619,7 +3138,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -3627,7 +3146,7 @@
       <c r="C15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="30" t="s">
         <v>54</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -3636,7 +3155,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -3644,7 +3163,7 @@
       <c r="C16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="30" t="s">
         <v>56</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -3653,7 +3172,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -3661,7 +3180,7 @@
       <c r="C17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="30" t="s">
         <v>58</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -3670,7 +3189,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -3678,7 +3197,7 @@
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="30" t="s">
         <v>60</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -3687,7 +3206,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -3695,7 +3214,7 @@
       <c r="C19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="30" t="s">
         <v>62</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -3704,7 +3223,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -3712,7 +3231,7 @@
       <c r="C20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="30" t="s">
         <v>64</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -3721,7 +3240,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" ht="17" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="13" t="s">
         <v>66</v>
       </c>
@@ -3729,7 +3248,7 @@
       <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="30" t="s">
         <v>67</v>
       </c>
       <c r="E21" s="14" t="s">
@@ -3740,7 +3259,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -3748,7 +3267,7 @@
       <c r="C22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="30" t="s">
         <v>70</v>
       </c>
       <c r="E22" s="14" t="s">
@@ -3759,7 +3278,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" ht="17" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -3767,7 +3286,7 @@
       <c r="C23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="30" t="s">
         <v>73</v>
       </c>
       <c r="E23" s="14" t="s">
@@ -3778,7 +3297,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -3786,7 +3305,7 @@
       <c r="C24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="30" t="s">
         <v>76</v>
       </c>
       <c r="E24" s="14" t="s">
@@ -3797,26 +3316,26 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" ht="17" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="19"/>
       <c r="C25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="30" t="s">
         <v>79</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="31" t="s">
         <v>81</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="13" t="s">
         <v>20</v>
       </c>
@@ -3824,7 +3343,7 @@
       <c r="C26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="30" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="14" t="s">
@@ -3833,7 +3352,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" ht="17" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="13" t="s">
         <v>20</v>
       </c>
@@ -3841,7 +3360,7 @@
       <c r="C27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="30" t="s">
         <v>84</v>
       </c>
       <c r="E27" s="14" t="s">
@@ -3852,13 +3371,13 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" ht="51" spans="1:7">
+    <row r="28" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="19"/>
       <c r="C28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="32" t="s">
         <v>87</v>
       </c>
       <c r="E28" s="6" t="s">
@@ -3869,299 +3388,307 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="E29" s="39" t="s">
+        <v>609</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>620</v>
+      </c>
+      <c r="G29" s="39" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>93</v>
+      <c r="D30" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>611</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" s="2"/>
+      <c r="D31" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>612</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>634</v>
+      </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>26</v>
+        <v>614</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="31" t="s">
-        <v>96</v>
+      <c r="D32" s="30" t="s">
+        <v>94</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>97</v>
+        <v>613</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1" t="s">
-        <v>26</v>
-      </c>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>638</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>106</v>
+        <v>95</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>639</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>108</v>
+        <v>95</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>640</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>109</v>
+        <v>95</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>630</v>
       </c>
       <c r="F38" s="2"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="G38" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
-      <c r="B39" s="19"/>
+      <c r="B39" s="1"/>
       <c r="C39" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>111</v>
+        <v>95</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>631</v>
       </c>
       <c r="F39" s="2"/>
-      <c r="G39" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>632</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:7">
+        <v>106</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="19"/>
       <c r="C42" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F42" s="31" t="s">
-        <v>120</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="2"/>
       <c r="G42" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" ht="51" spans="1:7">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
-      <c r="B43" s="19"/>
+      <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>123</v>
+      <c r="D43" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>616</v>
       </c>
       <c r="F43" s="2"/>
-      <c r="G43" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" ht="51" spans="1:7">
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
+      <c r="B44" s="19"/>
       <c r="C44" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="F44" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>117</v>
+      </c>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" ht="17" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="19"/>
       <c r="C45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F45" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B46" s="19"/>
       <c r="C46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="31" t="s">
-        <v>130</v>
+        <v>7</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>121</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F46" s="2"/>
-      <c r="G46" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="G46" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
@@ -4169,2413 +3696,2360 @@
       <c r="C47" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="31" t="s">
-        <v>133</v>
+      <c r="D47" s="30" t="s">
+        <v>124</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="1"/>
       <c r="B48" s="19"/>
       <c r="C48" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>137</v>
+        <v>32</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="F48" s="2"/>
-      <c r="G48" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="1"/>
+      <c r="G48" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B49" s="19"/>
       <c r="C49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="31" t="s">
-        <v>139</v>
+        <v>7</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>130</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F49" s="2"/>
-      <c r="G49" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" s="19"/>
+      <c r="G49" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
       <c r="C50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>143</v>
+        <v>133</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="F50" s="2"/>
-      <c r="G50" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>147</v>
+        <v>133</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" ht="101" spans="1:7">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="19"/>
       <c r="C52" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D52" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>149</v>
+        <v>106</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B53" s="19"/>
+      <c r="B53" s="1"/>
       <c r="C53" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D53" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F53" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="39" t="s">
+        <v>644</v>
+      </c>
+      <c r="F53" s="30" t="s">
+        <v>141</v>
+      </c>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="1" t="s">
-        <v>20</v>
-      </c>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D54" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F54" s="31" t="s">
-        <v>153</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E54" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="F54" s="2"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="19"/>
       <c r="C55" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="E55" s="39" t="s">
+        <v>645</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D55" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" ht="17" spans="1:7">
-      <c r="A56" s="3" t="s">
-        <v>20</v>
-      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="1"/>
       <c r="B56" s="19"/>
       <c r="C56" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D56" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>158</v>
+        <v>143</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="1"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B57" s="19"/>
       <c r="C57" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D57" s="31" t="s">
-        <v>160</v>
+        <v>149</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>151</v>
+      </c>
+      <c r="F57" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B58" s="19"/>
       <c r="C58" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F58" s="31" t="s">
-        <v>166</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="F58" s="2"/>
       <c r="G58" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" s="1"/>
       <c r="B59" s="19"/>
       <c r="C59" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="1"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B60" s="19"/>
       <c r="C60" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
+      </c>
+      <c r="E60" s="33" t="s">
+        <v>162</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E61" s="34" t="s">
-        <v>176</v>
+        <v>165</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B62" s="19"/>
       <c r="C62" s="2" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F62" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="F62" s="30" t="s">
+        <v>138</v>
+      </c>
       <c r="G62" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B63" s="19"/>
       <c r="C63" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F63" s="2">
+        <v>100</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" s="19"/>
+      <c r="C64" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F64" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="19"/>
+      <c r="C65" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F65" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="D66" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F63" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="G63" s="4" t="s">
+      <c r="E66" s="4" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B64" s="19"/>
-      <c r="C64" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F64" s="2">
-        <v>100</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B65" s="19"/>
-      <c r="C65" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="E65" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="F65" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="G65" s="25" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="66" s="16" customFormat="1" spans="1:7">
-      <c r="A66" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F66" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="F66" s="2"/>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="2" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="2" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
+      <c r="B69" s="19"/>
       <c r="C69" s="2" t="s">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="4"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
       <c r="B70" s="19"/>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
       <c r="B71" s="19"/>
       <c r="C71" s="2" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="1"/>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A72" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B72" s="19"/>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="F72" s="2"/>
-      <c r="G72" s="4"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="G72" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A73" s="1"/>
       <c r="B73" s="19"/>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="F73" s="2"/>
-      <c r="G73" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="1"/>
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B74" s="19"/>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="F74" s="2"/>
-      <c r="G74" s="4"/>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="G74" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B75" s="19"/>
       <c r="C75" s="2" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="F75" s="2"/>
-      <c r="G75" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="F75" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A76" s="1"/>
       <c r="B76" s="19"/>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="F76" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" s="4"/>
-    </row>
-    <row r="77" spans="1:7">
+        <v>205</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F76" s="2"/>
+      <c r="G76" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="1"/>
       <c r="B77" s="19"/>
       <c r="C77" s="2" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="F77" s="2"/>
-      <c r="G77" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="78" ht="17" spans="1:7">
+        <v>209</v>
+      </c>
+      <c r="F77" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="1"/>
       <c r="B78" s="19"/>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="F78" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="1"/>
+        <v>212</v>
+      </c>
+      <c r="F78" s="2">
+        <v>103</v>
+      </c>
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A79" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B79" s="19"/>
       <c r="C79" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="F79" s="2">
-        <v>103</v>
-      </c>
-      <c r="G79" s="4"/>
-    </row>
-    <row r="80" spans="1:7">
+        <v>213</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="G79" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B80" s="19"/>
       <c r="C80" s="2" t="s">
-        <v>178</v>
+        <v>37</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B81" s="19"/>
       <c r="C81" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F81" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="F81" s="30" t="s">
+        <v>136</v>
+      </c>
       <c r="G81" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A82" s="1"/>
       <c r="B82" s="19"/>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="F82" s="31" t="s">
-        <v>148</v>
+        <v>222</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F82" s="30" t="s">
+        <v>33</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="1"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A83" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B83" s="19"/>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="F83" s="31" t="s">
-        <v>33</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F83" s="2"/>
       <c r="G83" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A84" s="1"/>
       <c r="B84" s="19"/>
       <c r="C84" s="2" t="s">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="F84" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F84" s="32" t="s">
+        <v>230</v>
+      </c>
       <c r="G84" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="85" ht="17" spans="1:7">
-      <c r="A85" s="1"/>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A85" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B85" s="19"/>
       <c r="C85" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="F85" s="33" t="s">
-        <v>244</v>
+        <v>233</v>
+      </c>
+      <c r="F85" s="30" t="s">
+        <v>234</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A86" s="1"/>
       <c r="B86" s="19"/>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="F86" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>236</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F86" s="2"/>
+      <c r="G86" s="4"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" s="1"/>
       <c r="B87" s="19"/>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="4"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="1"/>
       <c r="B88" s="19"/>
       <c r="C88" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>253</v>
+        <v>240</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="4"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
-      <c r="B89" s="19"/>
+      <c r="B89" s="1"/>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>255</v>
+        <v>243</v>
+      </c>
+      <c r="E89" s="26" t="s">
+        <v>244</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="4"/>
     </row>
-    <row r="90" ht="51" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="2" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E90" s="27" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A91" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B91" s="19"/>
       <c r="C91" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F91" s="2"/>
-      <c r="G91" s="4"/>
-    </row>
-    <row r="92" spans="1:7">
+        <v>248</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F91" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B92" s="19"/>
+        <v>26</v>
+      </c>
+      <c r="B92" s="1"/>
       <c r="C92" s="2" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="F92" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="F92" s="2"/>
+      <c r="G92" s="4"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="2" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="4"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E94" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>268</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="1"/>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A95" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B95" s="1"/>
       <c r="C95" s="2" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="2" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="2" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="1" t="s">
-        <v>26</v>
-      </c>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A99" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B99" s="19"/>
       <c r="C99" s="2" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="F99" s="2"/>
-      <c r="G99" s="4"/>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B100" s="19"/>
-      <c r="C100" s="2" t="s">
-        <v>279</v>
+      <c r="G99" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="12" t="s">
+        <v>269</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>281</v>
+        <v>270</v>
+      </c>
+      <c r="E100" s="39" t="s">
+        <v>643</v>
       </c>
       <c r="F100" s="2"/>
-      <c r="G100" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="G100" s="4"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="12" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="4"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="12" t="s">
-        <v>283</v>
+      <c r="B102" s="19"/>
+      <c r="C102" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>287</v>
+        <v>274</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>275</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="4"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" s="1"/>
-      <c r="B103" s="19"/>
-      <c r="C103" s="2" t="s">
-        <v>288</v>
+      <c r="B103" s="1"/>
+      <c r="C103" s="12" t="s">
+        <v>269</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>290</v>
+        <v>276</v>
+      </c>
+      <c r="E103" s="39" t="s">
+        <v>641</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="4"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="12" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>292</v>
+        <v>277</v>
+      </c>
+      <c r="E104" s="39" t="s">
+        <v>642</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="4"/>
     </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="12" t="s">
-        <v>283</v>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A105" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B105" s="19"/>
+      <c r="C105" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F105" s="2"/>
-      <c r="G105" s="4"/>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="F105" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A106" s="1"/>
       <c r="B106" s="19"/>
       <c r="C106" s="2" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="F106" s="31" t="s">
-        <v>298</v>
+        <v>284</v>
+      </c>
+      <c r="F106" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107" s="1"/>
-      <c r="B107" s="19"/>
+      <c r="B107" s="24"/>
       <c r="C107" s="2" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="F107" s="31" t="s">
-        <v>23</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="F107" s="2"/>
       <c r="G107" s="4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108" s="1"/>
       <c r="B108" s="24"/>
       <c r="C108" s="2" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109" s="1"/>
       <c r="B109" s="24"/>
       <c r="C109" s="2" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A110" s="1"/>
       <c r="B110" s="24"/>
       <c r="C110" s="2" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>309</v>
+        <v>293</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>294</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A111" s="1"/>
       <c r="B111" s="24"/>
       <c r="C111" s="2" t="s">
         <v>295</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>311</v>
+        <v>296</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>297</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112" s="1"/>
       <c r="B112" s="24"/>
       <c r="C112" s="2" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>314</v>
+        <v>298</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="1"/>
-      <c r="B113" s="24"/>
-      <c r="C113" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="F113" s="2"/>
-      <c r="G113" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B120" s="19"/>
       <c r="C120" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D120" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D120" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D121" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D121" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="4"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B122" s="1"/>
-      <c r="C122" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D122" s="31" t="s">
-        <v>28</v>
+        <v>302</v>
+      </c>
+      <c r="B122" s="19"/>
+      <c r="C122" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D122" s="32" t="s">
+        <v>41</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="F122" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="F122" s="30" t="s">
+        <v>305</v>
+      </c>
       <c r="G122" s="4"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="B123" s="19"/>
-      <c r="C123" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D123" s="33" t="s">
-        <v>41</v>
+      <c r="C123" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D123" s="30" t="s">
+        <v>47</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="F123" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="G123" s="4"/>
-    </row>
-    <row r="124" spans="1:7">
+        <v>306</v>
+      </c>
+      <c r="F123" s="2"/>
+      <c r="G123" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>319</v>
+        <v>16</v>
       </c>
       <c r="B124" s="19"/>
       <c r="C124" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D124" s="31" t="s">
-        <v>47</v>
+        <v>106</v>
+      </c>
+      <c r="D124" s="30" t="s">
+        <v>308</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="F124" s="2"/>
-      <c r="G124" s="5" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="G124" s="4"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>16</v>
+        <v>302</v>
       </c>
       <c r="B125" s="19"/>
       <c r="C125" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D125" s="31" t="s">
-        <v>326</v>
+        <v>7</v>
+      </c>
+      <c r="D125" s="30" t="s">
+        <v>310</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="F125" s="2"/>
-      <c r="G125" s="4"/>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="G125" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B126" s="19"/>
+        <v>11</v>
+      </c>
+      <c r="B126" s="1"/>
       <c r="C126" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D126" s="31" t="s">
-        <v>328</v>
+        <v>182</v>
+      </c>
+      <c r="D126" s="30" t="s">
+        <v>313</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="F126" s="2"/>
-      <c r="G126" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="G126" s="4"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B127" s="1"/>
+      <c r="B127" s="19"/>
       <c r="C127" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D127" s="31" t="s">
-        <v>331</v>
+        <v>143</v>
+      </c>
+      <c r="D127" s="30" t="s">
+        <v>315</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="F127" s="2"/>
-      <c r="G127" s="4"/>
-    </row>
-    <row r="128" spans="1:7">
+      <c r="G127" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B128" s="19"/>
       <c r="C128" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D128" s="31" t="s">
-        <v>333</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>334</v>
+        <v>318</v>
+      </c>
+      <c r="D128" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="F128" s="2"/>
-      <c r="G128" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="G128" s="4"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B129" s="19"/>
       <c r="C129" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D129" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>337</v>
+        <v>27</v>
+      </c>
+      <c r="D129" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>320</v>
       </c>
       <c r="F129" s="2"/>
-      <c r="G129" s="4"/>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="G129" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B130" s="19"/>
       <c r="C130" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D130" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="E130" s="14" t="s">
-        <v>338</v>
+        <v>149</v>
+      </c>
+      <c r="D130" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>322</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B131" s="19"/>
       <c r="C131" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D131" s="31" t="s">
-        <v>62</v>
+        <v>95</v>
+      </c>
+      <c r="D131" s="30" t="s">
+        <v>64</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B132" s="19"/>
+        <v>302</v>
+      </c>
+      <c r="B132" s="1"/>
       <c r="C132" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D132" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>342</v>
+        <v>182</v>
+      </c>
+      <c r="D132" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>327</v>
       </c>
       <c r="F132" s="2"/>
-      <c r="G132" s="4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="G132" s="4"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B133" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B133" s="19"/>
       <c r="C133" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D133" s="31" t="s">
-        <v>344</v>
+        <v>106</v>
+      </c>
+      <c r="D133" s="30" t="s">
+        <v>328</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="4"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B134" s="19"/>
+      <c r="B134" s="1"/>
       <c r="C134" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D134" s="31" t="s">
-        <v>346</v>
+        <v>182</v>
+      </c>
+      <c r="D134" s="30" t="s">
+        <v>330</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="4"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D135" s="31" t="s">
-        <v>348</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>349</v>
+        <v>12</v>
+      </c>
+      <c r="D135" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>333</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="4"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B136" s="1"/>
+        <v>334</v>
+      </c>
+      <c r="B136" s="19"/>
       <c r="C136" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" s="31" t="s">
-        <v>350</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>351</v>
+        <v>7</v>
+      </c>
+      <c r="D136" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>335</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="4"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>352</v>
+        <v>11</v>
       </c>
       <c r="B137" s="19"/>
       <c r="C137" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D137" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>353</v>
+        <v>143</v>
+      </c>
+      <c r="D137" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="F137" s="2"/>
-      <c r="G137" s="4"/>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="G137" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B138" s="19"/>
+      <c r="B138" s="1"/>
       <c r="C138" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D138" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>354</v>
+        <v>182</v>
+      </c>
+      <c r="D138" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>338</v>
       </c>
       <c r="F138" s="2"/>
-      <c r="G138" s="5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139" s="1" t="s">
+      <c r="G138" s="4"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A139" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="B139" s="19"/>
+      <c r="C139" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D139" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="F139" s="2"/>
+      <c r="G139" s="14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A140" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B140" s="19"/>
+      <c r="C140" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D140" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F140" s="2"/>
+      <c r="G140" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A141" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B139" s="1"/>
-      <c r="C139" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D139" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="F139" s="2"/>
-      <c r="G139" s="4"/>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B140" s="1"/>
-      <c r="C140" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D140" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F140" s="2"/>
-      <c r="G140" s="4"/>
-    </row>
-    <row r="141" ht="17" spans="1:7">
-      <c r="A141" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="B141" s="19"/>
+      <c r="B141" s="1"/>
       <c r="C141" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D141" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E141" s="14" t="s">
-        <v>359</v>
+        <v>182</v>
+      </c>
+      <c r="D141" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="F141" s="2"/>
-      <c r="G141" s="14" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+      <c r="G141" s="4"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B142" s="19"/>
       <c r="C142" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D142" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D142" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F142" s="2"/>
+      <c r="G142" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A143" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B143" s="19"/>
+      <c r="C143" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D143" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="E142" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="F142" s="2"/>
-      <c r="G142" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143" s="1" t="s">
+      <c r="E143" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="F143" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="G143" s="14" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A144" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B144" s="1"/>
+      <c r="C144" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D144" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E144" s="39" t="s">
+        <v>635</v>
+      </c>
+      <c r="F144" s="2"/>
+      <c r="G144" s="4"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A145" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B143" s="1"/>
-      <c r="C143" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D143" s="31" t="s">
-        <v>363</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="F143" s="2"/>
-      <c r="G143" s="4"/>
-    </row>
-    <row r="144" ht="17" spans="1:7">
-      <c r="A144" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B144" s="19"/>
-      <c r="C144" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D144" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="F144" s="2"/>
-      <c r="G144" s="5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="145" ht="17" spans="1:7">
-      <c r="A145" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B145" s="19"/>
+      <c r="B145" s="1"/>
       <c r="C145" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D145" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E145" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="F145" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="G145" s="14" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>182</v>
+      </c>
+      <c r="D145" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F145" s="2"/>
+      <c r="G145" s="4"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>16</v>
+        <v>302</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D146" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>370</v>
+      <c r="D146" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E146" s="39" t="s">
+        <v>621</v>
       </c>
       <c r="F146" s="2"/>
       <c r="G146" s="4"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B147" s="1"/>
+      <c r="B147" s="19"/>
       <c r="C147" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D147" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>371</v>
+        <v>27</v>
+      </c>
+      <c r="D147" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="E147" s="39" t="s">
+        <v>636</v>
       </c>
       <c r="F147" s="2"/>
-      <c r="G147" s="4"/>
-    </row>
-    <row r="148" spans="1:7">
+      <c r="G147" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="108" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>319</v>
+        <v>16</v>
       </c>
       <c r="B148" s="1"/>
-      <c r="C148" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D148" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>372</v>
+      <c r="C148" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D148" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E148" s="26" t="s">
+        <v>355</v>
       </c>
       <c r="F148" s="2"/>
       <c r="G148" s="4"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B149" s="19"/>
+      <c r="B149" s="1"/>
       <c r="C149" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D149" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="E149" s="14" t="s">
-        <v>374</v>
+        <v>269</v>
+      </c>
+      <c r="D149" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>356</v>
       </c>
       <c r="F149" s="2"/>
-      <c r="G149" s="4" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="150" ht="135" spans="1:7">
+      <c r="G149" s="4"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B150" s="1"/>
-      <c r="C150" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D150" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="E150" s="27" t="s">
-        <v>376</v>
+      <c r="C150" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D150" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E150" s="39" t="s">
+        <v>637</v>
       </c>
       <c r="F150" s="2"/>
       <c r="G150" s="4"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B151" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B151" s="19"/>
       <c r="C151" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D151" s="31" t="s">
-        <v>368</v>
+        <v>143</v>
+      </c>
+      <c r="D151" s="30" t="s">
+        <v>115</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="F151" s="2"/>
-      <c r="G151" s="4"/>
-    </row>
-    <row r="152" spans="1:7">
+      <c r="G151" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="108" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B152" s="1"/>
-      <c r="C152" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D152" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>378</v>
+      <c r="B152" s="19"/>
+      <c r="C152" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D152" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E152" s="26" t="s">
+        <v>359</v>
       </c>
       <c r="F152" s="2"/>
-      <c r="G152" s="4"/>
-    </row>
-    <row r="153" spans="1:7">
+      <c r="G152" s="11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B153" s="19"/>
       <c r="C153" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D153" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>379</v>
+        <v>361</v>
+      </c>
+      <c r="D153" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>362</v>
       </c>
       <c r="F153" s="2"/>
-      <c r="G153" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="154" ht="135" spans="1:7">
+      <c r="G153" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B154" s="19"/>
-      <c r="C154" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="D154" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="E154" s="27" t="s">
-        <v>381</v>
+      <c r="C154" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D154" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>364</v>
       </c>
       <c r="F154" s="2"/>
-      <c r="G154" s="11" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
+      <c r="G154" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B155" s="19"/>
       <c r="C155" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D155" s="31" t="s">
-        <v>133</v>
+        <v>278</v>
+      </c>
+      <c r="D155" s="30" t="s">
+        <v>127</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="F155" s="2"/>
       <c r="G155" s="4" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B156" s="19"/>
       <c r="C156" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D156" s="31" t="s">
-        <v>136</v>
+        <v>37</v>
+      </c>
+      <c r="D156" s="30" t="s">
+        <v>134</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="F156" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="F156" s="2">
+        <v>109</v>
+      </c>
       <c r="G156" s="4" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B157" s="19"/>
       <c r="C157" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D157" s="31" t="s">
-        <v>139</v>
+        <v>7</v>
+      </c>
+      <c r="D157" s="30" t="s">
+        <v>370</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="F157" s="2"/>
       <c r="G157" s="4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B158" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="B158" s="1"/>
       <c r="C158" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D158" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>390</v>
+        <v>90</v>
+      </c>
+      <c r="D158" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="E158" s="39" t="s">
+        <v>622</v>
       </c>
       <c r="F158" s="2">
-        <v>109</v>
-      </c>
-      <c r="G158" s="4" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+        <v>124</v>
+      </c>
+      <c r="G158" s="4"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B159" s="19"/>
+        <v>302</v>
+      </c>
+      <c r="B159" s="1"/>
       <c r="C159" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D159" s="31" t="s">
-        <v>392</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>393</v>
+        <v>90</v>
+      </c>
+      <c r="D159" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="E159" s="39" t="s">
+        <v>623</v>
       </c>
       <c r="F159" s="2"/>
-      <c r="G159" s="4" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+      <c r="G159" s="4"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D160" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="F160" s="2">
-        <v>124</v>
-      </c>
+      <c r="D160" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="E160" s="39" t="s">
+        <v>624</v>
+      </c>
+      <c r="F160" s="2"/>
       <c r="G160" s="4"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B161" s="1"/>
+        <v>302</v>
+      </c>
+      <c r="B161" s="19"/>
       <c r="C161" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D161" s="31" t="s">
-        <v>396</v>
+        <v>149</v>
+      </c>
+      <c r="D161" s="30" t="s">
+        <v>144</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" s="4"/>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B162" s="1"/>
+        <v>302</v>
+      </c>
+      <c r="B162" s="19"/>
       <c r="C162" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D162" s="31" t="s">
-        <v>398</v>
+        <v>149</v>
+      </c>
+      <c r="D162" s="30" t="s">
+        <v>376</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="F162" s="2"/>
       <c r="G162" s="4"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>319</v>
+        <v>378</v>
       </c>
       <c r="B163" s="19"/>
       <c r="C163" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D163" s="31" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="D163" s="30" t="s">
+        <v>146</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="F163" s="2"/>
-      <c r="G163" s="4"/>
-    </row>
-    <row r="164" spans="1:7">
+      <c r="G163" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B164" s="19"/>
+        <v>302</v>
+      </c>
+      <c r="B164" s="1"/>
       <c r="C164" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D164" s="31" t="s">
-        <v>401</v>
+        <v>95</v>
+      </c>
+      <c r="D164" s="30" t="s">
+        <v>381</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="F164" s="2"/>
       <c r="G164" s="4"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B165" s="19"/>
+        <v>302</v>
+      </c>
+      <c r="B165" s="1"/>
       <c r="C165" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D165" s="31" t="s">
-        <v>160</v>
+        <v>95</v>
+      </c>
+      <c r="D165" s="30" t="s">
+        <v>383</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="F165" s="2"/>
-      <c r="G165" s="4" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
+      <c r="G165" s="4"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B166" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B166" s="19"/>
       <c r="C166" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D166" s="31" t="s">
-        <v>406</v>
+        <v>106</v>
+      </c>
+      <c r="D166" s="30" t="s">
+        <v>385</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" s="4"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B167" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="B167" s="19"/>
       <c r="C167" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D167" s="31" t="s">
-        <v>408</v>
-      </c>
-      <c r="E167" s="4" t="s">
-        <v>409</v>
+        <v>90</v>
+      </c>
+      <c r="D167" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="E167" s="39" t="s">
+        <v>625</v>
       </c>
       <c r="F167" s="2"/>
       <c r="G167" s="4"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
-        <v>16</v>
+        <v>334</v>
       </c>
       <c r="B168" s="19"/>
-      <c r="C168" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D168" s="31" t="s">
-        <v>410</v>
-      </c>
-      <c r="E168" s="4" t="s">
-        <v>411</v>
+      <c r="C168" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="D168" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>388</v>
       </c>
       <c r="F168" s="2"/>
-      <c r="G168" s="4"/>
-    </row>
-    <row r="169" spans="1:7">
+      <c r="G168" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B169" s="19"/>
+        <v>11</v>
+      </c>
+      <c r="B169" s="1"/>
       <c r="C169" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D169" s="31" t="s">
-        <v>164</v>
+        <v>182</v>
+      </c>
+      <c r="D169" s="30" t="s">
+        <v>158</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" s="4"/>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
-        <v>352</v>
+        <v>26</v>
       </c>
       <c r="B170" s="19"/>
-      <c r="C170" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="D170" s="31" t="s">
-        <v>413</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>414</v>
+      <c r="C170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>391</v>
       </c>
       <c r="F170" s="2"/>
-      <c r="G170" s="5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="1" t="s">
+      <c r="G170" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A171" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B171" s="19"/>
+      <c r="C171" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D171" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="F171" s="2"/>
+      <c r="G171" s="5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A172" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B171" s="1"/>
-      <c r="C171" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D171" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="E171" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="F171" s="2"/>
-      <c r="G171" s="4"/>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="B172" s="19"/>
       <c r="C172" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D172" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="F172" s="2"/>
-      <c r="G172" s="4" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173" s="3" t="s">
-        <v>352</v>
+        <v>27</v>
+      </c>
+      <c r="D172" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="E172" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="F172" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="G172" s="14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A173" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B173" s="19"/>
       <c r="C173" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D173" s="31" t="s">
-        <v>419</v>
-      </c>
-      <c r="E173" s="5" t="s">
-        <v>420</v>
+        <v>27</v>
+      </c>
+      <c r="D173" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>400</v>
       </c>
       <c r="F173" s="2"/>
-      <c r="G173" s="5" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="174" ht="17" spans="1:7">
+      <c r="G173" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B174" s="19"/>
+      <c r="B174" s="1"/>
       <c r="C174" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D174" s="31" t="s">
-        <v>422</v>
-      </c>
-      <c r="E174" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="F174" s="32" t="s">
-        <v>424</v>
-      </c>
-      <c r="G174" s="14" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
+        <v>182</v>
+      </c>
+      <c r="D174" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="F174" s="2"/>
+      <c r="G174" s="4"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B175" s="19"/>
       <c r="C175" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D175" s="31" t="s">
-        <v>182</v>
+        <v>12</v>
+      </c>
+      <c r="D175" s="30" t="s">
+        <v>404</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="F175" s="2"/>
-      <c r="G175" s="4" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
+      <c r="G175" s="4"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B176" s="1"/>
       <c r="C176" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D176" s="31" t="s">
-        <v>428</v>
+        <v>182</v>
+      </c>
+      <c r="D176" s="30" t="s">
+        <v>178</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" s="4"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B177" s="19"/>
+        <v>11</v>
+      </c>
+      <c r="B177" s="1"/>
       <c r="C177" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D177" s="31" t="s">
-        <v>430</v>
+        <v>182</v>
+      </c>
+      <c r="D177" s="30" t="s">
+        <v>407</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="F177" s="2"/>
       <c r="G177" s="4"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B178" s="19"/>
+      <c r="C178" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D178" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="F178" s="2">
+        <v>123</v>
+      </c>
+      <c r="G178" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A179" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B179" s="19"/>
+      <c r="C179" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D179" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F179" s="2"/>
+      <c r="G179" s="4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A180" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B178" s="1"/>
-      <c r="C178" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D178" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="E178" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="F178" s="2"/>
-      <c r="G178" s="4"/>
-    </row>
-    <row r="179" spans="1:7">
-      <c r="A179" s="1" t="s">
+      <c r="B180" s="1"/>
+      <c r="C180" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D180" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="F180" s="2"/>
+      <c r="G180" s="4"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A181" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B181" s="1"/>
+      <c r="C181" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D181" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="F181" s="2"/>
+      <c r="G181" s="4"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A182" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B182" s="19"/>
+      <c r="C182" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F182" s="2"/>
+      <c r="G182" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A183" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B179" s="1"/>
-      <c r="C179" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D179" s="31" t="s">
-        <v>433</v>
-      </c>
-      <c r="E179" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="F179" s="2"/>
-      <c r="G179" s="4"/>
-    </row>
-    <row r="180" ht="17" spans="1:7">
-      <c r="A180" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B180" s="19"/>
-      <c r="C180" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D180" s="31" t="s">
-        <v>435</v>
-      </c>
-      <c r="E180" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="F180" s="2">
-        <v>123</v>
-      </c>
-      <c r="G180" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
-      <c r="A181" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B181" s="19"/>
-      <c r="C181" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D181" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="E181" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="F181" s="2"/>
-      <c r="G181" s="4" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
-      <c r="A182" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B182" s="1"/>
-      <c r="C182" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D182" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="E182" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F182" s="2"/>
-      <c r="G182" s="4"/>
-    </row>
-    <row r="183" spans="1:7">
-      <c r="A183" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B183" s="1"/>
+      <c r="B183" s="19"/>
       <c r="C183" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D183" s="31" t="s">
-        <v>203</v>
+        <v>269</v>
+      </c>
+      <c r="D183" s="30" t="s">
+        <v>195</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="F183" s="2"/>
       <c r="G183" s="4"/>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
-        <v>319</v>
+        <v>11</v>
       </c>
       <c r="B184" s="19"/>
       <c r="C184" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D184" s="31" t="s">
-        <v>205</v>
+        <v>269</v>
+      </c>
+      <c r="D184" s="30" t="s">
+        <v>419</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="4" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B185" s="19"/>
       <c r="C185" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D185" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="E185" s="4" t="s">
-        <v>444</v>
+        <v>32</v>
+      </c>
+      <c r="D185" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>422</v>
       </c>
       <c r="F185" s="2"/>
-      <c r="G185" s="4"/>
-    </row>
-    <row r="186" spans="1:7">
+      <c r="G185" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B186" s="19"/>
+      <c r="B186" s="1"/>
       <c r="C186" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D186" s="31" t="s">
-        <v>445</v>
+        <v>182</v>
+      </c>
+      <c r="D186" s="30" t="s">
+        <v>424</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="F186" s="2"/>
-      <c r="G186" s="4" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="187" ht="17" spans="1:7">
-      <c r="A187" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B187" s="19"/>
-      <c r="C187" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D187" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="E187" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="F187" s="2"/>
-      <c r="G187" s="5" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B188" s="1"/>
-      <c r="C188" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D188" s="31" t="s">
-        <v>450</v>
-      </c>
-      <c r="E188" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="F188" s="2"/>
-      <c r="G188" s="4"/>
-    </row>
-    <row r="191" spans="1:7">
+      <c r="G186" s="4"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
         <v>20</v>
       </c>
@@ -6585,14 +6059,14 @@
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="4" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="F191" s="2"/>
-      <c r="G191" s="28" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="192" ht="17" spans="1:7">
+      <c r="G191" s="27" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A192" s="13" t="s">
         <v>66</v>
       </c>
@@ -6602,66 +6076,66 @@
       </c>
       <c r="D192" s="2"/>
       <c r="E192" s="14" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="F192" s="2"/>
-      <c r="G192" s="28" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
-      <c r="A193" s="29"/>
+      <c r="G192" s="27" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A193" s="28"/>
       <c r="B193" s="19"/>
       <c r="C193" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D193" s="30"/>
-      <c r="E193" s="28" t="s">
-        <v>456</v>
-      </c>
-      <c r="F193" s="30"/>
-      <c r="G193" s="28" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
-      <c r="A194" s="29"/>
-      <c r="B194" s="29"/>
+      <c r="D193" s="29"/>
+      <c r="E193" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="F193" s="29"/>
+      <c r="G193" s="27" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A194" s="28"/>
+      <c r="B194" s="28"/>
       <c r="C194" s="2" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="4" t="s">
-        <v>458</v>
+        <v>432</v>
       </c>
       <c r="F194" s="2"/>
       <c r="G194" s="4"/>
     </row>
-    <row r="195" spans="1:7">
-      <c r="A195" s="29"/>
-      <c r="B195" s="29"/>
-      <c r="C195" s="30"/>
-      <c r="D195" s="30"/>
-      <c r="E195" s="28"/>
-      <c r="F195" s="30"/>
-      <c r="G195" s="28"/>
-    </row>
-    <row r="196" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A195" s="28"/>
+      <c r="B195" s="28"/>
+      <c r="C195" s="29"/>
+      <c r="D195" s="29"/>
+      <c r="E195" s="27"/>
+      <c r="F195" s="29"/>
+      <c r="G195" s="27"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="15" t="s">
         <v>90</v>
       </c>
       <c r="D196" s="2"/>
-      <c r="E196" s="14" t="s">
-        <v>459</v>
+      <c r="E196" s="39" t="s">
+        <v>626</v>
       </c>
       <c r="F196" s="2"/>
       <c r="G196" s="14" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="2" t="s">
@@ -6669,14 +6143,14 @@
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="4" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
       <c r="F197" s="2"/>
       <c r="G197" s="4" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="2" t="s">
@@ -6684,18 +6158,18 @@
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="4" t="s">
-        <v>463</v>
+        <v>436</v>
       </c>
       <c r="F198" s="2"/>
       <c r="G198" s="4" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="2"/>
@@ -6704,7 +6178,7 @@
       <c r="F200" s="2"/>
       <c r="G200" s="4"/>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="2"/>
@@ -6713,7 +6187,7 @@
       <c r="F201" s="2"/>
       <c r="G201" s="4"/>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="2"/>
@@ -6722,7 +6196,7 @@
       <c r="F202" s="2"/>
       <c r="G202" s="4"/>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="2"/>
@@ -6731,7 +6205,7 @@
       <c r="F203" s="2"/>
       <c r="G203" s="4"/>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="2"/>
@@ -6740,7 +6214,7 @@
       <c r="F204" s="2"/>
       <c r="G204" s="4"/>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="2"/>
@@ -6749,7 +6223,7 @@
       <c r="F205" s="2"/>
       <c r="G205" s="4"/>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="2"/>
@@ -6758,7 +6232,7 @@
       <c r="F206" s="2"/>
       <c r="G206" s="4"/>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="2"/>
@@ -6767,7 +6241,7 @@
       <c r="F207" s="2"/>
       <c r="G207" s="4"/>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="2"/>
@@ -6776,7 +6250,7 @@
       <c r="F208" s="2"/>
       <c r="G208" s="4"/>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="2"/>
@@ -6786,24 +6260,22 @@
       <c r="G209" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:F122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D108" sqref="D108"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="4" max="4" width="78.125" customWidth="1"/>
@@ -6811,7 +6283,7 @@
     <col min="6" max="6" width="78.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6831,89 +6303,89 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>326</v>
+      <c r="C2" s="30" t="s">
+        <v>308</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>466</v>
+        <v>439</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>328</v>
+      <c r="C3" s="30" t="s">
+        <v>310</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>466</v>
+        <v>439</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>468</v>
+      <c r="C4" s="30" t="s">
+        <v>441</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>466</v>
+        <v>439</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>331</v>
+      <c r="C5" s="30" t="s">
+        <v>313</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>51</v>
@@ -6922,1783 +6394,1839 @@
         <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>475</v>
+        <v>448</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>350</v>
+      <c r="C12" s="30" t="s">
+        <v>332</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="E12" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="E12" s="30" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" ht="34" spans="1:6">
+    <row r="13" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="4" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
-        <v>476</v>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="36" t="s">
+        <v>629</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="31" t="s">
-        <v>363</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="E14" s="31" t="s">
+      <c r="C14" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="39" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E15" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="C16" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="E18" s="2"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>466</v>
+        <v>439</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>396</v>
+        <v>133</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>234</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>466</v>
+        <v>439</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>398</v>
+        <v>133</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>373</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>488</v>
+        <v>460</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>466</v>
+        <v>439</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>401</v>
+        <v>133</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>374</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>489</v>
+        <v>461</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>466</v>
+        <v>439</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>406</v>
+        <v>133</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>376</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>490</v>
+        <v>462</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>466</v>
+        <v>439</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>408</v>
+        <v>133</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>381</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>466</v>
+        <v>439</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>410</v>
+        <v>133</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>383</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>492</v>
+        <v>464</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>413</v>
+        <v>133</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>385</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>493</v>
+        <v>465</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>153</v>
+        <v>387</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>494</v>
+        <v>466</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="4" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>419</v>
+        <v>141</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>496</v>
+        <v>467</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="4" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6">
+        <v>469</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="4" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>471</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6">
+        <v>472</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="E31" s="4"/>
+        <v>474</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>396</v>
+      </c>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>503</v>
+        <v>407</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>504</v>
+        <v>475</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>435</v>
+        <v>476</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>476</v>
+        <v>437</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>7</v>
+        <v>171</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>445</v>
+        <v>409</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>298</v>
+        <v>419</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="4" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>479</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="C37" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E37" s="2"/>
       <c r="F37" s="4" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1"/>
+        <v>483</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="B38" s="2" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>514</v>
+        <v>484</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="5" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="39" ht="34" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="F38" s="4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="1"/>
       <c r="B39" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>517</v>
+        <v>487</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="11" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="40" ht="34" spans="1:6">
-      <c r="A40" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="10" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:6">
+        <v>488</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="5" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="11" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A41" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="10" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>520</v>
+        <v>493</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>526</v>
+        <v>497</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>527</v>
+        <v>498</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>520</v>
+        <v>493</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>528</v>
+        <v>499</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>520</v>
+        <v>493</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
       <c r="E44" s="4"/>
-      <c r="F44" s="4" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>256</v>
+        <v>493</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>533</v>
+        <v>503</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:6">
+        <v>504</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>535</v>
+        <v>506</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>536</v>
+        <v>507</v>
       </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="5" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="E47" s="2"/>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="F47" s="5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>540</v>
+        <v>511</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>541</v>
+        <v>512</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>542</v>
+        <v>513</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>543</v>
+        <v>514</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>545</v>
+        <v>516</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>546</v>
+        <v>517</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>547</v>
+        <v>518</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>548</v>
+        <v>519</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>549</v>
+        <v>520</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>550</v>
+        <v>521</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>551</v>
+        <v>522</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>552</v>
+        <v>523</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>553</v>
+        <v>524</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>554</v>
+        <v>525</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>557</v>
+        <v>528</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>558</v>
+        <v>529</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>559</v>
+        <v>530</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="3" t="s">
-        <v>464</v>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
+        <v>437</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>561</v>
+        <v>531</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>532</v>
       </c>
       <c r="E58" s="2"/>
-      <c r="F58" s="5" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="1" t="s">
-        <v>464</v>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
+        <v>437</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>564</v>
+        <v>533</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>534</v>
       </c>
       <c r="E59" s="2"/>
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="F59" s="5" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>565</v>
+        <v>536</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>566</v>
+        <v>537</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>567</v>
+        <v>538</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>568</v>
+        <v>539</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="3" t="s">
-        <v>464</v>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>437</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>570</v>
+        <v>540</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>541</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>571</v>
+        <v>542</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>572</v>
+        <v>543</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>573</v>
+        <v>544</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>574</v>
+        <v>545</v>
       </c>
       <c r="E64" s="2"/>
-      <c r="F64" s="4" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="1" t="s">
-        <v>464</v>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="3" t="s">
+        <v>437</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>576</v>
+        <v>273</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="1:6">
+        <v>546</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>295</v>
+        <v>549</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>579</v>
+        <v>550</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>580</v>
+        <v>551</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>581</v>
+        <v>552</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>582</v>
+        <v>553</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>583</v>
+        <v>554</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>584</v>
+        <v>555</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>585</v>
+        <v>556</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>586</v>
+        <v>557</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B82" s="2" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C82" s="31" t="s">
+      <c r="C83" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="E82" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="F82" s="4"/>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B83" s="2" t="s">
+      <c r="D83" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="31" t="s">
+      <c r="C84" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="E83" s="31" t="s">
+      <c r="D84" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="E84" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F83" s="4"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C84" s="31" t="s">
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C85" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="E84" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="F84" s="4"/>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D85" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="E85" s="2">
-        <v>121</v>
+        <v>562</v>
+      </c>
+      <c r="E85" s="30" t="s">
+        <v>283</v>
       </c>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="1" t="s">
-        <v>464</v>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86" s="36" t="s">
+        <v>619</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="C86" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" s="4"/>
-    </row>
-    <row r="87" spans="1:6">
+        <v>90</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="E86" s="30" t="s">
+        <v>617</v>
+      </c>
+      <c r="F86" s="35" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C87" s="31" t="s">
+      <c r="C87" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="E87" s="2">
+        <v>121</v>
+      </c>
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="E87" s="31" t="s">
+      <c r="D89" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="E89" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F87" s="4"/>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" s="4"/>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="B89" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C89" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" s="5" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="F89" s="4"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="E90" s="2">
-        <v>114</v>
+        <v>567</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="C91" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>598</v>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>568</v>
       </c>
       <c r="E91" s="2"/>
-      <c r="F91" s="4"/>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="F91" s="5" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C92" s="31" t="s">
+      <c r="C92" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="E92" s="2">
+        <v>114</v>
+      </c>
+      <c r="F92" s="4"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C93" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" s="4"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="E92" s="31" t="s">
+      <c r="D94" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="E94" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F92" s="4"/>
-    </row>
-    <row r="93" ht="17" spans="1:6">
-      <c r="A93" s="13" t="s">
-        <v>476</v>
-      </c>
-      <c r="B93" s="2" t="s">
+      <c r="F94" s="4"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="31" t="s">
+      <c r="C95" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D93" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="E93" s="32" t="s">
-        <v>424</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="C94" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="E94" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="F94" s="4"/>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B95" s="2" t="s">
+      <c r="D95" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="E95" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="E96" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="F96" s="4"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C95" s="31" t="s">
+      <c r="C97" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="E95" s="31" t="s">
-        <v>363</v>
-      </c>
-      <c r="F95" s="4"/>
-    </row>
-    <row r="96" ht="17" spans="1:6">
-      <c r="A96" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="B96" s="2" t="s">
+      <c r="D97" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="E97" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="F97" s="4"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C96" s="31" t="s">
+      <c r="C98" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D96" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="E96" s="33" t="s">
-        <v>607</v>
-      </c>
-      <c r="F96" s="4"/>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C97" s="31" t="s">
+      <c r="D98" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="E98" s="32" t="s">
+        <v>580</v>
+      </c>
+      <c r="F98" s="4"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C99" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" s="4"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C98" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E98" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F98" s="4"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="C99" s="31" t="s">
-        <v>87</v>
-      </c>
       <c r="D99" s="4" t="s">
-        <v>610</v>
+        <v>581</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C100" s="31" t="s">
+      <c r="C100" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E100" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F100" s="4"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C101" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" s="4"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" s="36" t="s">
+        <v>619</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C102" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="D102" s="39" t="s">
+        <v>612</v>
+      </c>
+      <c r="E102" s="37" t="s">
+        <v>633</v>
+      </c>
+      <c r="F102" s="4"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D100" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="E100" s="31" t="s">
+      <c r="D103" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="E103" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F100" s="4"/>
-    </row>
-    <row r="101" ht="17" spans="1:6">
-      <c r="A101" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="B101" s="2" t="s">
+      <c r="F103" s="4"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C101" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="E101" s="33" t="s">
-        <v>613</v>
-      </c>
-      <c r="F101" s="4"/>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C102" s="2" t="s">
+      <c r="C104" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="E104" s="32" t="s">
+        <v>586</v>
+      </c>
+      <c r="F104" s="4"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" s="4" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A107" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" s="4"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C108" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D102" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" s="4" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C103" s="31" t="s">
+      <c r="D108" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="E108" s="2">
+        <v>134</v>
+      </c>
+      <c r="F108" s="4"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A109" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" s="4" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A110" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="E110" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="F110" s="4"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A111" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F111" s="4"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A112" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C112" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="E112" s="2">
+        <v>120</v>
+      </c>
+      <c r="F112" s="4"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A113" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D103" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B104" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F104" s="4"/>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C105" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="E105" s="2">
-        <v>134</v>
-      </c>
-      <c r="F105" s="4"/>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" s="4" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C107" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="E107" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="F107" s="4"/>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F108" s="4"/>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C109" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="E109" s="2">
-        <v>120</v>
-      </c>
-      <c r="F109" s="4"/>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F110" s="4"/>
-    </row>
-    <row r="111" ht="17" spans="1:6">
-      <c r="A111" s="13" t="s">
-        <v>476</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C111" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="D111" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="E111" s="32" t="s">
-        <v>624</v>
-      </c>
-      <c r="F111" s="4"/>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C112" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="E112" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="F112" s="4"/>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C113" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E113" s="31" t="s">
-        <v>120</v>
-      </c>
       <c r="F113" s="4"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="13" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C114" s="31" t="s">
-        <v>179</v>
+      <c r="C114" s="30" t="s">
+        <v>142</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="E114" s="2"/>
-      <c r="F114" s="14" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="1" t="s">
-        <v>464</v>
+        <v>596</v>
+      </c>
+      <c r="E114" s="31" t="s">
+        <v>597</v>
+      </c>
+      <c r="F114" s="4"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A115" s="3" t="s">
+        <v>449</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C115" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="E115" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="C115" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="E115" s="32" t="s">
+        <v>87</v>
+      </c>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C116" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E116" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F116" s="4"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A117" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C117" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D117" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" s="14" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A118" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C118" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" s="4"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A119" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>629</v>
-      </c>
-      <c r="E116" s="2"/>
-      <c r="F116" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C117" s="31" t="s">
-        <v>503</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="E117" s="2"/>
-      <c r="F117" s="4"/>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="1" t="s">
+      <c r="C119" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" s="4" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A120" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C120" s="30" t="s">
         <v>476</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F118" s="4"/>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="E119" s="2">
+      <c r="D120" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" s="4"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A121" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F121" s="4"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A122" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="E122" s="2">
         <v>115</v>
       </c>
-      <c r="F119" s="4"/>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B120" s="2" t="s">
+      <c r="F122" s="4"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A123" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="F120" s="4"/>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="E122" s="2">
+      <c r="C123" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F123" s="4"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A124" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A125" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E125" s="2">
         <v>170</v>
       </c>
-      <c r="F122" s="4"/>
+      <c r="F125" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/017 面试题/自测题.xlsx
+++ b/017 面试题/自测题.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\personal\00-Python\017 面试题\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104DF491-C9A3-4FB7-81D9-19829CB00BFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="重复" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$209</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$208</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657">
   <si>
     <t>类型</t>
   </si>
@@ -397,15 +391,69 @@
     <t>040</t>
   </si>
   <si>
+    <t>已知 AList = [1,2,3,1,2],对 AList 列表元素去重，写出具体过程。（一共4种方法）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>006</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>至少要掌握两种吧，我觉得；另外的用字典和p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>andas的可以了解</t>
+    </r>
+  </si>
+  <si>
     <t>042</t>
   </si>
   <si>
+    <t>给定两个 list，A 和 B，找出相同元素和不同元素</t>
+  </si>
+  <si>
     <t>043</t>
   </si>
   <si>
+    <t>[[1,2],[3,4],[5,6]]一行代码展开该列表，得出[1,2,3,4,5,6]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>039</t>
+    </r>
+  </si>
+  <si>
     <t>045</t>
   </si>
   <si>
+    <t>如何打乱一个列表的元素？</t>
+  </si>
+  <si>
     <t>字典</t>
   </si>
   <si>
@@ -418,6 +466,9 @@
     <t>047</t>
   </si>
   <si>
+    <t>按照字典的内的年龄排序</t>
+  </si>
+  <si>
     <t>048</t>
   </si>
   <si>
@@ -427,16 +478,31 @@
     <t>049</t>
   </si>
   <si>
+    <t xml:space="preserve">如何使用生成式的方式生成一个字典，写一段功能代码。    </t>
+  </si>
+  <si>
+    <t>如何把元组("a","b")和元组(1,2)，变为字典{"a":1,"b":2}</t>
+  </si>
+  <si>
     <t>051</t>
   </si>
   <si>
+    <t>Python 常用的数据结构的类型及其特性？</t>
+  </si>
+  <si>
     <t>问的是字典的键的特性,但是题干驴唇不对马嘴</t>
   </si>
   <si>
     <t>052</t>
   </si>
   <si>
+    <t>如何交换字典 {"A"：1,"B"：2}的键和值？</t>
+  </si>
+  <si>
     <t>053</t>
+  </si>
+  <si>
+    <t>Python 里面如何实现 tuple 和 list 的转换？</t>
   </si>
   <si>
     <t>高级特性</t>
@@ -466,6 +532,11 @@
   </si>
   <si>
     <t>058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下面的代码输出的结果是什么?
+a = (1, 2, 3, [4, 5, 6, 7], 8)
+a[3][0] = 2  </t>
   </si>
   <si>
     <t>059</t>
@@ -565,10 +636,16 @@
     <t>070</t>
   </si>
   <si>
+    <t>请写一个 Python 逻辑，计算一个文件中的大写字母数量</t>
+  </si>
+  <si>
     <t>数据库</t>
   </si>
   <si>
     <t>074</t>
+  </si>
+  <si>
+    <t>请写一段 Python 连接 MySQL 数据库的代码。</t>
   </si>
   <si>
     <r>
@@ -600,91 +677,94 @@
     <t>不知道会不会考，优先级调低吧，确实说不上来的题目</t>
   </si>
   <si>
+    <t>高阶函数/装饰器</t>
+  </si>
+  <si>
+    <t>080</t>
+  </si>
+  <si>
+    <t>函数装饰器有什么作用？请列举说明？</t>
+  </si>
+  <si>
+    <t>009相关</t>
+  </si>
+  <si>
+    <t>应该不会问吧, 和 fixture 功能的题有重合, 但这个题正面回答确实是盲点, 所以给了一星</t>
+  </si>
+  <si>
+    <t>面向对象</t>
+  </si>
+  <si>
+    <t>082</t>
+  </si>
+  <si>
+    <t>魔法函数 __call__怎么使用?</t>
+  </si>
+  <si>
+    <t>之前UI自动化课程里有专门说过, 这时候还是忘记了;原答案解释的还挺好的,简单明了</t>
+  </si>
+  <si>
+    <t>083</t>
+  </si>
+  <si>
+    <t>如何判断一个对象是函数还是方法？</t>
+  </si>
+  <si>
+    <t>不会解释, 但觉得此题不重要</t>
+  </si>
+  <si>
+    <t>084</t>
+  </si>
+  <si>
+    <t>@classmethod 和@staticmethod 用法和区别</t>
+  </si>
+  <si>
+    <t>写起来还是感觉差不多,星级调整到1星</t>
+  </si>
+  <si>
+    <t>内置函数</t>
+  </si>
+  <si>
+    <t>088</t>
+  </si>
+  <si>
+    <t>hasattr() getattr() setattr()的用法</t>
+  </si>
+  <si>
+    <t>这个以前知道, 现在不记得怎么用了, 是为标记</t>
+  </si>
+  <si>
+    <t>089</t>
+  </si>
+  <si>
+    <t>请列举你知道的 Python 的魔法方法及用途。</t>
+  </si>
+  <si>
+    <t>感觉也不太会问吧, 但是答主觉得比较重要, 就放上来吧</t>
+  </si>
+  <si>
+    <t>深入</t>
+  </si>
+  <si>
+    <t>091</t>
+  </si>
+  <si>
+    <t>Python 的传参是传值还是传址?</t>
+  </si>
+  <si>
+    <t>知识盲点,  注意学习验证结论的方式</t>
+  </si>
+  <si>
+    <t>093</t>
+  </si>
+  <si>
+    <t>简述 any()和 all()方法</t>
+  </si>
+  <si>
+    <t>内置函数, 没用过, 记住就好</t>
+  </si>
+  <si>
     <t>高阶函数</t>
-  </si>
-  <si>
-    <t>080</t>
-  </si>
-  <si>
-    <t>函数装饰器有什么作用？请列举说明？</t>
-  </si>
-  <si>
-    <t>009相关</t>
-  </si>
-  <si>
-    <t>应该不会问吧, 和 fixture 功能的题有重合, 但这个题正面回答确实是盲点, 所以给了一星</t>
-  </si>
-  <si>
-    <t>面向对象</t>
-  </si>
-  <si>
-    <t>082</t>
-  </si>
-  <si>
-    <t>魔法函数 __call__怎么使用?</t>
-  </si>
-  <si>
-    <t>之前UI自动化课程里有专门说过, 这时候还是忘记了;原答案解释的还挺好的,简单明了</t>
-  </si>
-  <si>
-    <t>083</t>
-  </si>
-  <si>
-    <t>如何判断一个对象是函数还是方法？</t>
-  </si>
-  <si>
-    <t>不会解释, 但觉得此题不重要</t>
-  </si>
-  <si>
-    <t>084</t>
-  </si>
-  <si>
-    <t>@classmethod 和@staticmethod 用法和区别</t>
-  </si>
-  <si>
-    <t>写起来还是感觉差不多,星级调整到1星</t>
-  </si>
-  <si>
-    <t>内置函数</t>
-  </si>
-  <si>
-    <t>088</t>
-  </si>
-  <si>
-    <t>hasattr() getattr() setattr()的用法</t>
-  </si>
-  <si>
-    <t>这个以前知道, 现在不记得怎么用了, 是为标记</t>
-  </si>
-  <si>
-    <t>089</t>
-  </si>
-  <si>
-    <t>请列举你知道的 Python 的魔法方法及用途。</t>
-  </si>
-  <si>
-    <t>感觉也不太会问吧, 但是答主觉得比较重要, 就放上来吧</t>
-  </si>
-  <si>
-    <t>深入</t>
-  </si>
-  <si>
-    <t>091</t>
-  </si>
-  <si>
-    <t>Python 的传参是传值还是传址?</t>
-  </si>
-  <si>
-    <t>知识盲点,  注意学习验证结论的方式</t>
-  </si>
-  <si>
-    <t>093</t>
-  </si>
-  <si>
-    <t>简述 any()和 all()方法</t>
-  </si>
-  <si>
-    <t>内置函数, 没用过, 记住就好</t>
   </si>
   <si>
     <t>094</t>
@@ -993,6 +1073,9 @@
     <t>156</t>
   </si>
   <si>
+    <t>列出你知道 header 的内容以及信息</t>
+  </si>
+  <si>
     <t>157</t>
   </si>
   <si>
@@ -1011,9 +1094,15 @@
     <t>166</t>
   </si>
   <si>
+    <t>TCP 和 UDP 的区别？</t>
+  </si>
+  <si>
     <t>167</t>
   </si>
   <si>
+    <t>简要介绍三次握手和四次挥手</t>
+  </si>
+  <si>
     <t>并发</t>
   </si>
   <si>
@@ -1192,12 +1281,6 @@
   </si>
   <si>
     <t>这题不知道，但感觉应该也不会考</t>
-  </si>
-  <si>
-    <t>正则表达式匹配中，（.*）和（.*?）匹配区别？</t>
-  </si>
-  <si>
-    <t>039</t>
   </si>
   <si>
     <r>
@@ -1287,10 +1370,19 @@
     </r>
   </si>
   <si>
+    <t>[1,2,3]+[4,5,6]的结果是多少？</t>
+  </si>
+  <si>
     <t>正则匹配，匹配日期2018-03-20</t>
   </si>
   <si>
+    <t>list=[2,3,5,4,9,6]，从小到大排序，不许用sort，输出[2,3,4,5,6,9]</t>
+  </si>
+  <si>
     <t>054</t>
+  </si>
+  <si>
+    <t>a="%.03f"%1.3335,让计算a的结果保留两位小数</t>
   </si>
   <si>
     <t>使用 round</t>
@@ -1306,6 +1398,9 @@
   </si>
   <si>
     <t>列出常见的状态码和意义</t>
+  </si>
+  <si>
+    <t>使用pop和del删除字典中的"name"字段，dic={"name":"zs","age":18}</t>
   </si>
   <si>
     <t>列出常见MYSQL数据存储引擎</t>
@@ -1364,12 +1459,21 @@
     <t>只记得默认是文件名, 其实是文件名和参数组成的列表, 文件名是用 sys.argv[0]来表示的</t>
   </si>
   <si>
+    <t>举例sort和sorted对列表排序，list=[0,-1,3,-10,5,9]</t>
+  </si>
+  <si>
     <t>072</t>
   </si>
   <si>
+    <t>对list排序foo = [-5,8,0,4,9,-4,-20,-2,8,2,-4],使用lambda函数从小到大排序</t>
+  </si>
+  <si>
     <t>073</t>
   </si>
   <si>
+    <t>使用lambda函数对list排序 foo = [-5,8,0,4,9,-4,-20,-2,8,2,-4]，输出结果为 [0,2,4,8,8,9,-2,-4,-4,-5,-20]，正数从小到大，负数从大到小</t>
+  </si>
+  <si>
     <t>列表嵌套字典的排序，分别根据年龄和姓名排序 foo = [{"name":"zs","age":19},{"name":"ll","age":54}, {"name":"wa","age":17},{"name":"df","age":23}]</t>
   </si>
   <si>
@@ -1404,6 +1508,9 @@
   </si>
   <si>
     <t>列表推导式、字典推导式、生成器</t>
+  </si>
+  <si>
+    <t>最后出一道检验题目，根据字符串长度排序，看排序是否灵活运用</t>
   </si>
   <si>
     <t>081</t>
@@ -1588,6 +1695,9 @@
     <t>https://mp.weixin.qq.com/s/tKLRfVojpSDtszW5SmF3SQ</t>
   </si>
   <si>
+    <t>字符串/正则</t>
+  </si>
+  <si>
     <t>拆分含有多种分隔符的字符串 s = "ab;fd/ft|fs,f\tdf.fss*dfd;fs:uu}fsd"</t>
   </si>
   <si>
@@ -1603,6 +1713,9 @@
     <t>在日志文件中，其中日期格式为'yyyy-mm-dd', 想把其中的日期改为美国日期格式'mm/dd/yyyy'.比如 2019-06-12 改成 06/12/2019 格式</t>
   </si>
   <si>
+    <t>统计一个列表中正负数的个数</t>
+  </si>
+  <si>
     <t>面试题</t>
   </si>
   <si>
@@ -1615,6 +1728,80 @@
     <t>列出当前目录下的所有.py文件</t>
   </si>
   <si>
+    <t>下面的代码打印结果是什么?
+a = ('a', 'b', 'c')
+c = copy.copy(a)
+d = copy.deepcopy(a)
+if c == d:
+    print("c和d值相等")
+if id(c) == id(d):
+    print("c和d地址相等")</t>
+  </si>
+  <si>
+    <t>大周面试课题目</t>
+  </si>
+  <si>
+    <t>下面的代码的打印结果是什么
+class Person:
+    x = 5
+    y = 6
+    def __init__(self, x, y):
+        self.x = x
+        self.y = y    
+    def add(self):
+        return self.x + self.y
+person = Person(10, 20)
+person.z = 7
+print(person.x)
+print(person.y)
+print(Person.x)
+print(Person.y)
+print(Person.add(Person)) 
+print(person.add())
+print(person.z)
+print(Person.z)</t>
+  </si>
+  <si>
+    <t>Python中一个函数function接收三个参数a, *args`, **kwargs, 他们分别是什么类型</t>
+  </si>
+  <si>
+    <t>请根据列表`list1 = [1, 2, 3, 4, 5, 6]`, 使用一行代码生成一个新的列表`list2`, `list2`中每个元素是`list1`中的平方</t>
+  </si>
+  <si>
+    <t>请将下面列表进行排序`list1 = [20, 15, 88, 97, 76, 13, 27, 49]`</t>
+  </si>
+  <si>
+    <t>请实现: @runtime效果为当调用student_run时会自动打印当前时间
+@runtime
+def student_run(name):
+    print("student" + name + "run")
+student_run("张三")</t>
+  </si>
+  <si>
+    <t>请简述`func1`和`func2`函数的返回值, 以及函数运行机制
+def func1():
+    for i in range(1, 5):
+        return i
+def func2():
+    for i in range(1, 5):
+        yield i</t>
+  </si>
+  <si>
+    <t>Python中的多线程和多进程有什么区别?</t>
+  </si>
+  <si>
+    <t>Python中什么是可变数据类型, 什么是不可变数据类型</t>
+  </si>
+  <si>
+    <t>Python中如何实现单例设计模式</t>
+  </si>
+  <si>
+    <t>Python中一行代码如何实现两数交换</t>
+  </si>
+  <si>
+    <t>Python中的`__new_`和`__init__`两个方法有什么区别</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
@@ -1658,6 +1845,9 @@
   </si>
   <si>
     <t>如何区别可变数据类型和不可变数据类型</t>
+  </si>
+  <si>
+    <t>039</t>
   </si>
   <si>
     <t>(1)怎样将字符串转换为小写
@@ -1667,6 +1857,12 @@
     <t>太简单了,不会考</t>
   </si>
   <si>
+    <t>如何实现 "1,2,3" 变成 ["1","2","3"]</t>
+  </si>
+  <si>
+    <t>这题太简单了</t>
+  </si>
+  <si>
     <t>合并列表[1,5,7,9]和[2,2,6,8]</t>
   </si>
   <si>
@@ -1992,6 +2188,20 @@
   </si>
   <si>
     <t>谈下 Python 的 GIL</t>
+  </si>
+  <si>
+    <t>Python 实现列表去重的方法</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>040 里的方法更多</t>
+    </r>
   </si>
   <si>
     <t>fun(*args,**kwargs)中的*args,**kwargs什么意思?</t>
@@ -2076,10 +2286,24 @@
     <t>请列出你会的任意一种统计图（条形图、折线图等）绘制的开源库，第三方也行</t>
   </si>
   <si>
+    <t>正则表达式匹配中，（.*）和（.*?）匹配区别？</t>
+  </si>
+  <si>
     <t>框架</t>
   </si>
   <si>
     <t>简述Django的orm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>043</t>
+    </r>
   </si>
   <si>
     <t>举例说明异常模块中try except else finally的相关意义</t>
@@ -2172,214 +2396,18 @@
   <si>
     <t>python垃圾回收机制</t>
   </si>
-  <si>
-    <t>已知 AList = [1,2,3,1,2],对 AList 列表元素去重，写出具体过程。（一共4种方法）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何实现 "1,2,3" 变成 ["1","2","3"]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>给定两个 list，A 和 B，找出相同元素和不同元素</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[1,2],[3,4],[5,6]]一行代码展开该列表，得出[1,2,3,4,5,6]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何打乱一个列表的元素？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>***</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python 实现列表去重的方法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">下面的代码输出的结果是什么?
-a = (1, 2, 3, [4, 5, 6, 7], 8)
-a[3][0] = 2  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>040</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>040 里的方法更多</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>006</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>list=[2,3,5,4,9,6]，从小到大排序，不许用sort，输出[2,3,4,5,6,9]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>举例sort和sorted对列表排序，list=[0,-1,3,-10,5,9]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对list排序foo = [-5,8,0,4,9,-4,-20,-2,8,2,-4],使用lambda函数从小到大排序</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用lambda函数对list排序 foo = [-5,8,0,4,9,-4,-20,-2,8,2,-4]，输出结果为 [0,2,4,8,8,9,-2,-4,-4,-5,-20]，正数从小到大，负数从大到小</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后出一道检验题目，根据字符串长度排序，看排序是否灵活运用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计一个列表中正负数的个数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>至少要掌握两种吧，我觉得；另外的用字典和p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>andas的可以了解</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这题太简单了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python 常用的数据结构的类型及其特性？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何交换字典 {"A"：1,"B"：2}的键和值？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python 里面如何实现 tuple 和 list 的转换？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>043</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>039</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,2,3]+[4,5,6]的结果是多少？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a="%.03f"%1.3335,让计算a的结果保留两位小数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用pop和del删除字典中的"name"字段，dic={"name":"zs","age":18}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照字典的内的年龄排序</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">如何使用生成式的方式生成一个字典，写一段功能代码。    </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何把元组("a","b")和元组(1,2)，变为字典{"a":1,"b":2}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCP 和 UDP 的区别？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>简要介绍三次握手和四次挥手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>列出你知道 header 的内容以及信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python 字典和 Json 字符串相互转化方法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请写一段 Python 连接 MySQL 数据库的代码。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请写一个 Python 逻辑，计算一个文件中的大写字母数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2393,19 +2421,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2430,8 +2597,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2454,13 +2807,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2479,8 +3074,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2494,17 +3092,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2524,75 +3119,110 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2850,31 +3480,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E192" sqref="E192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="4" style="17" customWidth="1"/>
     <col min="2" max="2" width="4.875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="10" style="18" customWidth="1"/>
+    <col min="3" max="3" width="18.7692307692308" style="18" customWidth="1"/>
     <col min="4" max="4" width="9" style="18"/>
     <col min="5" max="5" width="71.25" customWidth="1"/>
     <col min="6" max="6" width="9" style="18"/>
     <col min="7" max="7" width="145.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2897,24 +3528,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="19"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2922,18 +3553,18 @@
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="31" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2941,20 +3572,20 @@
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="31" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -2962,7 +3593,7 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="31" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -2971,7 +3602,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2979,10 +3610,10 @@
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="2"/>
@@ -2990,7 +3621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" ht="17" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -2998,20 +3629,20 @@
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" ht="17" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -3019,7 +3650,7 @@
       <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="31" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -3030,7 +3661,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
@@ -3038,18 +3669,18 @@
       <c r="C9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="31" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="31" t="s">
         <v>40</v>
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
@@ -3057,18 +3688,18 @@
       <c r="C10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="31" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="31" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -3076,18 +3707,18 @@
       <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="31" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="31" t="s">
         <v>45</v>
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -3095,7 +3726,7 @@
       <c r="C12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="31" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -3104,7 +3735,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3112,16 +3743,16 @@
       <c r="C13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -3129,7 +3760,7 @@
       <c r="C14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="31" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -3138,7 +3769,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -3146,7 +3777,7 @@
       <c r="C15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="31" t="s">
         <v>54</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -3155,7 +3786,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -3163,7 +3794,7 @@
       <c r="C16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="31" t="s">
         <v>56</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -3172,7 +3803,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -3180,7 +3811,7 @@
       <c r="C17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="31" t="s">
         <v>58</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -3189,7 +3820,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -3197,7 +3828,7 @@
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="31" t="s">
         <v>60</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -3206,7 +3837,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -3214,7 +3845,7 @@
       <c r="C19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="31" t="s">
         <v>62</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -3223,7 +3854,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -3231,7 +3862,7 @@
       <c r="C20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="31" t="s">
         <v>64</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -3240,26 +3871,26 @@
       <c r="F20" s="2"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="13" t="s">
+    <row r="21" ht="17" spans="1:7">
+      <c r="A21" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="5" t="s">
         <v>68</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -3267,18 +3898,18 @@
       <c r="C22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="5" t="s">
         <v>71</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" ht="17" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -3286,18 +3917,18 @@
       <c r="C23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="5" t="s">
         <v>74</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -3305,73 +3936,73 @@
       <c r="C24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="5" t="s">
         <v>77</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" ht="17" spans="1:7">
       <c r="A25" s="1"/>
       <c r="B25" s="19"/>
       <c r="C25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="31" t="s">
+      <c r="F25" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="13" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="5" t="s">
         <v>83</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="13" t="s">
+    <row r="27" ht="17" spans="1:7">
+      <c r="A27" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="5" t="s">
         <v>85</v>
       </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="28" ht="51" spans="1:7">
       <c r="A28" s="1"/>
       <c r="B28" s="19"/>
       <c r="C28" s="2" t="s">
@@ -3384,11 +4015,11 @@
         <v>88</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" ht="17" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -3396,20 +4027,20 @@
       <c r="C29" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="39" t="s">
-        <v>609</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>620</v>
-      </c>
-      <c r="G29" s="39" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E29" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -3417,16 +4048,16 @@
       <c r="C30" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="39" t="s">
-        <v>611</v>
+      <c r="D30" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" ht="17" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
@@ -3434,242 +4065,242 @@
       <c r="C31" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="39" t="s">
-        <v>612</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>634</v>
+      <c r="D31" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>99</v>
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>614</v>
+        <v>26</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>613</v>
+      <c r="D32" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>96</v>
+        <v>102</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>103</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" s="39" t="s">
-        <v>638</v>
+        <v>102</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>107</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="E36" s="39" t="s">
-        <v>639</v>
+        <v>102</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="39" t="s">
-        <v>640</v>
+      <c r="E37" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7">
       <c r="A38" s="1"/>
       <c r="B38" s="19"/>
       <c r="C38" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="E38" s="39" t="s">
-        <v>630</v>
+      <c r="D38" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="E39" s="39" t="s">
-        <v>631</v>
+        <v>102</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" s="39" t="s">
-        <v>632</v>
+      <c r="D40" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7">
       <c r="A41" s="1"/>
       <c r="B41" s="19"/>
       <c r="C41" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>107</v>
+        <v>119</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>120</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F41" s="30" t="s">
-        <v>109</v>
+        <v>121</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>122</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" ht="51" spans="1:7">
       <c r="A42" s="1"/>
       <c r="B42" s="19"/>
       <c r="C42" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D42" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>112</v>
+      <c r="D42" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>125</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" ht="51" spans="1:7">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="E43" s="38" t="s">
-        <v>616</v>
+      <c r="D43" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" ht="17" spans="1:7">
       <c r="A44" s="1"/>
       <c r="B44" s="19"/>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="30" t="s">
-        <v>115</v>
+      <c r="D44" s="31" t="s">
+        <v>129</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7">
       <c r="A45" s="1"/>
       <c r="B45" s="19"/>
       <c r="C45" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="30" t="s">
-        <v>118</v>
+      <c r="D45" s="31" t="s">
+        <v>132</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -3677,18 +4308,18 @@
       <c r="C46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="30" t="s">
-        <v>121</v>
+      <c r="D46" s="31" t="s">
+        <v>135</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
@@ -3696,35 +4327,35 @@
       <c r="C47" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="30" t="s">
-        <v>124</v>
+      <c r="D47" s="31" t="s">
+        <v>138</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1"/>
       <c r="B48" s="19"/>
       <c r="C48" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="30" t="s">
-        <v>127</v>
+      <c r="D48" s="31" t="s">
+        <v>141</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
         <v>20</v>
       </c>
@@ -3732,404 +4363,406 @@
       <c r="C49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="30" t="s">
-        <v>130</v>
+      <c r="D49" s="31" t="s">
+        <v>144</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>134</v>
+        <v>147</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>148</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+    <row r="51" ht="101" spans="1:7">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>137</v>
+        <v>147</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>151</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B52" s="19"/>
       <c r="C52" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>138</v>
+        <v>119</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>152</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="E53" s="39" t="s">
-        <v>644</v>
-      </c>
-      <c r="F53" s="30" t="s">
-        <v>141</v>
+        <v>102</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F53" s="31" t="s">
+        <v>155</v>
       </c>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D54" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="E54" s="39" t="s">
-        <v>646</v>
+        <v>147</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="55" ht="17" spans="1:7">
       <c r="A55" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B55" s="19"/>
       <c r="C55" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="E55" s="39" t="s">
-        <v>645</v>
+        <v>158</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1"/>
       <c r="B56" s="19"/>
       <c r="C56" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D56" s="30" t="s">
-        <v>146</v>
+        <v>158</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>162</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F57" s="30" t="s">
-        <v>152</v>
+        <v>167</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>168</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B58" s="19"/>
       <c r="C58" s="2" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1"/>
       <c r="B59" s="19"/>
       <c r="C59" s="2" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B60" s="19"/>
       <c r="C60" s="2" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E60" s="33" t="s">
-        <v>162</v>
+        <v>177</v>
+      </c>
+      <c r="E60" s="34" t="s">
+        <v>178</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61" s="2" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B62" s="19"/>
       <c r="C62" s="2" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F62" s="30" t="s">
-        <v>138</v>
+        <v>185</v>
+      </c>
+      <c r="F62" s="31" t="s">
+        <v>152</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B63" s="19"/>
       <c r="C63" s="2" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="F63" s="2">
         <v>100</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B64" s="19"/>
-      <c r="C64" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="D64" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="E64" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="F64" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="G64" s="25" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C64" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="F64" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="G64" s="24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="65" s="16" customFormat="1" spans="1:7">
       <c r="A65" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B65" s="19"/>
       <c r="C65" s="2" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="F65" s="30" t="s">
-        <v>180</v>
+        <v>196</v>
+      </c>
+      <c r="F65" s="31" t="s">
+        <v>197</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="2" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="2" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F67" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="F67" s="31" t="s">
+        <v>84</v>
+      </c>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="2" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7">
       <c r="A69" s="1"/>
       <c r="B69" s="19"/>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="4"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7">
       <c r="A70" s="1"/>
       <c r="B70" s="19"/>
       <c r="C70" s="2" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7">
       <c r="A71" s="1"/>
       <c r="B71" s="19"/>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
         <v>20</v>
       </c>
@@ -4138,51 +4771,51 @@
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1"/>
       <c r="B73" s="19"/>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B74" s="19"/>
       <c r="C74" s="2" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
         <v>20</v>
       </c>
@@ -4191,89 +4824,89 @@
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F75" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="F75" s="31" t="s">
         <v>13</v>
       </c>
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7">
       <c r="A76" s="1"/>
       <c r="B76" s="19"/>
       <c r="C76" s="2" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" ht="17" spans="1:7">
       <c r="A77" s="1"/>
       <c r="B77" s="19"/>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F77" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="F77" s="31" t="s">
         <v>52</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1"/>
       <c r="B78" s="19"/>
       <c r="C78" s="2" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="F78" s="2">
         <v>103</v>
       </c>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B79" s="19"/>
       <c r="C79" s="2" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
         <v>20</v>
       </c>
@@ -4282,17 +4915,17 @@
         <v>37</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
         <v>26</v>
       </c>
@@ -4301,76 +4934,76 @@
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F81" s="30" t="s">
-        <v>136</v>
+        <v>237</v>
+      </c>
+      <c r="F81" s="31" t="s">
+        <v>150</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1"/>
       <c r="B82" s="19"/>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="F82" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F82" s="31" t="s">
         <v>33</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B83" s="19"/>
       <c r="C83" s="2" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="84" ht="17" spans="1:7">
       <c r="A84" s="1"/>
       <c r="B84" s="19"/>
       <c r="C84" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="F84" s="32" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
         <v>36</v>
       </c>
@@ -4379,627 +5012,627 @@
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="F85" s="30" t="s">
-        <v>234</v>
+        <v>250</v>
+      </c>
+      <c r="F85" s="31" t="s">
+        <v>251</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1"/>
       <c r="B86" s="19"/>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="4"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:7">
       <c r="A87" s="1"/>
       <c r="B87" s="19"/>
       <c r="C87" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="4"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:7">
       <c r="A88" s="1"/>
       <c r="B88" s="19"/>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="4"/>
     </row>
-    <row r="89" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="89" ht="51" spans="1:7">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="2" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E89" s="26" t="s">
-        <v>244</v>
+        <v>260</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="4"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:7">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="2" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B91" s="19"/>
       <c r="C91" s="2" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F91" s="30" t="s">
-        <v>105</v>
+        <v>266</v>
+      </c>
+      <c r="F91" s="31" t="s">
+        <v>117</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="2" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="4"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:7">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="2" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="4"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:7">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="2" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="2" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="2" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="2" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:7">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B99" s="19"/>
       <c r="C99" s="2" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
-      <c r="C100" s="12" t="s">
-        <v>269</v>
+      <c r="C100" s="14" t="s">
+        <v>286</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E100" s="39" t="s">
-        <v>643</v>
+        <v>287</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>288</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="4"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:7">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
-      <c r="C101" s="12" t="s">
-        <v>269</v>
+      <c r="C101" s="14" t="s">
+        <v>286</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="4"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:7">
       <c r="A102" s="1"/>
       <c r="B102" s="19"/>
       <c r="C102" s="2" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="4"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:7">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
-      <c r="C103" s="12" t="s">
-        <v>269</v>
+      <c r="C103" s="14" t="s">
+        <v>286</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E103" s="39" t="s">
-        <v>641</v>
+        <v>294</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>295</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="4"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:7">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
-      <c r="C104" s="12" t="s">
-        <v>269</v>
+      <c r="C104" s="14" t="s">
+        <v>286</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E104" s="39" t="s">
-        <v>642</v>
+        <v>296</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>297</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="4"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B105" s="19"/>
       <c r="C105" s="2" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F105" s="30" t="s">
-        <v>281</v>
+        <v>300</v>
+      </c>
+      <c r="F105" s="31" t="s">
+        <v>301</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="1"/>
       <c r="B106" s="19"/>
       <c r="C106" s="2" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="F106" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="F106" s="31" t="s">
         <v>23</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="1"/>
-      <c r="B107" s="24"/>
+      <c r="B107" s="26"/>
       <c r="C107" s="2" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="1"/>
-      <c r="B108" s="24"/>
+      <c r="B108" s="26"/>
       <c r="C108" s="2" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="1"/>
-      <c r="B109" s="24"/>
+      <c r="B109" s="26"/>
       <c r="C109" s="2" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="1"/>
-      <c r="B110" s="24"/>
+      <c r="B110" s="26"/>
       <c r="C110" s="2" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="1"/>
-      <c r="B111" s="24"/>
+      <c r="B111" s="26"/>
       <c r="C111" s="2" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="1"/>
-      <c r="B112" s="24"/>
+      <c r="B112" s="26"/>
       <c r="C112" s="2" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B120" s="19"/>
       <c r="C120" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D120" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D120" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="1" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D121" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D121" s="31" t="s">
         <v>21</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="4"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:7">
       <c r="A122" s="1" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="B122" s="19"/>
-      <c r="C122" s="12" t="s">
-        <v>149</v>
+      <c r="C122" s="14" t="s">
+        <v>165</v>
       </c>
       <c r="D122" s="32" t="s">
         <v>41</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="F122" s="30" t="s">
-        <v>305</v>
+        <v>324</v>
+      </c>
+      <c r="F122" s="31" t="s">
+        <v>325</v>
       </c>
       <c r="G122" s="4"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:7">
       <c r="A123" s="1" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="B123" s="19"/>
       <c r="C123" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D123" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D123" s="31" t="s">
         <v>47</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B124" s="19"/>
       <c r="C124" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D124" s="30" t="s">
-        <v>308</v>
+        <v>119</v>
+      </c>
+      <c r="D124" s="31" t="s">
+        <v>328</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="4"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:7">
       <c r="A125" s="1" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="B125" s="19"/>
       <c r="C125" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D125" s="30" t="s">
-        <v>310</v>
+      <c r="D125" s="31" t="s">
+        <v>330</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D126" s="30" t="s">
-        <v>313</v>
+        <v>199</v>
+      </c>
+      <c r="D126" s="31" t="s">
+        <v>333</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="4"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:7">
       <c r="A127" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B127" s="19"/>
       <c r="C127" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D127" s="30" t="s">
-        <v>315</v>
+        <v>158</v>
+      </c>
+      <c r="D127" s="31" t="s">
+        <v>335</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B128" s="19"/>
       <c r="C128" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D128" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="D128" s="31" t="s">
         <v>54</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="4"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:7">
       <c r="A129" s="1" t="s">
         <v>26</v>
       </c>
@@ -5007,107 +5640,107 @@
       <c r="C129" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D129" s="30" t="s">
+      <c r="D129" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E129" s="14" t="s">
-        <v>320</v>
+      <c r="E129" s="5" t="s">
+        <v>340</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B130" s="19"/>
       <c r="C130" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D130" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D130" s="31" t="s">
         <v>62</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B131" s="19"/>
       <c r="C131" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D131" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D131" s="31" t="s">
         <v>64</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="1" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D132" s="30" t="s">
-        <v>326</v>
+        <v>199</v>
+      </c>
+      <c r="D132" s="31" t="s">
+        <v>346</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="4"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:7">
       <c r="A133" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B133" s="19"/>
       <c r="C133" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D133" s="30" t="s">
-        <v>328</v>
+        <v>119</v>
+      </c>
+      <c r="D133" s="31" t="s">
+        <v>348</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="4"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:7">
       <c r="A134" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D134" s="30" t="s">
-        <v>330</v>
+        <v>199</v>
+      </c>
+      <c r="D134" s="31" t="s">
+        <v>350</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="4"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:7">
       <c r="A135" s="1" t="s">
         <v>11</v>
       </c>
@@ -5115,1027 +5748,1025 @@
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D135" s="30" t="s">
-        <v>332</v>
+      <c r="D135" s="31" t="s">
+        <v>352</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="4"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:7">
       <c r="A136" s="1" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="B136" s="19"/>
       <c r="C136" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D136" s="30" t="s">
+      <c r="D136" s="31" t="s">
         <v>73</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="4"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:7">
       <c r="A137" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B137" s="19"/>
       <c r="C137" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D137" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="D137" s="31" t="s">
         <v>76</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="5" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A138" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B138" s="1"/>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="138" ht="17" spans="1:7">
+      <c r="A138" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B138" s="19"/>
       <c r="C138" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D138" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>338</v>
+        <v>27</v>
+      </c>
+      <c r="D138" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>359</v>
       </c>
       <c r="F138" s="2"/>
-      <c r="G138" s="4"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A139" s="13" t="s">
-        <v>340</v>
+      <c r="G138" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B139" s="19"/>
       <c r="C139" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D139" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="E139" s="14" t="s">
-        <v>341</v>
+        <v>180</v>
+      </c>
+      <c r="D139" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>361</v>
       </c>
       <c r="F139" s="2"/>
-      <c r="G139" s="14" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G139" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B140" s="19"/>
+        <v>11</v>
+      </c>
+      <c r="B140" s="1"/>
       <c r="C140" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D140" s="30" t="s">
-        <v>93</v>
+        <v>199</v>
+      </c>
+      <c r="D140" s="31" t="s">
+        <v>363</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="F140" s="2"/>
-      <c r="G140" s="4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G140" s="4"/>
+    </row>
+    <row r="141" ht="17" spans="1:7">
       <c r="A141" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B141" s="1"/>
+      <c r="B141" s="19"/>
       <c r="C141" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D141" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>346</v>
+        <v>158</v>
+      </c>
+      <c r="D141" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>365</v>
       </c>
       <c r="F141" s="2"/>
-      <c r="G141" s="4"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G141" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="142" ht="17" spans="1:7">
       <c r="A142" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B142" s="19"/>
       <c r="C142" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D142" s="30" t="s">
-        <v>94</v>
+        <v>27</v>
+      </c>
+      <c r="D142" s="31" t="s">
+        <v>103</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="F142" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="F142" s="31" t="s">
+        <v>368</v>
+      </c>
       <c r="G142" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B143" s="19"/>
+      <c r="B143" s="1"/>
       <c r="C143" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D143" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E143" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="F143" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="G143" s="14" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+      <c r="D143" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="F143" s="2"/>
+      <c r="G143" s="4"/>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D144" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="E144" s="39" t="s">
-        <v>635</v>
+        <v>199</v>
+      </c>
+      <c r="D144" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>371</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" s="4"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:7">
       <c r="A145" s="1" t="s">
-        <v>11</v>
+        <v>322</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D145" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>352</v>
+        <v>90</v>
+      </c>
+      <c r="D145" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E145" s="12" t="s">
+        <v>372</v>
       </c>
       <c r="F145" s="2"/>
       <c r="G145" s="4"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:7">
       <c r="A146" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B146" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B146" s="19"/>
       <c r="C146" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D146" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="E146" s="39" t="s">
-        <v>621</v>
+        <v>27</v>
+      </c>
+      <c r="D146" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>374</v>
       </c>
       <c r="F146" s="2"/>
-      <c r="G146" s="4"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G146" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="147" ht="135" spans="1:7">
       <c r="A147" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B147" s="1"/>
+      <c r="C147" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D147" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="F147" s="2"/>
+      <c r="G147" s="4"/>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B147" s="19"/>
-      <c r="C147" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D147" s="30" t="s">
-        <v>353</v>
-      </c>
-      <c r="E147" s="39" t="s">
-        <v>636</v>
-      </c>
-      <c r="F147" s="2"/>
-      <c r="G147" s="4" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="108" x14ac:dyDescent="0.15">
-      <c r="A148" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="B148" s="1"/>
-      <c r="C148" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D148" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="E148" s="26" t="s">
-        <v>355</v>
+      <c r="C148" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D148" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>377</v>
       </c>
       <c r="F148" s="2"/>
       <c r="G148" s="4"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:7">
       <c r="A149" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D149" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>356</v>
+        <v>102</v>
+      </c>
+      <c r="D149" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E149" s="12" t="s">
+        <v>378</v>
       </c>
       <c r="F149" s="2"/>
       <c r="G149" s="4"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:7">
       <c r="A150" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B150" s="1"/>
+      <c r="B150" s="19"/>
       <c r="C150" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D150" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="E150" s="39" t="s">
-        <v>637</v>
+        <v>158</v>
+      </c>
+      <c r="D150" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>379</v>
       </c>
       <c r="F150" s="2"/>
-      <c r="G150" s="4"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G150" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="151" ht="135" spans="1:7">
       <c r="A151" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B151" s="19"/>
-      <c r="C151" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D151" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>357</v>
+      <c r="C151" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="D151" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>381</v>
       </c>
       <c r="F151" s="2"/>
-      <c r="G151" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="108" x14ac:dyDescent="0.15">
+      <c r="G151" s="13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B152" s="19"/>
-      <c r="C152" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="D152" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="E152" s="26" t="s">
-        <v>359</v>
+      <c r="C152" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D152" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>384</v>
       </c>
       <c r="F152" s="2"/>
-      <c r="G152" s="11" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G152" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B153" s="19"/>
       <c r="C153" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D153" s="30" t="s">
-        <v>121</v>
+        <v>286</v>
+      </c>
+      <c r="D153" s="31" t="s">
+        <v>138</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="4" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B154" s="19"/>
       <c r="C154" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D154" s="30" t="s">
-        <v>124</v>
+        <v>298</v>
+      </c>
+      <c r="D154" s="31" t="s">
+        <v>141</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="F154" s="2"/>
       <c r="G154" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B155" s="19"/>
       <c r="C155" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D155" s="30" t="s">
-        <v>127</v>
+        <v>37</v>
+      </c>
+      <c r="D155" s="31" t="s">
+        <v>148</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="F155" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="F155" s="2">
+        <v>109</v>
+      </c>
       <c r="G155" s="4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B156" s="19"/>
       <c r="C156" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D156" s="30" t="s">
-        <v>134</v>
+        <v>7</v>
+      </c>
+      <c r="D156" s="31" t="s">
+        <v>392</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="F156" s="2">
-        <v>109</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="F156" s="2"/>
       <c r="G156" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B157" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="B157" s="1"/>
       <c r="C157" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D157" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="F157" s="2"/>
-      <c r="G157" s="4" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+      <c r="D157" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="F157" s="2">
+        <v>124</v>
+      </c>
+      <c r="G157" s="4"/>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" s="1" t="s">
-        <v>20</v>
+        <v>322</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D158" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="E158" s="39" t="s">
-        <v>622</v>
-      </c>
-      <c r="F158" s="2">
-        <v>124</v>
-      </c>
+      <c r="D158" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="F158" s="2"/>
       <c r="G158" s="4"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:7">
       <c r="A159" s="1" t="s">
-        <v>302</v>
+        <v>26</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D159" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="E159" s="39" t="s">
-        <v>623</v>
+      <c r="D159" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="E159" s="12" t="s">
+        <v>399</v>
       </c>
       <c r="F159" s="2"/>
       <c r="G159" s="4"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:7">
       <c r="A160" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B160" s="1"/>
+        <v>322</v>
+      </c>
+      <c r="B160" s="19"/>
       <c r="C160" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D160" s="30" t="s">
-        <v>374</v>
-      </c>
-      <c r="E160" s="39" t="s">
-        <v>624</v>
+        <v>194</v>
+      </c>
+      <c r="D160" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>400</v>
       </c>
       <c r="F160" s="2"/>
       <c r="G160" s="4"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:7">
       <c r="A161" s="1" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="B161" s="19"/>
       <c r="C161" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D161" s="30" t="s">
-        <v>144</v>
+        <v>194</v>
+      </c>
+      <c r="D161" s="31" t="s">
+        <v>401</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" s="4"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:7">
       <c r="A162" s="1" t="s">
-        <v>302</v>
+        <v>403</v>
       </c>
       <c r="B162" s="19"/>
       <c r="C162" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D162" s="30" t="s">
-        <v>376</v>
+        <v>194</v>
+      </c>
+      <c r="D162" s="31" t="s">
+        <v>162</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="F162" s="2"/>
-      <c r="G162" s="4"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G162" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B163" s="19"/>
+        <v>322</v>
+      </c>
+      <c r="B163" s="1"/>
       <c r="C163" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D163" s="30" t="s">
-        <v>146</v>
+        <v>102</v>
+      </c>
+      <c r="D163" s="31" t="s">
+        <v>406</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>379</v>
+        <v>407</v>
       </c>
       <c r="F163" s="2"/>
-      <c r="G163" s="4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G163" s="4"/>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" s="1" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D164" s="30" t="s">
-        <v>381</v>
+        <v>102</v>
+      </c>
+      <c r="D164" s="31" t="s">
+        <v>408</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>382</v>
+        <v>409</v>
       </c>
       <c r="F164" s="2"/>
       <c r="G164" s="4"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:7">
       <c r="A165" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B165" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B165" s="19"/>
       <c r="C165" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D165" s="30" t="s">
-        <v>383</v>
+        <v>119</v>
+      </c>
+      <c r="D165" s="31" t="s">
+        <v>410</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="4"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:7">
       <c r="A166" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B166" s="19"/>
       <c r="C166" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D166" s="30" t="s">
-        <v>385</v>
-      </c>
-      <c r="E166" s="4" t="s">
-        <v>386</v>
+        <v>90</v>
+      </c>
+      <c r="D166" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="E166" s="12" t="s">
+        <v>412</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" s="4"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:7">
       <c r="A167" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B167" s="19"/>
+      <c r="C167" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="D167" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F167" s="2"/>
+      <c r="G167" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B168" s="1"/>
+      <c r="C168" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D168" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F168" s="2"/>
+      <c r="G168" s="4"/>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B167" s="19"/>
-      <c r="C167" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D167" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="E167" s="39" t="s">
-        <v>625</v>
-      </c>
-      <c r="F167" s="2"/>
-      <c r="G167" s="4"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A168" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B168" s="19"/>
-      <c r="C168" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="D168" s="30" t="s">
-        <v>387</v>
-      </c>
-      <c r="E168" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="F168" s="2"/>
-      <c r="G168" s="5" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A169" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B169" s="1"/>
+      <c r="B169" s="19"/>
       <c r="C169" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D169" s="30" t="s">
-        <v>158</v>
+        <v>12</v>
+      </c>
+      <c r="D169" s="31" t="s">
+        <v>177</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="F169" s="2"/>
-      <c r="G169" s="4"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A170" s="1" t="s">
-        <v>26</v>
+      <c r="G169" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="B170" s="19"/>
       <c r="C170" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D170" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="E170" s="4" t="s">
-        <v>391</v>
+        <v>158</v>
+      </c>
+      <c r="D170" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>420</v>
       </c>
       <c r="F170" s="2"/>
-      <c r="G170" s="4" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A171" s="3" t="s">
-        <v>334</v>
+      <c r="G170" s="5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="171" ht="17" spans="1:7">
+      <c r="A171" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B171" s="19"/>
       <c r="C171" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D171" s="30" t="s">
-        <v>393</v>
+        <v>27</v>
+      </c>
+      <c r="D171" s="31" t="s">
+        <v>422</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="F171" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="F171" s="32" t="s">
+        <v>424</v>
+      </c>
       <c r="G171" s="5" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B172" s="19"/>
       <c r="C172" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D172" s="30" t="s">
-        <v>396</v>
-      </c>
-      <c r="E172" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="F172" s="31" t="s">
-        <v>398</v>
-      </c>
-      <c r="G172" s="14" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D172" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="F172" s="2"/>
+      <c r="G172" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B173" s="19"/>
+        <v>11</v>
+      </c>
+      <c r="B173" s="1"/>
       <c r="C173" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D173" s="30" t="s">
-        <v>168</v>
+        <v>199</v>
+      </c>
+      <c r="D173" s="31" t="s">
+        <v>428</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>400</v>
+        <v>429</v>
       </c>
       <c r="F173" s="2"/>
-      <c r="G173" s="4" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G173" s="4"/>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B174" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B174" s="19"/>
       <c r="C174" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D174" s="30" t="s">
-        <v>402</v>
+        <v>12</v>
+      </c>
+      <c r="D174" s="31" t="s">
+        <v>430</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="F174" s="2"/>
       <c r="G174" s="4"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:7">
       <c r="A175" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B175" s="19"/>
+        <v>11</v>
+      </c>
+      <c r="B175" s="1"/>
       <c r="C175" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D175" s="30" t="s">
-        <v>404</v>
+        <v>199</v>
+      </c>
+      <c r="D175" s="31" t="s">
+        <v>195</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="F175" s="2"/>
       <c r="G175" s="4"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:7">
       <c r="A176" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B176" s="1"/>
       <c r="C176" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D176" s="30" t="s">
-        <v>178</v>
+        <v>199</v>
+      </c>
+      <c r="D176" s="31" t="s">
+        <v>433</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" s="4"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="177" ht="17" spans="1:7">
       <c r="A177" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B177" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B177" s="19"/>
       <c r="C177" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D177" s="30" t="s">
-        <v>407</v>
-      </c>
-      <c r="E177" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="F177" s="2"/>
-      <c r="G177" s="4"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="D177" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="F177" s="2">
+        <v>123</v>
+      </c>
+      <c r="G177" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B178" s="19"/>
       <c r="C178" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D178" s="30" t="s">
-        <v>409</v>
-      </c>
-      <c r="E178" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="F178" s="2">
-        <v>123</v>
-      </c>
-      <c r="G178" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
+        <v>338</v>
+      </c>
+      <c r="D178" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="F178" s="2"/>
+      <c r="G178" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B179" s="19"/>
+        <v>11</v>
+      </c>
+      <c r="B179" s="1"/>
       <c r="C179" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D179" s="30" t="s">
-        <v>183</v>
+        <v>199</v>
+      </c>
+      <c r="D179" s="31" t="s">
+        <v>202</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="F179" s="2"/>
-      <c r="G179" s="4" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G179" s="4"/>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180" s="1" t="s">
-        <v>11</v>
+        <v>322</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D180" s="30" t="s">
-        <v>185</v>
+        <v>90</v>
+      </c>
+      <c r="D180" s="31" t="s">
+        <v>206</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="F180" s="2"/>
       <c r="G180" s="4"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:7">
       <c r="A181" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B181" s="1"/>
+        <v>322</v>
+      </c>
+      <c r="B181" s="19"/>
       <c r="C181" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D181" s="30" t="s">
-        <v>189</v>
+        <v>12</v>
+      </c>
+      <c r="D181" s="31" t="s">
+        <v>208</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
       <c r="F181" s="2"/>
-      <c r="G181" s="4"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G181" s="4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182" s="1" t="s">
-        <v>302</v>
+        <v>11</v>
       </c>
       <c r="B182" s="19"/>
       <c r="C182" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D182" s="30" t="s">
-        <v>191</v>
+        <v>286</v>
+      </c>
+      <c r="D182" s="31" t="s">
+        <v>212</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="F182" s="2"/>
-      <c r="G182" s="4" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G182" s="4"/>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B183" s="19"/>
       <c r="C183" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D183" s="30" t="s">
-        <v>195</v>
+        <v>286</v>
+      </c>
+      <c r="D183" s="31" t="s">
+        <v>445</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="F183" s="2"/>
-      <c r="G183" s="4"/>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G183" s="4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="184" ht="17" spans="1:7">
       <c r="A184" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B184" s="19"/>
       <c r="C184" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D184" s="30" t="s">
-        <v>419</v>
-      </c>
-      <c r="E184" s="4" t="s">
-        <v>420</v>
+        <v>32</v>
+      </c>
+      <c r="D184" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>448</v>
       </c>
       <c r="F184" s="2"/>
-      <c r="G184" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G184" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B185" s="19"/>
+        <v>11</v>
+      </c>
+      <c r="B185" s="1"/>
       <c r="C185" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D185" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="E185" s="5" t="s">
-        <v>422</v>
+        <v>199</v>
+      </c>
+      <c r="D185" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>451</v>
       </c>
       <c r="F185" s="2"/>
-      <c r="G185" s="5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A186" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B186" s="1"/>
-      <c r="C186" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D186" s="30" t="s">
-        <v>424</v>
-      </c>
-      <c r="E186" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="F186" s="2"/>
-      <c r="G186" s="4"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A191" s="1" t="s">
+      <c r="G185" s="4"/>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B190" s="19"/>
+      <c r="C190" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D190" s="2"/>
+      <c r="E190" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="F190" s="2"/>
+      <c r="G190" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="191" ht="17" spans="1:7">
+      <c r="A191" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="B191" s="19"/>
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="D191" s="2"/>
+      <c r="E191" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="F191" s="2"/>
+      <c r="G191" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="1"/>
+      <c r="B192" s="19"/>
+      <c r="C192" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D191" s="2"/>
-      <c r="E191" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="F191" s="2"/>
-      <c r="G191" s="27" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A192" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B192" s="19"/>
-      <c r="C192" s="15" t="s">
-        <v>27</v>
-      </c>
       <c r="D192" s="2"/>
-      <c r="E192" s="14" t="s">
-        <v>428</v>
+      <c r="E192" s="4" t="s">
+        <v>457</v>
       </c>
       <c r="F192" s="2"/>
-      <c r="G192" s="27" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A193" s="28"/>
-      <c r="B193" s="19"/>
-      <c r="C193" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D193" s="29"/>
-      <c r="E193" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="F193" s="29"/>
-      <c r="G193" s="27" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A194" s="28"/>
-      <c r="B194" s="28"/>
-      <c r="C194" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="G192" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D193" s="2"/>
+      <c r="E193" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="F193" s="2"/>
+      <c r="G193" s="4"/>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="2"/>
       <c r="D194" s="2"/>
-      <c r="E194" s="4" t="s">
-        <v>432</v>
-      </c>
+      <c r="E194" s="4"/>
       <c r="F194" s="2"/>
       <c r="G194" s="4"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A195" s="28"/>
-      <c r="B195" s="28"/>
-      <c r="C195" s="29"/>
-      <c r="D195" s="29"/>
-      <c r="E195" s="27"/>
-      <c r="F195" s="29"/>
-      <c r="G195" s="27"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:7">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D195" s="2"/>
+      <c r="E195" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="F195" s="2"/>
+      <c r="G195" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
-      <c r="C196" s="15" t="s">
-        <v>90</v>
+      <c r="C196" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D196" s="2"/>
-      <c r="E196" s="39" t="s">
-        <v>626</v>
+      <c r="E196" s="4" t="s">
+        <v>462</v>
       </c>
       <c r="F196" s="2"/>
-      <c r="G196" s="14" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G196" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="2" t="s">
@@ -6143,139 +6774,185 @@
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="4" t="s">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="F197" s="2"/>
       <c r="G197" s="4" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="198" ht="135" spans="1:7">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
-      <c r="C198" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D198" s="2"/>
-      <c r="E198" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="F198" s="2"/>
-      <c r="G198" s="4" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C198" s="27"/>
+      <c r="D198" s="27"/>
+      <c r="E198" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="F198" s="27"/>
+      <c r="G198" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="199" ht="336" spans="1:7">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="F199" s="2"/>
+      <c r="G199" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
-      <c r="E200" s="4"/>
+      <c r="E200" s="4" t="s">
+        <v>468</v>
+      </c>
       <c r="F200" s="2"/>
-      <c r="G200" s="4"/>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G200" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
-      <c r="E201" s="4"/>
+      <c r="E201" s="4" t="s">
+        <v>469</v>
+      </c>
       <c r="F201" s="2"/>
-      <c r="G201" s="4"/>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G201" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
-      <c r="E202" s="4"/>
+      <c r="E202" s="4" t="s">
+        <v>470</v>
+      </c>
       <c r="F202" s="2"/>
-      <c r="G202" s="4"/>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G202" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="203" ht="101" spans="1:7">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
-      <c r="C203" s="2"/>
+      <c r="C203" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="D203" s="2"/>
-      <c r="E203" s="4"/>
+      <c r="E203" s="30" t="s">
+        <v>471</v>
+      </c>
       <c r="F203" s="2"/>
-      <c r="G203" s="4"/>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G203" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="204" ht="135" spans="1:7">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
-      <c r="E204" s="4"/>
+      <c r="E204" s="30" t="s">
+        <v>472</v>
+      </c>
       <c r="F204" s="2"/>
-      <c r="G204" s="4"/>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G204" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
-      <c r="E205" s="4"/>
+      <c r="E205" s="4" t="s">
+        <v>473</v>
+      </c>
       <c r="F205" s="2"/>
-      <c r="G205" s="4"/>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G205" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
-      <c r="E206" s="4"/>
+      <c r="E206" s="4" t="s">
+        <v>474</v>
+      </c>
       <c r="F206" s="2"/>
-      <c r="G206" s="4"/>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G206" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
-      <c r="E207" s="4"/>
+      <c r="E207" s="4" t="s">
+        <v>475</v>
+      </c>
       <c r="F207" s="2"/>
-      <c r="G207" s="4"/>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G207" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
-      <c r="E208" s="4"/>
+      <c r="E208" s="4" t="s">
+        <v>476</v>
+      </c>
       <c r="F208" s="2"/>
-      <c r="G208" s="4"/>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="2"/>
-      <c r="D209" s="2"/>
-      <c r="E209" s="4"/>
-      <c r="F209" s="2"/>
-      <c r="G209" s="4"/>
+      <c r="G208" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="209" spans="5:7">
+      <c r="E209" t="s">
+        <v>477</v>
+      </c>
+      <c r="G209" s="29" t="s">
+        <v>466</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F125"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D100" sqref="D100"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="4" max="4" width="78.125" customWidth="1"/>
@@ -6283,7 +6960,7 @@
     <col min="6" max="6" width="78.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6303,89 +6980,89 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>308</v>
+      <c r="C2" s="31" t="s">
+        <v>328</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>438</v>
+        <v>479</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>439</v>
+        <v>480</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>310</v>
+      <c r="C3" s="31" t="s">
+        <v>330</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>440</v>
+        <v>481</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>439</v>
+        <v>480</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>441</v>
+      <c r="C4" s="31" t="s">
+        <v>482</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>442</v>
+        <v>483</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>439</v>
+        <v>480</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>313</v>
+      <c r="C5" s="31" t="s">
+        <v>333</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>443</v>
+        <v>484</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>444</v>
+        <v>485</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>51</v>
@@ -6394,1150 +7071,1150 @@
         <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>445</v>
+        <v>486</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>446</v>
+        <v>487</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>447</v>
+        <v>488</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>448</v>
+        <v>489</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>450</v>
+        <v>491</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>332</v>
+      <c r="C12" s="31" t="s">
+        <v>352</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="E12" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="E12" s="31" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" ht="34" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>339</v>
+        <v>493</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>452</v>
+        <v>494</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="4" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="36" t="s">
-        <v>629</v>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="7" t="s">
+        <v>478</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>610</v>
+      <c r="D14" s="5" t="s">
+        <v>496</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="39" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F14" s="12" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>345</v>
+      <c r="C15" s="31" t="s">
+        <v>363</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="E15" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="E15" s="31" t="s">
         <v>67</v>
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C16" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>350</v>
+        <v>264</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>368</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>96</v>
+        <v>501</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>103</v>
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>458</v>
+        <v>502</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>439</v>
+        <v>480</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>234</v>
+        <v>147</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>251</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>459</v>
+        <v>503</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>439</v>
+        <v>480</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>373</v>
+        <v>147</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>396</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>460</v>
+        <v>504</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>439</v>
+        <v>480</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>374</v>
+        <v>147</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>398</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>461</v>
+        <v>505</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>439</v>
+        <v>480</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>376</v>
+        <v>147</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>401</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>462</v>
+        <v>506</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>439</v>
+        <v>480</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>381</v>
+        <v>147</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>406</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>463</v>
+        <v>507</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>439</v>
+        <v>480</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>383</v>
+        <v>147</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>408</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>464</v>
+        <v>508</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>439</v>
+        <v>480</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>385</v>
+        <v>147</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>410</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>465</v>
+        <v>509</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>466</v>
+        <v>510</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>467</v>
+        <v>511</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="4" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>469</v>
+        <v>513</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="4" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>471</v>
+        <v>515</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>472</v>
+        <v>516</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>474</v>
+        <v>518</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>475</v>
+        <v>519</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>477</v>
+        <v>521</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>479</v>
+        <v>523</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>480</v>
+        <v>524</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="4" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>482</v>
+        <v>526</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="4" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1"/>
       <c r="B39" s="2" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>487</v>
+        <v>531</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="5" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="40" ht="34" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>490</v>
+        <v>534</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>491</v>
+        <v>535</v>
       </c>
       <c r="E40" s="4"/>
-      <c r="F40" s="11" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A41" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="10" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F40" s="13" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="41" ht="34" spans="1:6">
+      <c r="A41" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="11" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>493</v>
+        <v>537</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>497</v>
+        <v>541</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>498</v>
+        <v>542</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>493</v>
+        <v>537</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>499</v>
+        <v>543</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>500</v>
+        <v>544</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>493</v>
+        <v>537</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>501</v>
+        <v>545</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>502</v>
+        <v>546</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>493</v>
+        <v>537</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>503</v>
+        <v>547</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>504</v>
+        <v>548</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>506</v>
+        <v>550</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>507</v>
+        <v>551</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>508</v>
+        <v>552</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>509</v>
+        <v>553</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="5" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>511</v>
+        <v>555</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>512</v>
+        <v>556</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>513</v>
+        <v>557</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>514</v>
+        <v>558</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>515</v>
+        <v>559</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>516</v>
+        <v>560</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>517</v>
+        <v>561</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>518</v>
+        <v>562</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>519</v>
+        <v>563</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>520</v>
+        <v>564</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>521</v>
+        <v>565</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>522</v>
+        <v>566</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>523</v>
+        <v>567</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>524</v>
+        <v>568</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>526</v>
+        <v>570</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>527</v>
+        <v>571</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>528</v>
+        <v>572</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>529</v>
+        <v>573</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>530</v>
+        <v>574</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>531</v>
+        <v>575</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>532</v>
+        <v>576</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6">
       <c r="A59" s="3" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>533</v>
+        <v>577</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>534</v>
+        <v>578</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="5" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>536</v>
+        <v>580</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>537</v>
+        <v>581</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>538</v>
+        <v>582</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>539</v>
+        <v>583</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>540</v>
+        <v>584</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>541</v>
+        <v>585</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>542</v>
+        <v>586</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>543</v>
+        <v>587</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6">
       <c r="A64" s="3" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>544</v>
+        <v>588</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>545</v>
+        <v>589</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>546</v>
+        <v>590</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>547</v>
+        <v>591</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="4" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>549</v>
+        <v>593</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>550</v>
+        <v>594</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>551</v>
+        <v>595</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>552</v>
+        <v>596</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>553</v>
+        <v>597</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>554</v>
+        <v>598</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>555</v>
+        <v>599</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>557</v>
+        <v>601</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>558</v>
+        <v>602</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>559</v>
+        <v>603</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="31" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="E83" s="30" t="s">
-        <v>203</v>
+        <v>604</v>
+      </c>
+      <c r="E83" s="31" t="s">
+        <v>220</v>
       </c>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C84" s="30" t="s">
+      <c r="C84" s="31" t="s">
         <v>10</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="E84" s="30" t="s">
+        <v>605</v>
+      </c>
+      <c r="E84" s="31" t="s">
         <v>8</v>
       </c>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C85" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="C85" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="E85" s="30" t="s">
-        <v>283</v>
+        <v>606</v>
+      </c>
+      <c r="E85" s="31" t="s">
+        <v>303</v>
       </c>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A86" s="36" t="s">
-        <v>619</v>
+    <row r="86" ht="17" spans="1:6">
+      <c r="A86" s="7" t="s">
+        <v>490</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C86" s="30" t="s">
+      <c r="C86" s="31" t="s">
         <v>28</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="E86" s="30" t="s">
-        <v>617</v>
-      </c>
-      <c r="F86" s="35" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+        <v>607</v>
+      </c>
+      <c r="E86" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F86" s="36" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>12</v>
@@ -7546,50 +8223,50 @@
         <v>33</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>563</v>
+        <v>609</v>
       </c>
       <c r="E87" s="2">
         <v>121</v>
       </c>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="C88" s="30" t="s">
+        <v>610</v>
+      </c>
+      <c r="C88" s="31" t="s">
         <v>38</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>565</v>
+        <v>611</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C89" s="30" t="s">
+      <c r="C89" s="31" t="s">
         <v>15</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="E89" s="30" t="s">
+        <v>612</v>
+      </c>
+      <c r="E89" s="31" t="s">
         <v>13</v>
       </c>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>12</v>
@@ -7598,34 +8275,34 @@
         <v>49</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>567</v>
+        <v>613</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6">
       <c r="A91" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="B91" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="B91" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C91" s="30" t="s">
-        <v>441</v>
+      <c r="C91" s="31" t="s">
+        <v>482</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>568</v>
+        <v>614</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="5" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>12</v>
@@ -7634,599 +8311,617 @@
         <v>52</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>570</v>
+        <v>616</v>
       </c>
       <c r="E92" s="2">
         <v>114</v>
       </c>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="C93" s="30" t="s">
+        <v>610</v>
+      </c>
+      <c r="C93" s="31" t="s">
         <v>56</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>571</v>
+        <v>617</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C94" s="30" t="s">
+      <c r="C94" s="31" t="s">
         <v>58</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="E94" s="30" t="s">
+        <v>618</v>
+      </c>
+      <c r="E94" s="31" t="s">
         <v>21</v>
       </c>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A95" s="13" t="s">
-        <v>449</v>
+    <row r="95" ht="17" spans="1:6">
+      <c r="A95" s="3" t="s">
+        <v>490</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C95" s="30" t="s">
+      <c r="C95" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D95" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="E95" s="31" t="s">
-        <v>398</v>
+      <c r="D95" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="E95" s="32" t="s">
+        <v>424</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="C96" s="30" t="s">
-        <v>180</v>
+        <v>621</v>
+      </c>
+      <c r="C96" s="31" t="s">
+        <v>197</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="E96" s="30" t="s">
-        <v>178</v>
+        <v>622</v>
+      </c>
+      <c r="E96" s="31" t="s">
+        <v>195</v>
       </c>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C97" s="30" t="s">
+      <c r="C97" s="31" t="s">
         <v>67</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="E97" s="30" t="s">
-        <v>345</v>
+        <v>623</v>
+      </c>
+      <c r="E97" s="31" t="s">
+        <v>363</v>
       </c>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" ht="17" spans="1:6">
       <c r="A98" s="3" t="s">
-        <v>578</v>
+        <v>624</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C98" s="30" t="s">
+      <c r="C98" s="31" t="s">
         <v>70</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>579</v>
+        <v>625</v>
       </c>
       <c r="E98" s="32" t="s">
-        <v>580</v>
+        <v>626</v>
       </c>
       <c r="F98" s="4"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C99" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="C99" s="31" t="s">
         <v>79</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>581</v>
+        <v>627</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C100" s="30" t="s">
+      <c r="C100" s="31" t="s">
         <v>40</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E100" s="30" t="s">
+      <c r="E100" s="31" t="s">
         <v>38</v>
       </c>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="C101" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F101" s="4"/>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C102" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" s="4"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A102" s="36" t="s">
-        <v>619</v>
-      </c>
-      <c r="B102" s="2" t="s">
+      <c r="D102" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" s="4"/>
+    </row>
+    <row r="103" ht="17" spans="1:6">
+      <c r="A103" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C102" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="D102" s="39" t="s">
-        <v>612</v>
-      </c>
-      <c r="E102" s="37" t="s">
-        <v>633</v>
-      </c>
-      <c r="F102" s="4"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A103" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C103" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="E103" s="30" t="s">
-        <v>41</v>
+      <c r="C103" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E103" s="33" t="s">
+        <v>631</v>
       </c>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A104" s="3" t="s">
-        <v>449</v>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1" t="s">
+        <v>490</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C104" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="E104" s="32" t="s">
-        <v>586</v>
+      <c r="C104" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="E104" s="31" t="s">
+        <v>41</v>
       </c>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A105" s="1" t="s">
-        <v>437</v>
+    <row r="105" ht="17" spans="1:6">
+      <c r="A105" s="3" t="s">
+        <v>490</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>99</v>
+        <v>12</v>
+      </c>
+      <c r="C105" s="31" t="s">
+        <v>95</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" s="4" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A106" s="3" t="s">
-        <v>439</v>
+        <v>633</v>
+      </c>
+      <c r="E105" s="32" t="s">
+        <v>634</v>
+      </c>
+      <c r="F105" s="4"/>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C106" s="30" t="s">
-        <v>101</v>
+        <v>264</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>589</v>
+        <v>635</v>
       </c>
       <c r="E106" s="2"/>
-      <c r="F106" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A107" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B107" s="12" t="s">
+      <c r="F106" s="4" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C107" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B108" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D108" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="E108" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F107" s="4"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A108" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C108" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="E108" s="2">
+      <c r="F108" s="4"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C109" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="E109" s="2">
         <v>134</v>
       </c>
-      <c r="F108" s="4"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A109" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" s="4" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A110" s="3" t="s">
-        <v>449</v>
+      <c r="F109" s="4"/>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" s="4" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C110" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="E110" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="F110" s="4"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A111" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B111" s="2" t="s">
+      <c r="C111" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="E111" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="F111" s="4"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F112" s="4"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C113" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="E113" s="2">
+        <v>120</v>
+      </c>
+      <c r="F113" s="4"/>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F114" s="4"/>
+    </row>
+    <row r="115" ht="17" spans="1:6">
+      <c r="A115" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C115" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="E115" s="32" t="s">
+        <v>645</v>
+      </c>
+      <c r="F115" s="4"/>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C116" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="E116" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="F116" s="4"/>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C117" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="D117" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F111" s="4"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A112" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C112" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="E112" s="2">
-        <v>120</v>
-      </c>
-      <c r="F112" s="4"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A113" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F113" s="4"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A114" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="B114" s="2" t="s">
+      <c r="E117" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F117" s="4"/>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C114" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="D114" s="14" t="s">
-        <v>596</v>
-      </c>
-      <c r="E114" s="31" t="s">
-        <v>597</v>
-      </c>
-      <c r="F114" s="4"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A115" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C115" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="E115" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="F115" s="4"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A116" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C116" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E116" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="F116" s="4"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A117" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="B117" s="2" t="s">
+      <c r="C118" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C119" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" s="4"/>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" s="4" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C121" s="31" t="s">
+        <v>520</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" s="4"/>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F122" s="4"/>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="E123" s="2">
+        <v>115</v>
+      </c>
+      <c r="F123" s="4"/>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C117" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="D117" s="14" t="s">
-        <v>599</v>
-      </c>
-      <c r="E117" s="2"/>
-      <c r="F117" s="14" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A118" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C118" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118" s="4"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A119" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="E119" s="2"/>
-      <c r="F119" s="4" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A120" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C120" s="30" t="s">
-        <v>476</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="E120" s="2"/>
-      <c r="F120" s="4"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A121" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C121" s="2" t="s">
+      <c r="C124" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F124" s="4"/>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D121" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F121" s="4"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A122" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="E122" s="2">
-        <v>115</v>
-      </c>
-      <c r="F122" s="4"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A123" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F123" s="4"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A124" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A125" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="C125" s="2" t="s">
-        <v>281</v>
+        <v>217</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="E125" s="2">
+        <v>656</v>
+      </c>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E126" s="2">
         <v>170</v>
       </c>
-      <c r="F125" s="4"/>
+      <c r="F126" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/017 面试题/自测题.xlsx
+++ b/017 面试题/自测题.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661">
   <si>
     <t>类型</t>
   </si>
@@ -1013,12 +1013,18 @@
     <t>原答案是用的元类实现的, 还有其他几种方法</t>
   </si>
   <si>
+    <t>高级特性/生成器</t>
+  </si>
+  <si>
     <t>135</t>
   </si>
   <si>
     <t>使用 Python 实现一个斐波那契数列</t>
   </si>
   <si>
+    <t>还是觉得廖雪峰版本的好</t>
+  </si>
+  <si>
     <t>136</t>
   </si>
   <si>
@@ -1259,10 +1265,16 @@
     <t>列表推导式求列表所有奇数并构造新列表，a = [1, 2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>029</t>
   </si>
   <si>
     <t>正则re.complie作用</t>
+  </si>
+  <si>
+    <t>廖雪峰教程里有原话, 解释的也很详细</t>
   </si>
   <si>
     <t>030</t>
@@ -3488,10 +3500,10 @@
   <sheetPr/>
   <dimension ref="A1:G209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E192" sqref="E192"/>
+      <selection pane="bottomLeft" activeCell="E170" sqref="E170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -4798,7 +4810,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B74" s="19"/>
       <c r="C74" s="2" t="s">
@@ -5124,18 +5136,20 @@
       <c r="A92" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B92" s="1"/>
+      <c r="B92" s="19"/>
       <c r="C92" s="2" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F92" s="2"/>
-      <c r="G92" s="4"/>
+      <c r="G92" s="4" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1"/>
@@ -5144,10 +5158,10 @@
         <v>259</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="4"/>
@@ -5159,10 +5173,10 @@
         <v>259</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="4"/>
@@ -5176,10 +5190,10 @@
         <v>259</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="4"/>
@@ -5193,10 +5207,10 @@
         <v>259</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="4"/>
@@ -5210,10 +5224,10 @@
         <v>259</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="4"/>
@@ -5225,10 +5239,10 @@
         <v>259</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="4"/>
@@ -5239,30 +5253,30 @@
       </c>
       <c r="B99" s="19"/>
       <c r="C99" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="14" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="4"/>
@@ -5271,13 +5285,13 @@
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="14" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="4"/>
@@ -5286,13 +5300,13 @@
       <c r="A102" s="1"/>
       <c r="B102" s="19"/>
       <c r="C102" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="4"/>
@@ -5301,13 +5315,13 @@
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="14" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="4"/>
@@ -5316,13 +5330,13 @@
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="14" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="4"/>
@@ -5333,140 +5347,140 @@
       </c>
       <c r="B105" s="19"/>
       <c r="C105" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F105" s="31" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1"/>
       <c r="B106" s="19"/>
       <c r="C106" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F106" s="31" t="s">
         <v>23</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1"/>
       <c r="B107" s="26"/>
       <c r="C107" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="1"/>
       <c r="B108" s="26"/>
       <c r="C108" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="1"/>
       <c r="B109" s="26"/>
       <c r="C109" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1"/>
       <c r="B110" s="26"/>
       <c r="C110" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="1"/>
       <c r="B111" s="26"/>
       <c r="C111" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="1"/>
       <c r="B112" s="26"/>
       <c r="C112" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -5481,16 +5495,16 @@
         <v>8</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="2" t="s">
@@ -5500,14 +5514,14 @@
         <v>21</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="4"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B122" s="19"/>
       <c r="C122" s="14" t="s">
@@ -5517,16 +5531,16 @@
         <v>41</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F122" s="31" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G122" s="4"/>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B123" s="19"/>
       <c r="C123" s="2" t="s">
@@ -5536,11 +5550,11 @@
         <v>47</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="5" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -5552,31 +5566,31 @@
         <v>119</v>
       </c>
       <c r="D124" s="31" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="4"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B125" s="19"/>
       <c r="C125" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D125" s="31" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="5" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -5588,10 +5602,10 @@
         <v>199</v>
       </c>
       <c r="D126" s="31" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="4"/>
@@ -5605,14 +5619,14 @@
         <v>158</v>
       </c>
       <c r="D127" s="31" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -5621,13 +5635,13 @@
       </c>
       <c r="B128" s="19"/>
       <c r="C128" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D128" s="31" t="s">
         <v>54</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="4"/>
@@ -5644,11 +5658,11 @@
         <v>60</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -5663,11 +5677,11 @@
         <v>62</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5682,26 +5696,26 @@
         <v>64</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="2" t="s">
         <v>199</v>
       </c>
       <c r="D132" s="31" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="4"/>
@@ -5715,30 +5729,32 @@
         <v>119</v>
       </c>
       <c r="D133" s="31" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="4"/>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B134" s="1"/>
+        <v>352</v>
+      </c>
+      <c r="B134" s="19"/>
       <c r="C134" s="2" t="s">
         <v>199</v>
       </c>
       <c r="D134" s="31" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F134" s="2"/>
-      <c r="G134" s="4"/>
+      <c r="G134" s="4" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="1" t="s">
@@ -5749,17 +5765,17 @@
         <v>12</v>
       </c>
       <c r="D135" s="31" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="4"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B136" s="19"/>
       <c r="C136" s="2" t="s">
@@ -5769,7 +5785,7 @@
         <v>73</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="4"/>
@@ -5786,16 +5802,16 @@
         <v>76</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="5" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="138" ht="17" spans="1:7">
       <c r="A138" s="3" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B138" s="19"/>
       <c r="C138" s="2" t="s">
@@ -5805,11 +5821,11 @@
         <v>91</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="5" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -5824,11 +5840,11 @@
         <v>97</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="4" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5840,10 +5856,10 @@
         <v>199</v>
       </c>
       <c r="D140" s="31" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="4"/>
@@ -5860,11 +5876,11 @@
         <v>100</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F141" s="2"/>
       <c r="G141" s="5" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="142" ht="17" spans="1:7">
@@ -5879,13 +5895,13 @@
         <v>103</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="F142" s="31" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -5900,7 +5916,7 @@
         <v>105</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="4"/>
@@ -5917,14 +5933,14 @@
         <v>112</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" s="4"/>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="2" t="s">
@@ -5934,7 +5950,7 @@
         <v>115</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F145" s="2"/>
       <c r="G145" s="4"/>
@@ -5948,14 +5964,14 @@
         <v>27</v>
       </c>
       <c r="D146" s="31" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F146" s="2"/>
       <c r="G146" s="4" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="147" ht="135" spans="1:7">
@@ -5970,7 +5986,7 @@
         <v>120</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="F147" s="2"/>
       <c r="G147" s="4"/>
@@ -5981,13 +5997,13 @@
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D148" s="31" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="F148" s="2"/>
       <c r="G148" s="4"/>
@@ -6004,7 +6020,7 @@
         <v>127</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F149" s="2"/>
       <c r="G149" s="4"/>
@@ -6021,11 +6037,11 @@
         <v>129</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F150" s="2"/>
       <c r="G150" s="5" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="151" ht="135" spans="1:7">
@@ -6040,11 +6056,11 @@
         <v>132</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F151" s="2"/>
       <c r="G151" s="13" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -6053,17 +6069,17 @@
       </c>
       <c r="B152" s="19"/>
       <c r="C152" s="2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D152" s="31" t="s">
         <v>135</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="4" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -6072,17 +6088,17 @@
       </c>
       <c r="B153" s="19"/>
       <c r="C153" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D153" s="31" t="s">
         <v>138</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="4" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -6091,17 +6107,17 @@
       </c>
       <c r="B154" s="19"/>
       <c r="C154" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D154" s="31" t="s">
         <v>141</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F154" s="2"/>
       <c r="G154" s="4" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -6116,13 +6132,13 @@
         <v>148</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F155" s="2">
         <v>109</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -6134,14 +6150,14 @@
         <v>7</v>
       </c>
       <c r="D156" s="31" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="F156" s="2"/>
       <c r="G156" s="4" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -6156,7 +6172,7 @@
         <v>251</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="F157" s="2">
         <v>124</v>
@@ -6165,17 +6181,17 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D158" s="31" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="F158" s="2"/>
       <c r="G158" s="4"/>
@@ -6189,17 +6205,17 @@
         <v>90</v>
       </c>
       <c r="D159" s="31" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="F159" s="2"/>
       <c r="G159" s="4"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B160" s="19"/>
       <c r="C160" s="2" t="s">
@@ -6209,31 +6225,31 @@
         <v>159</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="F160" s="2"/>
       <c r="G160" s="4"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B161" s="19"/>
       <c r="C161" s="2" t="s">
         <v>194</v>
       </c>
       <c r="D161" s="31" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" s="4"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B162" s="19"/>
       <c r="C162" s="2" t="s">
@@ -6243,43 +6259,43 @@
         <v>162</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F162" s="2"/>
       <c r="G162" s="4" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D163" s="31" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="4"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D164" s="31" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F164" s="2"/>
       <c r="G164" s="4"/>
@@ -6293,10 +6309,10 @@
         <v>119</v>
       </c>
       <c r="D165" s="31" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="4"/>
@@ -6313,28 +6329,28 @@
         <v>166</v>
       </c>
       <c r="E166" s="12" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" s="4"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B167" s="19"/>
       <c r="C167" s="14" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D167" s="31" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="F167" s="2"/>
       <c r="G167" s="5" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -6349,7 +6365,7 @@
         <v>174</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F168" s="2"/>
       <c r="G168" s="4"/>
@@ -6366,30 +6382,30 @@
         <v>177</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" s="4" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="3" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B170" s="19"/>
       <c r="C170" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D170" s="31" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F170" s="2"/>
       <c r="G170" s="5" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="171" ht="17" spans="1:7">
@@ -6401,16 +6417,16 @@
         <v>27</v>
       </c>
       <c r="D171" s="31" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="F171" s="32" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -6425,11 +6441,11 @@
         <v>184</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F172" s="2"/>
       <c r="G172" s="4" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -6441,10 +6457,10 @@
         <v>199</v>
       </c>
       <c r="D173" s="31" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="4"/>
@@ -6458,10 +6474,10 @@
         <v>12</v>
       </c>
       <c r="D174" s="31" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F174" s="2"/>
       <c r="G174" s="4"/>
@@ -6478,7 +6494,7 @@
         <v>195</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F175" s="2"/>
       <c r="G175" s="4"/>
@@ -6492,10 +6508,10 @@
         <v>199</v>
       </c>
       <c r="D176" s="31" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" s="4"/>
@@ -6509,16 +6525,16 @@
         <v>32</v>
       </c>
       <c r="D177" s="31" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F177" s="2">
         <v>123</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -6527,17 +6543,17 @@
       </c>
       <c r="B178" s="19"/>
       <c r="C178" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D178" s="31" t="s">
         <v>200</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F178" s="2"/>
       <c r="G178" s="4" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -6552,14 +6568,14 @@
         <v>202</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="F179" s="2"/>
       <c r="G179" s="4"/>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="2" t="s">
@@ -6569,14 +6585,14 @@
         <v>206</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="F180" s="2"/>
       <c r="G180" s="4"/>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B181" s="19"/>
       <c r="C181" s="2" t="s">
@@ -6586,11 +6602,11 @@
         <v>208</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F181" s="2"/>
       <c r="G181" s="4" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -6599,13 +6615,13 @@
       </c>
       <c r="B182" s="19"/>
       <c r="C182" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D182" s="31" t="s">
         <v>212</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="F182" s="2"/>
       <c r="G182" s="4"/>
@@ -6616,17 +6632,17 @@
       </c>
       <c r="B183" s="19"/>
       <c r="C183" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D183" s="31" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F183" s="2"/>
       <c r="G183" s="4" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="184" ht="17" spans="1:7">
@@ -6641,11 +6657,11 @@
         <v>220</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -6657,10 +6673,10 @@
         <v>199</v>
       </c>
       <c r="D185" s="31" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F185" s="2"/>
       <c r="G185" s="4"/>
@@ -6675,11 +6691,11 @@
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="4" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="4" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="191" ht="17" spans="1:7">
@@ -6688,15 +6704,15 @@
       </c>
       <c r="B191" s="19"/>
       <c r="C191" s="14" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="5" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="F191" s="2"/>
       <c r="G191" s="4" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -6707,11 +6723,11 @@
       </c>
       <c r="D192" s="2"/>
       <c r="E192" s="4" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="F192" s="2"/>
       <c r="G192" s="4" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -6722,7 +6738,7 @@
       </c>
       <c r="D193" s="2"/>
       <c r="E193" s="4" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="F193" s="2"/>
       <c r="G193" s="4"/>
@@ -6744,11 +6760,11 @@
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="12" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -6759,11 +6775,11 @@
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="4" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="F196" s="2"/>
       <c r="G196" s="4" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -6774,11 +6790,11 @@
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="4" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="F197" s="2"/>
       <c r="G197" s="4" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="198" ht="135" spans="1:7">
@@ -6787,11 +6803,11 @@
       <c r="C198" s="27"/>
       <c r="D198" s="27"/>
       <c r="E198" s="28" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F198" s="27"/>
       <c r="G198" s="29" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="199" ht="336" spans="1:7">
@@ -6800,11 +6816,11 @@
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="30" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="F199" s="2"/>
       <c r="G199" s="29" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6813,11 +6829,11 @@
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="4" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="F200" s="2"/>
       <c r="G200" s="29" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -6826,11 +6842,11 @@
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="4" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="F201" s="2"/>
       <c r="G201" s="29" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6839,11 +6855,11 @@
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="4" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="F202" s="2"/>
       <c r="G202" s="29" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="203" ht="101" spans="1:7">
@@ -6854,11 +6870,11 @@
       </c>
       <c r="D203" s="2"/>
       <c r="E203" s="30" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="F203" s="2"/>
       <c r="G203" s="29" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="204" ht="135" spans="1:7">
@@ -6867,11 +6883,11 @@
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="30" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="F204" s="2"/>
       <c r="G204" s="29" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -6880,11 +6896,11 @@
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="4" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="F205" s="2"/>
       <c r="G205" s="29" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -6893,11 +6909,11 @@
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="4" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="F206" s="2"/>
       <c r="G206" s="29" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -6906,11 +6922,11 @@
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="4" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="F207" s="2"/>
       <c r="G207" s="29" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -6919,19 +6935,19 @@
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="4" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="F208" s="2"/>
       <c r="G208" s="29" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="209" spans="5:7">
       <c r="E209" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="G209" s="29" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -6982,87 +6998,87 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>51</v>
@@ -7071,34 +7087,34 @@
         <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="4" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="4" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>51</v>
@@ -7107,41 +7123,41 @@
         <v>197</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="4" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
@@ -7150,16 +7166,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>21</v>
@@ -7168,25 +7184,25 @@
     </row>
     <row r="13" ht="34" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="4" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>90</v>
@@ -7195,25 +7211,25 @@
         <v>43</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="12" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="E15" s="31" t="s">
         <v>67</v>
@@ -7222,34 +7238,34 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="10" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>264</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="E17" s="31" t="s">
         <v>103</v>
@@ -7258,16 +7274,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>10</v>
@@ -7276,7 +7292,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>147</v>
@@ -7285,126 +7301,126 @@
         <v>251</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>119</v>
@@ -7413,145 +7429,145 @@
         <v>155</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="4" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="4" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="4" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>8</v>
@@ -7560,58 +7576,58 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="4" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="4" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7620,527 +7636,527 @@
         <v>187</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="5" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="40" ht="34" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="13" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="41" ht="34" spans="1:6">
       <c r="A41" s="8" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="11" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>259</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>259</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="5" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>259</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>259</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>259</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>259</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="4"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="3" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="5" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="4"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="4"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="4"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="4"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="3" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="4"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="4" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>12</v>
@@ -8149,7 +8165,7 @@
         <v>13</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E83" s="31" t="s">
         <v>220</v>
@@ -8158,7 +8174,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>7</v>
@@ -8167,7 +8183,7 @@
         <v>10</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="E84" s="31" t="s">
         <v>8</v>
@@ -8176,25 +8192,25 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C85" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F85" s="4"/>
     </row>
     <row r="86" ht="17" spans="1:6">
       <c r="A86" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>90</v>
@@ -8203,18 +8219,18 @@
         <v>28</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E86" s="31" t="s">
         <v>91</v>
       </c>
       <c r="F86" s="36" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>12</v>
@@ -8223,7 +8239,7 @@
         <v>33</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="E87" s="2">
         <v>121</v>
@@ -8232,23 +8248,23 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="C88" s="31" t="s">
         <v>38</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="4"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>12</v>
@@ -8257,7 +8273,7 @@
         <v>15</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E89" s="31" t="s">
         <v>13</v>
@@ -8266,7 +8282,7 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>12</v>
@@ -8275,7 +8291,7 @@
         <v>49</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>10</v>
@@ -8284,25 +8300,25 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="3" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B91" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="5" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>12</v>
@@ -8311,7 +8327,7 @@
         <v>52</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="E92" s="2">
         <v>114</v>
@@ -8320,23 +8336,23 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="C93" s="31" t="s">
         <v>56</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="4"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>12</v>
@@ -8345,7 +8361,7 @@
         <v>58</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="E94" s="31" t="s">
         <v>21</v>
@@ -8354,7 +8370,7 @@
     </row>
     <row r="95" ht="17" spans="1:6">
       <c r="A95" s="3" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>7</v>
@@ -8363,27 +8379,27 @@
         <v>30</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="E95" s="32" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C96" s="31" t="s">
         <v>197</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="E96" s="31" t="s">
         <v>195</v>
@@ -8392,7 +8408,7 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>90</v>
@@ -8401,16 +8417,16 @@
         <v>67</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F97" s="4"/>
     </row>
     <row r="98" ht="17" spans="1:6">
       <c r="A98" s="3" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>7</v>
@@ -8419,32 +8435,32 @@
         <v>70</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="E98" s="32" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="F98" s="4"/>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C99" s="31" t="s">
         <v>79</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="4"/>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>12</v>
@@ -8462,7 +8478,7 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>199</v>
@@ -8471,7 +8487,7 @@
         <v>84</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>202</v>
@@ -8480,41 +8496,41 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C102" s="31" t="s">
         <v>87</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="4"/>
     </row>
     <row r="103" ht="17" spans="1:6">
       <c r="A103" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C103" s="31" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D103" s="12" t="s">
         <v>98</v>
       </c>
       <c r="E103" s="33" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="F103" s="4"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>12</v>
@@ -8523,7 +8539,7 @@
         <v>43</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="E104" s="31" t="s">
         <v>41</v>
@@ -8532,7 +8548,7 @@
     </row>
     <row r="105" ht="17" spans="1:6">
       <c r="A105" s="3" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>12</v>
@@ -8541,16 +8557,16 @@
         <v>95</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="E105" s="32" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="F105" s="4"/>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>264</v>
@@ -8559,16 +8575,16 @@
         <v>107</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="4" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="3" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>158</v>
@@ -8577,16 +8593,16 @@
         <v>109</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="5" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B108" s="14" t="s">
         <v>12</v>
@@ -8604,7 +8620,7 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>264</v>
@@ -8613,7 +8629,7 @@
         <v>117</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="E109" s="2">
         <v>134</v>
@@ -8622,7 +8638,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>264</v>
@@ -8631,16 +8647,16 @@
         <v>124</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="4" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="3" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>12</v>
@@ -8649,7 +8665,7 @@
         <v>144</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="E111" s="31" t="s">
         <v>191</v>
@@ -8658,7 +8674,7 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>170</v>
@@ -8667,7 +8683,7 @@
         <v>152</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>184</v>
@@ -8676,7 +8692,7 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>119</v>
@@ -8685,7 +8701,7 @@
         <v>150</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="E113" s="2">
         <v>120</v>
@@ -8694,7 +8710,7 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>119</v>
@@ -8712,7 +8728,7 @@
     </row>
     <row r="115" ht="17" spans="1:6">
       <c r="A115" s="3" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>27</v>
@@ -8721,16 +8737,16 @@
         <v>156</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="E115" s="32" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="F115" s="4"/>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="3" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>199</v>
@@ -8739,7 +8755,7 @@
         <v>171</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="E116" s="32" t="s">
         <v>87</v>
@@ -8748,7 +8764,7 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>102</v>
@@ -8766,7 +8782,7 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="3" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>27</v>
@@ -8775,16 +8791,16 @@
         <v>181</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="5" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>187</v>
@@ -8793,14 +8809,14 @@
         <v>188</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="4"/>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>51</v>
@@ -8809,32 +8825,32 @@
         <v>191</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="4" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C121" s="31" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="4"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>187</v>
@@ -8843,7 +8859,7 @@
         <v>204</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>188</v>
@@ -8852,16 +8868,16 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>210</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="E123" s="2">
         <v>115</v>
@@ -8870,7 +8886,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>27</v>
@@ -8879,16 +8895,16 @@
         <v>215</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="F124" s="4"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>187</v>
@@ -8897,23 +8913,23 @@
         <v>217</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E126" s="2">
         <v>170</v>

--- a/017 面试题/自测题.xlsx
+++ b/017 面试题/自测题.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\personal\00-Python\017 面试题\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D62E42F-1A3F-4FAC-9B25-1C269064A22E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17020"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="668">
   <si>
     <t>类型</t>
   </si>
@@ -791,9 +797,6 @@
     <t>099</t>
   </si>
   <si>
-    <t>正则表达式匹配中(.*)和(.*?)匹配区别？</t>
-  </si>
-  <si>
     <t>100</t>
   </si>
   <si>
@@ -1184,9 +1187,6 @@
     <t xml:space="preserve">** </t>
   </si>
   <si>
-    <t>字典如何删除键和合并两个字典</t>
-  </si>
-  <si>
     <t>一句话解释什么样的语言能够用装饰器?</t>
   </si>
   <si>
@@ -1217,9 +1217,6 @@
     <t>016</t>
   </si>
   <si>
-    <t>&lt;div class="nam"&gt;中国&lt;/div&gt;，用正则匹配出标签里面的内容（"中国"），其中class 的类名是不确定的</t>
-  </si>
-  <si>
     <t>018</t>
   </si>
   <si>
@@ -1247,18 +1244,12 @@
     <t>太简单了,不会考, 就是用 lambda 实现一个乘法函数</t>
   </si>
   <si>
-    <t>字典根据键从小到大排序 dic={"name":"zs","age":18,"city":"深圳","tel":"1362626627"}</t>
-  </si>
-  <si>
     <t>非常好的一道题, 重点在于 dic.items 可以把字典转成一个由元组组成的列表, 然后利用sorted对这个列表中的元素进行排序, 最后再转回列表</t>
   </si>
   <si>
     <t>026</t>
   </si>
   <si>
-    <t xml:space="preserve">字符串a = "not 404 found 张三 99 深圳"，每个词中间是空格，用正则过滤掉英文和数字，最终输出"张三 深圳"  </t>
-  </si>
-  <si>
     <t>028</t>
   </si>
   <si>
@@ -1271,16 +1262,10 @@
     <t>029</t>
   </si>
   <si>
-    <t>正则re.complie作用</t>
-  </si>
-  <si>
     <t>廖雪峰教程里有原话, 解释的也很详细</t>
   </si>
   <si>
     <t>030</t>
-  </si>
-  <si>
-    <t>a=（1，）b=(1)，c=("1") 分别是什么类型的数据？</t>
   </si>
   <si>
     <t xml:space="preserve">* </t>
@@ -1330,9 +1315,6 @@
     <t>044</t>
   </si>
   <si>
-    <t>a="张明 98分"，用re.sub，将98替换为100</t>
-  </si>
-  <si>
     <t>写5条常用sql语句</t>
   </si>
   <si>
@@ -1382,15 +1364,6 @@
     </r>
   </si>
   <si>
-    <t>[1,2,3]+[4,5,6]的结果是多少？</t>
-  </si>
-  <si>
-    <t>正则匹配，匹配日期2018-03-20</t>
-  </si>
-  <si>
-    <t>list=[2,3,5,4,9,6]，从小到大排序，不许用sort，输出[2,3,4,5,6,9]</t>
-  </si>
-  <si>
     <t>054</t>
   </si>
   <si>
@@ -1407,12 +1380,6 @@
 fn("one",1)
 fn("two",2)
 fn("three",3,{})</t>
-  </si>
-  <si>
-    <t>列出常见的状态码和意义</t>
-  </si>
-  <si>
-    <t>使用pop和del删除字典中的"name"字段，dic={"name":"zs","age":18}</t>
   </si>
   <si>
     <t>列出常见MYSQL数据存储引擎</t>
@@ -1532,9 +1499,6 @@
   </si>
   <si>
     <t xml:space="preserve">这个问题廖雪峰的实战里有一部分提到了，可以结合看看 </t>
-  </si>
-  <si>
-    <t>正则匹配以http://163.com结尾的邮箱</t>
   </si>
   <si>
     <t>递归完成1+2+3+...+10求和</t>
@@ -1598,22 +1562,13 @@
     <t>090</t>
   </si>
   <si>
-    <t>正则匹配不是以4和7结尾的手机号</t>
-  </si>
-  <si>
     <t>092</t>
   </si>
   <si>
     <t>int("1.4"),int(1.4)输出结果？</t>
   </si>
   <si>
-    <t>正则表达式匹配第一个URL</t>
-  </si>
-  <si>
     <t>095</t>
-  </si>
-  <si>
-    <t>正则匹配中文</t>
   </si>
   <si>
     <t>097</t>
@@ -1696,9 +1651,6 @@
   </si>
   <si>
     <t>110</t>
-  </si>
-  <si>
-    <t>python正则中search和match</t>
   </si>
   <si>
     <t>把列表中的数据拼接成一个字符串 li=['cxk', 'cxk', 'kk', 'caibi'], 使用两种方法</t>
@@ -2408,18 +2360,136 @@
   <si>
     <t>python垃圾回收机制</t>
   </si>
+  <si>
+    <t>a="张明 98分"，用re.sub，将98替换为100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列出常见的状态码和意义</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用pop和del删除字典中的"name"字段，dic={"name":"zs","age":18}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考察对re模块sub方法的直接应用，注意匹配数字的正则写法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=（1，）b=(1)，c=("1") 分别是什么类型的数据？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正则re.complie作用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">字符串a = "not 404 found 张三 99 深圳"，每个词中间是空格，用正则过滤掉英文和数字，最终输出"张三 深圳"  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2,3]+[4,5,6]的结果是多少？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>正则匹配，匹配日期2018-03-20，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>url='https://sycm.taobao.com/bda/tradinganaly/overview/get_summary.json?dateRange=2018-03-20%7C2018-03-20&amp;dateType=recent1&amp;device=1&amp;token=ff25b109b&amp;_=1521595613462'</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>e.findall的应用</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正则匹配以163.com结尾的邮箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要注意结合邮箱的格式，指字符上限那些</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正则匹配不是以4和7结尾的手机号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正则表达式匹配第一个URL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正则匹配中文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>python正则中search和match</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list=[2,3,5,4,9,6]，从小到大排序，不许用sort，输出[2,3,4,5,6,9]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典根据键从小到大排序 dic={"name":"zs","age":18,"city":"深圳","tel":"1362626627"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="nam"&gt;中国&lt;/div&gt;，用正则匹配出标签里面的内容（"中国"），其中class 的类名是不确定的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典如何删除键和合并两个字典</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正则表达式匹配中(.*)和(.*?)匹配区别？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2433,158 +2503,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2609,194 +2540,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2819,255 +2564,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3113,9 +2616,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -3143,9 +2643,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3161,80 +2658,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3492,32 +2957,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E170" sqref="E170"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4" style="17" customWidth="1"/>
-    <col min="2" max="2" width="4.875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="18.7692307692308" style="18" customWidth="1"/>
-    <col min="4" max="4" width="9" style="18"/>
+    <col min="1" max="1" width="4" style="16" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="18.75" style="17" customWidth="1"/>
+    <col min="4" max="4" width="9" style="17"/>
     <col min="5" max="5" width="71.25" customWidth="1"/>
-    <col min="6" max="6" width="9" style="18"/>
+    <col min="6" max="6" width="9" style="17"/>
     <col min="7" max="7" width="145.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3540,72 +3004,72 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="19"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="29" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="29" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="29" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="29" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -3614,15 +3078,15 @@
       <c r="F5" s="2"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -3633,36 +3097,36 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" ht="17" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="29" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="29" t="s">
         <v>30</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" ht="17" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -3673,72 +3137,72 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="29" t="s">
         <v>40</v>
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="29" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="29" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="29" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="29" t="s">
         <v>45</v>
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="29" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -3747,15 +3211,15 @@
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="29" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -3764,15 +3228,15 @@
       <c r="F13" s="2"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="29" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -3781,15 +3245,15 @@
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="29" t="s">
         <v>54</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -3798,15 +3262,15 @@
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="29" t="s">
         <v>56</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -3815,15 +3279,15 @@
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="29" t="s">
         <v>58</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -3832,15 +3296,15 @@
       <c r="F17" s="2"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="29" t="s">
         <v>60</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -3849,15 +3313,15 @@
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="29" t="s">
         <v>62</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -3866,15 +3330,15 @@
       <c r="F19" s="2"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="19"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="29" t="s">
         <v>64</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -3883,15 +3347,15 @@
       <c r="F20" s="2"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" ht="17" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="29" t="s">
         <v>67</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -3902,15 +3366,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="19"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="29" t="s">
         <v>70</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -3921,15 +3385,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" ht="17" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="29" t="s">
         <v>73</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -3940,15 +3404,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="29" t="s">
         <v>76</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -3959,34 +3423,34 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" ht="17" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
-      <c r="B25" s="19"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="29" t="s">
         <v>79</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="30" t="s">
         <v>81</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="29" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -3995,15 +3459,15 @@
       <c r="F26" s="2"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" ht="17" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="19"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="29" t="s">
         <v>84</v>
       </c>
       <c r="E27" s="5" t="s">
@@ -4014,13 +3478,13 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" ht="51" spans="1:7">
+    <row r="28" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
-      <c r="B28" s="19"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="30" t="s">
         <v>87</v>
       </c>
       <c r="E28" s="6" t="s">
@@ -4031,28 +3495,28 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" ht="17" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="19"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="29" t="s">
         <v>91</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="31" t="s">
         <v>93</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -4060,7 +3524,7 @@
       <c r="C30" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="29" t="s">
         <v>95</v>
       </c>
       <c r="E30" s="12" t="s">
@@ -4069,7 +3533,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" ht="17" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
@@ -4077,18 +3541,18 @@
       <c r="C31" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="29" t="s">
         <v>97</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="31" t="s">
         <v>99</v>
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
@@ -4096,7 +3560,7 @@
       <c r="C32" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="29" t="s">
         <v>100</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -4105,13 +3569,13 @@
       <c r="F32" s="2"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="29" t="s">
         <v>103</v>
       </c>
       <c r="E33" s="4" t="s">
@@ -4120,13 +3584,13 @@
       <c r="F33" s="2"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="29" t="s">
         <v>105</v>
       </c>
       <c r="E34" s="12" t="s">
@@ -4135,13 +3599,13 @@
       <c r="F34" s="2"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="29" t="s">
         <v>107</v>
       </c>
       <c r="E35" s="4" t="s">
@@ -4150,13 +3614,13 @@
       <c r="F35" s="2"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="29" t="s">
         <v>109</v>
       </c>
       <c r="E36" s="12" t="s">
@@ -4165,13 +3629,13 @@
       <c r="F36" s="2"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="29" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="12" t="s">
@@ -4180,13 +3644,13 @@
       <c r="F37" s="2"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
-      <c r="B38" s="19"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="29" t="s">
         <v>112</v>
       </c>
       <c r="E38" s="12" t="s">
@@ -4197,13 +3661,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="29" t="s">
         <v>115</v>
       </c>
       <c r="E39" s="12" t="s">
@@ -4212,13 +3676,13 @@
       <c r="F39" s="2"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="29" t="s">
         <v>117</v>
       </c>
       <c r="E40" s="12" t="s">
@@ -4227,32 +3691,32 @@
       <c r="F40" s="2"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
-      <c r="B41" s="19"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="29" t="s">
         <v>120</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F41" s="31" t="s">
+      <c r="F41" s="29" t="s">
         <v>122</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="42" ht="51" spans="1:7">
+    <row r="42" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
-      <c r="B42" s="19"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="29" t="s">
         <v>124</v>
       </c>
       <c r="E42" s="13" t="s">
@@ -4263,45 +3727,45 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" ht="51" spans="1:7">
+    <row r="43" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="22" t="s">
         <v>128</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" ht="17" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
-      <c r="B44" s="19"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="29" t="s">
         <v>129</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F44" s="32" t="s">
+      <c r="F44" s="30" t="s">
         <v>131</v>
       </c>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
-      <c r="B45" s="19"/>
+      <c r="B45" s="18"/>
       <c r="C45" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="29" t="s">
         <v>132</v>
       </c>
       <c r="E45" s="4" t="s">
@@ -4312,15 +3776,15 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B46" s="19"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="31" t="s">
+      <c r="D46" s="29" t="s">
         <v>135</v>
       </c>
       <c r="E46" s="4" t="s">
@@ -4331,15 +3795,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="19"/>
+      <c r="B47" s="18"/>
       <c r="C47" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="29" t="s">
         <v>138</v>
       </c>
       <c r="E47" s="4" t="s">
@@ -4350,13 +3814,13 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
-      <c r="B48" s="19"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="31" t="s">
+      <c r="D48" s="29" t="s">
         <v>141</v>
       </c>
       <c r="E48" s="5" t="s">
@@ -4367,15 +3831,15 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="19"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="29" t="s">
         <v>144</v>
       </c>
       <c r="E49" s="5" t="s">
@@ -4386,13 +3850,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D50" s="31" t="s">
+      <c r="D50" s="29" t="s">
         <v>148</v>
       </c>
       <c r="E50" s="4" t="s">
@@ -4401,13 +3865,13 @@
       <c r="F50" s="2"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" ht="101" spans="1:7">
+    <row r="51" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="29" t="s">
         <v>150</v>
       </c>
       <c r="E51" s="13" t="s">
@@ -4416,15 +3880,15 @@
       <c r="F51" s="2"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B52" s="19"/>
+      <c r="B52" s="18"/>
       <c r="C52" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="29" t="s">
         <v>152</v>
       </c>
       <c r="E52" s="4" t="s">
@@ -4433,7 +3897,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>20</v>
       </c>
@@ -4441,24 +3905,24 @@
       <c r="C53" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D53" s="31" t="s">
+      <c r="D53" s="29" t="s">
         <v>122</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="F53" s="31" t="s">
+      <c r="F53" s="29" t="s">
         <v>155</v>
       </c>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D54" s="31" t="s">
+      <c r="D54" s="29" t="s">
         <v>156</v>
       </c>
       <c r="E54" s="12" t="s">
@@ -4467,15 +3931,15 @@
       <c r="F54" s="2"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" ht="17" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="19"/>
+      <c r="B55" s="18"/>
       <c r="C55" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="29" t="s">
         <v>159</v>
       </c>
       <c r="E55" s="12" t="s">
@@ -4486,13 +3950,13 @@
         <v>161</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
-      <c r="B56" s="19"/>
+      <c r="B56" s="18"/>
       <c r="C56" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D56" s="31" t="s">
+      <c r="D56" s="29" t="s">
         <v>162</v>
       </c>
       <c r="E56" s="4" t="s">
@@ -4503,11 +3967,11 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B57" s="19"/>
+      <c r="B57" s="18"/>
       <c r="C57" s="2" t="s">
         <v>165</v>
       </c>
@@ -4517,18 +3981,18 @@
       <c r="E57" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F57" s="31" t="s">
+      <c r="F57" s="29" t="s">
         <v>168</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B58" s="19"/>
+      <c r="B58" s="18"/>
       <c r="C58" s="2" t="s">
         <v>170</v>
       </c>
@@ -4543,9 +4007,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
-      <c r="B59" s="19"/>
+      <c r="B59" s="18"/>
       <c r="C59" s="2" t="s">
         <v>170</v>
       </c>
@@ -4560,18 +4024,18 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B60" s="19"/>
+      <c r="B60" s="18"/>
       <c r="C60" s="2" t="s">
         <v>170</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E60" s="34" t="s">
+      <c r="E60" s="32" t="s">
         <v>178</v>
       </c>
       <c r="F60" s="2"/>
@@ -4579,11 +4043,11 @@
         <v>179</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B61" s="19"/>
+      <c r="B61" s="18"/>
       <c r="C61" s="2" t="s">
         <v>180</v>
       </c>
@@ -4598,11 +4062,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B62" s="19"/>
+      <c r="B62" s="18"/>
       <c r="C62" s="2" t="s">
         <v>170</v>
       </c>
@@ -4612,18 +4076,18 @@
       <c r="E62" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="F62" s="31" t="s">
+      <c r="F62" s="29" t="s">
         <v>152</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B63" s="19"/>
+      <c r="B63" s="18"/>
       <c r="C63" s="2" t="s">
         <v>187</v>
       </c>
@@ -4640,32 +4104,32 @@
         <v>190</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="21" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B64" s="19"/>
-      <c r="C64" s="22" t="s">
+      <c r="B64" s="18"/>
+      <c r="C64" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="D64" s="22" t="s">
+      <c r="D64" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="E64" s="24" t="s">
+      <c r="E64" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="F64" s="35" t="s">
+      <c r="F64" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="G64" s="24" t="s">
+      <c r="G64" s="23" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="65" s="16" customFormat="1" spans="1:7">
+    <row r="65" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B65" s="19"/>
+      <c r="B65" s="18"/>
       <c r="C65" s="2" t="s">
         <v>194</v>
       </c>
@@ -4675,14 +4139,14 @@
       <c r="E65" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F65" s="31" t="s">
+      <c r="F65" s="29" t="s">
         <v>197</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="2" t="s">
@@ -4697,7 +4161,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="2" t="s">
@@ -4706,894 +4170,894 @@
       <c r="D67" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F67" s="31" t="s">
+      <c r="E67" s="35" t="s">
+        <v>667</v>
+      </c>
+      <c r="F67" s="29" t="s">
         <v>84</v>
       </c>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="2" t="s">
         <v>199</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
-      <c r="B69" s="19"/>
+      <c r="B69" s="18"/>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="4"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
-      <c r="B70" s="19"/>
+      <c r="B70" s="18"/>
       <c r="C70" s="2" t="s">
         <v>180</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
-      <c r="B71" s="19"/>
+      <c r="B71" s="18"/>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B72" s="19"/>
+      <c r="B72" s="18"/>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
-      <c r="B73" s="19"/>
+      <c r="B73" s="18"/>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B74" s="19"/>
+      <c r="B74" s="18"/>
       <c r="C74" s="2" t="s">
         <v>180</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>218</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B75" s="19"/>
+      <c r="B75" s="18"/>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="E75" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F75" s="31" t="s">
+      <c r="F75" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="1"/>
-      <c r="B76" s="19"/>
+      <c r="B76" s="18"/>
       <c r="C76" s="2" t="s">
         <v>170</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E76" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="77" ht="17" spans="1:7">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="1"/>
-      <c r="B77" s="19"/>
+      <c r="B77" s="18"/>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E77" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="F77" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G77" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F77" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="1"/>
-      <c r="B78" s="19"/>
+      <c r="B78" s="18"/>
       <c r="C78" s="2" t="s">
         <v>194</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>229</v>
       </c>
       <c r="F78" s="2">
         <v>103</v>
       </c>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="19"/>
+      <c r="B79" s="18"/>
       <c r="C79" s="2" t="s">
         <v>180</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E79" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B80" s="19"/>
+      <c r="B80" s="18"/>
       <c r="C80" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E80" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B81" s="19"/>
+      <c r="B81" s="18"/>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="F81" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="G81" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F81" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="1"/>
-      <c r="B82" s="19"/>
+      <c r="B82" s="18"/>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E82" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="F82" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G82" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F82" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B83" s="19"/>
+      <c r="B83" s="18"/>
       <c r="C83" s="2" t="s">
         <v>170</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E83" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>243</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="84" ht="17" spans="1:7">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="1"/>
-      <c r="B84" s="19"/>
+      <c r="B84" s="18"/>
       <c r="C84" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E84" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="F84" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="F84" s="32" t="s">
+      <c r="G84" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G84" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B85" s="19"/>
+      <c r="B85" s="18"/>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E85" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="F85" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="F85" s="31" t="s">
+      <c r="G85" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="G85" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="1"/>
-      <c r="B86" s="19"/>
+      <c r="B86" s="18"/>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>254</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="4"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" s="1"/>
-      <c r="B87" s="19"/>
+      <c r="B87" s="18"/>
       <c r="C87" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E87" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>256</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="4"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="1"/>
-      <c r="B88" s="19"/>
+      <c r="B88" s="18"/>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E88" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="4"/>
     </row>
-    <row r="89" ht="51" spans="1:7">
+    <row r="89" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="E89" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>261</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="4"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D90" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E90" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>263</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B91" s="19"/>
+      <c r="B91" s="18"/>
       <c r="C91" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="E91" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="F91" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="G91" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="F91" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B92" s="19"/>
+      <c r="B92" s="18"/>
       <c r="C92" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="E92" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>270</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E93" s="4" t="s">
         <v>272</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>273</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="4"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E94" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E95" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>277</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E96" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>279</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E97" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E98" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B99" s="19"/>
+      <c r="B99" s="18"/>
       <c r="C99" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="E99" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>286</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="12" t="s">
         <v>289</v>
-      </c>
-      <c r="E100" s="12" t="s">
-        <v>290</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="4"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E101" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>292</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="4"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" s="1"/>
-      <c r="B102" s="19"/>
+      <c r="B102" s="18"/>
       <c r="C102" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="E102" s="5" t="s">
         <v>294</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>295</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="4"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E103" s="12" t="s">
         <v>296</v>
-      </c>
-      <c r="E103" s="12" t="s">
-        <v>297</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="4"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E104" s="12" t="s">
         <v>298</v>
-      </c>
-      <c r="E104" s="12" t="s">
-        <v>299</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="4"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B105" s="19"/>
+      <c r="B105" s="18"/>
       <c r="C105" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="E105" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="F105" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F105" s="31" t="s">
+      <c r="G105" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="G105" s="4" t="s">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A106" s="1"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="1"/>
-      <c r="B106" s="19"/>
-      <c r="C106" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D106" s="2" t="s">
+      <c r="E106" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="E106" s="5" t="s">
+      <c r="F106" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G106" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="F106" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G106" s="4" t="s">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A107" s="1"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="1"/>
-      <c r="B107" s="26"/>
-      <c r="C107" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D107" s="2" t="s">
+      <c r="E107" s="5" t="s">
         <v>308</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>309</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A108" s="1"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="1"/>
-      <c r="B108" s="26"/>
-      <c r="C108" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D108" s="2" t="s">
+      <c r="E108" s="5" t="s">
         <v>311</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>312</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109" s="1"/>
-      <c r="B109" s="26"/>
+      <c r="B109" s="24"/>
       <c r="C109" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E109" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>314</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A110" s="1"/>
-      <c r="B110" s="26"/>
+      <c r="B110" s="24"/>
       <c r="C110" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E110" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>316</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A111" s="1"/>
-      <c r="B111" s="26"/>
+      <c r="B111" s="24"/>
       <c r="C111" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="E111" s="5" t="s">
         <v>318</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>319</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112" s="1"/>
-      <c r="B112" s="26"/>
+      <c r="B112" s="24"/>
       <c r="C112" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E112" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B120" s="19"/>
+      <c r="B120" s="18"/>
       <c r="C120" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D120" s="31" t="s">
+      <c r="D120" s="29" t="s">
         <v>8</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A121" s="1" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D121" s="31" t="s">
+      <c r="D121" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E121" s="5" t="s">
-        <v>325</v>
+      <c r="E121" s="35" t="s">
+        <v>666</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="4"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B122" s="19"/>
+        <v>323</v>
+      </c>
+      <c r="B122" s="18"/>
       <c r="C122" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="D122" s="32" t="s">
+      <c r="D122" s="30" t="s">
         <v>41</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="F122" s="31" t="s">
-        <v>327</v>
+        <v>324</v>
+      </c>
+      <c r="F122" s="29" t="s">
+        <v>325</v>
       </c>
       <c r="G122" s="4"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B123" s="19"/>
+        <v>323</v>
+      </c>
+      <c r="B123" s="18"/>
       <c r="C123" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D123" s="31" t="s">
+      <c r="D123" s="29" t="s">
         <v>47</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B124" s="19"/>
+      <c r="B124" s="18"/>
       <c r="C124" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D124" s="31" t="s">
-        <v>330</v>
+      <c r="D124" s="29" t="s">
+        <v>328</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="4"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B125" s="19"/>
+        <v>323</v>
+      </c>
+      <c r="B125" s="18"/>
       <c r="C125" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D125" s="31" t="s">
-        <v>332</v>
+      <c r="D125" s="29" t="s">
+        <v>330</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
         <v>11</v>
       </c>
@@ -5601,162 +5065,162 @@
       <c r="C126" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D126" s="31" t="s">
-        <v>335</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>336</v>
+      <c r="D126" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="E126" s="35" t="s">
+        <v>665</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="4"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B127" s="19"/>
+      <c r="B127" s="18"/>
       <c r="C127" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D127" s="31" t="s">
-        <v>337</v>
+      <c r="D127" s="29" t="s">
+        <v>334</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B128" s="19"/>
+      <c r="B128" s="18"/>
       <c r="C128" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D128" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="D128" s="29" t="s">
         <v>54</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="4"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B129" s="19"/>
+      <c r="B129" s="18"/>
       <c r="C129" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D129" s="31" t="s">
+      <c r="D129" s="29" t="s">
         <v>60</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B130" s="19"/>
+      <c r="B130" s="18"/>
       <c r="C130" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D130" s="31" t="s">
+      <c r="D130" s="29" t="s">
         <v>62</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B131" s="19"/>
-      <c r="C131" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D131" s="31" t="s">
+      <c r="B131" s="18"/>
+      <c r="C131" s="38" t="s">
+        <v>661</v>
+      </c>
+      <c r="D131" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="E131" s="5" t="s">
-        <v>346</v>
+      <c r="E131" s="35" t="s">
+        <v>664</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D132" s="31" t="s">
-        <v>348</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>349</v>
+      <c r="D132" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="E132" s="35" t="s">
+        <v>650</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="4"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B133" s="19"/>
+      <c r="B133" s="18"/>
       <c r="C133" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D133" s="31" t="s">
-        <v>350</v>
+      <c r="D133" s="29" t="s">
+        <v>345</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="4"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B134" s="19"/>
+        <v>347</v>
+      </c>
+      <c r="B134" s="18"/>
       <c r="C134" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D134" s="31" t="s">
-        <v>353</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>354</v>
+      <c r="D134" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="E134" s="35" t="s">
+        <v>649</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
         <v>11</v>
       </c>
@@ -5764,147 +5228,149 @@
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D135" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>357</v>
+      <c r="D135" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="E135" s="35" t="s">
+        <v>648</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="4"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B136" s="19"/>
+        <v>351</v>
+      </c>
+      <c r="B136" s="18"/>
       <c r="C136" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D136" s="31" t="s">
+      <c r="D136" s="29" t="s">
         <v>73</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="4"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B137" s="19"/>
+      <c r="B137" s="18"/>
       <c r="C137" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D137" s="31" t="s">
+      <c r="D137" s="29" t="s">
         <v>76</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="138" ht="17" spans="1:7">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A138" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B138" s="19"/>
+        <v>355</v>
+      </c>
+      <c r="B138" s="18"/>
       <c r="C138" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D138" s="31" t="s">
+      <c r="D138" s="29" t="s">
         <v>91</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B139" s="19"/>
+      <c r="B139" s="18"/>
       <c r="C139" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D139" s="31" t="s">
+      <c r="D139" s="29" t="s">
         <v>97</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="4" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B140" s="1"/>
+        <v>646</v>
+      </c>
+      <c r="B140" s="18"/>
       <c r="C140" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D140" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>368</v>
+      <c r="D140" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E140" s="35" t="s">
+        <v>643</v>
       </c>
       <c r="F140" s="2"/>
-      <c r="G140" s="4"/>
-    </row>
-    <row r="141" ht="17" spans="1:7">
+      <c r="G140" s="4" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B141" s="19"/>
+      <c r="B141" s="18"/>
       <c r="C141" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D141" s="31" t="s">
+      <c r="D141" s="29" t="s">
         <v>100</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F141" s="2"/>
       <c r="G141" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="142" ht="17" spans="1:7">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B142" s="19"/>
+      <c r="B142" s="18"/>
       <c r="C142" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D142" s="31" t="s">
+      <c r="D142" s="29" t="s">
         <v>103</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="F142" s="31" t="s">
-        <v>372</v>
+        <v>363</v>
+      </c>
+      <c r="F142" s="29" t="s">
+        <v>364</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
         <v>16</v>
       </c>
@@ -5912,69 +5378,71 @@
       <c r="C143" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D143" s="31" t="s">
+      <c r="D143" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="E143" s="12" t="s">
-        <v>374</v>
+      <c r="E143" s="35" t="s">
+        <v>651</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="4"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B144" s="1"/>
+      <c r="B144" s="18"/>
       <c r="C144" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D144" s="31" t="s">
+      <c r="D144" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="E144" s="5" t="s">
-        <v>375</v>
+      <c r="E144" s="36" t="s">
+        <v>652</v>
       </c>
       <c r="F144" s="2"/>
-      <c r="G144" s="4"/>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="G144" s="35" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B145" s="1"/>
-      <c r="C145" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D145" s="31" t="s">
+      <c r="C145" s="38" t="s">
+        <v>662</v>
+      </c>
+      <c r="D145" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="E145" s="12" t="s">
-        <v>376</v>
+      <c r="E145" s="35" t="s">
+        <v>663</v>
       </c>
       <c r="F145" s="2"/>
       <c r="G145" s="4"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B146" s="19"/>
+      <c r="B146" s="18"/>
       <c r="C146" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D146" s="31" t="s">
-        <v>377</v>
+      <c r="D146" s="29" t="s">
+        <v>366</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="F146" s="2"/>
       <c r="G146" s="4" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="147" ht="135" spans="1:7">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="108" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
         <v>16</v>
       </c>
@@ -5982,185 +5450,185 @@
       <c r="C147" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D147" s="31" t="s">
+      <c r="D147" s="29" t="s">
         <v>120</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="F147" s="2"/>
       <c r="G147" s="4"/>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B148" s="1"/>
-      <c r="C148" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D148" s="31" t="s">
-        <v>372</v>
+      <c r="C148" s="38" t="s">
+        <v>660</v>
+      </c>
+      <c r="D148" s="29" t="s">
+        <v>364</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>381</v>
+        <v>644</v>
       </c>
       <c r="F148" s="2"/>
       <c r="G148" s="4"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B149" s="1"/>
-      <c r="C149" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D149" s="31" t="s">
+      <c r="C149" s="38" t="s">
+        <v>661</v>
+      </c>
+      <c r="D149" s="29" t="s">
         <v>127</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>382</v>
+        <v>645</v>
       </c>
       <c r="F149" s="2"/>
       <c r="G149" s="4"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B150" s="19"/>
+      <c r="B150" s="18"/>
       <c r="C150" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D150" s="31" t="s">
+      <c r="D150" s="29" t="s">
         <v>129</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="F150" s="2"/>
       <c r="G150" s="5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="151" ht="135" spans="1:7">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="108" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B151" s="19"/>
+      <c r="B151" s="18"/>
       <c r="C151" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="D151" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="D151" s="29" t="s">
         <v>132</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="F151" s="2"/>
       <c r="G151" s="13" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B152" s="19"/>
+      <c r="B152" s="18"/>
       <c r="C152" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="D152" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="D152" s="29" t="s">
         <v>135</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B153" s="19"/>
+      <c r="B153" s="18"/>
       <c r="C153" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D153" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="D153" s="29" t="s">
         <v>138</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="4" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B154" s="19"/>
+      <c r="B154" s="18"/>
       <c r="C154" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D154" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="D154" s="29" t="s">
         <v>141</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="F154" s="2"/>
       <c r="G154" s="4" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B155" s="19"/>
+      <c r="B155" s="18"/>
       <c r="C155" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D155" s="31" t="s">
+      <c r="D155" s="29" t="s">
         <v>148</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="F155" s="2">
         <v>109</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B156" s="19"/>
+      <c r="B156" s="18"/>
       <c r="C156" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D156" s="31" t="s">
-        <v>396</v>
+      <c r="D156" s="29" t="s">
+        <v>383</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="F156" s="2"/>
       <c r="G156" s="4" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
         <v>20</v>
       </c>
@@ -6168,35 +5636,35 @@
       <c r="C157" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D157" s="31" t="s">
-        <v>251</v>
+      <c r="D157" s="29" t="s">
+        <v>250</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F157" s="2">
         <v>124</v>
       </c>
       <c r="G157" s="4"/>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D158" s="31" t="s">
-        <v>400</v>
+      <c r="D158" s="29" t="s">
+        <v>387</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="F158" s="2"/>
       <c r="G158" s="4"/>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
         <v>26</v>
       </c>
@@ -6204,251 +5672,253 @@
       <c r="C159" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D159" s="31" t="s">
-        <v>402</v>
+      <c r="D159" s="29" t="s">
+        <v>389</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F159" s="2"/>
       <c r="G159" s="4"/>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B160" s="19"/>
+        <v>323</v>
+      </c>
+      <c r="B160" s="18"/>
       <c r="C160" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D160" s="31" t="s">
+      <c r="D160" s="29" t="s">
         <v>159</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="F160" s="2"/>
       <c r="G160" s="4"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B161" s="19"/>
+        <v>323</v>
+      </c>
+      <c r="B161" s="18"/>
       <c r="C161" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D161" s="31" t="s">
-        <v>405</v>
+      <c r="D161" s="29" t="s">
+        <v>392</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" s="4"/>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B162" s="19"/>
+        <v>394</v>
+      </c>
+      <c r="B162" s="18"/>
       <c r="C162" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D162" s="31" t="s">
+      <c r="D162" s="29" t="s">
         <v>162</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="F162" s="2"/>
       <c r="G162" s="4" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D163" s="31" t="s">
-        <v>410</v>
+      <c r="D163" s="29" t="s">
+        <v>397</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="4"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D164" s="31" t="s">
-        <v>412</v>
+      <c r="D164" s="29" t="s">
+        <v>399</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="F164" s="2"/>
       <c r="G164" s="4"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B165" s="19"/>
+      <c r="B165" s="18"/>
       <c r="C165" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D165" s="31" t="s">
-        <v>414</v>
+      <c r="D165" s="29" t="s">
+        <v>401</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="4"/>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B166" s="19"/>
+      <c r="B166" s="18"/>
       <c r="C166" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D166" s="31" t="s">
+      <c r="D166" s="29" t="s">
         <v>166</v>
       </c>
       <c r="E166" s="12" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" s="4"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B167" s="19"/>
+        <v>351</v>
+      </c>
+      <c r="B167" s="18"/>
       <c r="C167" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="D167" s="31" t="s">
-        <v>417</v>
+        <v>374</v>
+      </c>
+      <c r="D167" s="29" t="s">
+        <v>404</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="F167" s="2"/>
       <c r="G167" s="5" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B168" s="1"/>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A168" s="37" t="s">
+        <v>646</v>
+      </c>
+      <c r="B168" s="18"/>
       <c r="C168" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D168" s="31" t="s">
+      <c r="D168" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="E168" s="4" t="s">
-        <v>420</v>
+      <c r="E168" s="35" t="s">
+        <v>654</v>
       </c>
       <c r="F168" s="2"/>
-      <c r="G168" s="4"/>
-    </row>
-    <row r="169" spans="1:7">
+      <c r="G168" s="35" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B169" s="19"/>
+      <c r="B169" s="18"/>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D169" s="31" t="s">
+      <c r="D169" s="29" t="s">
         <v>177</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" s="4" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A170" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="B170" s="19"/>
+        <v>351</v>
+      </c>
+      <c r="B170" s="18"/>
       <c r="C170" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D170" s="31" t="s">
-        <v>423</v>
+      <c r="D170" s="29" t="s">
+        <v>409</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="F170" s="2"/>
       <c r="G170" s="5" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="171" ht="17" spans="1:7">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B171" s="19"/>
+      <c r="B171" s="18"/>
       <c r="C171" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D171" s="31" t="s">
-        <v>426</v>
+      <c r="D171" s="29" t="s">
+        <v>412</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="F171" s="32" t="s">
-        <v>428</v>
+        <v>413</v>
+      </c>
+      <c r="F171" s="30" t="s">
+        <v>414</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B172" s="19"/>
+      <c r="B172" s="18"/>
       <c r="C172" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D172" s="31" t="s">
+      <c r="D172" s="29" t="s">
         <v>184</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="F172" s="2"/>
       <c r="G172" s="4" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
         <v>11</v>
       </c>
@@ -6456,33 +5926,33 @@
       <c r="C173" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D173" s="31" t="s">
-        <v>432</v>
-      </c>
-      <c r="E173" s="4" t="s">
-        <v>433</v>
+      <c r="D173" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="E173" s="35" t="s">
+        <v>656</v>
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="4"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B174" s="19"/>
+      <c r="B174" s="18"/>
       <c r="C174" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D174" s="31" t="s">
-        <v>434</v>
+      <c r="D174" s="29" t="s">
+        <v>419</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="F174" s="2"/>
       <c r="G174" s="4"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
         <v>11</v>
       </c>
@@ -6490,16 +5960,16 @@
       <c r="C175" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D175" s="31" t="s">
+      <c r="D175" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="E175" s="4" t="s">
-        <v>436</v>
+      <c r="E175" s="35" t="s">
+        <v>657</v>
       </c>
       <c r="F175" s="2"/>
       <c r="G175" s="4"/>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
         <v>11</v>
       </c>
@@ -6507,56 +5977,56 @@
       <c r="C176" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D176" s="31" t="s">
-        <v>437</v>
-      </c>
-      <c r="E176" s="4" t="s">
-        <v>438</v>
+      <c r="D176" s="29" t="s">
+        <v>421</v>
+      </c>
+      <c r="E176" s="35" t="s">
+        <v>658</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" s="4"/>
     </row>
-    <row r="177" ht="17" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B177" s="19"/>
+      <c r="B177" s="18"/>
       <c r="C177" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D177" s="31" t="s">
-        <v>439</v>
+      <c r="D177" s="29" t="s">
+        <v>422</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="F177" s="2">
         <v>123</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B178" s="19"/>
+      <c r="B178" s="18"/>
       <c r="C178" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D178" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="D178" s="29" t="s">
         <v>200</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="F178" s="2"/>
       <c r="G178" s="4" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
         <v>11</v>
       </c>
@@ -6564,107 +6034,107 @@
       <c r="C179" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D179" s="31" t="s">
+      <c r="D179" s="29" t="s">
         <v>202</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="F179" s="2"/>
       <c r="G179" s="4"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D180" s="31" t="s">
-        <v>206</v>
+      <c r="D180" s="29" t="s">
+        <v>205</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="F180" s="2"/>
       <c r="G180" s="4"/>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B181" s="19"/>
+        <v>323</v>
+      </c>
+      <c r="B181" s="18"/>
       <c r="C181" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D181" s="31" t="s">
-        <v>208</v>
+      <c r="D181" s="29" t="s">
+        <v>207</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="F181" s="2"/>
       <c r="G181" s="4" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B182" s="19"/>
+      <c r="B182" s="18"/>
       <c r="C182" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D182" s="31" t="s">
-        <v>212</v>
+        <v>287</v>
+      </c>
+      <c r="D182" s="29" t="s">
+        <v>211</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="F182" s="2"/>
       <c r="G182" s="4"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B183" s="19"/>
+      <c r="B183" s="18"/>
       <c r="C183" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D183" s="31" t="s">
-        <v>449</v>
+        <v>287</v>
+      </c>
+      <c r="D183" s="29" t="s">
+        <v>432</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="F183" s="2"/>
       <c r="G183" s="4" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="184" ht="17" spans="1:7">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B184" s="19"/>
+      <c r="B184" s="18"/>
       <c r="C184" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D184" s="31" t="s">
-        <v>220</v>
+      <c r="D184" s="29" t="s">
+        <v>219</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="5" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
         <v>11</v>
       </c>
@@ -6672,65 +6142,65 @@
       <c r="C185" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D185" s="31" t="s">
-        <v>454</v>
-      </c>
-      <c r="E185" s="4" t="s">
-        <v>455</v>
+      <c r="D185" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="E185" s="35" t="s">
+        <v>659</v>
       </c>
       <c r="F185" s="2"/>
       <c r="G185" s="4"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B190" s="19"/>
+      <c r="B190" s="18"/>
       <c r="C190" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="4" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="4" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="191" ht="17" spans="1:7">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A191" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B191" s="19"/>
+      <c r="B191" s="18"/>
       <c r="C191" s="14" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="5" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="F191" s="2"/>
       <c r="G191" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A192" s="1"/>
-      <c r="B192" s="19"/>
+      <c r="B192" s="18"/>
       <c r="C192" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" s="4" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="F192" s="2"/>
       <c r="G192" s="4" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="2" t="s">
@@ -6738,12 +6208,12 @@
       </c>
       <c r="D193" s="2"/>
       <c r="E193" s="4" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="F193" s="2"/>
       <c r="G193" s="4"/>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="2"/>
@@ -6752,7 +6222,7 @@
       <c r="F194" s="2"/>
       <c r="G194" s="4"/>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="14" t="s">
@@ -6760,14 +6230,14 @@
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="12" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="2" t="s">
@@ -6775,14 +6245,14 @@
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="4" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="F196" s="2"/>
       <c r="G196" s="4" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="2" t="s">
@@ -6790,185 +6260,183 @@
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="4" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="F197" s="2"/>
       <c r="G197" s="4" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="198" ht="135" spans="1:7">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="108" x14ac:dyDescent="0.15">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
-      <c r="C198" s="27"/>
-      <c r="D198" s="27"/>
-      <c r="E198" s="28" t="s">
-        <v>469</v>
-      </c>
-      <c r="F198" s="27"/>
-      <c r="G198" s="29" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="199" ht="336" spans="1:7">
+      <c r="C198" s="25"/>
+      <c r="D198" s="25"/>
+      <c r="E198" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="F198" s="25"/>
+      <c r="G198" s="27" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="270" x14ac:dyDescent="0.15">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
-      <c r="E199" s="30" t="s">
-        <v>471</v>
+      <c r="E199" s="28" t="s">
+        <v>453</v>
       </c>
       <c r="F199" s="2"/>
-      <c r="G199" s="29" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
+      <c r="G199" s="27" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="4" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="F200" s="2"/>
-      <c r="G200" s="29" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
+      <c r="G200" s="27" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="4" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="F201" s="2"/>
-      <c r="G201" s="29" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
+      <c r="G201" s="27" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="4" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F202" s="2"/>
-      <c r="G202" s="29" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="203" ht="101" spans="1:7">
+      <c r="G202" s="27" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="2" t="s">
         <v>165</v>
       </c>
       <c r="D203" s="2"/>
-      <c r="E203" s="30" t="s">
-        <v>475</v>
+      <c r="E203" s="28" t="s">
+        <v>457</v>
       </c>
       <c r="F203" s="2"/>
-      <c r="G203" s="29" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="204" ht="135" spans="1:7">
+      <c r="G203" s="27" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="108" x14ac:dyDescent="0.15">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
-      <c r="E204" s="30" t="s">
-        <v>476</v>
+      <c r="E204" s="28" t="s">
+        <v>458</v>
       </c>
       <c r="F204" s="2"/>
-      <c r="G204" s="29" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
+      <c r="G204" s="27" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="4" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="F205" s="2"/>
-      <c r="G205" s="29" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
+      <c r="G205" s="27" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="4" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="F206" s="2"/>
-      <c r="G206" s="29" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
+      <c r="G206" s="27" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="4" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="F207" s="2"/>
-      <c r="G207" s="29" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7">
+      <c r="G207" s="27" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="4" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="F208" s="2"/>
-      <c r="G208" s="29" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="209" spans="5:7">
+      <c r="G208" s="27" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="209" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E209" t="s">
-        <v>481</v>
-      </c>
-      <c r="G209" s="29" t="s">
-        <v>470</v>
+        <v>463</v>
+      </c>
+      <c r="G209" s="27" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="4" max="4" width="78.125" customWidth="1"/>
@@ -6976,7 +6444,7 @@
     <col min="6" max="6" width="78.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6996,89 +6464,89 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>330</v>
+      <c r="C2" s="29" t="s">
+        <v>328</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>332</v>
+      <c r="C3" s="29" t="s">
+        <v>330</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>486</v>
+      <c r="C4" s="29" t="s">
+        <v>468</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>335</v>
+      <c r="C5" s="29" t="s">
+        <v>333</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>51</v>
@@ -7087,34 +6555,34 @@
         <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>51</v>
@@ -7123,304 +6591,304 @@
         <v>197</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>356</v>
+      <c r="C12" s="29" t="s">
+        <v>350</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="E12" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="E